--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="113">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -298,6 +298,18 @@
     <t>['73', '90+3']</t>
   </si>
   <si>
+    <t>['68', '79', '90']</t>
+  </si>
+  <si>
+    <t>['2', '26', '56']</t>
+  </si>
+  <si>
+    <t>['13']</t>
+  </si>
+  <si>
+    <t>['84']</t>
+  </si>
+  <si>
     <t>['85']</t>
   </si>
   <si>
@@ -328,10 +340,19 @@
     <t>['31']</t>
   </si>
   <si>
-    <t>['13']</t>
-  </si>
-  <si>
     <t>['90']</t>
+  </si>
+  <si>
+    <t>['25']</t>
+  </si>
+  <si>
+    <t>['65']</t>
+  </si>
+  <si>
+    <t>['2', '6', '47', '53']</t>
+  </si>
+  <si>
+    <t>['45']</t>
   </si>
 </sst>
 </file>
@@ -693,7 +714,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK21"/>
+  <dimension ref="A1:BK27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -937,7 +958,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1128,7 +1149,7 @@
         <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1215,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT3">
         <v>1</v>
@@ -1319,7 +1340,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="Q4">
         <v>9</v>
@@ -1409,7 +1430,7 @@
         <v>1.5</v>
       </c>
       <c r="AT4">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1510,7 +1531,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Q5">
         <v>9</v>
@@ -1701,7 +1722,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -1982,7 +2003,7 @@
         <v>3</v>
       </c>
       <c r="AT7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2083,7 +2104,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2274,7 +2295,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2361,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT9">
         <v>3</v>
@@ -2552,10 +2573,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2847,7 +2868,7 @@
         <v>83</v>
       </c>
       <c r="P12" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -2937,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="AT12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3229,7 +3250,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3802,7 +3823,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -3993,7 +4014,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4375,7 +4396,7 @@
         <v>83</v>
       </c>
       <c r="P20" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -4708,6 +4729,1152 @@
       </c>
       <c r="BK21">
         <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:63">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>4407645</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="2">
+        <v>44865.5</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" t="s">
+        <v>81</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>3</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>4</v>
+      </c>
+      <c r="O22" t="s">
+        <v>94</v>
+      </c>
+      <c r="P22" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q22">
+        <v>7</v>
+      </c>
+      <c r="R22">
+        <v>5</v>
+      </c>
+      <c r="S22">
+        <v>12</v>
+      </c>
+      <c r="T22">
+        <v>3.3</v>
+      </c>
+      <c r="U22">
+        <v>1.85</v>
+      </c>
+      <c r="V22">
+        <v>3.6</v>
+      </c>
+      <c r="W22">
+        <v>1.52</v>
+      </c>
+      <c r="X22">
+        <v>2.4</v>
+      </c>
+      <c r="Y22">
+        <v>3.35</v>
+      </c>
+      <c r="Z22">
+        <v>1.29</v>
+      </c>
+      <c r="AA22">
+        <v>9.75</v>
+      </c>
+      <c r="AB22">
+        <v>1.05</v>
+      </c>
+      <c r="AC22">
+        <v>2.35</v>
+      </c>
+      <c r="AD22">
+        <v>2.7</v>
+      </c>
+      <c r="AE22">
+        <v>3.3</v>
+      </c>
+      <c r="AF22">
+        <v>1.07</v>
+      </c>
+      <c r="AG22">
+        <v>6.15</v>
+      </c>
+      <c r="AH22">
+        <v>1.5</v>
+      </c>
+      <c r="AI22">
+        <v>2.5</v>
+      </c>
+      <c r="AJ22">
+        <v>2.38</v>
+      </c>
+      <c r="AK22">
+        <v>1.52</v>
+      </c>
+      <c r="AL22">
+        <v>2</v>
+      </c>
+      <c r="AM22">
+        <v>1.75</v>
+      </c>
+      <c r="AN22">
+        <v>1.33</v>
+      </c>
+      <c r="AO22">
+        <v>1.35</v>
+      </c>
+      <c r="AP22">
+        <v>1.4</v>
+      </c>
+      <c r="AQ22">
+        <v>3</v>
+      </c>
+      <c r="AR22">
+        <v>1</v>
+      </c>
+      <c r="AS22">
+        <v>3</v>
+      </c>
+      <c r="AT22">
+        <v>0.5</v>
+      </c>
+      <c r="AU22">
+        <v>1.15</v>
+      </c>
+      <c r="AV22">
+        <v>1.34</v>
+      </c>
+      <c r="AW22">
+        <v>2.49</v>
+      </c>
+      <c r="AX22">
+        <v>1.75</v>
+      </c>
+      <c r="AY22">
+        <v>7.1</v>
+      </c>
+      <c r="AZ22">
+        <v>2.58</v>
+      </c>
+      <c r="BA22">
+        <v>1.47</v>
+      </c>
+      <c r="BB22">
+        <v>1.68</v>
+      </c>
+      <c r="BC22">
+        <v>2.09</v>
+      </c>
+      <c r="BD22">
+        <v>2.6</v>
+      </c>
+      <c r="BE22">
+        <v>3.5</v>
+      </c>
+      <c r="BF22">
+        <v>9</v>
+      </c>
+      <c r="BG22">
+        <v>4</v>
+      </c>
+      <c r="BH22">
+        <v>17</v>
+      </c>
+      <c r="BI22">
+        <v>2</v>
+      </c>
+      <c r="BJ22">
+        <v>26</v>
+      </c>
+      <c r="BK22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:63">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>4407643</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="2">
+        <v>44865.58333333334</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" t="s">
+        <v>82</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23" t="s">
+        <v>83</v>
+      </c>
+      <c r="P23" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q23">
+        <v>5</v>
+      </c>
+      <c r="R23">
+        <v>5</v>
+      </c>
+      <c r="S23">
+        <v>10</v>
+      </c>
+      <c r="T23">
+        <v>2.85</v>
+      </c>
+      <c r="U23">
+        <v>1.85</v>
+      </c>
+      <c r="V23">
+        <v>4.33</v>
+      </c>
+      <c r="W23">
+        <v>1.58</v>
+      </c>
+      <c r="X23">
+        <v>2.26</v>
+      </c>
+      <c r="Y23">
+        <v>3.64</v>
+      </c>
+      <c r="Z23">
+        <v>1.24</v>
+      </c>
+      <c r="AA23">
+        <v>9.1</v>
+      </c>
+      <c r="AB23">
+        <v>1.04</v>
+      </c>
+      <c r="AC23">
+        <v>2.15</v>
+      </c>
+      <c r="AD23">
+        <v>2.65</v>
+      </c>
+      <c r="AE23">
+        <v>3.88</v>
+      </c>
+      <c r="AF23">
+        <v>1.11</v>
+      </c>
+      <c r="AG23">
+        <v>6</v>
+      </c>
+      <c r="AH23">
+        <v>1.57</v>
+      </c>
+      <c r="AI23">
+        <v>2.3</v>
+      </c>
+      <c r="AJ23">
+        <v>2.69</v>
+      </c>
+      <c r="AK23">
+        <v>1.41</v>
+      </c>
+      <c r="AL23">
+        <v>2.1</v>
+      </c>
+      <c r="AM23">
+        <v>1.68</v>
+      </c>
+      <c r="AN23">
+        <v>1.2</v>
+      </c>
+      <c r="AO23">
+        <v>1.33</v>
+      </c>
+      <c r="AP23">
+        <v>1.6</v>
+      </c>
+      <c r="AQ23">
+        <v>1</v>
+      </c>
+      <c r="AR23">
+        <v>1</v>
+      </c>
+      <c r="AS23">
+        <v>1</v>
+      </c>
+      <c r="AT23">
+        <v>1</v>
+      </c>
+      <c r="AU23">
+        <v>1.7</v>
+      </c>
+      <c r="AV23">
+        <v>1.36</v>
+      </c>
+      <c r="AW23">
+        <v>3.06</v>
+      </c>
+      <c r="AX23">
+        <v>1.62</v>
+      </c>
+      <c r="AY23">
+        <v>6.5</v>
+      </c>
+      <c r="AZ23">
+        <v>3.03</v>
+      </c>
+      <c r="BA23">
+        <v>1.53</v>
+      </c>
+      <c r="BB23">
+        <v>1.91</v>
+      </c>
+      <c r="BC23">
+        <v>2.41</v>
+      </c>
+      <c r="BD23">
+        <v>3.2</v>
+      </c>
+      <c r="BE23">
+        <v>0</v>
+      </c>
+      <c r="BF23">
+        <v>4</v>
+      </c>
+      <c r="BG23">
+        <v>2</v>
+      </c>
+      <c r="BH23">
+        <v>9</v>
+      </c>
+      <c r="BI23">
+        <v>4</v>
+      </c>
+      <c r="BJ23">
+        <v>13</v>
+      </c>
+      <c r="BK23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:63">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>4407647</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="2">
+        <v>44866.5</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24" t="s">
+        <v>83</v>
+      </c>
+      <c r="P24" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q24">
+        <v>2</v>
+      </c>
+      <c r="R24">
+        <v>3</v>
+      </c>
+      <c r="S24">
+        <v>5</v>
+      </c>
+      <c r="T24">
+        <v>3.25</v>
+      </c>
+      <c r="U24">
+        <v>2</v>
+      </c>
+      <c r="V24">
+        <v>3.25</v>
+      </c>
+      <c r="W24">
+        <v>1.45</v>
+      </c>
+      <c r="X24">
+        <v>2.47</v>
+      </c>
+      <c r="Y24">
+        <v>3.2</v>
+      </c>
+      <c r="Z24">
+        <v>1.31</v>
+      </c>
+      <c r="AA24">
+        <v>8.75</v>
+      </c>
+      <c r="AB24">
+        <v>1.07</v>
+      </c>
+      <c r="AC24">
+        <v>2.75</v>
+      </c>
+      <c r="AD24">
+        <v>2.9</v>
+      </c>
+      <c r="AE24">
+        <v>2.5</v>
+      </c>
+      <c r="AF24">
+        <v>1.07</v>
+      </c>
+      <c r="AG24">
+        <v>7</v>
+      </c>
+      <c r="AH24">
+        <v>1.38</v>
+      </c>
+      <c r="AI24">
+        <v>2.8</v>
+      </c>
+      <c r="AJ24">
+        <v>2.1</v>
+      </c>
+      <c r="AK24">
+        <v>1.69</v>
+      </c>
+      <c r="AL24">
+        <v>1.9</v>
+      </c>
+      <c r="AM24">
+        <v>1.83</v>
+      </c>
+      <c r="AN24">
+        <v>1.35</v>
+      </c>
+      <c r="AO24">
+        <v>1.3</v>
+      </c>
+      <c r="AP24">
+        <v>1.44</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>0.5</v>
+      </c>
+      <c r="AT24">
+        <v>0.5</v>
+      </c>
+      <c r="AU24">
+        <v>0.68</v>
+      </c>
+      <c r="AV24">
+        <v>1.44</v>
+      </c>
+      <c r="AW24">
+        <v>2.12</v>
+      </c>
+      <c r="AX24">
+        <v>1.85</v>
+      </c>
+      <c r="AY24">
+        <v>7.3</v>
+      </c>
+      <c r="AZ24">
+        <v>2.34</v>
+      </c>
+      <c r="BA24">
+        <v>1.3</v>
+      </c>
+      <c r="BB24">
+        <v>1.57</v>
+      </c>
+      <c r="BC24">
+        <v>2</v>
+      </c>
+      <c r="BD24">
+        <v>2.7</v>
+      </c>
+      <c r="BE24">
+        <v>3.75</v>
+      </c>
+      <c r="BF24">
+        <v>4</v>
+      </c>
+      <c r="BG24">
+        <v>2</v>
+      </c>
+      <c r="BH24">
+        <v>1</v>
+      </c>
+      <c r="BI24">
+        <v>7</v>
+      </c>
+      <c r="BJ24">
+        <v>5</v>
+      </c>
+      <c r="BK24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:63">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>4407644</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="2">
+        <v>44866.58333333334</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" t="s">
+        <v>75</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>3</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>4</v>
+      </c>
+      <c r="O25" t="s">
+        <v>95</v>
+      </c>
+      <c r="P25" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q25">
+        <v>5</v>
+      </c>
+      <c r="R25">
+        <v>9</v>
+      </c>
+      <c r="S25">
+        <v>14</v>
+      </c>
+      <c r="T25">
+        <v>3.4</v>
+      </c>
+      <c r="U25">
+        <v>1.83</v>
+      </c>
+      <c r="V25">
+        <v>3.6</v>
+      </c>
+      <c r="W25">
+        <v>1.49</v>
+      </c>
+      <c r="X25">
+        <v>2.36</v>
+      </c>
+      <c r="Y25">
+        <v>3.1</v>
+      </c>
+      <c r="Z25">
+        <v>1.32</v>
+      </c>
+      <c r="AA25">
+        <v>8.5</v>
+      </c>
+      <c r="AB25">
+        <v>1.07</v>
+      </c>
+      <c r="AC25">
+        <v>2.6</v>
+      </c>
+      <c r="AD25">
+        <v>2.7</v>
+      </c>
+      <c r="AE25">
+        <v>2.9</v>
+      </c>
+      <c r="AF25">
+        <v>1.09</v>
+      </c>
+      <c r="AG25">
+        <v>7.5</v>
+      </c>
+      <c r="AH25">
+        <v>1.41</v>
+      </c>
+      <c r="AI25">
+        <v>2.7</v>
+      </c>
+      <c r="AJ25">
+        <v>2.25</v>
+      </c>
+      <c r="AK25">
+        <v>1.57</v>
+      </c>
+      <c r="AL25">
+        <v>1.8</v>
+      </c>
+      <c r="AM25">
+        <v>1.95</v>
+      </c>
+      <c r="AN25">
+        <v>1.39</v>
+      </c>
+      <c r="AO25">
+        <v>1.43</v>
+      </c>
+      <c r="AP25">
+        <v>1.44</v>
+      </c>
+      <c r="AQ25">
+        <v>1</v>
+      </c>
+      <c r="AR25">
+        <v>3</v>
+      </c>
+      <c r="AS25">
+        <v>2</v>
+      </c>
+      <c r="AT25">
+        <v>1.5</v>
+      </c>
+      <c r="AU25">
+        <v>1.34</v>
+      </c>
+      <c r="AV25">
+        <v>1.7</v>
+      </c>
+      <c r="AW25">
+        <v>3.04</v>
+      </c>
+      <c r="AX25">
+        <v>1.89</v>
+      </c>
+      <c r="AY25">
+        <v>7.2</v>
+      </c>
+      <c r="AZ25">
+        <v>2.29</v>
+      </c>
+      <c r="BA25">
+        <v>1.37</v>
+      </c>
+      <c r="BB25">
+        <v>1.69</v>
+      </c>
+      <c r="BC25">
+        <v>2.17</v>
+      </c>
+      <c r="BD25">
+        <v>3.1</v>
+      </c>
+      <c r="BE25">
+        <v>0</v>
+      </c>
+      <c r="BF25">
+        <v>8</v>
+      </c>
+      <c r="BG25">
+        <v>5</v>
+      </c>
+      <c r="BH25">
+        <v>4</v>
+      </c>
+      <c r="BI25">
+        <v>7</v>
+      </c>
+      <c r="BJ25">
+        <v>12</v>
+      </c>
+      <c r="BK25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:63">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>4407646</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="2">
+        <v>44867.5</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" t="s">
+        <v>76</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4</v>
+      </c>
+      <c r="N26">
+        <v>5</v>
+      </c>
+      <c r="O26" t="s">
+        <v>96</v>
+      </c>
+      <c r="P26" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q26">
+        <v>2</v>
+      </c>
+      <c r="R26">
+        <v>9</v>
+      </c>
+      <c r="S26">
+        <v>11</v>
+      </c>
+      <c r="T26">
+        <v>5.5</v>
+      </c>
+      <c r="U26">
+        <v>2.1</v>
+      </c>
+      <c r="V26">
+        <v>2.2</v>
+      </c>
+      <c r="W26">
+        <v>1.4</v>
+      </c>
+      <c r="X26">
+        <v>2.75</v>
+      </c>
+      <c r="Y26">
+        <v>3</v>
+      </c>
+      <c r="Z26">
+        <v>1.33</v>
+      </c>
+      <c r="AA26">
+        <v>8</v>
+      </c>
+      <c r="AB26">
+        <v>1.06</v>
+      </c>
+      <c r="AC26">
+        <v>6.5</v>
+      </c>
+      <c r="AD26">
+        <v>3.2</v>
+      </c>
+      <c r="AE26">
+        <v>1.57</v>
+      </c>
+      <c r="AF26">
+        <v>1.04</v>
+      </c>
+      <c r="AG26">
+        <v>8.5</v>
+      </c>
+      <c r="AH26">
+        <v>1.33</v>
+      </c>
+      <c r="AI26">
+        <v>3</v>
+      </c>
+      <c r="AJ26">
+        <v>2.15</v>
+      </c>
+      <c r="AK26">
+        <v>1.62</v>
+      </c>
+      <c r="AL26">
+        <v>2.02</v>
+      </c>
+      <c r="AM26">
+        <v>1.76</v>
+      </c>
+      <c r="AN26">
+        <v>2.25</v>
+      </c>
+      <c r="AO26">
+        <v>1.24</v>
+      </c>
+      <c r="AP26">
+        <v>1.13</v>
+      </c>
+      <c r="AQ26">
+        <v>1</v>
+      </c>
+      <c r="AR26">
+        <v>3</v>
+      </c>
+      <c r="AS26">
+        <v>0.5</v>
+      </c>
+      <c r="AT26">
+        <v>3</v>
+      </c>
+      <c r="AU26">
+        <v>1.37</v>
+      </c>
+      <c r="AV26">
+        <v>2.6</v>
+      </c>
+      <c r="AW26">
+        <v>3.97</v>
+      </c>
+      <c r="AX26">
+        <v>6.5</v>
+      </c>
+      <c r="AY26">
+        <v>10.5</v>
+      </c>
+      <c r="AZ26">
+        <v>1.18</v>
+      </c>
+      <c r="BA26">
+        <v>1.29</v>
+      </c>
+      <c r="BB26">
+        <v>1.57</v>
+      </c>
+      <c r="BC26">
+        <v>2</v>
+      </c>
+      <c r="BD26">
+        <v>2.64</v>
+      </c>
+      <c r="BE26">
+        <v>3.8</v>
+      </c>
+      <c r="BF26">
+        <v>4</v>
+      </c>
+      <c r="BG26">
+        <v>8</v>
+      </c>
+      <c r="BH26">
+        <v>2</v>
+      </c>
+      <c r="BI26">
+        <v>7</v>
+      </c>
+      <c r="BJ26">
+        <v>6</v>
+      </c>
+      <c r="BK26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:63">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>4407656</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="2">
+        <v>44867.58333333334</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" t="s">
+        <v>70</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>2</v>
+      </c>
+      <c r="O27" t="s">
+        <v>97</v>
+      </c>
+      <c r="P27" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q27">
+        <v>8</v>
+      </c>
+      <c r="R27">
+        <v>10</v>
+      </c>
+      <c r="S27">
+        <v>18</v>
+      </c>
+      <c r="T27">
+        <v>6.75</v>
+      </c>
+      <c r="U27">
+        <v>2.15</v>
+      </c>
+      <c r="V27">
+        <v>1.93</v>
+      </c>
+      <c r="W27">
+        <v>1.41</v>
+      </c>
+      <c r="X27">
+        <v>2.65</v>
+      </c>
+      <c r="Y27">
+        <v>2.95</v>
+      </c>
+      <c r="Z27">
+        <v>1.34</v>
+      </c>
+      <c r="AA27">
+        <v>8</v>
+      </c>
+      <c r="AB27">
+        <v>1.06</v>
+      </c>
+      <c r="AC27">
+        <v>4.75</v>
+      </c>
+      <c r="AD27">
+        <v>3.35</v>
+      </c>
+      <c r="AE27">
+        <v>1.7</v>
+      </c>
+      <c r="AF27">
+        <v>1.04</v>
+      </c>
+      <c r="AG27">
+        <v>9.5</v>
+      </c>
+      <c r="AH27">
+        <v>1.3</v>
+      </c>
+      <c r="AI27">
+        <v>3.2</v>
+      </c>
+      <c r="AJ27">
+        <v>2.07</v>
+      </c>
+      <c r="AK27">
+        <v>1.71</v>
+      </c>
+      <c r="AL27">
+        <v>2.25</v>
+      </c>
+      <c r="AM27">
+        <v>1.61</v>
+      </c>
+      <c r="AN27">
+        <v>2.45</v>
+      </c>
+      <c r="AO27">
+        <v>1.22</v>
+      </c>
+      <c r="AP27">
+        <v>1.11</v>
+      </c>
+      <c r="AQ27">
+        <v>1</v>
+      </c>
+      <c r="AR27">
+        <v>3</v>
+      </c>
+      <c r="AS27">
+        <v>1</v>
+      </c>
+      <c r="AT27">
+        <v>2</v>
+      </c>
+      <c r="AU27">
+        <v>0.93</v>
+      </c>
+      <c r="AV27">
+        <v>1.69</v>
+      </c>
+      <c r="AW27">
+        <v>2.62</v>
+      </c>
+      <c r="AX27">
+        <v>3.88</v>
+      </c>
+      <c r="AY27">
+        <v>7</v>
+      </c>
+      <c r="AZ27">
+        <v>1.43</v>
+      </c>
+      <c r="BA27">
+        <v>1.42</v>
+      </c>
+      <c r="BB27">
+        <v>1.76</v>
+      </c>
+      <c r="BC27">
+        <v>2.2</v>
+      </c>
+      <c r="BD27">
+        <v>2.9</v>
+      </c>
+      <c r="BE27">
+        <v>3.4</v>
+      </c>
+      <c r="BF27">
+        <v>3</v>
+      </c>
+      <c r="BG27">
+        <v>4</v>
+      </c>
+      <c r="BH27">
+        <v>4</v>
+      </c>
+      <c r="BI27">
+        <v>8</v>
+      </c>
+      <c r="BJ27">
+        <v>7</v>
+      </c>
+      <c r="BK27">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK30"/>
+  <dimension ref="A1:BK39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT2" t="n">
         <v>3</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT3" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>1.5</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="AT6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AT8" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT9" t="n">
         <v>3</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT15" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>3</v>
       </c>
       <c r="AT18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4554,10 +4554,10 @@
         <v>1</v>
       </c>
       <c r="AS20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT20" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AU20" t="n">
         <v>1.11</v>
@@ -4760,7 +4760,7 @@
         <v>1.5</v>
       </c>
       <c r="AT21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU21" t="n">
         <v>1.98</v>
@@ -4960,10 +4960,10 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU22" t="n">
         <v>1.15</v>
@@ -5163,10 +5163,10 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AT23" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AU23" t="n">
         <v>1.7</v>
@@ -5366,10 +5366,10 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU24" t="n">
         <v>0.68</v>
@@ -5569,10 +5569,10 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU25" t="n">
         <v>1.34</v>
@@ -5772,7 +5772,7 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT26" t="n">
         <v>3</v>
@@ -6639,6 +6639,1833 @@
       </c>
       <c r="BK30" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>4407659</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>44895.40625</v>
+      </c>
+      <c r="F31" t="n">
+        <v>5</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Haras El Hodood</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Pyramids FC</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="n">
+        <v>6</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X31" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ31" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>4407660</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>44895.40625</v>
+      </c>
+      <c r="F32" t="n">
+        <v>5</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>National Bank of Egypt</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>ENPPI</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3</v>
+      </c>
+      <c r="L32" t="n">
+        <v>2</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="n">
+        <v>5</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>['87', '90+8']</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>['2', '5', '26']</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>6</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2</v>
+      </c>
+      <c r="S32" t="n">
+        <v>8</v>
+      </c>
+      <c r="T32" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="V32" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X32" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH32" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ32" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK32" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>4407661</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>44895.58333333334</v>
+      </c>
+      <c r="F33" t="n">
+        <v>5</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Ghazl El Mehalla</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>['31', '40']</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2</v>
+      </c>
+      <c r="S33" t="n">
+        <v>7</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2</v>
+      </c>
+      <c r="V33" t="n">
+        <v>6</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X33" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ33" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>4407663</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>44896.40625</v>
+      </c>
+      <c r="F34" t="n">
+        <v>5</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>El Daklyeh FC</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Coca-Cola</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>2</v>
+      </c>
+      <c r="R34" t="n">
+        <v>6</v>
+      </c>
+      <c r="S34" t="n">
+        <v>8</v>
+      </c>
+      <c r="T34" t="n">
+        <v>4</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V34" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X34" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ34" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK34" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>4407662</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>44896.40625</v>
+      </c>
+      <c r="F35" t="n">
+        <v>5</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Aswan FC</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Pharco</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>9</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>14</v>
+      </c>
+      <c r="T35" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V35" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="X35" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ35" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK35" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>4407664</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>44896.58333333334</v>
+      </c>
+      <c r="F36" t="n">
+        <v>5</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Zamalek</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Al Masry</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2</v>
+      </c>
+      <c r="L36" t="n">
+        <v>2</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="n">
+        <v>4</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>['20', '56']</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>['36', '60']</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>9</v>
+      </c>
+      <c r="T36" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="V36" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X36" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ36" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK36" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>4407666</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>44897.40625</v>
+      </c>
+      <c r="F37" t="n">
+        <v>5</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Al Mokawloon</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Ceramica Cleopatra</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="n">
+        <v>2</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="n">
+        <v>3</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>['37', '84']</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>6</v>
+      </c>
+      <c r="R37" t="n">
+        <v>8</v>
+      </c>
+      <c r="S37" t="n">
+        <v>14</v>
+      </c>
+      <c r="T37" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V37" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X37" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>4407665</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>44897.40625</v>
+      </c>
+      <c r="F38" t="n">
+        <v>5</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Ismaily SC</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Smouha SC</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>8</v>
+      </c>
+      <c r="T38" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V38" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X38" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ38" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>4407667</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>44897.58333333334</v>
+      </c>
+      <c r="F39" t="n">
+        <v>5</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Al Ahly</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>El Geish</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="n">
+        <v>2</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="n">
+        <v>3</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>['53', '66']</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>7</v>
+      </c>
+      <c r="T39" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V39" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X39" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ39" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK39" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK39"/>
+  <dimension ref="A1:BK40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT4" t="n">
         <v>1</v>
@@ -3948,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT21" t="n">
         <v>1</v>
@@ -6181,7 +6181,7 @@
         <v>2</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU28" t="n">
         <v>0.8</v>
@@ -8466,6 +8466,209 @@
       </c>
       <c r="BK39" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>4407668</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>44901.40625</v>
+      </c>
+      <c r="F40" t="n">
+        <v>6</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Al Masry</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>National Bank of Egypt</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>2</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V40" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X40" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ40" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK40" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK40"/>
+  <dimension ref="A1:BK39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT4" t="n">
         <v>1</v>
@@ -3948,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AT21" t="n">
         <v>1</v>
@@ -6181,7 +6181,7 @@
         <v>2</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU28" t="n">
         <v>0.8</v>
@@ -8466,209 +8466,6 @@
       </c>
       <c r="BK39" t="n">
         <v>8</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B40" t="n">
-        <v>4407668</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Egypt Egyptian Premier League</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>2022/2023</t>
-        </is>
-      </c>
-      <c r="E40" s="2" t="n">
-        <v>44901.40625</v>
-      </c>
-      <c r="F40" t="n">
-        <v>6</v>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Al Masry</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>National Bank of Egypt</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="Q40" t="n">
-        <v>2</v>
-      </c>
-      <c r="R40" t="n">
-        <v>3</v>
-      </c>
-      <c r="S40" t="n">
-        <v>5</v>
-      </c>
-      <c r="T40" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="U40" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="V40" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="W40" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="X40" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AP40" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AQ40" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AR40" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AS40" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AT40" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AU40" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AV40" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AW40" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="AX40" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AY40" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AZ40" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="BA40" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="BB40" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="BC40" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="BD40" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="BE40" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF40" t="n">
-        <v>2</v>
-      </c>
-      <c r="BG40" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH40" t="n">
-        <v>6</v>
-      </c>
-      <c r="BI40" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ40" t="n">
-        <v>8</v>
-      </c>
-      <c r="BK40" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK39"/>
+  <dimension ref="A1:BK48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="AT2" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT4" t="n">
         <v>1</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT11" t="n">
         <v>1</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT12" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>3</v>
       </c>
       <c r="AT13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>2</v>
       </c>
       <c r="AT15" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT16" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT18" t="n">
         <v>1</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT19" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT21" t="n">
         <v>1</v>
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="AT27" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AU27" t="n">
         <v>0.93</v>
@@ -6178,10 +6178,10 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU28" t="n">
         <v>0.8</v>
@@ -6381,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU29" t="n">
         <v>1.91</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU30" t="n">
         <v>1.45</v>
@@ -8466,6 +8466,1833 @@
       </c>
       <c r="BK39" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>4407668</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>44901.40625</v>
+      </c>
+      <c r="F40" t="n">
+        <v>6</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Al Masry</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>National Bank of Egypt</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>2</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V40" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X40" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ40" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>4407669</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>44902.40625</v>
+      </c>
+      <c r="F41" t="n">
+        <v>6</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Pyramids FC</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Al Mokawloon</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="n">
+        <v>2</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>2</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>['33', '87']</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>9</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>12</v>
+      </c>
+      <c r="T41" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U41" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V41" t="n">
+        <v>7</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X41" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ41" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>4407670</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>44902.40625</v>
+      </c>
+      <c r="F42" t="n">
+        <v>6</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Pharco</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>El Daklyeh FC</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>10</v>
+      </c>
+      <c r="T42" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V42" t="n">
+        <v>5</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X42" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF42" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG42" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI42" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ42" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>4407671</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>44902.5</v>
+      </c>
+      <c r="F43" t="n">
+        <v>6</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Ghazl El Mehalla</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Al Ahly</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>2</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="n">
+        <v>2</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>['17', '30']</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>6</v>
+      </c>
+      <c r="T43" t="n">
+        <v>4</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V43" t="n">
+        <v>3</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X43" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF43" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG43" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH43" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI43" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ43" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK43" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>4407672</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>44902.58333333334</v>
+      </c>
+      <c r="F44" t="n">
+        <v>6</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>El Geish</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Zamalek</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="n">
+        <v>4</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>['44', '57', '83', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>6</v>
+      </c>
+      <c r="R44" t="n">
+        <v>8</v>
+      </c>
+      <c r="S44" t="n">
+        <v>14</v>
+      </c>
+      <c r="T44" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V44" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X44" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BF44" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ44" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>4407673</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>44903.40625</v>
+      </c>
+      <c r="F45" t="n">
+        <v>6</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>ENPPI</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Haras El Hodood</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>9</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1</v>
+      </c>
+      <c r="S45" t="n">
+        <v>10</v>
+      </c>
+      <c r="T45" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V45" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X45" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AY45" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AZ45" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BA45" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BE45" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BF45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG45" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH45" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI45" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ45" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>4407674</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>44903.40625</v>
+      </c>
+      <c r="F46" t="n">
+        <v>6</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Smouha SC</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Aswan FC</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2</v>
+      </c>
+      <c r="K46" t="n">
+        <v>3</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="n">
+        <v>3</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>['15', '38']</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>12</v>
+      </c>
+      <c r="R46" t="n">
+        <v>2</v>
+      </c>
+      <c r="S46" t="n">
+        <v>14</v>
+      </c>
+      <c r="T46" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V46" t="n">
+        <v>4</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X46" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF46" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG46" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH46" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI46" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ46" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>4407675</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>44903.5</v>
+      </c>
+      <c r="F47" t="n">
+        <v>6</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Coca-Cola</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>9</v>
+      </c>
+      <c r="S47" t="n">
+        <v>13</v>
+      </c>
+      <c r="T47" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U47" t="n">
+        <v>2</v>
+      </c>
+      <c r="V47" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X47" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG47" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH47" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ47" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK47" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>4407676</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>44903.58333333334</v>
+      </c>
+      <c r="F48" t="n">
+        <v>6</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Ceramica Cleopatra</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Ismaily SC</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="n">
+        <v>2</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>6</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>11</v>
+      </c>
+      <c r="T48" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="U48" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="V48" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X48" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BA48" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BF48" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG48" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH48" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI48" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ48" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK48" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK48"/>
+  <dimension ref="A1:BK60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>1.33</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AT5" t="n">
         <v>3</v>
@@ -1715,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="AT6" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT8" t="n">
         <v>2.33</v>
@@ -2324,7 +2324,7 @@
         <v>0.33</v>
       </c>
       <c r="AT9" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>2.33</v>
       </c>
       <c r="AT11" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="AT12" t="n">
         <v>2.33</v>
@@ -3136,7 +3136,7 @@
         <v>3</v>
       </c>
       <c r="AT13" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="AT14" t="n">
         <v>0.67</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>2.33</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT17" t="n">
         <v>0.67</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT18" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1.67</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>1.33</v>
       </c>
       <c r="AT21" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU21" t="n">
         <v>1.98</v>
@@ -4960,10 +4960,10 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU22" t="n">
         <v>1.15</v>
@@ -5163,10 +5163,10 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU23" t="n">
         <v>1.7</v>
@@ -5369,7 +5369,7 @@
         <v>0.33</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU24" t="n">
         <v>0.68</v>
@@ -5772,7 +5772,7 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AT26" t="n">
         <v>3</v>
@@ -6384,7 +6384,7 @@
         <v>2.33</v>
       </c>
       <c r="AT29" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU29" t="n">
         <v>1.91</v>
@@ -6790,7 +6790,7 @@
         <v>0.33</v>
       </c>
       <c r="AT31" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU31" t="n">
         <v>0.76</v>
@@ -6993,7 +6993,7 @@
         <v>1.33</v>
       </c>
       <c r="AT32" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU32" t="n">
         <v>1.48</v>
@@ -7193,7 +7193,7 @@
         <v>2</v>
       </c>
       <c r="AS33" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT33" t="n">
         <v>2.33</v>
@@ -7396,10 +7396,10 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AT34" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AU34" t="n">
         <v>1.19</v>
@@ -7602,7 +7602,7 @@
         <v>1</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU35" t="n">
         <v>1.4</v>
@@ -7802,10 +7802,10 @@
         <v>1</v>
       </c>
       <c r="AS36" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT36" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AU36" t="n">
         <v>1.08</v>
@@ -8005,7 +8005,7 @@
         <v>1.5</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT37" t="n">
         <v>1</v>
@@ -8208,10 +8208,10 @@
         <v>0.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU38" t="n">
         <v>0.54</v>
@@ -8414,7 +8414,7 @@
         <v>3</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU39" t="n">
         <v>1.58</v>
@@ -8820,7 +8820,7 @@
         <v>2.33</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU41" t="n">
         <v>1.38</v>
@@ -9023,7 +9023,7 @@
         <v>1.67</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU42" t="n">
         <v>1.19</v>
@@ -9223,7 +9223,7 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="AT43" t="n">
         <v>3</v>
@@ -9426,7 +9426,7 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT44" t="n">
         <v>2.33</v>
@@ -9632,7 +9632,7 @@
         <v>1</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU45" t="n">
         <v>0.95</v>
@@ -9832,10 +9832,10 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT46" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU46" t="n">
         <v>0.89</v>
@@ -10038,7 +10038,7 @@
         <v>2.33</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU47" t="n">
         <v>1.74</v>
@@ -10238,7 +10238,7 @@
         <v>0.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="AT48" t="n">
         <v>0.67</v>
@@ -10293,6 +10293,2442 @@
       </c>
       <c r="BK48" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>4407650</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>44906.40625</v>
+      </c>
+      <c r="F49" t="n">
+        <v>4</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Ghazl El Mehalla</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>El Daklyeh FC</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" t="n">
+        <v>2</v>
+      </c>
+      <c r="L49" t="n">
+        <v>2</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="n">
+        <v>3</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>['23', '82']</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>6</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>11</v>
+      </c>
+      <c r="T49" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U49" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>6</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X49" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AX49" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ49" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="BA49" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF49" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG49" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH49" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI49" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ49" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>4407652</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>44906.5</v>
+      </c>
+      <c r="F50" t="n">
+        <v>4</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Smouha SC</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Al Mokawloon</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>2</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>6</v>
+      </c>
+      <c r="T50" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="U50" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V50" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X50" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG50" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ50" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>4407651</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>44906.5</v>
+      </c>
+      <c r="F51" t="n">
+        <v>4</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>El Geish</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Al Masry</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>2</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>2</v>
+      </c>
+      <c r="L51" t="n">
+        <v>3</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="n">
+        <v>4</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>['43', '45+1', '82']</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>7</v>
+      </c>
+      <c r="T51" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="U51" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V51" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W51" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X51" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BA51" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF51" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG51" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH51" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI51" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ51" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>4407649</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>44906.58333333334</v>
+      </c>
+      <c r="F52" t="n">
+        <v>3</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Zamalek</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Pyramids FC</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>['4']</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>7</v>
+      </c>
+      <c r="S52" t="n">
+        <v>10</v>
+      </c>
+      <c r="T52" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U52" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V52" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W52" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X52" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AZ52" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BA52" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG52" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ52" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>4407653</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>44907.40625</v>
+      </c>
+      <c r="F53" t="n">
+        <v>4</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Ceramica Cleopatra</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Haras El Hodood</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>2</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>2</v>
+      </c>
+      <c r="L53" t="n">
+        <v>2</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="n">
+        <v>3</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>['16', '39']</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>7</v>
+      </c>
+      <c r="R53" t="n">
+        <v>2</v>
+      </c>
+      <c r="S53" t="n">
+        <v>9</v>
+      </c>
+      <c r="T53" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U53" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V53" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W53" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X53" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AX53" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ53" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="BA53" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BF53" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG53" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ53" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>4407648</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>44907.5</v>
+      </c>
+      <c r="F54" t="n">
+        <v>3</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Ismaily SC</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Coca-Cola</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>6</v>
+      </c>
+      <c r="R54" t="n">
+        <v>9</v>
+      </c>
+      <c r="S54" t="n">
+        <v>15</v>
+      </c>
+      <c r="T54" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="U54" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V54" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W54" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X54" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AZ54" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BA54" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF54" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ54" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>4407654</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>44907.58333333334</v>
+      </c>
+      <c r="F55" t="n">
+        <v>4</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Al Ahly</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>2</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>2</v>
+      </c>
+      <c r="L55" t="n">
+        <v>3</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>3</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>['12', '32', '90']</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>8</v>
+      </c>
+      <c r="S55" t="n">
+        <v>12</v>
+      </c>
+      <c r="T55" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U55" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="V55" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="W55" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X55" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AZ55" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BA55" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK55" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>4407677</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>44909.40625</v>
+      </c>
+      <c r="F56" t="n">
+        <v>7</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Ghazl El Mehalla</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>El Geish</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2</v>
+      </c>
+      <c r="K56" t="n">
+        <v>3</v>
+      </c>
+      <c r="L56" t="n">
+        <v>3</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="n">
+        <v>5</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>['45+1', '70', '74']</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>['11', '37']</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>6</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>10</v>
+      </c>
+      <c r="T56" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="U56" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V56" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X56" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ56" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BA56" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>4407678</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>44910.40625</v>
+      </c>
+      <c r="F57" t="n">
+        <v>7</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Ceramica Cleopatra</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Aswan FC</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="n">
+        <v>3</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="n">
+        <v>5</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>['31', '72', '90+2']</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>['74', '89']</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>8</v>
+      </c>
+      <c r="S57" t="n">
+        <v>12</v>
+      </c>
+      <c r="T57" t="n">
+        <v>4</v>
+      </c>
+      <c r="U57" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V57" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X57" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AX57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF57" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG57" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH57" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ57" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK57" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>4407679</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>44910.5</v>
+      </c>
+      <c r="F58" t="n">
+        <v>7</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>El Daklyeh FC</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Smouha SC</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>8</v>
+      </c>
+      <c r="S58" t="n">
+        <v>12</v>
+      </c>
+      <c r="T58" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U58" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V58" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W58" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X58" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AZ58" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BA58" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG58" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ58" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>4407680</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>44910.5</v>
+      </c>
+      <c r="F59" t="n">
+        <v>7</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Pharco</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>7</v>
+      </c>
+      <c r="R59" t="n">
+        <v>7</v>
+      </c>
+      <c r="S59" t="n">
+        <v>14</v>
+      </c>
+      <c r="T59" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U59" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V59" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="W59" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X59" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX59" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ59" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BA59" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BF59" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ59" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>4407681</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>44910.58333333334</v>
+      </c>
+      <c r="F60" t="n">
+        <v>7</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Al Mokawloon</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>ENPPI</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2</v>
+      </c>
+      <c r="K60" t="n">
+        <v>3</v>
+      </c>
+      <c r="L60" t="n">
+        <v>3</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="n">
+        <v>5</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>['23', '57', '62']</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>['15', '18']</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>8</v>
+      </c>
+      <c r="T60" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="U60" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V60" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="W60" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X60" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX60" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ60" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="BA60" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ60" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK60"/>
+  <dimension ref="A1:BK73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="AT2" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT3" t="n">
         <v>0.5</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT4" t="n">
         <v>1</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AT5" t="n">
         <v>3</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT7" t="n">
         <v>1.25</v>
@@ -2121,7 +2121,7 @@
         <v>2</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>2.25</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>2.25</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT18" t="n">
         <v>0.75</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>1</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU20" t="n">
         <v>1.11</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT21" t="n">
         <v>0.75</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AT24" t="n">
         <v>1.25</v>
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT25" t="n">
         <v>1</v>
@@ -5975,10 +5975,10 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU27" t="n">
         <v>0.93</v>
@@ -6178,10 +6178,10 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU28" t="n">
         <v>0.8</v>
@@ -6381,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU29" t="n">
         <v>1.91</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU30" t="n">
         <v>1.45</v>
@@ -6787,10 +6787,10 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU31" t="n">
         <v>0.76</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT32" t="n">
         <v>0.75</v>
@@ -7196,7 +7196,7 @@
         <v>2.25</v>
       </c>
       <c r="AT33" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU33" t="n">
         <v>2.03</v>
@@ -7399,7 +7399,7 @@
         <v>0.5</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AU34" t="n">
         <v>1.19</v>
@@ -7802,10 +7802,10 @@
         <v>1</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AU36" t="n">
         <v>1.08</v>
@@ -8208,7 +8208,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AT38" t="n">
         <v>1.25</v>
@@ -8411,7 +8411,7 @@
         <v>0.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT39" t="n">
         <v>0.25</v>
@@ -8614,10 +8614,10 @@
         <v>0.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU40" t="n">
         <v>1.74</v>
@@ -8817,10 +8817,10 @@
         <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AU41" t="n">
         <v>1.38</v>
@@ -9020,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU42" t="n">
         <v>1.19</v>
@@ -9426,10 +9426,10 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT44" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU44" t="n">
         <v>1.02</v>
@@ -9629,10 +9629,10 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU45" t="n">
         <v>0.95</v>
@@ -9832,10 +9832,10 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU46" t="n">
         <v>0.89</v>
@@ -10035,10 +10035,10 @@
         <v>3</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT47" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU47" t="n">
         <v>1.74</v>
@@ -10238,10 +10238,10 @@
         <v>0.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU48" t="n">
         <v>1.59</v>
@@ -10444,7 +10444,7 @@
         <v>2.25</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU49" t="n">
         <v>1.38</v>
@@ -10644,10 +10644,10 @@
         <v>0.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AU50" t="n">
         <v>1.39</v>
@@ -10847,10 +10847,10 @@
         <v>1</v>
       </c>
       <c r="AS51" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AU51" t="n">
         <v>1.01</v>
@@ -11050,10 +11050,10 @@
         <v>2</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU52" t="n">
         <v>1.24</v>
@@ -11253,10 +11253,10 @@
         <v>0.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU53" t="n">
         <v>1.6</v>
@@ -11456,10 +11456,10 @@
         <v>3</v>
       </c>
       <c r="AS54" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AT54" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AU54" t="n">
         <v>0.89</v>
@@ -11659,10 +11659,10 @@
         <v>1.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT55" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU55" t="n">
         <v>1.45</v>
@@ -12065,10 +12065,10 @@
         <v>1</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU57" t="n">
         <v>1.79</v>
@@ -12729,6 +12729,2645 @@
       </c>
       <c r="BK60" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>4407682</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>44911.40625</v>
+      </c>
+      <c r="F61" t="n">
+        <v>7</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Ismaily SC</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Pyramids FC</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>2</v>
+      </c>
+      <c r="K61" t="n">
+        <v>3</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" t="n">
+        <v>3</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>['9', '13']</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>6</v>
+      </c>
+      <c r="T61" t="n">
+        <v>6</v>
+      </c>
+      <c r="U61" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V61" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="W61" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X61" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AX61" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ61" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BA61" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ61" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>4407683</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>44911.40625</v>
+      </c>
+      <c r="F62" t="n">
+        <v>7</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Haras El Hodood</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Al Masry</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>1</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>6</v>
+      </c>
+      <c r="T62" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U62" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V62" t="n">
+        <v>3</v>
+      </c>
+      <c r="W62" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X62" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AW62" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AX62" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AZ62" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BA62" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ62" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>4407684</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>44911.5</v>
+      </c>
+      <c r="F63" t="n">
+        <v>7</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>National Bank of Egypt</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Zamalek</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="n">
+        <v>1</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>['90+6']</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>6</v>
+      </c>
+      <c r="S63" t="n">
+        <v>10</v>
+      </c>
+      <c r="T63" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="U63" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V63" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W63" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X63" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AX63" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ63" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BA63" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF63" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG63" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH63" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ63" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK63" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>4407685</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>44911.58333333334</v>
+      </c>
+      <c r="F64" t="n">
+        <v>7</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Al Ahly</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Coca-Cola</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="n">
+        <v>2</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>2</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="n">
+        <v>2</v>
+      </c>
+      <c r="U64" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="V64" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X64" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX64" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AY64" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ64" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BA64" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB64" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE64" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF64" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG64" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ64" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>4407686</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>44914.40625</v>
+      </c>
+      <c r="F65" t="n">
+        <v>8</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Ceramica Cleopatra</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>El Daklyeh FC</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U65" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V65" t="n">
+        <v>5</v>
+      </c>
+      <c r="W65" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X65" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX65" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY65" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ65" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="BA65" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ65" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>4407688</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>44914.5</v>
+      </c>
+      <c r="F66" t="n">
+        <v>8</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Coca-Cola</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Ghazl El Mehalla</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>1</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>['18']</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>6</v>
+      </c>
+      <c r="S66" t="n">
+        <v>10</v>
+      </c>
+      <c r="T66" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U66" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V66" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="W66" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X66" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX66" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AZ66" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BA66" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF66" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ66" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>4407687</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>44914.5</v>
+      </c>
+      <c r="F67" t="n">
+        <v>8</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Smouha SC</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2</v>
+      </c>
+      <c r="N67" t="n">
+        <v>2</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>['79', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>7</v>
+      </c>
+      <c r="S67" t="n">
+        <v>12</v>
+      </c>
+      <c r="T67" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U67" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V67" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W67" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X67" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW67" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AX67" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AZ67" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BA67" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF67" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ67" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>4407689</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>44914.58333333334</v>
+      </c>
+      <c r="F68" t="n">
+        <v>8</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Pyramids FC</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Aswan FC</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>2</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="n">
+        <v>3</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>['52', '64']</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>10</v>
+      </c>
+      <c r="T68" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U68" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V68" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W68" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X68" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AX68" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AY68" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ68" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BA68" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ68" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>4407690</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>44915.40625</v>
+      </c>
+      <c r="F69" t="n">
+        <v>8</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>ENPPI</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Ismaily SC</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2</v>
+      </c>
+      <c r="N69" t="n">
+        <v>3</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>['90+9']</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>['16', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>8</v>
+      </c>
+      <c r="R69" t="n">
+        <v>1</v>
+      </c>
+      <c r="S69" t="n">
+        <v>9</v>
+      </c>
+      <c r="T69" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U69" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="V69" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W69" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="X69" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AX69" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ69" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BA69" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE69" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF69" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH69" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ69" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>4407691</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>44915.5</v>
+      </c>
+      <c r="F70" t="n">
+        <v>8</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>El Geish</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>National Bank of Egypt</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>2</v>
+      </c>
+      <c r="R70" t="n">
+        <v>2</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="U70" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V70" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W70" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X70" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AX70" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BA70" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ70" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>4407692</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>44915.5</v>
+      </c>
+      <c r="F71" t="n">
+        <v>8</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Pharco</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Al Ahly</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K71" t="n">
+        <v>2</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2</v>
+      </c>
+      <c r="N71" t="n">
+        <v>3</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>['30', '90+7']</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>2</v>
+      </c>
+      <c r="R71" t="n">
+        <v>13</v>
+      </c>
+      <c r="S71" t="n">
+        <v>15</v>
+      </c>
+      <c r="T71" t="n">
+        <v>7</v>
+      </c>
+      <c r="U71" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V71" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W71" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X71" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU71" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AX71" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="AY71" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ71" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BA71" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF71" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG71" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH71" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ71" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK71" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>4407693</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>44915.58333333334</v>
+      </c>
+      <c r="F72" t="n">
+        <v>8</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Zamalek</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Haras El Hodood</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="n">
+        <v>4</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>4</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>['15', '55', '78', '88']</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>6</v>
+      </c>
+      <c r="T72" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U72" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V72" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W72" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X72" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AX72" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AZ72" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BA72" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ72" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>4407694</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>44916.5</v>
+      </c>
+      <c r="F73" t="n">
+        <v>8</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Al Masry</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Al Mokawloon</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
+      <c r="K73" t="n">
+        <v>2</v>
+      </c>
+      <c r="L73" t="n">
+        <v>2</v>
+      </c>
+      <c r="M73" t="n">
+        <v>2</v>
+      </c>
+      <c r="N73" t="n">
+        <v>4</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>['42', '71']</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>['2', '49']</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>7</v>
+      </c>
+      <c r="T73" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U73" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V73" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="W73" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X73" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU73" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AX73" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY73" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ73" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="BA73" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF73" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG73" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH73" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ73" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK73"/>
+  <dimension ref="A1:BK82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT2" t="n">
         <v>1.5</v>
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>1.25</v>
       </c>
       <c r="AT4" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AT5" t="n">
         <v>3</v>
@@ -1715,7 +1715,7 @@
         <v>0.75</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>2.5</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT8" t="n">
         <v>1.75</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AT9" t="n">
         <v>2</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>2.5</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.6</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT13" t="n">
         <v>0.6</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT14" t="n">
         <v>1.25</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT15" t="n">
         <v>0.5</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT16" t="n">
         <v>0.75</v>
@@ -3948,7 +3948,7 @@
         <v>0.5</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>2.25</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="AS20" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT20" t="n">
         <v>1.75</v>
@@ -4760,7 +4760,7 @@
         <v>1.25</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU21" t="n">
         <v>1.98</v>
@@ -4960,10 +4960,10 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU22" t="n">
         <v>1.15</v>
@@ -5163,10 +5163,10 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU23" t="n">
         <v>1.7</v>
@@ -5366,10 +5366,10 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU24" t="n">
         <v>0.68</v>
@@ -5572,7 +5572,7 @@
         <v>1</v>
       </c>
       <c r="AT25" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU25" t="n">
         <v>1.34</v>
@@ -5772,7 +5772,7 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AT26" t="n">
         <v>3</v>
@@ -5978,7 +5978,7 @@
         <v>0.75</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AU27" t="n">
         <v>0.93</v>
@@ -6181,7 +6181,7 @@
         <v>2.5</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU28" t="n">
         <v>0.8</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT29" t="n">
         <v>0.6</v>
@@ -6787,10 +6787,10 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU31" t="n">
         <v>0.76</v>
@@ -6993,7 +6993,7 @@
         <v>1</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU32" t="n">
         <v>1.48</v>
@@ -7193,7 +7193,7 @@
         <v>2</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT33" t="n">
         <v>1.75</v>
@@ -7396,7 +7396,7 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AT34" t="n">
         <v>2</v>
@@ -7599,10 +7599,10 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU35" t="n">
         <v>1.4</v>
@@ -7805,7 +7805,7 @@
         <v>2.5</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AU36" t="n">
         <v>1.08</v>
@@ -8005,10 +8005,10 @@
         <v>1.5</v>
       </c>
       <c r="AS37" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT37" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU37" t="n">
         <v>1.66</v>
@@ -8208,10 +8208,10 @@
         <v>0.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU38" t="n">
         <v>0.54</v>
@@ -8411,10 +8411,10 @@
         <v>0.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU39" t="n">
         <v>1.58</v>
@@ -8617,7 +8617,7 @@
         <v>1.25</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU40" t="n">
         <v>1.74</v>
@@ -9223,7 +9223,7 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT43" t="n">
         <v>3</v>
@@ -9429,7 +9429,7 @@
         <v>2.25</v>
       </c>
       <c r="AT44" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AU44" t="n">
         <v>1.02</v>
@@ -10035,7 +10035,7 @@
         <v>3</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT47" t="n">
         <v>1.5</v>
@@ -10441,7 +10441,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT49" t="n">
         <v>0.5</v>
@@ -10850,7 +10850,7 @@
         <v>2.25</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AU51" t="n">
         <v>1.01</v>
@@ -11053,7 +11053,7 @@
         <v>2.5</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU52" t="n">
         <v>1.24</v>
@@ -11456,7 +11456,7 @@
         <v>3</v>
       </c>
       <c r="AS54" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AT54" t="n">
         <v>2</v>
@@ -11659,7 +11659,7 @@
         <v>1.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT55" t="n">
         <v>1.5</v>
@@ -11862,10 +11862,10 @@
         <v>0.33</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU56" t="n">
         <v>1.51</v>
@@ -12268,10 +12268,10 @@
         <v>1.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU58" t="n">
         <v>0.97</v>
@@ -12471,10 +12471,10 @@
         <v>0.67</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU59" t="n">
         <v>1.97</v>
@@ -12674,10 +12674,10 @@
         <v>1</v>
       </c>
       <c r="AS60" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU60" t="n">
         <v>1.59</v>
@@ -12877,10 +12877,10 @@
         <v>1.33</v>
       </c>
       <c r="AS61" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AU61" t="n">
         <v>1.21</v>
@@ -13080,10 +13080,10 @@
         <v>0.67</v>
       </c>
       <c r="AS62" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AU62" t="n">
         <v>0.76</v>
@@ -13286,7 +13286,7 @@
         <v>1</v>
       </c>
       <c r="AT63" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AU63" t="n">
         <v>1.77</v>
@@ -13486,7 +13486,7 @@
         <v>2.33</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT64" t="n">
         <v>2</v>
@@ -13892,7 +13892,7 @@
         <v>2.33</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT66" t="n">
         <v>1.75</v>
@@ -14707,7 +14707,7 @@
         <v>2.25</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU70" t="n">
         <v>1.17</v>
@@ -15368,6 +15368,1833 @@
       </c>
       <c r="BK73" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>4407695</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>44918.5</v>
+      </c>
+      <c r="F74" t="n">
+        <v>9</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Ceramica Cleopatra</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>1</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
+      <c r="R74" t="n">
+        <v>15</v>
+      </c>
+      <c r="S74" t="n">
+        <v>15</v>
+      </c>
+      <c r="T74" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U74" t="n">
+        <v>2</v>
+      </c>
+      <c r="V74" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W74" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X74" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AX74" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BA74" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF74" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG74" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ74" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK74" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>4407696</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>44918.58333333334</v>
+      </c>
+      <c r="F75" t="n">
+        <v>9</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>El Daklyeh FC</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Pyramids FC</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>2</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="n">
+        <v>3</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>['73', '78']</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>6</v>
+      </c>
+      <c r="S75" t="n">
+        <v>10</v>
+      </c>
+      <c r="T75" t="n">
+        <v>6</v>
+      </c>
+      <c r="U75" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V75" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W75" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="X75" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ75" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BA75" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF75" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ75" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>4407697</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>44919.40625</v>
+      </c>
+      <c r="F76" t="n">
+        <v>9</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Aswan FC</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>ENPPI</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>2</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>2</v>
+      </c>
+      <c r="L76" t="n">
+        <v>2</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>2</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>['18', '42']</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>6</v>
+      </c>
+      <c r="R76" t="n">
+        <v>8</v>
+      </c>
+      <c r="S76" t="n">
+        <v>14</v>
+      </c>
+      <c r="T76" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="U76" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V76" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="W76" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X76" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU76" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AX76" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AY76" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ76" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BA76" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BF76" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG76" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH76" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ76" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK76" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>4407698</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>44919.5</v>
+      </c>
+      <c r="F77" t="n">
+        <v>9</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Ghazl El Mehalla</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Pharco</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>6</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>10</v>
+      </c>
+      <c r="T77" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U77" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V77" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W77" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="X77" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT77" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU77" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW77" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AX77" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY77" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AZ77" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="BA77" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB77" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC77" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BD77" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BE77" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF77" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH77" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ77" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>4407699</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>44919.5</v>
+      </c>
+      <c r="F78" t="n">
+        <v>9</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Haras El Hodood</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>National Bank of Egypt</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
+      <c r="K78" t="n">
+        <v>2</v>
+      </c>
+      <c r="L78" t="n">
+        <v>2</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="n">
+        <v>3</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>['41', '55']</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>['45+2']</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>2</v>
+      </c>
+      <c r="R78" t="n">
+        <v>9</v>
+      </c>
+      <c r="S78" t="n">
+        <v>11</v>
+      </c>
+      <c r="T78" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="U78" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V78" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="W78" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="X78" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AU78" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW78" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AX78" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY78" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AZ78" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA78" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB78" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC78" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BD78" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BE78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF78" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG78" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH78" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI78" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ78" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK78" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>4407700</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>44919.58333333334</v>
+      </c>
+      <c r="F79" t="n">
+        <v>9</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Coca-Cola</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>El Geish</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>6</v>
+      </c>
+      <c r="S79" t="n">
+        <v>11</v>
+      </c>
+      <c r="T79" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U79" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V79" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W79" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X79" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AX79" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ79" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="BA79" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB79" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BE79" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG79" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH79" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI79" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ79" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK79" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>4407701</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>44920.40625</v>
+      </c>
+      <c r="F80" t="n">
+        <v>9</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Ismaily SC</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Al Masry</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="n">
+        <v>1</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>6</v>
+      </c>
+      <c r="R80" t="n">
+        <v>1</v>
+      </c>
+      <c r="S80" t="n">
+        <v>7</v>
+      </c>
+      <c r="T80" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="U80" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V80" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="W80" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="X80" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU80" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW80" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AX80" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AY80" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AZ80" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BA80" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB80" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BC80" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BE80" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG80" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH80" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI80" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ80" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>4407702</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>44920.5</v>
+      </c>
+      <c r="F81" t="n">
+        <v>9</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Al Mokawloon</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Zamalek</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>6</v>
+      </c>
+      <c r="S81" t="n">
+        <v>10</v>
+      </c>
+      <c r="T81" t="n">
+        <v>6</v>
+      </c>
+      <c r="U81" t="n">
+        <v>2</v>
+      </c>
+      <c r="V81" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W81" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X81" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AS81" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT81" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU81" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW81" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX81" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AY81" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ81" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BA81" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB81" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BC81" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BE81" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF81" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG81" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH81" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI81" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ81" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK81" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>4407703</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>44920.58333333334</v>
+      </c>
+      <c r="F82" t="n">
+        <v>9</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Al Ahly</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Smouha SC</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>2</v>
+      </c>
+      <c r="S82" t="n">
+        <v>7</v>
+      </c>
+      <c r="T82" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U82" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="V82" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="W82" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X82" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS82" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT82" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU82" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV82" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW82" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AX82" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AY82" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ82" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BA82" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB82" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC82" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD82" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BE82" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF82" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG82" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH82" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI82" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ82" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK82" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK82"/>
+  <dimension ref="A1:BK87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.5</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0.2</v>
       </c>
       <c r="AT5" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AT6" t="n">
         <v>1.4</v>
@@ -2324,7 +2324,7 @@
         <v>1</v>
       </c>
       <c r="AT9" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT11" t="n">
         <v>1.2</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT12" t="n">
         <v>2.2</v>
@@ -3542,7 +3542,7 @@
         <v>2.4</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT18" t="n">
         <v>0.6</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -5775,7 +5775,7 @@
         <v>1</v>
       </c>
       <c r="AT26" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AU26" t="n">
         <v>1.37</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AT27" t="n">
         <v>2.2</v>
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT28" t="n">
         <v>0.4</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT30" t="n">
         <v>1.25</v>
@@ -7399,7 +7399,7 @@
         <v>1</v>
       </c>
       <c r="AT34" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AU34" t="n">
         <v>1.19</v>
@@ -8817,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT41" t="n">
         <v>0.75</v>
@@ -9020,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU42" t="n">
         <v>1.19</v>
@@ -9226,7 +9226,7 @@
         <v>2</v>
       </c>
       <c r="AT43" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AU43" t="n">
         <v>1.83</v>
@@ -9426,7 +9426,7 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT44" t="n">
         <v>2.2</v>
@@ -9629,10 +9629,10 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU45" t="n">
         <v>0.95</v>
@@ -10038,7 +10038,7 @@
         <v>2.2</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU47" t="n">
         <v>1.74</v>
@@ -10238,7 +10238,7 @@
         <v>0.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT48" t="n">
         <v>1.25</v>
@@ -10444,7 +10444,7 @@
         <v>2</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU49" t="n">
         <v>1.38</v>
@@ -10847,7 +10847,7 @@
         <v>1</v>
       </c>
       <c r="AS51" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT51" t="n">
         <v>1.2</v>
@@ -11253,10 +11253,10 @@
         <v>0.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU53" t="n">
         <v>1.6</v>
@@ -11459,7 +11459,7 @@
         <v>0.2</v>
       </c>
       <c r="AT54" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AU54" t="n">
         <v>0.89</v>
@@ -11662,7 +11662,7 @@
         <v>2.2</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU55" t="n">
         <v>1.45</v>
@@ -12065,7 +12065,7 @@
         <v>1</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT57" t="n">
         <v>0.6</v>
@@ -13489,7 +13489,7 @@
         <v>2.2</v>
       </c>
       <c r="AT64" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AU64" t="n">
         <v>1.49</v>
@@ -13689,10 +13689,10 @@
         <v>0.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AU65" t="n">
         <v>1.7</v>
@@ -14098,7 +14098,7 @@
         <v>0.5</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AU67" t="n">
         <v>1.23</v>
@@ -14298,7 +14298,7 @@
         <v>0.75</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT68" t="n">
         <v>0.6</v>
@@ -14501,7 +14501,7 @@
         <v>0.67</v>
       </c>
       <c r="AS69" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AT69" t="n">
         <v>1.25</v>
@@ -14704,7 +14704,7 @@
         <v>0.67</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT70" t="n">
         <v>0.4</v>
@@ -14907,10 +14907,10 @@
         <v>3</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT71" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AU71" t="n">
         <v>1.02</v>
@@ -15113,7 +15113,7 @@
         <v>2.5</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU72" t="n">
         <v>1.07</v>
@@ -17195,6 +17195,1021 @@
       </c>
       <c r="BK82" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>4407704</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>44922.5</v>
+      </c>
+      <c r="F83" t="n">
+        <v>10</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Pyramids FC</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="n">
+        <v>3</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>3</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>['45+3', '58', '85']</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>8</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>12</v>
+      </c>
+      <c r="T83" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U83" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V83" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W83" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X83" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AT83" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU83" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV83" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW83" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AX83" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY83" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AZ83" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="BA83" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB83" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BC83" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BE83" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF83" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG83" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH83" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI83" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ83" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>4407705</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>44923.40625</v>
+      </c>
+      <c r="F84" t="n">
+        <v>10</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>ENPPI</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>El Daklyeh FC</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>7</v>
+      </c>
+      <c r="T84" t="n">
+        <v>3</v>
+      </c>
+      <c r="U84" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V84" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W84" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X84" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP84" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT84" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU84" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW84" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AX84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA84" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB84" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC84" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD84" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE84" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG84" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH84" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI84" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ84" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>4407706</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>44923.5</v>
+      </c>
+      <c r="F85" t="n">
+        <v>10</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>El Geish</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Haras El Hodood</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>2</v>
+      </c>
+      <c r="K85" t="n">
+        <v>2</v>
+      </c>
+      <c r="L85" t="n">
+        <v>2</v>
+      </c>
+      <c r="M85" t="n">
+        <v>2</v>
+      </c>
+      <c r="N85" t="n">
+        <v>4</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>['52', '64']</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>['4', '11']</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>1</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U85" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V85" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W85" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X85" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT85" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AU85" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AV85" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW85" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AX85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA85" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB85" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC85" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BD85" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF85" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG85" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH85" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI85" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ85" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>4407707</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>44923.5</v>
+      </c>
+      <c r="F86" t="n">
+        <v>10</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Pharco</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Coca-Cola</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
+      <c r="K86" t="n">
+        <v>2</v>
+      </c>
+      <c r="L86" t="n">
+        <v>2</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="n">
+        <v>5</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>['45+1', '87']</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>['2', '50', '59']</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>1</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="U86" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V86" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="W86" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="X86" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AP86" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ86" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR86" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT86" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU86" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AV86" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW86" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AX86" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AY86" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ86" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BA86" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB86" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC86" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD86" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BE86" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF86" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG86" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH86" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI86" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ86" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK86" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>4407708</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>44923.58333333334</v>
+      </c>
+      <c r="F87" t="n">
+        <v>10</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Ceramica Cleopatra</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Al Ahly</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="n">
+        <v>2</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>1</v>
+      </c>
+      <c r="R87" t="n">
+        <v>15</v>
+      </c>
+      <c r="S87" t="n">
+        <v>16</v>
+      </c>
+      <c r="T87" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="U87" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="V87" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="W87" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X87" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP87" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AQ87" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR87" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS87" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT87" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU87" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV87" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AW87" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AX87" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AY87" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ87" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BA87" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB87" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BC87" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BD87" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE87" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF87" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG87" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH87" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI87" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ87" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK87" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK87"/>
+  <dimension ref="A1:BK89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT4" t="n">
         <v>0.75</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT7" t="n">
         <v>1.2</v>
@@ -3136,7 +3136,7 @@
         <v>2.2</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>2</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT21" t="n">
         <v>0.6</v>
@@ -6384,7 +6384,7 @@
         <v>2.2</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU29" t="n">
         <v>1.91</v>
@@ -6587,7 +6587,7 @@
         <v>1</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU30" t="n">
         <v>1.45</v>
@@ -7802,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT36" t="n">
         <v>1.2</v>
@@ -8614,7 +8614,7 @@
         <v>0.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT40" t="n">
         <v>0.4</v>
@@ -9835,7 +9835,7 @@
         <v>0.5</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU46" t="n">
         <v>0.89</v>
@@ -10241,7 +10241,7 @@
         <v>1.5</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU48" t="n">
         <v>1.59</v>
@@ -11050,7 +11050,7 @@
         <v>2</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT52" t="n">
         <v>1.4</v>
@@ -12068,7 +12068,7 @@
         <v>1.5</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU57" t="n">
         <v>1.79</v>
@@ -14301,7 +14301,7 @@
         <v>2.6</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU68" t="n">
         <v>1.51</v>
@@ -14504,7 +14504,7 @@
         <v>0.8</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU69" t="n">
         <v>0.89</v>
@@ -15110,7 +15110,7 @@
         <v>0.33</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT72" t="n">
         <v>0.4</v>
@@ -15313,7 +15313,7 @@
         <v>0.67</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT73" t="n">
         <v>0.75</v>
@@ -18210,6 +18210,412 @@
       </c>
       <c r="BK87" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>4407709</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>44924.5</v>
+      </c>
+      <c r="F88" t="n">
+        <v>10</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Al Masry</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Aswan FC</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
+      <c r="K88" t="n">
+        <v>2</v>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2</v>
+      </c>
+      <c r="N88" t="n">
+        <v>3</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>['6']</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>['39', '90+10']</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
+        <v>13</v>
+      </c>
+      <c r="R88" t="n">
+        <v>7</v>
+      </c>
+      <c r="S88" t="n">
+        <v>20</v>
+      </c>
+      <c r="T88" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U88" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V88" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W88" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X88" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP88" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ88" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR88" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS88" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT88" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU88" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV88" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW88" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AX88" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AY88" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ88" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BA88" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BB88" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BC88" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BD88" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF88" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG88" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH88" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI88" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ88" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>4407710</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>44924.58333333334</v>
+      </c>
+      <c r="F89" t="n">
+        <v>10</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Zamalek</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Ismaily SC</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>3</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
+      <c r="K89" t="n">
+        <v>4</v>
+      </c>
+      <c r="L89" t="n">
+        <v>3</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="n">
+        <v>4</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>['8', '32', '45+2']</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>2</v>
+      </c>
+      <c r="R89" t="n">
+        <v>9</v>
+      </c>
+      <c r="S89" t="n">
+        <v>11</v>
+      </c>
+      <c r="T89" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U89" t="n">
+        <v>2</v>
+      </c>
+      <c r="V89" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="W89" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X89" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP89" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ89" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR89" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS89" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AT89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU89" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV89" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW89" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AX89" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AY89" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ89" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="BA89" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB89" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC89" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BD89" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE89" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BF89" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG89" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH89" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI89" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ89" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK89" t="n">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK89"/>
+  <dimension ref="A1:BK91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT3" t="n">
         <v>0.6</v>
@@ -2121,7 +2121,7 @@
         <v>1.8</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>2.2</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AT17" t="n">
         <v>0.4</v>
@@ -4557,7 +4557,7 @@
         <v>1.5</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU20" t="n">
         <v>1.11</v>
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT25" t="n">
         <v>0.75</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT32" t="n">
         <v>0.6</v>
@@ -7196,7 +7196,7 @@
         <v>2.4</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU33" t="n">
         <v>2.03</v>
@@ -8820,7 +8820,7 @@
         <v>2.6</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU41" t="n">
         <v>1.38</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AT46" t="n">
         <v>1</v>
@@ -10644,10 +10644,10 @@
         <v>0.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU50" t="n">
         <v>1.39</v>
@@ -13283,7 +13283,7 @@
         <v>2.33</v>
       </c>
       <c r="AS63" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT63" t="n">
         <v>2.2</v>
@@ -13895,7 +13895,7 @@
         <v>2.2</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU66" t="n">
         <v>1.47</v>
@@ -14095,7 +14095,7 @@
         <v>1</v>
       </c>
       <c r="AS67" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AT67" t="n">
         <v>1.2</v>
@@ -15316,7 +15316,7 @@
         <v>1</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU73" t="n">
         <v>1.74</v>
@@ -18616,6 +18616,412 @@
       </c>
       <c r="BK89" t="n">
         <v>18</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>4407711</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>44925.5</v>
+      </c>
+      <c r="F90" t="n">
+        <v>10</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Smouha SC</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Ghazl El Mehalla</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
+        <v>10</v>
+      </c>
+      <c r="R90" t="n">
+        <v>7</v>
+      </c>
+      <c r="S90" t="n">
+        <v>17</v>
+      </c>
+      <c r="T90" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U90" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="V90" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="W90" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X90" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ90" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AK90" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AL90" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AP90" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AQ90" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR90" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS90" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AT90" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU90" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV90" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW90" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AX90" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AY90" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ90" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BA90" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB90" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC90" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BD90" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE90" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF90" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH90" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI90" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ90" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>4407712</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>44925.58333333334</v>
+      </c>
+      <c r="F91" t="n">
+        <v>10</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>National Bank of Egypt</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Al Mokawloon</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>2</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
+      <c r="K91" t="n">
+        <v>3</v>
+      </c>
+      <c r="L91" t="n">
+        <v>2</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="n">
+        <v>3</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>['10', '34']</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
+        <v>1</v>
+      </c>
+      <c r="R91" t="n">
+        <v>8</v>
+      </c>
+      <c r="S91" t="n">
+        <v>9</v>
+      </c>
+      <c r="T91" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U91" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V91" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="W91" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="X91" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ91" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AK91" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO91" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP91" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AQ91" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR91" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS91" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT91" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU91" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV91" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AW91" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AX91" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AY91" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ91" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BA91" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB91" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC91" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD91" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BE91" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF91" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG91" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH91" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI91" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ91" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK91" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK91"/>
+  <dimension ref="A1:BK96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT2" t="n">
         <v>1.2</v>
@@ -1309,7 +1309,7 @@
         <v>1</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>0.8</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT10" t="n">
         <v>0.4</v>
@@ -2730,7 +2730,7 @@
         <v>2.6</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.5</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT13" t="n">
         <v>1</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AT15" t="n">
         <v>0.6</v>
@@ -4151,7 +4151,7 @@
         <v>2</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT20" t="n">
         <v>1.6</v>
@@ -4760,7 +4760,7 @@
         <v>1</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU21" t="n">
         <v>1.98</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AT22" t="n">
         <v>0.4</v>
@@ -5572,7 +5572,7 @@
         <v>1.4</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AU25" t="n">
         <v>1.34</v>
@@ -5772,7 +5772,7 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT26" t="n">
         <v>2.6</v>
@@ -5978,7 +5978,7 @@
         <v>0.8</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AU27" t="n">
         <v>0.93</v>
@@ -6790,7 +6790,7 @@
         <v>1</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU31" t="n">
         <v>0.76</v>
@@ -6993,7 +6993,7 @@
         <v>1.4</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU32" t="n">
         <v>1.48</v>
@@ -7193,7 +7193,7 @@
         <v>2</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AT33" t="n">
         <v>1.6</v>
@@ -7396,7 +7396,7 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT34" t="n">
         <v>2.2</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT35" t="n">
         <v>0.6</v>
@@ -7805,7 +7805,7 @@
         <v>2.6</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU36" t="n">
         <v>1.08</v>
@@ -8008,7 +8008,7 @@
         <v>1.8</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AU37" t="n">
         <v>1.66</v>
@@ -8411,7 +8411,7 @@
         <v>0.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT39" t="n">
         <v>0.4</v>
@@ -9223,7 +9223,7 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT43" t="n">
         <v>2.6</v>
@@ -9429,7 +9429,7 @@
         <v>2</v>
       </c>
       <c r="AT44" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AU44" t="n">
         <v>1.02</v>
@@ -10441,7 +10441,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT49" t="n">
         <v>0.6</v>
@@ -10850,7 +10850,7 @@
         <v>2</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU51" t="n">
         <v>1.01</v>
@@ -11053,7 +11053,7 @@
         <v>2.6</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU52" t="n">
         <v>1.24</v>
@@ -11659,7 +11659,7 @@
         <v>1.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT55" t="n">
         <v>1.2</v>
@@ -11862,7 +11862,7 @@
         <v>0.33</v>
       </c>
       <c r="AS56" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT56" t="n">
         <v>0.4</v>
@@ -12268,7 +12268,7 @@
         <v>1.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT58" t="n">
         <v>1.2</v>
@@ -12471,7 +12471,7 @@
         <v>0.67</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AT59" t="n">
         <v>0.6</v>
@@ -12677,7 +12677,7 @@
         <v>1.8</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU60" t="n">
         <v>1.59</v>
@@ -12880,7 +12880,7 @@
         <v>0.2</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU61" t="n">
         <v>1.21</v>
@@ -13083,7 +13083,7 @@
         <v>1</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU62" t="n">
         <v>0.76</v>
@@ -13286,7 +13286,7 @@
         <v>1.4</v>
       </c>
       <c r="AT63" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AU63" t="n">
         <v>1.77</v>
@@ -13486,7 +13486,7 @@
         <v>2.33</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT64" t="n">
         <v>2.2</v>
@@ -15516,10 +15516,10 @@
         <v>1</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AU74" t="n">
         <v>2</v>
@@ -15719,10 +15719,10 @@
         <v>1.75</v>
       </c>
       <c r="AS75" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AU75" t="n">
         <v>0.92</v>
@@ -15922,10 +15922,10 @@
         <v>0.75</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU76" t="n">
         <v>1.36</v>
@@ -16125,7 +16125,7 @@
         <v>0.5</v>
       </c>
       <c r="AS77" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT77" t="n">
         <v>0.6</v>
@@ -16737,7 +16737,7 @@
         <v>0.2</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU80" t="n">
         <v>1.19</v>
@@ -16940,7 +16940,7 @@
         <v>1.8</v>
       </c>
       <c r="AT81" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AU81" t="n">
         <v>1.58</v>
@@ -17140,7 +17140,7 @@
         <v>1.25</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT82" t="n">
         <v>1.2</v>
@@ -19022,6 +19022,1021 @@
       </c>
       <c r="BK91" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>4407713</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>44928.40625</v>
+      </c>
+      <c r="F92" t="n">
+        <v>11</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Aswan FC</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Zamalek</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>2</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>2</v>
+      </c>
+      <c r="L92" t="n">
+        <v>2</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="n">
+        <v>3</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>['4', '45+2']</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>4</v>
+      </c>
+      <c r="R92" t="n">
+        <v>13</v>
+      </c>
+      <c r="S92" t="n">
+        <v>17</v>
+      </c>
+      <c r="T92" t="n">
+        <v>6</v>
+      </c>
+      <c r="U92" t="n">
+        <v>2</v>
+      </c>
+      <c r="V92" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W92" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X92" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AS92" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT92" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AU92" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV92" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW92" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX92" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AY92" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ92" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BA92" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB92" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC92" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BD92" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BE92" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF92" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG92" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH92" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI92" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ92" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK92" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>4407714</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>44928.40625</v>
+      </c>
+      <c r="F93" t="n">
+        <v>11</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>El Daklyeh FC</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Al Masry</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" t="n">
+        <v>1</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>3</v>
+      </c>
+      <c r="S93" t="n">
+        <v>7</v>
+      </c>
+      <c r="T93" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="U93" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V93" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="W93" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X93" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AQ93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS93" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AT93" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU93" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW93" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AX93" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AY93" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AZ93" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BA93" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BB93" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BC93" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD93" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF93" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG93" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH93" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI93" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ93" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>4407715</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>44928.5</v>
+      </c>
+      <c r="F94" t="n">
+        <v>11</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>ENPPI</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="n">
+        <v>2</v>
+      </c>
+      <c r="N94" t="n">
+        <v>3</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>['32', '67']</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+      <c r="R94" t="n">
+        <v>10</v>
+      </c>
+      <c r="S94" t="n">
+        <v>14</v>
+      </c>
+      <c r="T94" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="U94" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V94" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="W94" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X94" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP94" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AQ94" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AR94" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS94" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU94" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV94" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW94" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX94" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY94" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ94" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="BA94" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB94" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC94" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BD94" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE94" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BF94" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG94" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH94" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI94" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ94" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>4407716</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>44928.58333333334</v>
+      </c>
+      <c r="F95" t="n">
+        <v>11</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Al Ahly</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Pyramids FC</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="n">
+        <v>3</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>3</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>['19', '69', '90+4']</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="n">
+        <v>9</v>
+      </c>
+      <c r="S95" t="n">
+        <v>13</v>
+      </c>
+      <c r="T95" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U95" t="n">
+        <v>2</v>
+      </c>
+      <c r="V95" t="n">
+        <v>4</v>
+      </c>
+      <c r="W95" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X95" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AX95" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ95" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="BA95" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB95" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC95" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BD95" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE95" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF95" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG95" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH95" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI95" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ95" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK95" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>4407717</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>44929.40625</v>
+      </c>
+      <c r="F96" t="n">
+        <v>11</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Ghazl El Mehalla</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Ceramica Cleopatra</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>3</v>
+      </c>
+      <c r="N96" t="n">
+        <v>3</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>['54', '90+2', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T96" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U96" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V96" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W96" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X96" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS96" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT96" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU96" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV96" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AW96" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX96" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AY96" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ96" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BA96" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB96" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC96" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BD96" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BE96" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK96" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK96"/>
+  <dimension ref="A1:BK99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AT5" t="n">
         <v>2.6</v>
@@ -1918,7 +1918,7 @@
         <v>2.6</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT8" t="n">
         <v>1.6</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT16" t="n">
         <v>0.6</v>
@@ -3948,7 +3948,7 @@
         <v>0.6</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT23" t="n">
         <v>0.6</v>
@@ -5369,7 +5369,7 @@
         <v>1</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU24" t="n">
         <v>0.68</v>
@@ -6181,7 +6181,7 @@
         <v>2.6</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AU28" t="n">
         <v>0.8</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT29" t="n">
         <v>1</v>
@@ -8005,7 +8005,7 @@
         <v>1.5</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT37" t="n">
         <v>1.2</v>
@@ -8208,10 +8208,10 @@
         <v>0.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU38" t="n">
         <v>0.54</v>
@@ -8617,7 +8617,7 @@
         <v>1</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AU40" t="n">
         <v>1.74</v>
@@ -9632,7 +9632,7 @@
         <v>0.8</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU45" t="n">
         <v>0.95</v>
@@ -10035,7 +10035,7 @@
         <v>3</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT47" t="n">
         <v>1.2</v>
@@ -11256,7 +11256,7 @@
         <v>1.5</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU53" t="n">
         <v>1.6</v>
@@ -11456,7 +11456,7 @@
         <v>3</v>
       </c>
       <c r="AS54" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AT54" t="n">
         <v>2.2</v>
@@ -12271,7 +12271,7 @@
         <v>0.83</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU58" t="n">
         <v>0.97</v>
@@ -12674,7 +12674,7 @@
         <v>1</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT60" t="n">
         <v>1</v>
@@ -12877,7 +12877,7 @@
         <v>1.33</v>
       </c>
       <c r="AS61" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AT61" t="n">
         <v>1.17</v>
@@ -13892,7 +13892,7 @@
         <v>2.33</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT66" t="n">
         <v>1.6</v>
@@ -14707,7 +14707,7 @@
         <v>2</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AU70" t="n">
         <v>1.17</v>
@@ -15113,7 +15113,7 @@
         <v>2.6</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU72" t="n">
         <v>1.07</v>
@@ -16331,7 +16331,7 @@
         <v>1</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AU78" t="n">
         <v>0.93</v>
@@ -16531,7 +16531,7 @@
         <v>0.25</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT79" t="n">
         <v>0.4</v>
@@ -16734,7 +16734,7 @@
         <v>0.75</v>
       </c>
       <c r="AS80" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AT80" t="n">
         <v>1.5</v>
@@ -16937,7 +16937,7 @@
         <v>2.5</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT81" t="n">
         <v>1.83</v>
@@ -17143,7 +17143,7 @@
         <v>2.33</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU82" t="n">
         <v>1.65</v>
@@ -17752,7 +17752,7 @@
         <v>2</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU85" t="n">
         <v>1.1</v>
@@ -19898,13 +19898,13 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R96" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S96" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="T96" t="n">
         <v>3.4</v>
@@ -20021,22 +20021,631 @@
         <v>3.1</v>
       </c>
       <c r="BF96" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BG96" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BH96" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BI96" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BJ96" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BK96" t="n">
-        <v>-1</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>4407719</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>44929.40625</v>
+      </c>
+      <c r="F97" t="n">
+        <v>11</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Al Mokawloon</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Haras El Hodood</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2</v>
+      </c>
+      <c r="K97" t="n">
+        <v>3</v>
+      </c>
+      <c r="L97" t="n">
+        <v>3</v>
+      </c>
+      <c r="M97" t="n">
+        <v>2</v>
+      </c>
+      <c r="N97" t="n">
+        <v>5</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>['4', '56', '68']</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>['13', '29']</t>
+        </is>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>3</v>
+      </c>
+      <c r="S97" t="n">
+        <v>8</v>
+      </c>
+      <c r="T97" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U97" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V97" t="n">
+        <v>6</v>
+      </c>
+      <c r="W97" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X97" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ97" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AK97" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AS97" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT97" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU97" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV97" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW97" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX97" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AY97" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ97" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BA97" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BB97" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC97" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BD97" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BE97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF97" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG97" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH97" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ97" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>4407718</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>44929.58333333334</v>
+      </c>
+      <c r="F98" t="n">
+        <v>11</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Ismaily SC</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>National Bank of Egypt</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>10</v>
+      </c>
+      <c r="T98" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U98" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V98" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W98" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X98" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP98" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AQ98" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AS98" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AT98" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU98" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AV98" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW98" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AX98" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY98" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ98" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BA98" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB98" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC98" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD98" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BE98" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF98" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG98" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH98" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI98" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ98" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>4407720</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>44929.625</v>
+      </c>
+      <c r="F99" t="n">
+        <v>11</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Coca-Cola</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Smouha SC</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
+      <c r="K99" t="n">
+        <v>2</v>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="n">
+        <v>2</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>['18']</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>10</v>
+      </c>
+      <c r="T99" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U99" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V99" t="n">
+        <v>5</v>
+      </c>
+      <c r="W99" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X99" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO99" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP99" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ99" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR99" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS99" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT99" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU99" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AV99" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW99" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AX99" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY99" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ99" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BA99" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB99" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC99" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BD99" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BE99" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BF99" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG99" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH99" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI99" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ99" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK99" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK99"/>
+  <dimension ref="A1:BK100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2527,7 +2527,7 @@
         <v>0.83</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>2</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AU22" t="n">
         <v>1.15</v>
@@ -8414,7 +8414,7 @@
         <v>2.33</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AU39" t="n">
         <v>1.58</v>
@@ -11865,7 +11865,7 @@
         <v>1.67</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AU56" t="n">
         <v>1.51</v>
@@ -16534,7 +16534,7 @@
         <v>2</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AU79" t="n">
         <v>1.41</v>
@@ -20646,6 +20646,209 @@
       </c>
       <c r="BK99" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>4407721</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>44930.5</v>
+      </c>
+      <c r="F100" t="n">
+        <v>11</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Pharco</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>El Geish</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
+      <c r="K100" t="n">
+        <v>2</v>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="n">
+        <v>2</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>6</v>
+      </c>
+      <c r="R100" t="n">
+        <v>3</v>
+      </c>
+      <c r="S100" t="n">
+        <v>9</v>
+      </c>
+      <c r="T100" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="U100" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V100" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="W100" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="X100" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP100" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ100" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR100" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AS100" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT100" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU100" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AV100" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW100" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AX100" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY100" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ100" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA100" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB100" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC100" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD100" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BE100" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF100" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG100" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH100" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI100" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ100" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK100" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK100"/>
+  <dimension ref="A1:BK102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1512,7 +1512,7 @@
         <v>0.33</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT6" t="n">
         <v>1.17</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AT7" t="n">
         <v>1.17</v>
@@ -3542,7 +3542,7 @@
         <v>2</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -5775,7 +5775,7 @@
         <v>0.83</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AU26" t="n">
         <v>1.37</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT27" t="n">
         <v>1.83</v>
@@ -7802,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AT36" t="n">
         <v>1.5</v>
@@ -9023,7 +9023,7 @@
         <v>1</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU42" t="n">
         <v>1.19</v>
@@ -9226,7 +9226,7 @@
         <v>1.67</v>
       </c>
       <c r="AT43" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AU43" t="n">
         <v>1.83</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT45" t="n">
         <v>0.33</v>
@@ -10444,7 +10444,7 @@
         <v>1.67</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU49" t="n">
         <v>1.38</v>
@@ -11050,7 +11050,7 @@
         <v>2</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AT52" t="n">
         <v>1.17</v>
@@ -13692,7 +13692,7 @@
         <v>1.5</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU65" t="n">
         <v>1.7</v>
@@ -14501,7 +14501,7 @@
         <v>0.67</v>
       </c>
       <c r="AS69" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT69" t="n">
         <v>1</v>
@@ -14910,7 +14910,7 @@
         <v>1</v>
       </c>
       <c r="AT71" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AU71" t="n">
         <v>1.02</v>
@@ -15110,7 +15110,7 @@
         <v>0.33</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AT72" t="n">
         <v>0.33</v>
@@ -17546,10 +17546,10 @@
         <v>0.5</v>
       </c>
       <c r="AS84" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU84" t="n">
         <v>1.04</v>
@@ -18158,7 +18158,7 @@
         <v>1.5</v>
       </c>
       <c r="AT87" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AU87" t="n">
         <v>1.71</v>
@@ -18561,7 +18561,7 @@
         <v>1.25</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AT89" t="n">
         <v>1</v>
@@ -20849,6 +20849,412 @@
       </c>
       <c r="BK100" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>4407722</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>44931.5</v>
+      </c>
+      <c r="F101" t="n">
+        <v>12</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>ENPPI</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Al Ahly</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>2</v>
+      </c>
+      <c r="N101" t="n">
+        <v>2</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>['59', '77']</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
+        <v>5</v>
+      </c>
+      <c r="R101" t="n">
+        <v>9</v>
+      </c>
+      <c r="S101" t="n">
+        <v>14</v>
+      </c>
+      <c r="T101" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U101" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V101" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W101" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X101" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AJ101" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK101" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL101" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AO101" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP101" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AQ101" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR101" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AS101" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT101" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU101" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AV101" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AW101" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX101" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AY101" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ101" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BA101" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB101" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC101" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD101" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE101" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF101" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG101" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH101" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI101" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ101" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>4407723</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>44931.58333333334</v>
+      </c>
+      <c r="F102" t="n">
+        <v>12</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Zamalek</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>El Daklyeh FC</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1</v>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="n">
+        <v>2</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>['90+6']</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="Q102" t="n">
+        <v>7</v>
+      </c>
+      <c r="R102" t="n">
+        <v>2</v>
+      </c>
+      <c r="S102" t="n">
+        <v>9</v>
+      </c>
+      <c r="T102" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U102" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V102" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="W102" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X102" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ102" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO102" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP102" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AQ102" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AR102" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS102" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT102" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU102" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV102" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW102" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AX102" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AY102" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ102" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="BA102" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB102" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC102" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD102" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE102" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF102" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG102" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH102" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI102" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ102" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK102" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK102"/>
+  <dimension ref="A1:BK103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2121,7 +2121,7 @@
         <v>2</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT11" t="n">
         <v>1.5</v>
@@ -4557,7 +4557,7 @@
         <v>1.8</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU20" t="n">
         <v>1.11</v>
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT28" t="n">
         <v>0.5</v>
@@ -7196,7 +7196,7 @@
         <v>2</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU33" t="n">
         <v>2.03</v>
@@ -8817,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT41" t="n">
         <v>0.6</v>
@@ -13895,7 +13895,7 @@
         <v>2</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU66" t="n">
         <v>1.47</v>
@@ -14298,7 +14298,7 @@
         <v>0.75</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT68" t="n">
         <v>1</v>
@@ -17343,7 +17343,7 @@
         <v>1.5</v>
       </c>
       <c r="AS83" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT83" t="n">
         <v>1.2</v>
@@ -18767,7 +18767,7 @@
         <v>0.6</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU90" t="n">
         <v>1.33</v>
@@ -21239,22 +21239,225 @@
         <v>3.1</v>
       </c>
       <c r="BF102" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BG102" t="n">
         <v>4</v>
       </c>
       <c r="BH102" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BI102" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ102" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>4407724</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>44933.40625</v>
+      </c>
+      <c r="F103" t="n">
+        <v>12</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Pyramids FC</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Ghazl El Mehalla</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>2</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>2</v>
+      </c>
+      <c r="L103" t="n">
         <v>4</v>
       </c>
-      <c r="BJ102" t="n">
-        <v>19</v>
-      </c>
-      <c r="BK102" t="n">
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>4</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>['41', '44', '67', '80']</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q103" t="n">
+        <v>6</v>
+      </c>
+      <c r="R103" t="n">
+        <v>2</v>
+      </c>
+      <c r="S103" t="n">
         <v>8</v>
+      </c>
+      <c r="T103" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U103" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V103" t="n">
+        <v>7</v>
+      </c>
+      <c r="W103" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X103" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AP103" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AQ103" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AR103" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS103" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AT103" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU103" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV103" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AW103" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AX103" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AY103" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AZ103" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BA103" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB103" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC103" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BD103" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE103" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF103" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG103" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH103" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI103" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ103" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK103" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK103"/>
+  <dimension ref="A1:BK105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.8</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT4" t="n">
         <v>1.2</v>
@@ -2324,7 +2324,7 @@
         <v>1</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT12" t="n">
         <v>1.83</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT21" t="n">
         <v>1</v>
@@ -7399,7 +7399,7 @@
         <v>0.83</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AU34" t="n">
         <v>1.19</v>
@@ -8614,7 +8614,7 @@
         <v>0.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT40" t="n">
         <v>0.5</v>
@@ -10038,7 +10038,7 @@
         <v>2</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU47" t="n">
         <v>1.74</v>
@@ -10238,7 +10238,7 @@
         <v>0.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT48" t="n">
         <v>1</v>
@@ -11253,7 +11253,7 @@
         <v>0.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT53" t="n">
         <v>0.33</v>
@@ -11459,7 +11459,7 @@
         <v>0.33</v>
       </c>
       <c r="AT54" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AU54" t="n">
         <v>0.89</v>
@@ -11662,7 +11662,7 @@
         <v>2.33</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU55" t="n">
         <v>1.45</v>
@@ -12065,7 +12065,7 @@
         <v>1</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT57" t="n">
         <v>1</v>
@@ -13489,7 +13489,7 @@
         <v>2.33</v>
       </c>
       <c r="AT64" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AU64" t="n">
         <v>1.49</v>
@@ -13689,7 +13689,7 @@
         <v>0.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT65" t="n">
         <v>0.67</v>
@@ -14098,7 +14098,7 @@
         <v>0.6</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU67" t="n">
         <v>1.23</v>
@@ -15313,7 +15313,7 @@
         <v>0.67</v>
       </c>
       <c r="AS73" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT73" t="n">
         <v>0.6</v>
@@ -17346,7 +17346,7 @@
         <v>2.67</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU83" t="n">
         <v>1.61</v>
@@ -17955,7 +17955,7 @@
         <v>1</v>
       </c>
       <c r="AT86" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AU86" t="n">
         <v>1.01</v>
@@ -18155,7 +18155,7 @@
         <v>3</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT87" t="n">
         <v>2.67</v>
@@ -18358,7 +18358,7 @@
         <v>0.6</v>
       </c>
       <c r="AS88" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT88" t="n">
         <v>1</v>
@@ -21458,6 +21458,412 @@
       </c>
       <c r="BK103" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>4407725</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>44933.58333333334</v>
+      </c>
+      <c r="F104" t="n">
+        <v>12</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Al Masry</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="n">
+        <v>2</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="n">
+        <v>3</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>['44', '74']</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="Q104" t="n">
+        <v>4</v>
+      </c>
+      <c r="R104" t="n">
+        <v>9</v>
+      </c>
+      <c r="S104" t="n">
+        <v>13</v>
+      </c>
+      <c r="T104" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U104" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V104" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="W104" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X104" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ104" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AK104" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL104" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM104" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO104" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP104" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AQ104" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR104" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS104" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT104" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU104" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV104" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW104" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX104" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY104" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ104" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BA104" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB104" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC104" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BD104" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE104" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BF104" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG104" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH104" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI104" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ104" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>4407726</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>44933.58333333334</v>
+      </c>
+      <c r="F105" t="n">
+        <v>12</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Ceramica Cleopatra</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Coca-Cola</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>2</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
+      <c r="K105" t="n">
+        <v>3</v>
+      </c>
+      <c r="L105" t="n">
+        <v>2</v>
+      </c>
+      <c r="M105" t="n">
+        <v>3</v>
+      </c>
+      <c r="N105" t="n">
+        <v>5</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>['1', '45+2']</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>['27', '46', '65']</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
+        <v>4</v>
+      </c>
+      <c r="R105" t="n">
+        <v>4</v>
+      </c>
+      <c r="S105" t="n">
+        <v>8</v>
+      </c>
+      <c r="T105" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="U105" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="V105" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W105" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X105" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ105" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AK105" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL105" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AO105" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP105" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ105" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR105" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AS105" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT105" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AU105" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV105" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW105" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AX105" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY105" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ105" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BA105" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB105" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC105" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD105" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BE105" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF105" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG105" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH105" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI105" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ105" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK105" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK105"/>
+  <dimension ref="A1:BK109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT9" t="n">
         <v>2.33</v>
@@ -3339,7 +3339,7 @@
         <v>1.67</v>
       </c>
       <c r="AT14" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>2</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AT17" t="n">
         <v>0.5</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT18" t="n">
         <v>1</v>
@@ -5166,7 +5166,7 @@
         <v>2</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU23" t="n">
         <v>1.7</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT24" t="n">
         <v>1.17</v>
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT25" t="n">
         <v>1.2</v>
@@ -6587,7 +6587,7 @@
         <v>1</v>
       </c>
       <c r="AT30" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU30" t="n">
         <v>1.45</v>
@@ -6787,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT31" t="n">
         <v>1.17</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT32" t="n">
         <v>1</v>
@@ -7602,7 +7602,7 @@
         <v>1.8</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU35" t="n">
         <v>1.4</v>
@@ -8820,7 +8820,7 @@
         <v>2.67</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU41" t="n">
         <v>1.38</v>
@@ -9426,7 +9426,7 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT44" t="n">
         <v>1.83</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AT46" t="n">
         <v>1</v>
@@ -10241,7 +10241,7 @@
         <v>1.29</v>
       </c>
       <c r="AT48" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU48" t="n">
         <v>1.59</v>
@@ -10644,10 +10644,10 @@
         <v>0.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU50" t="n">
         <v>1.39</v>
@@ -10847,7 +10847,7 @@
         <v>1</v>
       </c>
       <c r="AS51" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT51" t="n">
         <v>1.5</v>
@@ -12474,7 +12474,7 @@
         <v>2</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU59" t="n">
         <v>1.97</v>
@@ -13080,7 +13080,7 @@
         <v>0.67</v>
       </c>
       <c r="AS62" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT62" t="n">
         <v>1.5</v>
@@ -13283,7 +13283,7 @@
         <v>2.33</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT63" t="n">
         <v>1.83</v>
@@ -14095,7 +14095,7 @@
         <v>1</v>
       </c>
       <c r="AS67" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AT67" t="n">
         <v>1</v>
@@ -14504,7 +14504,7 @@
         <v>0.67</v>
       </c>
       <c r="AT69" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU69" t="n">
         <v>0.89</v>
@@ -14704,7 +14704,7 @@
         <v>0.67</v>
       </c>
       <c r="AS70" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT70" t="n">
         <v>0.5</v>
@@ -15316,7 +15316,7 @@
         <v>1.33</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU73" t="n">
         <v>1.74</v>
@@ -16128,7 +16128,7 @@
         <v>1.67</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU77" t="n">
         <v>1.56</v>
@@ -16328,7 +16328,7 @@
         <v>0.5</v>
       </c>
       <c r="AS78" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT78" t="n">
         <v>0.5</v>
@@ -17749,7 +17749,7 @@
         <v>0.25</v>
       </c>
       <c r="AS85" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT85" t="n">
         <v>0.33</v>
@@ -18564,7 +18564,7 @@
         <v>2.33</v>
       </c>
       <c r="AT89" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU89" t="n">
         <v>1.33</v>
@@ -18764,7 +18764,7 @@
         <v>1.75</v>
       </c>
       <c r="AS90" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AT90" t="n">
         <v>1.33</v>
@@ -18967,10 +18967,10 @@
         <v>0.75</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU91" t="n">
         <v>1.72</v>
@@ -21864,6 +21864,818 @@
       </c>
       <c r="BK105" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>4407727</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>44934.40625</v>
+      </c>
+      <c r="F106" t="n">
+        <v>12</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Haras El Hodood</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Ismaily SC</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="n">
+        <v>2</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" t="n">
+        <v>2</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>['3', '59']</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q106" t="n">
+        <v>1</v>
+      </c>
+      <c r="R106" t="n">
+        <v>14</v>
+      </c>
+      <c r="S106" t="n">
+        <v>15</v>
+      </c>
+      <c r="T106" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="U106" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V106" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="W106" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X106" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ106" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP106" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ106" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR106" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS106" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT106" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU106" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AV106" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW106" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AX106" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AY106" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AZ106" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BA106" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB106" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BC106" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BD106" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BE106" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BF106" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG106" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH106" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI106" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ106" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK106" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="n">
+        <v>4407728</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>44934.40625</v>
+      </c>
+      <c r="F107" t="n">
+        <v>12</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>National Bank of Egypt</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Aswan FC</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q107" t="n">
+        <v>4</v>
+      </c>
+      <c r="R107" t="n">
+        <v>4</v>
+      </c>
+      <c r="S107" t="n">
+        <v>8</v>
+      </c>
+      <c r="T107" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U107" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V107" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="W107" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X107" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP107" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ107" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR107" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT107" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW107" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AX107" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ107" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BA107" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB107" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BC107" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD107" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BE107" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BF107" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG107" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH107" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI107" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ107" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="n">
+        <v>4407729</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>44934.58333333334</v>
+      </c>
+      <c r="F108" t="n">
+        <v>12</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Smouha SC</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Pharco</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>2</v>
+      </c>
+      <c r="K108" t="n">
+        <v>2</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" t="n">
+        <v>2</v>
+      </c>
+      <c r="N108" t="n">
+        <v>2</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>['37', '45']</t>
+        </is>
+      </c>
+      <c r="Q108" t="n">
+        <v>6</v>
+      </c>
+      <c r="R108" t="n">
+        <v>4</v>
+      </c>
+      <c r="S108" t="n">
+        <v>10</v>
+      </c>
+      <c r="T108" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U108" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V108" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W108" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X108" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP108" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ108" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AR108" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS108" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT108" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU108" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV108" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW108" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AX108" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ108" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BA108" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB108" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC108" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BD108" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BE108" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF108" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG108" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH108" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI108" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ108" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="n">
+        <v>4407730</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>44934.58333333334</v>
+      </c>
+      <c r="F109" t="n">
+        <v>12</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>El Geish</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Al Mokawloon</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1</v>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="n">
+        <v>2</v>
+      </c>
+      <c r="N109" t="n">
+        <v>3</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>['4', '66']</t>
+        </is>
+      </c>
+      <c r="Q109" t="n">
+        <v>10</v>
+      </c>
+      <c r="R109" t="n">
+        <v>3</v>
+      </c>
+      <c r="S109" t="n">
+        <v>13</v>
+      </c>
+      <c r="T109" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U109" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V109" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W109" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X109" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ109" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AQ109" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR109" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS109" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT109" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU109" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AV109" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AW109" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX109" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY109" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ109" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BA109" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB109" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BC109" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BD109" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BE109" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF109" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG109" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH109" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI109" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ109" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK109" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK109"/>
+  <dimension ref="A1:BK111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>2</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU22" t="n">
         <v>1.15</v>
@@ -5772,7 +5772,7 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT26" t="n">
         <v>2.67</v>
@@ -6181,7 +6181,7 @@
         <v>2.67</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU28" t="n">
         <v>0.8</v>
@@ -7396,7 +7396,7 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT34" t="n">
         <v>2.33</v>
@@ -8414,7 +8414,7 @@
         <v>2.33</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU39" t="n">
         <v>1.58</v>
@@ -8617,7 +8617,7 @@
         <v>1.33</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU40" t="n">
         <v>1.74</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AT46" t="n">
         <v>1</v>
@@ -10644,7 +10644,7 @@
         <v>0.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AT50" t="n">
         <v>1</v>
@@ -11865,7 +11865,7 @@
         <v>1.67</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU56" t="n">
         <v>1.51</v>
@@ -12268,7 +12268,7 @@
         <v>1.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT58" t="n">
         <v>1.17</v>
@@ -14095,7 +14095,7 @@
         <v>1</v>
       </c>
       <c r="AS67" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AT67" t="n">
         <v>1</v>
@@ -14707,7 +14707,7 @@
         <v>1.67</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU70" t="n">
         <v>1.17</v>
@@ -15719,7 +15719,7 @@
         <v>1.75</v>
       </c>
       <c r="AS75" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT75" t="n">
         <v>1.17</v>
@@ -16331,7 +16331,7 @@
         <v>1.33</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU78" t="n">
         <v>0.93</v>
@@ -16534,7 +16534,7 @@
         <v>2</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU79" t="n">
         <v>1.41</v>
@@ -18764,7 +18764,7 @@
         <v>1.75</v>
       </c>
       <c r="AS90" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AT90" t="n">
         <v>1.33</v>
@@ -19373,7 +19373,7 @@
         <v>1.2</v>
       </c>
       <c r="AS93" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT93" t="n">
         <v>1.5</v>
@@ -20391,7 +20391,7 @@
         <v>0.33</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU98" t="n">
         <v>1.18</v>
@@ -20797,7 +20797,7 @@
         <v>1</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU100" t="n">
         <v>1.11</v>
@@ -22418,7 +22418,7 @@
         <v>0.6</v>
       </c>
       <c r="AS108" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AT108" t="n">
         <v>1</v>
@@ -22676,6 +22676,412 @@
       </c>
       <c r="BK109" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="n">
+        <v>4407731</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>44937.40625</v>
+      </c>
+      <c r="F110" t="n">
+        <v>13</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>El Daklyeh FC</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>National Bank of Egypt</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
+      <c r="K110" t="n">
+        <v>2</v>
+      </c>
+      <c r="L110" t="n">
+        <v>3</v>
+      </c>
+      <c r="M110" t="n">
+        <v>3</v>
+      </c>
+      <c r="N110" t="n">
+        <v>6</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>['41', '49', '70']</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>['34', '66', '90+12']</t>
+        </is>
+      </c>
+      <c r="Q110" t="n">
+        <v>1</v>
+      </c>
+      <c r="R110" t="n">
+        <v>6</v>
+      </c>
+      <c r="S110" t="n">
+        <v>7</v>
+      </c>
+      <c r="T110" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="U110" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V110" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W110" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X110" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL110" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AO110" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AP110" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ110" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR110" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS110" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AT110" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AU110" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AV110" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW110" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AX110" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AY110" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AZ110" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BA110" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB110" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BC110" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BD110" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE110" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF110" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG110" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH110" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI110" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ110" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK110" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="n">
+        <v>4407732</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>44937.40625</v>
+      </c>
+      <c r="F111" t="n">
+        <v>13</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Smouha SC</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>El Geish</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="n">
+        <v>2</v>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="n">
+        <v>3</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>['25', '79']</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="Q111" t="n">
+        <v>7</v>
+      </c>
+      <c r="R111" t="n">
+        <v>6</v>
+      </c>
+      <c r="S111" t="n">
+        <v>13</v>
+      </c>
+      <c r="T111" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U111" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V111" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W111" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X111" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO111" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP111" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ111" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR111" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS111" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AT111" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AU111" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV111" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW111" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AX111" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AY111" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ111" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BA111" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB111" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC111" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD111" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BE111" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF111" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG111" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH111" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI111" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ111" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK111" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK111"/>
+  <dimension ref="A1:BK113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1715,7 +1715,7 @@
         <v>0.67</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.29</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT15" t="n">
         <v>0.67</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT16" t="n">
         <v>1</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT22" t="n">
         <v>0.43</v>
@@ -5978,7 +5978,7 @@
         <v>0.67</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU27" t="n">
         <v>0.93</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT29" t="n">
         <v>1</v>
@@ -6790,7 +6790,7 @@
         <v>1.33</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU31" t="n">
         <v>0.76</v>
@@ -7193,7 +7193,7 @@
         <v>2</v>
       </c>
       <c r="AS33" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT33" t="n">
         <v>1.33</v>
@@ -9429,7 +9429,7 @@
         <v>1.67</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU44" t="n">
         <v>1.02</v>
@@ -10035,7 +10035,7 @@
         <v>3</v>
       </c>
       <c r="AS47" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT47" t="n">
         <v>1</v>
@@ -11053,7 +11053,7 @@
         <v>2.33</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU52" t="n">
         <v>1.24</v>
@@ -12471,7 +12471,7 @@
         <v>0.67</v>
       </c>
       <c r="AS59" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT59" t="n">
         <v>1</v>
@@ -12880,7 +12880,7 @@
         <v>0.33</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU61" t="n">
         <v>1.21</v>
@@ -13286,7 +13286,7 @@
         <v>1.33</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU63" t="n">
         <v>1.77</v>
@@ -13892,7 +13892,7 @@
         <v>2.33</v>
       </c>
       <c r="AS66" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT66" t="n">
         <v>1.33</v>
@@ -15516,7 +15516,7 @@
         <v>1</v>
       </c>
       <c r="AS74" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT74" t="n">
         <v>1.2</v>
@@ -15722,7 +15722,7 @@
         <v>0.86</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU75" t="n">
         <v>0.92</v>
@@ -16531,7 +16531,7 @@
         <v>0.25</v>
       </c>
       <c r="AS79" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT79" t="n">
         <v>0.43</v>
@@ -16940,7 +16940,7 @@
         <v>2</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU81" t="n">
         <v>1.58</v>
@@ -19173,7 +19173,7 @@
         <v>1.8</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU92" t="n">
         <v>1.39</v>
@@ -19576,7 +19576,7 @@
         <v>0.6</v>
       </c>
       <c r="AS94" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT94" t="n">
         <v>1</v>
@@ -19782,7 +19782,7 @@
         <v>2.33</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU95" t="n">
         <v>1.53</v>
@@ -20591,7 +20591,7 @@
         <v>1.2</v>
       </c>
       <c r="AS99" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT99" t="n">
         <v>1.17</v>
@@ -22863,22 +22863,22 @@
         <v>3.5</v>
       </c>
       <c r="BF110" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG110" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH110" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI110" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ110" t="n">
         <v>7</v>
       </c>
-      <c r="BG110" t="n">
-        <v>7</v>
-      </c>
-      <c r="BH110" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI110" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ110" t="n">
-        <v>9</v>
-      </c>
       <c r="BK110" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111">
@@ -23066,22 +23066,428 @@
         <v>3.3</v>
       </c>
       <c r="BF111" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG111" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI111" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ111" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK111" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="n">
+        <v>4407733</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>44937.58333333334</v>
+      </c>
+      <c r="F112" t="n">
+        <v>13</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Coca-Cola</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Pyramids FC</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="n">
+        <v>2</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="Q112" t="n">
+        <v>0</v>
+      </c>
+      <c r="R112" t="n">
+        <v>9</v>
+      </c>
+      <c r="S112" t="n">
+        <v>9</v>
+      </c>
+      <c r="T112" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U112" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V112" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W112" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X112" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ112" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AK112" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AL112" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM112" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO112" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP112" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ112" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR112" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS112" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AT112" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AU112" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AV112" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AW112" t="n">
         <v>3</v>
       </c>
-      <c r="BG111" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH111" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI111" t="n">
+      <c r="AX112" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AY112" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ112" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BA112" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB112" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC112" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BD112" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF112" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG112" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH112" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI112" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ112" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK112" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="n">
+        <v>4407734</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>44937.58333333334</v>
+      </c>
+      <c r="F113" t="n">
+        <v>13</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Zamalek</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q113" t="n">
+        <v>2</v>
+      </c>
+      <c r="R113" t="n">
+        <v>5</v>
+      </c>
+      <c r="S113" t="n">
+        <v>7</v>
+      </c>
+      <c r="T113" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U113" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V113" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W113" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X113" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI113" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ113" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK113" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL113" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM113" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN113" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AO113" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP113" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ113" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR113" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AS113" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AT113" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AU113" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV113" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AW113" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AX113" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AY113" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ113" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BA113" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB113" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC113" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BD113" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BE113" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF113" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG113" t="n">
         <v>3</v>
       </c>
-      <c r="BJ111" t="n">
-        <v>4</v>
-      </c>
-      <c r="BK111" t="n">
-        <v>5</v>
+      <c r="BH113" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI113" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ113" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK113" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK113"/>
+  <dimension ref="A1:BK115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2730,7 +2730,7 @@
         <v>2.67</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT13" t="n">
         <v>1</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT14" t="n">
         <v>0.83</v>
@@ -4151,7 +4151,7 @@
         <v>1.67</v>
       </c>
       <c r="AT18" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>1.33</v>
       </c>
       <c r="AT21" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU21" t="n">
         <v>1.98</v>
@@ -6993,7 +6993,7 @@
         <v>1.33</v>
       </c>
       <c r="AT32" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU32" t="n">
         <v>1.48</v>
@@ -7805,7 +7805,7 @@
         <v>2.33</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU36" t="n">
         <v>1.08</v>
@@ -8411,7 +8411,7 @@
         <v>0.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT39" t="n">
         <v>0.43</v>
@@ -9223,7 +9223,7 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT43" t="n">
         <v>2.67</v>
@@ -10441,7 +10441,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT49" t="n">
         <v>0.67</v>
@@ -10850,7 +10850,7 @@
         <v>1.67</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU51" t="n">
         <v>1.01</v>
@@ -11659,7 +11659,7 @@
         <v>1.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT55" t="n">
         <v>1</v>
@@ -11862,7 +11862,7 @@
         <v>0.33</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT56" t="n">
         <v>0.43</v>
@@ -12677,7 +12677,7 @@
         <v>2</v>
       </c>
       <c r="AT60" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU60" t="n">
         <v>1.59</v>
@@ -13083,7 +13083,7 @@
         <v>1.33</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU62" t="n">
         <v>0.76</v>
@@ -13486,7 +13486,7 @@
         <v>2.33</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT64" t="n">
         <v>2.33</v>
@@ -15925,7 +15925,7 @@
         <v>1.8</v>
       </c>
       <c r="AT76" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU76" t="n">
         <v>1.36</v>
@@ -16125,7 +16125,7 @@
         <v>0.5</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT77" t="n">
         <v>1</v>
@@ -16737,7 +16737,7 @@
         <v>0.33</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU80" t="n">
         <v>1.19</v>
@@ -17140,7 +17140,7 @@
         <v>1.25</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT82" t="n">
         <v>1.17</v>
@@ -19376,7 +19376,7 @@
         <v>0.86</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU93" t="n">
         <v>0.92</v>
@@ -19579,7 +19579,7 @@
         <v>1.86</v>
       </c>
       <c r="AT94" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU94" t="n">
         <v>1.76</v>
@@ -19779,7 +19779,7 @@
         <v>1.4</v>
       </c>
       <c r="AS95" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT95" t="n">
         <v>1.14</v>
@@ -19982,7 +19982,7 @@
         <v>0.75</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT96" t="n">
         <v>1.2</v>
@@ -22863,22 +22863,22 @@
         <v>3.5</v>
       </c>
       <c r="BF110" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG110" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH110" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI110" t="n">
         <v>4</v>
       </c>
-      <c r="BG110" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH110" t="n">
-        <v>3</v>
-      </c>
-      <c r="BI110" t="n">
-        <v>3</v>
-      </c>
       <c r="BJ110" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BK110" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111">
@@ -23066,22 +23066,22 @@
         <v>3.3</v>
       </c>
       <c r="BF111" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG111" t="n">
         <v>2</v>
       </c>
       <c r="BH111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI111" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ111" t="n">
         <v>4</v>
       </c>
-      <c r="BJ111" t="n">
-        <v>2</v>
-      </c>
       <c r="BK111" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112">
@@ -23488,6 +23488,412 @@
       </c>
       <c r="BK113" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="n">
+        <v>4407735</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>44938.5</v>
+      </c>
+      <c r="F114" t="n">
+        <v>13</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Ghazl El Mehalla</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>ENPPI</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" t="n">
+        <v>1</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q114" t="n">
+        <v>2</v>
+      </c>
+      <c r="R114" t="n">
+        <v>8</v>
+      </c>
+      <c r="S114" t="n">
+        <v>10</v>
+      </c>
+      <c r="T114" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U114" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V114" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="W114" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X114" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM114" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AO114" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AP114" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ114" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR114" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS114" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AT114" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU114" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV114" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW114" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AX114" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY114" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ114" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BA114" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB114" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC114" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BD114" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BE114" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF114" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG114" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH114" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI114" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ114" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK114" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="n">
+        <v>4407736</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>44938.58333333334</v>
+      </c>
+      <c r="F115" t="n">
+        <v>13</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Al Ahly</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Al Masry</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q115" t="n">
+        <v>10</v>
+      </c>
+      <c r="R115" t="n">
+        <v>5</v>
+      </c>
+      <c r="S115" t="n">
+        <v>15</v>
+      </c>
+      <c r="T115" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U115" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V115" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="W115" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X115" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI115" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AK115" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL115" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AM115" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO115" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP115" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AQ115" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR115" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS115" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AT115" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AU115" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV115" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW115" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX115" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AY115" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ115" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BA115" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB115" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC115" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD115" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BE115" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF115" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG115" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH115" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI115" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ115" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK115" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK115"/>
+  <dimension ref="A1:BK118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT2" t="n">
         <v>1</v>
@@ -1309,7 +1309,7 @@
         <v>1.33</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AT5" t="n">
         <v>2.67</v>
@@ -3745,7 +3745,7 @@
         <v>1.86</v>
       </c>
       <c r="AT16" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT20" t="n">
         <v>1.33</v>
@@ -5572,7 +5572,7 @@
         <v>1.33</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU25" t="n">
         <v>1.34</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT35" t="n">
         <v>1</v>
@@ -8008,7 +8008,7 @@
         <v>2</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU37" t="n">
         <v>1.66</v>
@@ -8208,7 +8208,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AT38" t="n">
         <v>1.17</v>
@@ -8820,7 +8820,7 @@
         <v>2.67</v>
       </c>
       <c r="AT41" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU41" t="n">
         <v>1.38</v>
@@ -9632,7 +9632,7 @@
         <v>0.67</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AU45" t="n">
         <v>0.95</v>
@@ -10647,7 +10647,7 @@
         <v>0.86</v>
       </c>
       <c r="AT50" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU50" t="n">
         <v>1.39</v>
@@ -11256,7 +11256,7 @@
         <v>1.29</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AU53" t="n">
         <v>1.6</v>
@@ -11456,7 +11456,7 @@
         <v>3</v>
       </c>
       <c r="AS54" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AT54" t="n">
         <v>2.33</v>
@@ -12877,7 +12877,7 @@
         <v>1.33</v>
       </c>
       <c r="AS61" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AT61" t="n">
         <v>1.14</v>
@@ -15113,7 +15113,7 @@
         <v>2.33</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AU72" t="n">
         <v>1.07</v>
@@ -15316,7 +15316,7 @@
         <v>1.33</v>
       </c>
       <c r="AT73" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU73" t="n">
         <v>1.74</v>
@@ -15519,7 +15519,7 @@
         <v>1.86</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU74" t="n">
         <v>2</v>
@@ -15922,7 +15922,7 @@
         <v>0.75</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT76" t="n">
         <v>0.86</v>
@@ -16734,7 +16734,7 @@
         <v>0.75</v>
       </c>
       <c r="AS80" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AT80" t="n">
         <v>1.43</v>
@@ -17752,7 +17752,7 @@
         <v>1.67</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AU85" t="n">
         <v>1.1</v>
@@ -18970,7 +18970,7 @@
         <v>1.33</v>
       </c>
       <c r="AT91" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU91" t="n">
         <v>1.72</v>
@@ -19170,7 +19170,7 @@
         <v>2.2</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AT92" t="n">
         <v>1.71</v>
@@ -19985,7 +19985,7 @@
         <v>1.86</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AU96" t="n">
         <v>1.5</v>
@@ -20188,7 +20188,7 @@
         <v>2</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AU97" t="n">
         <v>1.6</v>
@@ -20388,7 +20388,7 @@
         <v>0.4</v>
       </c>
       <c r="AS98" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AT98" t="n">
         <v>0.57</v>
@@ -22624,7 +22624,7 @@
         <v>1.67</v>
       </c>
       <c r="AT109" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU109" t="n">
         <v>1.21</v>
@@ -23893,6 +23893,615 @@
         <v>11</v>
       </c>
       <c r="BK115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="n">
+        <v>4407737</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>44939.40625</v>
+      </c>
+      <c r="F116" t="n">
+        <v>13</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Aswan FC</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Haras El Hodood</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="n">
+        <v>2</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="Q116" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R116" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S116" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T116" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U116" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V116" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W116" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X116" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ116" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK116" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL116" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AM116" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN116" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO116" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP116" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AQ116" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR116" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS116" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT116" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AU116" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV116" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW116" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AX116" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AY116" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ116" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BA116" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB116" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC116" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD116" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BE116" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF116" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG116" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH116" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI116" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ116" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK116" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="n">
+        <v>4407738</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>44939.5</v>
+      </c>
+      <c r="F117" t="n">
+        <v>13</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Pharco</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Ceramica Cleopatra</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="n">
+        <v>2</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="Q117" t="n">
+        <v>2</v>
+      </c>
+      <c r="R117" t="n">
+        <v>3</v>
+      </c>
+      <c r="S117" t="n">
+        <v>5</v>
+      </c>
+      <c r="T117" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="U117" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V117" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W117" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X117" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ117" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AK117" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AL117" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM117" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AN117" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AO117" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AP117" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AQ117" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR117" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS117" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT117" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU117" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AV117" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AW117" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AX117" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AY117" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ117" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BA117" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB117" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC117" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD117" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BE117" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF117" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG117" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH117" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI117" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ117" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK117" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="n">
+        <v>4407739</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>44939.58333333334</v>
+      </c>
+      <c r="F118" t="n">
+        <v>13</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Ismaily SC</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Al Mokawloon</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="n">
+        <v>3</v>
+      </c>
+      <c r="N118" t="n">
+        <v>4</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>['50', '61', '80']</t>
+        </is>
+      </c>
+      <c r="Q118" t="n">
+        <v>5</v>
+      </c>
+      <c r="R118" t="n">
+        <v>3</v>
+      </c>
+      <c r="S118" t="n">
+        <v>8</v>
+      </c>
+      <c r="T118" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="U118" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V118" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W118" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X118" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ118" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK118" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AL118" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM118" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN118" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO118" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AP118" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ118" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR118" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS118" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AT118" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU118" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AV118" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AW118" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AX118" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AY118" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ118" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BA118" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB118" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC118" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BD118" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BE118" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF118" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG118" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH118" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI118" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ118" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK118" t="n">
         <v>4</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -23958,13 +23958,13 @@
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R116" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S116" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="T116" t="n">
         <v>2.75</v>
@@ -24081,22 +24081,22 @@
         <v>3.3</v>
       </c>
       <c r="BF116" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BG116" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BH116" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BI116" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BJ116" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BK116" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117">
@@ -24284,7 +24284,7 @@
         <v>3.3</v>
       </c>
       <c r="BF117" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG117" t="n">
         <v>6</v>
@@ -24293,13 +24293,13 @@
         <v>2</v>
       </c>
       <c r="BI117" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BJ117" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BK117" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="118">
@@ -24487,22 +24487,22 @@
         <v>3.34</v>
       </c>
       <c r="BF118" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BG118" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH118" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI118" t="n">
         <v>4</v>
       </c>
-      <c r="BI118" t="n">
-        <v>1</v>
-      </c>
       <c r="BJ118" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BK118" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK118"/>
+  <dimension ref="A1:BK120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT9" t="n">
         <v>2.33</v>
@@ -3339,7 +3339,7 @@
         <v>1.86</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1.86</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT18" t="n">
         <v>0.86</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT24" t="n">
         <v>1.17</v>
@@ -6587,7 +6587,7 @@
         <v>1</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU30" t="n">
         <v>1.45</v>
@@ -6787,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT31" t="n">
         <v>1.14</v>
@@ -9023,7 +9023,7 @@
         <v>1</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU42" t="n">
         <v>1.19</v>
@@ -9426,7 +9426,7 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT44" t="n">
         <v>1.71</v>
@@ -10241,7 +10241,7 @@
         <v>1.29</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU48" t="n">
         <v>1.59</v>
@@ -10444,7 +10444,7 @@
         <v>1.86</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU49" t="n">
         <v>1.38</v>
@@ -10847,7 +10847,7 @@
         <v>1</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT51" t="n">
         <v>1.43</v>
@@ -13080,7 +13080,7 @@
         <v>0.67</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT62" t="n">
         <v>1.43</v>
@@ -13692,7 +13692,7 @@
         <v>1.29</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU65" t="n">
         <v>1.7</v>
@@ -14504,7 +14504,7 @@
         <v>0.67</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU69" t="n">
         <v>0.89</v>
@@ -14704,7 +14704,7 @@
         <v>0.67</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT70" t="n">
         <v>0.57</v>
@@ -16328,7 +16328,7 @@
         <v>0.5</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT78" t="n">
         <v>0.57</v>
@@ -17549,7 +17549,7 @@
         <v>0.67</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU84" t="n">
         <v>1.04</v>
@@ -17749,7 +17749,7 @@
         <v>0.25</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT85" t="n">
         <v>0.43</v>
@@ -18564,7 +18564,7 @@
         <v>2.33</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU89" t="n">
         <v>1.33</v>
@@ -21203,7 +21203,7 @@
         <v>2.33</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU102" t="n">
         <v>1.36</v>
@@ -22012,10 +22012,10 @@
         <v>1</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU106" t="n">
         <v>0.95</v>
@@ -22621,7 +22621,7 @@
         <v>0.6</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT109" t="n">
         <v>1.29</v>
@@ -24502,6 +24502,412 @@
         <v>14</v>
       </c>
       <c r="BK118" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="n">
+        <v>4407740</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>44944.40625</v>
+      </c>
+      <c r="F119" t="n">
+        <v>14</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Haras El Hodood</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>El Daklyeh FC</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="n">
+        <v>1</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="Q119" t="n">
+        <v>2</v>
+      </c>
+      <c r="R119" t="n">
+        <v>8</v>
+      </c>
+      <c r="S119" t="n">
+        <v>10</v>
+      </c>
+      <c r="T119" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U119" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V119" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W119" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X119" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE119" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AF119" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG119" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AH119" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI119" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ119" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AK119" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL119" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AM119" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN119" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO119" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP119" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ119" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR119" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS119" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT119" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU119" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV119" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW119" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AX119" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AY119" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AZ119" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BA119" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB119" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BC119" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BD119" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE119" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF119" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG119" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH119" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI119" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ119" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK119" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="n">
+        <v>4407741</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>44944.5</v>
+      </c>
+      <c r="F120" t="n">
+        <v>14</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>El Geish</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Ismaily SC</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
+      <c r="K120" t="n">
+        <v>2</v>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="n">
+        <v>2</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>['4']</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="Q120" t="n">
+        <v>2</v>
+      </c>
+      <c r="R120" t="n">
+        <v>3</v>
+      </c>
+      <c r="S120" t="n">
+        <v>5</v>
+      </c>
+      <c r="T120" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="U120" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V120" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W120" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X120" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB120" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC120" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AE120" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AF120" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG120" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AH120" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI120" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ120" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AK120" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL120" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AM120" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN120" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO120" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP120" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ120" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR120" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS120" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT120" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU120" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AV120" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW120" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX120" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AY120" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ120" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BA120" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB120" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC120" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BD120" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BE120" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF120" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG120" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH120" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI120" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ120" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK120" t="n">
         <v>8</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK120"/>
+  <dimension ref="A1:BK121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AT6" t="n">
         <v>1.14</v>
@@ -2324,7 +2324,7 @@
         <v>1.14</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AT27" t="n">
         <v>1.71</v>
@@ -7399,7 +7399,7 @@
         <v>0.86</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AU34" t="n">
         <v>1.19</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AT45" t="n">
         <v>0.43</v>
@@ -11459,7 +11459,7 @@
         <v>0.29</v>
       </c>
       <c r="AT54" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AU54" t="n">
         <v>0.89</v>
@@ -13489,7 +13489,7 @@
         <v>2.14</v>
       </c>
       <c r="AT64" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AU64" t="n">
         <v>1.49</v>
@@ -14501,7 +14501,7 @@
         <v>0.67</v>
       </c>
       <c r="AS69" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AT69" t="n">
         <v>0.86</v>
@@ -17546,7 +17546,7 @@
         <v>0.5</v>
       </c>
       <c r="AS84" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AT84" t="n">
         <v>1</v>
@@ -17955,7 +17955,7 @@
         <v>1</v>
       </c>
       <c r="AT86" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AU86" t="n">
         <v>1.01</v>
@@ -20997,7 +20997,7 @@
         <v>2.6</v>
       </c>
       <c r="AS101" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AT101" t="n">
         <v>2.67</v>
@@ -21812,7 +21812,7 @@
         <v>1.29</v>
       </c>
       <c r="AT105" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AU105" t="n">
         <v>1.57</v>
@@ -24909,6 +24909,209 @@
       </c>
       <c r="BK120" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="n">
+        <v>4407742</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>44944.58333333334</v>
+      </c>
+      <c r="F121" t="n">
+        <v>14</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>ENPPI</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Coca-Cola</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="n">
+        <v>2</v>
+      </c>
+      <c r="M121" t="n">
+        <v>3</v>
+      </c>
+      <c r="N121" t="n">
+        <v>5</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>['37', '69']</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>['50', '60', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q121" t="n">
+        <v>3</v>
+      </c>
+      <c r="R121" t="n">
+        <v>5</v>
+      </c>
+      <c r="S121" t="n">
+        <v>8</v>
+      </c>
+      <c r="T121" t="n">
+        <v>5</v>
+      </c>
+      <c r="U121" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V121" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="W121" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="X121" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AB121" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC121" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AE121" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF121" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG121" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI121" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ121" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AK121" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AL121" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AM121" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN121" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AO121" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP121" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ121" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR121" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AS121" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AT121" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AU121" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AV121" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW121" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AX121" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY121" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ121" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA121" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB121" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC121" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD121" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BE121" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF121" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG121" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH121" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI121" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ121" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK121" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK121"/>
+  <dimension ref="A1:BK125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.67</v>
       </c>
       <c r="AT2" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT3" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT4" t="n">
         <v>1.17</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT11" t="n">
         <v>1.43</v>
@@ -3136,7 +3136,7 @@
         <v>2.14</v>
       </c>
       <c r="AT13" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>1.67</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU20" t="n">
         <v>1.11</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT21" t="n">
         <v>0.86</v>
@@ -5163,10 +5163,10 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT23" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU23" t="n">
         <v>1.7</v>
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT25" t="n">
         <v>1.17</v>
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT28" t="n">
         <v>0.57</v>
@@ -6384,7 +6384,7 @@
         <v>1.86</v>
       </c>
       <c r="AT29" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU29" t="n">
         <v>1.91</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT32" t="n">
         <v>0.86</v>
@@ -7196,7 +7196,7 @@
         <v>1.86</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU33" t="n">
         <v>2.03</v>
@@ -7602,7 +7602,7 @@
         <v>1.67</v>
       </c>
       <c r="AT35" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU35" t="n">
         <v>1.4</v>
@@ -8005,7 +8005,7 @@
         <v>1.5</v>
       </c>
       <c r="AS37" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT37" t="n">
         <v>1.17</v>
@@ -8614,7 +8614,7 @@
         <v>0.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT40" t="n">
         <v>0.57</v>
@@ -8817,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT41" t="n">
         <v>1.29</v>
@@ -9835,7 +9835,7 @@
         <v>0.86</v>
       </c>
       <c r="AT46" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU46" t="n">
         <v>0.89</v>
@@ -10038,7 +10038,7 @@
         <v>1.86</v>
       </c>
       <c r="AT47" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU47" t="n">
         <v>1.74</v>
@@ -11662,7 +11662,7 @@
         <v>2.14</v>
       </c>
       <c r="AT55" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU55" t="n">
         <v>1.45</v>
@@ -12068,7 +12068,7 @@
         <v>1.29</v>
       </c>
       <c r="AT57" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU57" t="n">
         <v>1.79</v>
@@ -12474,7 +12474,7 @@
         <v>1.86</v>
       </c>
       <c r="AT59" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU59" t="n">
         <v>1.97</v>
@@ -12674,7 +12674,7 @@
         <v>1</v>
       </c>
       <c r="AS60" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT60" t="n">
         <v>0.86</v>
@@ -13283,7 +13283,7 @@
         <v>2.33</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT63" t="n">
         <v>1.71</v>
@@ -13895,7 +13895,7 @@
         <v>1.86</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU66" t="n">
         <v>1.47</v>
@@ -14098,7 +14098,7 @@
         <v>0.86</v>
       </c>
       <c r="AT67" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU67" t="n">
         <v>1.23</v>
@@ -14298,10 +14298,10 @@
         <v>0.75</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT68" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU68" t="n">
         <v>1.51</v>
@@ -15313,7 +15313,7 @@
         <v>0.67</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT73" t="n">
         <v>1.29</v>
@@ -16128,7 +16128,7 @@
         <v>1.86</v>
       </c>
       <c r="AT77" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU77" t="n">
         <v>1.56</v>
@@ -16937,7 +16937,7 @@
         <v>2.5</v>
       </c>
       <c r="AS81" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT81" t="n">
         <v>1.71</v>
@@ -17343,10 +17343,10 @@
         <v>1.5</v>
       </c>
       <c r="AS83" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT83" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU83" t="n">
         <v>1.61</v>
@@ -18358,10 +18358,10 @@
         <v>0.6</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT88" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU88" t="n">
         <v>1.73</v>
@@ -18767,7 +18767,7 @@
         <v>0.86</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU90" t="n">
         <v>1.33</v>
@@ -18967,7 +18967,7 @@
         <v>0.75</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT91" t="n">
         <v>1.29</v>
@@ -20185,7 +20185,7 @@
         <v>0.4</v>
       </c>
       <c r="AS97" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT97" t="n">
         <v>0.43</v>
@@ -21403,10 +21403,10 @@
         <v>1.6</v>
       </c>
       <c r="AS103" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU103" t="n">
         <v>1.68</v>
@@ -21606,10 +21606,10 @@
         <v>1.2</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT104" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU104" t="n">
         <v>1.64</v>
@@ -22215,10 +22215,10 @@
         <v>1</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT107" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU107" t="n">
         <v>1.66</v>
@@ -22421,7 +22421,7 @@
         <v>0.86</v>
       </c>
       <c r="AT108" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU108" t="n">
         <v>1.4</v>
@@ -25112,6 +25112,818 @@
       </c>
       <c r="BK121" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="n">
+        <v>4407743</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>44945.40625</v>
+      </c>
+      <c r="F122" t="n">
+        <v>14</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Al Mokawloon</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Aswan FC</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N122" t="n">
+        <v>1</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q122" t="n">
+        <v>3</v>
+      </c>
+      <c r="R122" t="n">
+        <v>8</v>
+      </c>
+      <c r="S122" t="n">
+        <v>11</v>
+      </c>
+      <c r="T122" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="U122" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V122" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W122" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X122" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AD122" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE122" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AF122" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG122" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH122" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI122" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ122" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK122" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL122" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM122" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AN122" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO122" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP122" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ122" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR122" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS122" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AT122" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU122" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV122" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AW122" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX122" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY122" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ122" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BA122" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB122" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC122" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BD122" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE122" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BF122" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG122" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI122" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ122" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK122" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="n">
+        <v>4407744</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>44945.48958333334</v>
+      </c>
+      <c r="F123" t="n">
+        <v>14</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>National Bank of Egypt</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>2</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>2</v>
+      </c>
+      <c r="L123" t="n">
+        <v>2</v>
+      </c>
+      <c r="M123" t="n">
+        <v>3</v>
+      </c>
+      <c r="N123" t="n">
+        <v>5</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>['40', '45+3']</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>['52', '66', '89']</t>
+        </is>
+      </c>
+      <c r="Q123" t="n">
+        <v>5</v>
+      </c>
+      <c r="R123" t="n">
+        <v>7</v>
+      </c>
+      <c r="S123" t="n">
+        <v>12</v>
+      </c>
+      <c r="T123" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="U123" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="V123" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="W123" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X123" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB123" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC123" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AD123" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AE123" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AF123" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG123" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="AH123" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI123" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AJ123" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK123" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL123" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AM123" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN123" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO123" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AP123" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AQ123" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR123" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS123" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT123" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU123" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV123" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW123" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX123" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AY123" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ123" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BA123" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB123" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC123" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD123" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BE123" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BF123" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG123" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH123" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI123" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ123" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK123" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="n">
+        <v>4407745</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>44945.58333333334</v>
+      </c>
+      <c r="F124" t="n">
+        <v>14</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Pyramids FC</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Pharco</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>2</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="n">
+        <v>2</v>
+      </c>
+      <c r="L124" t="n">
+        <v>3</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N124" t="n">
+        <v>3</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>['45', '45+4', '90+3']</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q124" t="n">
+        <v>10</v>
+      </c>
+      <c r="R124" t="n">
+        <v>3</v>
+      </c>
+      <c r="S124" t="n">
+        <v>13</v>
+      </c>
+      <c r="T124" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="U124" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V124" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="W124" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X124" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AB124" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC124" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="AE124" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="AF124" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG124" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AH124" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI124" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AJ124" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AK124" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AL124" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AM124" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AN124" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AO124" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP124" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AQ124" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AR124" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS124" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AT124" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU124" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV124" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW124" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AX124" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AY124" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ124" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="BA124" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB124" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC124" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BD124" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE124" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BF124" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH124" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI124" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ124" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="n">
+        <v>4407746</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>44946.5</v>
+      </c>
+      <c r="F125" t="n">
+        <v>14</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Al Masry</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Ghazl El Mehalla</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="n">
+        <v>2</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="Q125" t="n">
+        <v>3</v>
+      </c>
+      <c r="R125" t="n">
+        <v>8</v>
+      </c>
+      <c r="S125" t="n">
+        <v>11</v>
+      </c>
+      <c r="T125" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U125" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V125" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="W125" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X125" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AB125" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC125" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD125" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE125" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AF125" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG125" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH125" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI125" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ125" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AK125" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL125" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AM125" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN125" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO125" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP125" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AQ125" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR125" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS125" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT125" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU125" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV125" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AW125" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AX125" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AY125" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ125" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="BA125" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB125" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC125" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD125" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BE125" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF125" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG125" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH125" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI125" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ125" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK125" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK125"/>
+  <dimension ref="A1:BK126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1918,7 +1918,7 @@
         <v>2.33</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT12" t="n">
         <v>1.71</v>
@@ -5369,7 +5369,7 @@
         <v>1.14</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU24" t="n">
         <v>0.68</v>
@@ -8211,7 +8211,7 @@
         <v>0.29</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU38" t="n">
         <v>0.54</v>
@@ -10238,7 +10238,7 @@
         <v>0.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT48" t="n">
         <v>0.86</v>
@@ -11253,7 +11253,7 @@
         <v>0.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT53" t="n">
         <v>0.43</v>
@@ -12065,7 +12065,7 @@
         <v>1</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT57" t="n">
         <v>0.88</v>
@@ -12271,7 +12271,7 @@
         <v>0.86</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU58" t="n">
         <v>0.97</v>
@@ -13689,7 +13689,7 @@
         <v>0.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT65" t="n">
         <v>1</v>
@@ -17143,7 +17143,7 @@
         <v>2.14</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU82" t="n">
         <v>1.65</v>
@@ -18155,7 +18155,7 @@
         <v>3</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT87" t="n">
         <v>2.67</v>
@@ -20594,7 +20594,7 @@
         <v>1.86</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU99" t="n">
         <v>1.26</v>
@@ -21809,7 +21809,7 @@
         <v>2.2</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT105" t="n">
         <v>2.43</v>
@@ -25924,6 +25924,209 @@
       </c>
       <c r="BK125" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="n">
+        <v>4407747</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>44946.58333333334</v>
+      </c>
+      <c r="F126" t="n">
+        <v>14</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Ceramica Cleopatra</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Smouha SC</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" t="n">
+        <v>2</v>
+      </c>
+      <c r="N126" t="n">
+        <v>2</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>['38', '90']</t>
+        </is>
+      </c>
+      <c r="Q126" t="n">
+        <v>2</v>
+      </c>
+      <c r="R126" t="n">
+        <v>0</v>
+      </c>
+      <c r="S126" t="n">
+        <v>2</v>
+      </c>
+      <c r="T126" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U126" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V126" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="W126" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X126" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AB126" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC126" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AE126" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="AF126" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG126" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AH126" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AI126" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ126" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AK126" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AL126" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM126" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AN126" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO126" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP126" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ126" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR126" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS126" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT126" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AU126" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV126" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW126" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AX126" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AY126" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ126" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BA126" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB126" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC126" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD126" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE126" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BF126" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG126" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH126" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI126" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ126" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK126" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK126"/>
+  <dimension ref="A1:BK127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1512,7 +1512,7 @@
         <v>0.29</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT7" t="n">
         <v>1.43</v>
@@ -5775,7 +5775,7 @@
         <v>0.86</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AU26" t="n">
         <v>1.37</v>
@@ -7802,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT36" t="n">
         <v>1.43</v>
@@ -9226,7 +9226,7 @@
         <v>1.86</v>
       </c>
       <c r="AT43" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AU43" t="n">
         <v>1.83</v>
@@ -11050,7 +11050,7 @@
         <v>2</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT52" t="n">
         <v>1.14</v>
@@ -14910,7 +14910,7 @@
         <v>1</v>
       </c>
       <c r="AT71" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AU71" t="n">
         <v>1.02</v>
@@ -15110,7 +15110,7 @@
         <v>0.33</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT72" t="n">
         <v>0.43</v>
@@ -18158,7 +18158,7 @@
         <v>1.13</v>
       </c>
       <c r="AT87" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AU87" t="n">
         <v>1.71</v>
@@ -18561,7 +18561,7 @@
         <v>1.25</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT89" t="n">
         <v>0.86</v>
@@ -21000,7 +21000,7 @@
         <v>0.57</v>
       </c>
       <c r="AT101" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AU101" t="n">
         <v>0.99</v>
@@ -21200,7 +21200,7 @@
         <v>0.6</v>
       </c>
       <c r="AS102" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AT102" t="n">
         <v>1</v>
@@ -25988,13 +25988,13 @@
         </is>
       </c>
       <c r="Q126" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R126" t="n">
         <v>0</v>
       </c>
       <c r="S126" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="T126" t="n">
         <v>2.85</v>
@@ -26127,6 +26127,209 @@
       </c>
       <c r="BK126" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="n">
+        <v>4407748</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>44947.64583333334</v>
+      </c>
+      <c r="F127" t="n">
+        <v>14</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Zamalek</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Al Ahly</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>3</v>
+      </c>
+      <c r="N127" t="n">
+        <v>3</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>['61', '75', '90']</t>
+        </is>
+      </c>
+      <c r="Q127" t="n">
+        <v>7</v>
+      </c>
+      <c r="R127" t="n">
+        <v>3</v>
+      </c>
+      <c r="S127" t="n">
+        <v>10</v>
+      </c>
+      <c r="T127" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="U127" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V127" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="W127" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X127" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AE127" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AF127" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG127" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH127" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI127" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ127" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AK127" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL127" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AM127" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AN127" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AO127" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP127" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ127" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR127" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AS127" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT127" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AU127" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV127" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AW127" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AX127" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AY127" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ127" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BA127" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB127" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC127" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD127" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BE127" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF127" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG127" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH127" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI127" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ127" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK127" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK127"/>
+  <dimension ref="A1:BK130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT2" t="n">
         <v>1.29</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT10" t="n">
         <v>0.43</v>
@@ -3339,7 +3339,7 @@
         <v>1.86</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>1.86</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>1.57</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT19" t="n">
         <v>0.43</v>
@@ -4554,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT20" t="n">
         <v>1.29</v>
@@ -4760,7 +4760,7 @@
         <v>1.29</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU21" t="n">
         <v>1.98</v>
@@ -5772,7 +5772,7 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT26" t="n">
         <v>2.71</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU30" t="n">
         <v>1.45</v>
@@ -6993,7 +6993,7 @@
         <v>1.14</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU32" t="n">
         <v>1.48</v>
@@ -7396,7 +7396,7 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT34" t="n">
         <v>2.43</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT35" t="n">
         <v>0.86</v>
@@ -8820,7 +8820,7 @@
         <v>2.71</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU41" t="n">
         <v>1.38</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT42" t="n">
         <v>1</v>
@@ -10241,7 +10241,7 @@
         <v>1.13</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU48" t="n">
         <v>1.59</v>
@@ -10647,7 +10647,7 @@
         <v>0.86</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU50" t="n">
         <v>1.39</v>
@@ -12268,7 +12268,7 @@
         <v>1.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT58" t="n">
         <v>1.43</v>
@@ -12677,7 +12677,7 @@
         <v>2.14</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU60" t="n">
         <v>1.59</v>
@@ -14504,7 +14504,7 @@
         <v>0.57</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU69" t="n">
         <v>0.89</v>
@@ -14907,7 +14907,7 @@
         <v>3</v>
       </c>
       <c r="AS71" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT71" t="n">
         <v>2.71</v>
@@ -15316,7 +15316,7 @@
         <v>1.29</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU73" t="n">
         <v>1.74</v>
@@ -15719,7 +15719,7 @@
         <v>1.75</v>
       </c>
       <c r="AS75" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT75" t="n">
         <v>1.14</v>
@@ -15922,10 +15922,10 @@
         <v>0.75</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU76" t="n">
         <v>1.36</v>
@@ -17952,7 +17952,7 @@
         <v>2</v>
       </c>
       <c r="AS86" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT86" t="n">
         <v>2.43</v>
@@ -18564,7 +18564,7 @@
         <v>2</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU89" t="n">
         <v>1.33</v>
@@ -18970,7 +18970,7 @@
         <v>1.14</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU91" t="n">
         <v>1.72</v>
@@ -19170,7 +19170,7 @@
         <v>2.2</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT92" t="n">
         <v>1.71</v>
@@ -19373,7 +19373,7 @@
         <v>1.2</v>
       </c>
       <c r="AS93" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT93" t="n">
         <v>1.43</v>
@@ -19579,7 +19579,7 @@
         <v>1.86</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU94" t="n">
         <v>1.76</v>
@@ -20794,7 +20794,7 @@
         <v>0.4</v>
       </c>
       <c r="AS100" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT100" t="n">
         <v>0.43</v>
@@ -22015,7 +22015,7 @@
         <v>1.14</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU106" t="n">
         <v>0.95</v>
@@ -22624,7 +22624,7 @@
         <v>1.57</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU109" t="n">
         <v>1.21</v>
@@ -22824,7 +22824,7 @@
         <v>0.5</v>
       </c>
       <c r="AS110" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT110" t="n">
         <v>0.57</v>
@@ -23639,7 +23639,7 @@
         <v>1.86</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU114" t="n">
         <v>1.48</v>
@@ -24042,7 +24042,7 @@
         <v>0.33</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT116" t="n">
         <v>0.43</v>
@@ -24245,7 +24245,7 @@
         <v>1.2</v>
       </c>
       <c r="AS117" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT117" t="n">
         <v>1.17</v>
@@ -24451,7 +24451,7 @@
         <v>0.29</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU118" t="n">
         <v>1.22</v>
@@ -24857,7 +24857,7 @@
         <v>1.57</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU120" t="n">
         <v>1.29</v>
@@ -26330,6 +26330,615 @@
       </c>
       <c r="BK127" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="n">
+        <v>4407749</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>44948.5</v>
+      </c>
+      <c r="F128" t="n">
+        <v>15</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>El Daklyeh FC</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Al Mokawloon</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="n">
+        <v>2</v>
+      </c>
+      <c r="N128" t="n">
+        <v>3</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>['54', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q128" t="n">
+        <v>1</v>
+      </c>
+      <c r="R128" t="n">
+        <v>9</v>
+      </c>
+      <c r="S128" t="n">
+        <v>10</v>
+      </c>
+      <c r="T128" t="n">
+        <v>4</v>
+      </c>
+      <c r="U128" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V128" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W128" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X128" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB128" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC128" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="AD128" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AE128" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AF128" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG128" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH128" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI128" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ128" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK128" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL128" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM128" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN128" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO128" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AP128" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ128" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR128" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS128" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT128" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU128" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AV128" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AW128" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AX128" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AY128" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ128" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BA128" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB128" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BC128" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BD128" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE128" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF128" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG128" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI128" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ128" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK128" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="n">
+        <v>4407750</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>44949.40625</v>
+      </c>
+      <c r="F129" t="n">
+        <v>15</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Pharco</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>ENPPI</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="n">
+        <v>1</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>['90+9']</t>
+        </is>
+      </c>
+      <c r="Q129" t="n">
+        <v>6</v>
+      </c>
+      <c r="R129" t="n">
+        <v>4</v>
+      </c>
+      <c r="S129" t="n">
+        <v>10</v>
+      </c>
+      <c r="T129" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="U129" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V129" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="W129" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="X129" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB129" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC129" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AD129" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AE129" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AF129" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG129" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AH129" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI129" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ129" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AK129" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL129" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AM129" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AN129" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO129" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AP129" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AQ129" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR129" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS129" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AT129" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU129" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AV129" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW129" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AX129" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AY129" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ129" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA129" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB129" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC129" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD129" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BE129" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF129" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG129" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH129" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI129" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ129" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK129" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="n">
+        <v>4407751</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>44949.40625</v>
+      </c>
+      <c r="F130" t="n">
+        <v>15</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Aswan FC</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Ismaily SC</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q130" t="n">
+        <v>5</v>
+      </c>
+      <c r="R130" t="n">
+        <v>1</v>
+      </c>
+      <c r="S130" t="n">
+        <v>6</v>
+      </c>
+      <c r="T130" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U130" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V130" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W130" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X130" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB130" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC130" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AD130" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AE130" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AF130" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG130" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH130" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI130" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ130" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AK130" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AL130" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM130" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN130" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO130" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AP130" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ130" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR130" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS130" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT130" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU130" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV130" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW130" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX130" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AY130" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ130" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BA130" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB130" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC130" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BD130" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BE130" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BF130" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG130" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH130" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI130" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ130" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK130" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK130"/>
+  <dimension ref="A1:BK136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1715,7 +1715,7 @@
         <v>0.57</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0.75</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>2.71</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT13" t="n">
         <v>0.88</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT14" t="n">
         <v>0.88</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT15" t="n">
         <v>1</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT16" t="n">
         <v>1.5</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>0.88</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4960,10 +4960,10 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU22" t="n">
         <v>1.15</v>
@@ -5978,7 +5978,7 @@
         <v>0.57</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU27" t="n">
         <v>0.93</v>
@@ -6181,7 +6181,7 @@
         <v>2.71</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU28" t="n">
         <v>0.8</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT29" t="n">
         <v>0.88</v>
@@ -6790,7 +6790,7 @@
         <v>1.14</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU31" t="n">
         <v>0.76</v>
@@ -7193,7 +7193,7 @@
         <v>2</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT33" t="n">
         <v>1.29</v>
@@ -7805,7 +7805,7 @@
         <v>2</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU36" t="n">
         <v>1.08</v>
@@ -8411,10 +8411,10 @@
         <v>0.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU39" t="n">
         <v>1.58</v>
@@ -8617,7 +8617,7 @@
         <v>1.29</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU40" t="n">
         <v>1.74</v>
@@ -9223,7 +9223,7 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT43" t="n">
         <v>2.71</v>
@@ -9429,7 +9429,7 @@
         <v>1.57</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU44" t="n">
         <v>1.02</v>
@@ -9632,7 +9632,7 @@
         <v>0.57</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU45" t="n">
         <v>0.95</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT46" t="n">
         <v>0.88</v>
@@ -10035,7 +10035,7 @@
         <v>3</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT47" t="n">
         <v>1.29</v>
@@ -10238,7 +10238,7 @@
         <v>0.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT48" t="n">
         <v>0.88</v>
@@ -10441,7 +10441,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT49" t="n">
         <v>1</v>
@@ -10644,7 +10644,7 @@
         <v>0.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT50" t="n">
         <v>1.5</v>
@@ -10850,7 +10850,7 @@
         <v>1.57</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU51" t="n">
         <v>1.01</v>
@@ -11053,7 +11053,7 @@
         <v>2</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU52" t="n">
         <v>1.24</v>
@@ -11253,10 +11253,10 @@
         <v>0.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU53" t="n">
         <v>1.6</v>
@@ -11659,7 +11659,7 @@
         <v>1.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT55" t="n">
         <v>1.29</v>
@@ -11862,10 +11862,10 @@
         <v>0.33</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU56" t="n">
         <v>1.51</v>
@@ -12065,7 +12065,7 @@
         <v>1</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT57" t="n">
         <v>0.88</v>
@@ -12471,7 +12471,7 @@
         <v>0.67</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT59" t="n">
         <v>0.86</v>
@@ -12880,7 +12880,7 @@
         <v>0.29</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU61" t="n">
         <v>1.21</v>
@@ -13083,7 +13083,7 @@
         <v>1.14</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU62" t="n">
         <v>0.76</v>
@@ -13286,7 +13286,7 @@
         <v>1.14</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU63" t="n">
         <v>1.77</v>
@@ -13486,7 +13486,7 @@
         <v>2.33</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT64" t="n">
         <v>2.43</v>
@@ -13689,7 +13689,7 @@
         <v>0.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT65" t="n">
         <v>1</v>
@@ -13892,7 +13892,7 @@
         <v>2.33</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT66" t="n">
         <v>1.29</v>
@@ -14095,7 +14095,7 @@
         <v>1</v>
       </c>
       <c r="AS67" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT67" t="n">
         <v>1.29</v>
@@ -14707,7 +14707,7 @@
         <v>1.57</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU70" t="n">
         <v>1.17</v>
@@ -15113,7 +15113,7 @@
         <v>2</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU72" t="n">
         <v>1.07</v>
@@ -15516,7 +15516,7 @@
         <v>1</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT74" t="n">
         <v>1.17</v>
@@ -15722,7 +15722,7 @@
         <v>0.75</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU75" t="n">
         <v>0.92</v>
@@ -16125,7 +16125,7 @@
         <v>0.5</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT77" t="n">
         <v>0.86</v>
@@ -16331,7 +16331,7 @@
         <v>1.14</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU78" t="n">
         <v>0.93</v>
@@ -16531,10 +16531,10 @@
         <v>0.25</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU79" t="n">
         <v>1.41</v>
@@ -16737,7 +16737,7 @@
         <v>0.29</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU80" t="n">
         <v>1.19</v>
@@ -16940,7 +16940,7 @@
         <v>2.14</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU81" t="n">
         <v>1.58</v>
@@ -17140,7 +17140,7 @@
         <v>1.25</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT82" t="n">
         <v>1.43</v>
@@ -17752,7 +17752,7 @@
         <v>1.57</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU85" t="n">
         <v>1.1</v>
@@ -18155,7 +18155,7 @@
         <v>3</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT87" t="n">
         <v>2.71</v>
@@ -18764,7 +18764,7 @@
         <v>1.75</v>
       </c>
       <c r="AS90" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT90" t="n">
         <v>1.29</v>
@@ -19173,7 +19173,7 @@
         <v>1.57</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU92" t="n">
         <v>1.39</v>
@@ -19376,7 +19376,7 @@
         <v>0.75</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU93" t="n">
         <v>0.92</v>
@@ -19576,7 +19576,7 @@
         <v>0.6</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT94" t="n">
         <v>1.13</v>
@@ -19779,10 +19779,10 @@
         <v>1.4</v>
       </c>
       <c r="AS95" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU95" t="n">
         <v>1.53</v>
@@ -19982,7 +19982,7 @@
         <v>0.75</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT96" t="n">
         <v>1.17</v>
@@ -20188,7 +20188,7 @@
         <v>2.14</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU97" t="n">
         <v>1.6</v>
@@ -20391,7 +20391,7 @@
         <v>0.29</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU98" t="n">
         <v>1.18</v>
@@ -20591,7 +20591,7 @@
         <v>1.2</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT99" t="n">
         <v>1.43</v>
@@ -20797,7 +20797,7 @@
         <v>0.88</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU100" t="n">
         <v>1.11</v>
@@ -21809,7 +21809,7 @@
         <v>2.2</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT105" t="n">
         <v>2.43</v>
@@ -22418,7 +22418,7 @@
         <v>0.6</v>
       </c>
       <c r="AS108" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT108" t="n">
         <v>0.86</v>
@@ -22827,7 +22827,7 @@
         <v>0.75</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU110" t="n">
         <v>0.93</v>
@@ -23027,10 +23027,10 @@
         <v>0.5</v>
       </c>
       <c r="AS111" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AU111" t="n">
         <v>1.41</v>
@@ -23230,10 +23230,10 @@
         <v>1.17</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AU112" t="n">
         <v>1.25</v>
@@ -23433,10 +23433,10 @@
         <v>1.83</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU113" t="n">
         <v>1.68</v>
@@ -23636,7 +23636,7 @@
         <v>1</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT114" t="n">
         <v>1.13</v>
@@ -23839,10 +23839,10 @@
         <v>1.5</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU115" t="n">
         <v>1.57</v>
@@ -24045,7 +24045,7 @@
         <v>1.57</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU116" t="n">
         <v>1.42</v>
@@ -26072,7 +26072,7 @@
         <v>1.17</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT126" t="n">
         <v>1.43</v>
@@ -26939,6 +26939,1224 @@
       </c>
       <c r="BK130" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="n">
+        <v>4407753</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>44949.58333333334</v>
+      </c>
+      <c r="F131" t="n">
+        <v>15</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Haras El Hodood</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N131" t="n">
+        <v>1</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q131" t="n">
+        <v>5</v>
+      </c>
+      <c r="R131" t="n">
+        <v>1</v>
+      </c>
+      <c r="S131" t="n">
+        <v>6</v>
+      </c>
+      <c r="T131" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U131" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V131" t="n">
+        <v>5</v>
+      </c>
+      <c r="W131" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X131" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA131" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB131" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AC131" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD131" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE131" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF131" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG131" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH131" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI131" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ131" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK131" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL131" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM131" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN131" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO131" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP131" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ131" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR131" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AS131" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT131" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AU131" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV131" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW131" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AX131" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY131" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ131" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BA131" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB131" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC131" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD131" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE131" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BF131" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG131" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH131" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI131" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ131" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK131" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="n">
+        <v>4407752</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>44949.58333333334</v>
+      </c>
+      <c r="F132" t="n">
+        <v>15</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Ceramica Cleopatra</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>El Geish</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q132" t="n">
+        <v>4</v>
+      </c>
+      <c r="R132" t="n">
+        <v>3</v>
+      </c>
+      <c r="S132" t="n">
+        <v>7</v>
+      </c>
+      <c r="T132" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U132" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V132" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W132" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X132" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA132" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB132" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC132" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD132" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE132" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF132" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG132" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH132" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI132" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ132" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK132" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL132" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM132" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN132" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO132" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP132" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ132" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR132" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AS132" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT132" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU132" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV132" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW132" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AX132" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY132" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AZ132" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="BA132" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB132" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC132" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD132" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BE132" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF132" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG132" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH132" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI132" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ132" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK132" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="n">
+        <v>4407754</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>44950.40625</v>
+      </c>
+      <c r="F133" t="n">
+        <v>15</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Coca-Cola</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Al Masry</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="n">
+        <v>2</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="Q133" t="n">
+        <v>2</v>
+      </c>
+      <c r="R133" t="n">
+        <v>3</v>
+      </c>
+      <c r="S133" t="n">
+        <v>5</v>
+      </c>
+      <c r="T133" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U133" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V133" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W133" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X133" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB133" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC133" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AD133" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AE133" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF133" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG133" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AH133" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI133" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ133" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AK133" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL133" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM133" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN133" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO133" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP133" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ133" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR133" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS133" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT133" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU133" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AV133" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW133" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AX133" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY133" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ133" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BA133" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB133" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC133" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD133" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE133" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF133" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG133" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH133" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI133" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ133" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK133" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="n">
+        <v>4407755</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>44950.5</v>
+      </c>
+      <c r="F134" t="n">
+        <v>15</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Ghazl El Mehalla</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Zamalek</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>2</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>2</v>
+      </c>
+      <c r="L134" t="n">
+        <v>2</v>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="n">
+        <v>3</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>['4', '19']</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="Q134" t="n">
+        <v>3</v>
+      </c>
+      <c r="R134" t="n">
+        <v>7</v>
+      </c>
+      <c r="S134" t="n">
+        <v>10</v>
+      </c>
+      <c r="T134" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="U134" t="n">
+        <v>2</v>
+      </c>
+      <c r="V134" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="W134" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X134" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA134" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB134" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC134" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="AD134" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AE134" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AF134" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG134" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH134" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI134" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ134" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK134" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL134" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AM134" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN134" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AO134" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP134" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ134" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR134" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS134" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT134" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU134" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV134" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW134" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX134" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AY134" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ134" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BA134" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB134" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC134" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BD134" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE134" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF134" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG134" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH134" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI134" t="n">
+        <v>23</v>
+      </c>
+      <c r="BJ134" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK134" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="n">
+        <v>4407756</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>44950.58333333334</v>
+      </c>
+      <c r="F135" t="n">
+        <v>15</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Smouha SC</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Pyramids FC</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="n">
+        <v>1</v>
+      </c>
+      <c r="K135" t="n">
+        <v>2</v>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="n">
+        <v>2</v>
+      </c>
+      <c r="N135" t="n">
+        <v>3</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>['16', '56']</t>
+        </is>
+      </c>
+      <c r="Q135" t="n">
+        <v>4</v>
+      </c>
+      <c r="R135" t="n">
+        <v>4</v>
+      </c>
+      <c r="S135" t="n">
+        <v>8</v>
+      </c>
+      <c r="T135" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="U135" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V135" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W135" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X135" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB135" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC135" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="AD135" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AE135" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AF135" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG135" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AH135" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI135" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ135" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AK135" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL135" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM135" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN135" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AO135" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP135" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ135" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR135" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS135" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT135" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU135" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV135" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AW135" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AX135" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AY135" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ135" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BA135" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB135" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC135" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BD135" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BE135" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF135" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG135" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH135" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI135" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ135" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK135" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="n">
+        <v>4407757</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>44950.58333333334</v>
+      </c>
+      <c r="F136" t="n">
+        <v>15</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Al Ahly</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>National Bank of Egypt</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0</v>
+      </c>
+      <c r="N136" t="n">
+        <v>1</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q136" t="n">
+        <v>9</v>
+      </c>
+      <c r="R136" t="n">
+        <v>3</v>
+      </c>
+      <c r="S136" t="n">
+        <v>12</v>
+      </c>
+      <c r="T136" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U136" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V136" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W136" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X136" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC136" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="AE136" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="AF136" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG136" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH136" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI136" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ136" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK136" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AL136" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM136" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN136" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO136" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP136" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AQ136" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AR136" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS136" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT136" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU136" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV136" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW136" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AX136" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AY136" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ136" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="BA136" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB136" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC136" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BD136" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BE136" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF136" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH136" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI136" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ136" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK136" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK136"/>
+  <dimension ref="A1:BK139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AT5" t="n">
         <v>2.71</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AT8" t="n">
         <v>1.29</v>
@@ -2527,7 +2527,7 @@
         <v>0.75</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>2</v>
       </c>
       <c r="AT15" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT20" t="n">
         <v>1.29</v>
@@ -4963,7 +4963,7 @@
         <v>2</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU22" t="n">
         <v>1.15</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AT23" t="n">
         <v>0.86</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT35" t="n">
         <v>0.86</v>
@@ -8005,7 +8005,7 @@
         <v>1.5</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AT37" t="n">
         <v>1.17</v>
@@ -8208,7 +8208,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AT38" t="n">
         <v>1.43</v>
@@ -8414,7 +8414,7 @@
         <v>2.25</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU39" t="n">
         <v>1.58</v>
@@ -9023,7 +9023,7 @@
         <v>0.88</v>
       </c>
       <c r="AT42" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU42" t="n">
         <v>1.19</v>
@@ -10038,7 +10038,7 @@
         <v>1.75</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU47" t="n">
         <v>1.74</v>
@@ -10444,7 +10444,7 @@
         <v>2</v>
       </c>
       <c r="AT49" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU49" t="n">
         <v>1.38</v>
@@ -11456,7 +11456,7 @@
         <v>3</v>
       </c>
       <c r="AS54" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AT54" t="n">
         <v>2.43</v>
@@ -11662,7 +11662,7 @@
         <v>2.25</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU55" t="n">
         <v>1.45</v>
@@ -11865,7 +11865,7 @@
         <v>2</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU56" t="n">
         <v>1.51</v>
@@ -12674,7 +12674,7 @@
         <v>1</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AT60" t="n">
         <v>1.13</v>
@@ -12877,7 +12877,7 @@
         <v>1.33</v>
       </c>
       <c r="AS61" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AT61" t="n">
         <v>1.38</v>
@@ -13692,7 +13692,7 @@
         <v>1.11</v>
       </c>
       <c r="AT65" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU65" t="n">
         <v>1.7</v>
@@ -14098,7 +14098,7 @@
         <v>0.75</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU67" t="n">
         <v>1.23</v>
@@ -15922,7 +15922,7 @@
         <v>0.75</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT76" t="n">
         <v>1.13</v>
@@ -16534,7 +16534,7 @@
         <v>1.75</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU79" t="n">
         <v>1.41</v>
@@ -16734,7 +16734,7 @@
         <v>0.75</v>
       </c>
       <c r="AS80" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AT80" t="n">
         <v>1.38</v>
@@ -16937,7 +16937,7 @@
         <v>2.5</v>
       </c>
       <c r="AS81" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AT81" t="n">
         <v>1.5</v>
@@ -17346,7 +17346,7 @@
         <v>2.71</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU83" t="n">
         <v>1.61</v>
@@ -17549,7 +17549,7 @@
         <v>0.57</v>
       </c>
       <c r="AT84" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU84" t="n">
         <v>1.04</v>
@@ -19170,7 +19170,7 @@
         <v>2.2</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT92" t="n">
         <v>1.5</v>
@@ -20185,7 +20185,7 @@
         <v>0.4</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AT97" t="n">
         <v>0.38</v>
@@ -20388,7 +20388,7 @@
         <v>0.4</v>
       </c>
       <c r="AS98" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AT98" t="n">
         <v>0.5</v>
@@ -20797,7 +20797,7 @@
         <v>0.88</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU100" t="n">
         <v>1.11</v>
@@ -21203,7 +21203,7 @@
         <v>2</v>
       </c>
       <c r="AT102" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU102" t="n">
         <v>1.36</v>
@@ -21609,7 +21609,7 @@
         <v>1.29</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU104" t="n">
         <v>1.64</v>
@@ -23030,7 +23030,7 @@
         <v>0.75</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU111" t="n">
         <v>1.41</v>
@@ -24042,7 +24042,7 @@
         <v>0.33</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT116" t="n">
         <v>0.38</v>
@@ -24448,7 +24448,7 @@
         <v>1</v>
       </c>
       <c r="AS118" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AT118" t="n">
         <v>1.5</v>
@@ -24654,7 +24654,7 @@
         <v>1.14</v>
       </c>
       <c r="AT119" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU119" t="n">
         <v>1</v>
@@ -25260,7 +25260,7 @@
         <v>1</v>
       </c>
       <c r="AS122" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AT122" t="n">
         <v>0.88</v>
@@ -25466,7 +25466,7 @@
         <v>1.14</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU123" t="n">
         <v>1.59</v>
@@ -26884,7 +26884,7 @@
         <v>0.86</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT130" t="n">
         <v>0.88</v>
@@ -27293,7 +27293,7 @@
         <v>1.11</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU132" t="n">
         <v>1.5</v>
@@ -28157,6 +28157,615 @@
       </c>
       <c r="BK136" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="n">
+        <v>4407758</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>44953.40625</v>
+      </c>
+      <c r="F137" t="n">
+        <v>16</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Aswan FC</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>El Geish</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1</v>
+      </c>
+      <c r="K137" t="n">
+        <v>2</v>
+      </c>
+      <c r="L137" t="n">
+        <v>2</v>
+      </c>
+      <c r="M137" t="n">
+        <v>2</v>
+      </c>
+      <c r="N137" t="n">
+        <v>4</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>['22', '59']</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>['45+4', '46']</t>
+        </is>
+      </c>
+      <c r="Q137" t="n">
+        <v>2</v>
+      </c>
+      <c r="R137" t="n">
+        <v>4</v>
+      </c>
+      <c r="S137" t="n">
+        <v>6</v>
+      </c>
+      <c r="T137" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U137" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V137" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W137" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X137" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG137" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AH137" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI137" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ137" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK137" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AL137" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM137" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN137" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO137" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AP137" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ137" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR137" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS137" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT137" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU137" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV137" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW137" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AX137" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AY137" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="AZ137" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BA137" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB137" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC137" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD137" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE137" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BF137" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG137" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH137" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI137" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ137" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK137" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>4407759</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>44953.5</v>
+      </c>
+      <c r="F138" t="n">
+        <v>16</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Ismaily SC</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>El Daklyeh FC</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>2</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>2</v>
+      </c>
+      <c r="L138" t="n">
+        <v>3</v>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="n">
+        <v>4</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>['22', '41', '85']</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="Q138" t="n">
+        <v>7</v>
+      </c>
+      <c r="R138" t="n">
+        <v>4</v>
+      </c>
+      <c r="S138" t="n">
+        <v>11</v>
+      </c>
+      <c r="T138" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="U138" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="V138" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="W138" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X138" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AI138" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AJ138" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK138" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AL138" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AM138" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN138" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO138" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AP138" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ138" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AR138" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS138" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AT138" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU138" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV138" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW138" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AX138" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY138" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AZ138" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="BA138" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB138" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC138" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BD138" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BE138" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF138" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG138" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH138" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI138" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ138" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK138" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>4407760</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>44953.58333333334</v>
+      </c>
+      <c r="F139" t="n">
+        <v>16</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Al Mokawloon</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q139" t="n">
+        <v>12</v>
+      </c>
+      <c r="R139" t="n">
+        <v>1</v>
+      </c>
+      <c r="S139" t="n">
+        <v>13</v>
+      </c>
+      <c r="T139" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="U139" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V139" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="W139" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X139" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI139" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AK139" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AL139" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM139" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AN139" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO139" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP139" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AQ139" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AR139" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS139" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT139" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU139" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV139" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW139" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX139" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AY139" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AZ139" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BA139" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB139" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC139" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD139" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BE139" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BF139" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG139" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH139" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI139" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ139" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK139" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK139"/>
+  <dimension ref="A1:BK140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.14</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT4" t="n">
         <v>1.17</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT21" t="n">
         <v>1.13</v>
@@ -5166,7 +5166,7 @@
         <v>2</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU23" t="n">
         <v>1.7</v>
@@ -7602,7 +7602,7 @@
         <v>1.5</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU35" t="n">
         <v>1.4</v>
@@ -8614,7 +8614,7 @@
         <v>0.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT40" t="n">
         <v>0.5</v>
@@ -12474,7 +12474,7 @@
         <v>2</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU59" t="n">
         <v>1.97</v>
@@ -15313,7 +15313,7 @@
         <v>0.67</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT73" t="n">
         <v>1.5</v>
@@ -16128,7 +16128,7 @@
         <v>2</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU77" t="n">
         <v>1.56</v>
@@ -18358,7 +18358,7 @@
         <v>0.6</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT88" t="n">
         <v>0.88</v>
@@ -21606,7 +21606,7 @@
         <v>1.2</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT104" t="n">
         <v>1.25</v>
@@ -22421,7 +22421,7 @@
         <v>0.75</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU108" t="n">
         <v>1.4</v>
@@ -25669,7 +25669,7 @@
         <v>2.71</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU124" t="n">
         <v>1.82</v>
@@ -25869,7 +25869,7 @@
         <v>1.33</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT125" t="n">
         <v>1.29</v>
@@ -28766,6 +28766,209 @@
       </c>
       <c r="BK139" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>4407761</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>44954.5</v>
+      </c>
+      <c r="F140" t="n">
+        <v>16</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Al Masry</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Pharco</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>2</v>
+      </c>
+      <c r="K140" t="n">
+        <v>2</v>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="n">
+        <v>2</v>
+      </c>
+      <c r="N140" t="n">
+        <v>3</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>['1', '45+5']</t>
+        </is>
+      </c>
+      <c r="Q140" t="n">
+        <v>10</v>
+      </c>
+      <c r="R140" t="n">
+        <v>2</v>
+      </c>
+      <c r="S140" t="n">
+        <v>12</v>
+      </c>
+      <c r="T140" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U140" t="n">
+        <v>2</v>
+      </c>
+      <c r="V140" t="n">
+        <v>5</v>
+      </c>
+      <c r="W140" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X140" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI140" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ140" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK140" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL140" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM140" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN140" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO140" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP140" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ140" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR140" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS140" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT140" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU140" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV140" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AW140" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX140" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY140" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AZ140" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BA140" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB140" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC140" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BD140" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BE140" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF140" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG140" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH140" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI140" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ140" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK140" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK140"/>
+  <dimension ref="A1:BK141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT6" t="n">
         <v>1.38</v>
@@ -1918,7 +1918,7 @@
         <v>2</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -5369,7 +5369,7 @@
         <v>1.14</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU24" t="n">
         <v>0.68</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT27" t="n">
         <v>1.5</v>
@@ -8211,7 +8211,7 @@
         <v>0.63</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU38" t="n">
         <v>0.54</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT45" t="n">
         <v>0.38</v>
@@ -12271,7 +12271,7 @@
         <v>0.75</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU58" t="n">
         <v>0.97</v>
@@ -14501,7 +14501,7 @@
         <v>0.67</v>
       </c>
       <c r="AS69" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT69" t="n">
         <v>0.88</v>
@@ -17143,7 +17143,7 @@
         <v>2.25</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU82" t="n">
         <v>1.65</v>
@@ -17546,7 +17546,7 @@
         <v>0.5</v>
       </c>
       <c r="AS84" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT84" t="n">
         <v>0.88</v>
@@ -20594,7 +20594,7 @@
         <v>1.75</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU99" t="n">
         <v>1.26</v>
@@ -20997,7 +20997,7 @@
         <v>2.6</v>
       </c>
       <c r="AS101" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT101" t="n">
         <v>2.71</v>
@@ -25057,7 +25057,7 @@
         <v>2.33</v>
       </c>
       <c r="AS121" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT121" t="n">
         <v>2.43</v>
@@ -26075,7 +26075,7 @@
         <v>1.11</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU126" t="n">
         <v>1.5</v>
@@ -28969,6 +28969,209 @@
       </c>
       <c r="BK140" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>4407762</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>44955.40625</v>
+      </c>
+      <c r="F141" t="n">
+        <v>16</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>ENPPI</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Smouha SC</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>1</v>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0</v>
+      </c>
+      <c r="M141" t="n">
+        <v>2</v>
+      </c>
+      <c r="N141" t="n">
+        <v>2</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>['25', '55']</t>
+        </is>
+      </c>
+      <c r="Q141" t="n">
+        <v>9</v>
+      </c>
+      <c r="R141" t="n">
+        <v>3</v>
+      </c>
+      <c r="S141" t="n">
+        <v>12</v>
+      </c>
+      <c r="T141" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U141" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V141" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W141" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X141" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC141" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD141" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF141" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG141" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH141" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI141" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AJ141" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AK141" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AL141" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM141" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN141" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO141" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AP141" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ141" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AR141" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS141" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT141" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AU141" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AV141" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW141" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AX141" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AY141" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ141" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BA141" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB141" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC141" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BD141" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BE141" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF141" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG141" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH141" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI141" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ141" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK141" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK141"/>
+  <dimension ref="A1:BK143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>1.13</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT7" t="n">
         <v>1.63</v>
@@ -2324,7 +2324,7 @@
         <v>1.14</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT11" t="n">
         <v>1.38</v>
@@ -5572,7 +5572,7 @@
         <v>1.14</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU25" t="n">
         <v>1.34</v>
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT28" t="n">
         <v>0.5</v>
@@ -7399,7 +7399,7 @@
         <v>0.75</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AU34" t="n">
         <v>1.19</v>
@@ -7802,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="AS36" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT36" t="n">
         <v>1.38</v>
@@ -8008,7 +8008,7 @@
         <v>2</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU37" t="n">
         <v>1.66</v>
@@ -8817,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT41" t="n">
         <v>1.5</v>
@@ -11050,7 +11050,7 @@
         <v>2</v>
       </c>
       <c r="AS52" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT52" t="n">
         <v>1.38</v>
@@ -11459,7 +11459,7 @@
         <v>0.63</v>
       </c>
       <c r="AT54" t="n">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AU54" t="n">
         <v>0.89</v>
@@ -13489,7 +13489,7 @@
         <v>2.25</v>
       </c>
       <c r="AT64" t="n">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AU64" t="n">
         <v>1.49</v>
@@ -14298,7 +14298,7 @@
         <v>0.75</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT68" t="n">
         <v>0.88</v>
@@ -15110,7 +15110,7 @@
         <v>0.33</v>
       </c>
       <c r="AS72" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT72" t="n">
         <v>0.38</v>
@@ -15519,7 +15519,7 @@
         <v>2</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU74" t="n">
         <v>2</v>
@@ -17343,7 +17343,7 @@
         <v>1.5</v>
       </c>
       <c r="AS83" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT83" t="n">
         <v>1.25</v>
@@ -17955,7 +17955,7 @@
         <v>0.88</v>
       </c>
       <c r="AT86" t="n">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AU86" t="n">
         <v>1.01</v>
@@ -18561,7 +18561,7 @@
         <v>1.25</v>
       </c>
       <c r="AS89" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT89" t="n">
         <v>0.88</v>
@@ -19985,7 +19985,7 @@
         <v>2</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU96" t="n">
         <v>1.5</v>
@@ -21200,7 +21200,7 @@
         <v>0.6</v>
       </c>
       <c r="AS102" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT102" t="n">
         <v>0.88</v>
@@ -21403,7 +21403,7 @@
         <v>1.6</v>
       </c>
       <c r="AS103" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT103" t="n">
         <v>1.29</v>
@@ -21812,7 +21812,7 @@
         <v>1.11</v>
       </c>
       <c r="AT105" t="n">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AU105" t="n">
         <v>1.57</v>
@@ -24248,7 +24248,7 @@
         <v>0.88</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU117" t="n">
         <v>1.09</v>
@@ -25060,7 +25060,7 @@
         <v>0.5</v>
       </c>
       <c r="AT121" t="n">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AU121" t="n">
         <v>1.04</v>
@@ -25666,7 +25666,7 @@
         <v>1</v>
       </c>
       <c r="AS124" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT124" t="n">
         <v>1.13</v>
@@ -26275,7 +26275,7 @@
         <v>2.67</v>
       </c>
       <c r="AS127" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT127" t="n">
         <v>2.71</v>
@@ -29172,6 +29172,412 @@
       </c>
       <c r="BK141" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>4407763</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>44955.58333333334</v>
+      </c>
+      <c r="F142" t="n">
+        <v>16</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Pyramids FC</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Ceramica Cleopatra</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>1</v>
+      </c>
+      <c r="K142" t="n">
+        <v>2</v>
+      </c>
+      <c r="L142" t="n">
+        <v>2</v>
+      </c>
+      <c r="M142" t="n">
+        <v>2</v>
+      </c>
+      <c r="N142" t="n">
+        <v>4</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>['18', '58']</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>['35', '90']</t>
+        </is>
+      </c>
+      <c r="Q142" t="n">
+        <v>3</v>
+      </c>
+      <c r="R142" t="n">
+        <v>9</v>
+      </c>
+      <c r="S142" t="n">
+        <v>12</v>
+      </c>
+      <c r="T142" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U142" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V142" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="W142" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X142" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI142" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ142" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK142" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL142" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM142" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN142" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO142" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP142" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AQ142" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AR142" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS142" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT142" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AU142" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV142" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AW142" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AX142" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AY142" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ142" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="BA142" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB142" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC142" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD142" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE142" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF142" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG142" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH142" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI142" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ142" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK142" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>4407765</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>44955.58333333334</v>
+      </c>
+      <c r="F143" t="n">
+        <v>16</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Zamalek</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Coca-Cola</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>2</v>
+      </c>
+      <c r="J143" t="n">
+        <v>1</v>
+      </c>
+      <c r="K143" t="n">
+        <v>3</v>
+      </c>
+      <c r="L143" t="n">
+        <v>2</v>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="n">
+        <v>3</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>['14', '34']</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="Q143" t="n">
+        <v>2</v>
+      </c>
+      <c r="R143" t="n">
+        <v>3</v>
+      </c>
+      <c r="S143" t="n">
+        <v>5</v>
+      </c>
+      <c r="T143" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U143" t="n">
+        <v>2</v>
+      </c>
+      <c r="V143" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="W143" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X143" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI143" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AJ143" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AK143" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL143" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN143" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO143" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP143" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AQ143" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR143" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AS143" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AT143" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AU143" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV143" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW143" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AX143" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY143" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ143" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="BA143" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB143" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC143" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD143" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BE143" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF143" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG143" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH143" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI143" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ143" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK143" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK143"/>
+  <dimension ref="A1:BK144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT3" t="n">
         <v>1.13</v>
@@ -2121,7 +2121,7 @@
         <v>2</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>1.5</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU20" t="n">
         <v>1.11</v>
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT25" t="n">
         <v>1.14</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT32" t="n">
         <v>1.13</v>
@@ -7196,7 +7196,7 @@
         <v>2</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU33" t="n">
         <v>2.03</v>
@@ -13283,7 +13283,7 @@
         <v>2.33</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT63" t="n">
         <v>1.5</v>
@@ -13895,7 +13895,7 @@
         <v>1.75</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU66" t="n">
         <v>1.47</v>
@@ -18767,7 +18767,7 @@
         <v>0.75</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU90" t="n">
         <v>1.33</v>
@@ -18967,7 +18967,7 @@
         <v>0.75</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT91" t="n">
         <v>1.5</v>
@@ -21406,7 +21406,7 @@
         <v>2.5</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU103" t="n">
         <v>1.68</v>
@@ -22215,7 +22215,7 @@
         <v>1</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT107" t="n">
         <v>0.88</v>
@@ -25463,7 +25463,7 @@
         <v>1</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT123" t="n">
         <v>1.25</v>
@@ -25872,7 +25872,7 @@
         <v>1.13</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU125" t="n">
         <v>1.61</v>
@@ -29578,6 +29578,209 @@
       </c>
       <c r="BK143" t="n">
         <v>17</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>4407766</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>44956.5</v>
+      </c>
+      <c r="F144" t="n">
+        <v>16</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>National Bank of Egypt</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Ghazl El Mehalla</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>1</v>
+      </c>
+      <c r="K144" t="n">
+        <v>2</v>
+      </c>
+      <c r="L144" t="n">
+        <v>2</v>
+      </c>
+      <c r="M144" t="n">
+        <v>2</v>
+      </c>
+      <c r="N144" t="n">
+        <v>4</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>['4', '65']</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>['16', '90+7']</t>
+        </is>
+      </c>
+      <c r="Q144" t="n">
+        <v>1</v>
+      </c>
+      <c r="R144" t="n">
+        <v>2</v>
+      </c>
+      <c r="S144" t="n">
+        <v>3</v>
+      </c>
+      <c r="T144" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="U144" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="V144" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="W144" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X144" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD144" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AE144" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF144" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG144" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AH144" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI144" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AJ144" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AK144" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AL144" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AM144" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN144" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO144" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP144" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AQ144" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR144" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS144" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT144" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU144" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV144" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AW144" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AX144" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY144" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ144" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="BA144" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB144" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC144" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD144" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BE144" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF144" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG144" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH144" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI144" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ144" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK144" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK144"/>
+  <dimension ref="A1:BK148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT10" t="n">
         <v>0.5600000000000001</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT12" t="n">
         <v>1.5</v>
@@ -3136,7 +3136,7 @@
         <v>2.25</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT15" t="n">
         <v>0.88</v>
@@ -4151,7 +4151,7 @@
         <v>1.57</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>0.88</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>1.13</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU21" t="n">
         <v>1.98</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT22" t="n">
         <v>0.5600000000000001</v>
@@ -5772,7 +5772,7 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT26" t="n">
         <v>2.71</v>
@@ -6384,7 +6384,7 @@
         <v>1.75</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU29" t="n">
         <v>1.91</v>
@@ -6587,7 +6587,7 @@
         <v>0.88</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU30" t="n">
         <v>1.45</v>
@@ -6993,7 +6993,7 @@
         <v>1.13</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU32" t="n">
         <v>1.48</v>
@@ -7193,7 +7193,7 @@
         <v>2</v>
       </c>
       <c r="AS33" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT33" t="n">
         <v>1.25</v>
@@ -7396,7 +7396,7 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT34" t="n">
         <v>2.13</v>
@@ -9223,7 +9223,7 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT43" t="n">
         <v>2.71</v>
@@ -9632,7 +9632,7 @@
         <v>0.5</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AU45" t="n">
         <v>0.95</v>
@@ -9835,7 +9835,7 @@
         <v>0.75</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU46" t="n">
         <v>0.89</v>
@@ -10238,10 +10238,10 @@
         <v>0.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU48" t="n">
         <v>1.59</v>
@@ -10441,7 +10441,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT49" t="n">
         <v>0.88</v>
@@ -11253,10 +11253,10 @@
         <v>0.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AU53" t="n">
         <v>1.6</v>
@@ -11862,7 +11862,7 @@
         <v>0.33</v>
       </c>
       <c r="AS56" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT56" t="n">
         <v>0.5600000000000001</v>
@@ -12065,10 +12065,10 @@
         <v>1</v>
       </c>
       <c r="AS57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT57" t="n">
         <v>1.11</v>
-      </c>
-      <c r="AT57" t="n">
-        <v>0.88</v>
       </c>
       <c r="AU57" t="n">
         <v>1.79</v>
@@ -12268,7 +12268,7 @@
         <v>1.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT58" t="n">
         <v>1.63</v>
@@ -12471,7 +12471,7 @@
         <v>0.67</v>
       </c>
       <c r="AS59" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT59" t="n">
         <v>1.13</v>
@@ -12677,7 +12677,7 @@
         <v>2</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU60" t="n">
         <v>1.59</v>
@@ -13689,7 +13689,7 @@
         <v>0.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT65" t="n">
         <v>0.88</v>
@@ -14301,7 +14301,7 @@
         <v>2.5</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU68" t="n">
         <v>1.51</v>
@@ -14504,7 +14504,7 @@
         <v>0.5</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU69" t="n">
         <v>0.89</v>
@@ -15113,7 +15113,7 @@
         <v>2.13</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AU72" t="n">
         <v>1.07</v>
@@ -15516,7 +15516,7 @@
         <v>1</v>
       </c>
       <c r="AS74" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT74" t="n">
         <v>1.14</v>
@@ -15719,7 +15719,7 @@
         <v>1.75</v>
       </c>
       <c r="AS75" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT75" t="n">
         <v>1.38</v>
@@ -15925,7 +15925,7 @@
         <v>1.5</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU76" t="n">
         <v>1.36</v>
@@ -16125,7 +16125,7 @@
         <v>0.5</v>
       </c>
       <c r="AS77" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT77" t="n">
         <v>1.13</v>
@@ -17752,7 +17752,7 @@
         <v>1.57</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AU85" t="n">
         <v>1.1</v>
@@ -18155,7 +18155,7 @@
         <v>3</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT87" t="n">
         <v>2.71</v>
@@ -18361,7 +18361,7 @@
         <v>1.13</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU88" t="n">
         <v>1.73</v>
@@ -18564,7 +18564,7 @@
         <v>2.13</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU89" t="n">
         <v>1.33</v>
@@ -19373,7 +19373,7 @@
         <v>1.2</v>
       </c>
       <c r="AS93" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT93" t="n">
         <v>1.38</v>
@@ -19576,10 +19576,10 @@
         <v>0.6</v>
       </c>
       <c r="AS94" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU94" t="n">
         <v>1.76</v>
@@ -19982,7 +19982,7 @@
         <v>0.75</v>
       </c>
       <c r="AS96" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT96" t="n">
         <v>1.14</v>
@@ -20188,7 +20188,7 @@
         <v>2</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AU97" t="n">
         <v>1.6</v>
@@ -21809,7 +21809,7 @@
         <v>2.2</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT105" t="n">
         <v>2.13</v>
@@ -22015,7 +22015,7 @@
         <v>1.14</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU106" t="n">
         <v>0.95</v>
@@ -22218,7 +22218,7 @@
         <v>1.13</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU107" t="n">
         <v>1.66</v>
@@ -22824,7 +22824,7 @@
         <v>0.5</v>
       </c>
       <c r="AS110" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT110" t="n">
         <v>0.5</v>
@@ -23433,7 +23433,7 @@
         <v>1.83</v>
       </c>
       <c r="AS113" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT113" t="n">
         <v>1.5</v>
@@ -23636,10 +23636,10 @@
         <v>1</v>
       </c>
       <c r="AS114" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU114" t="n">
         <v>1.48</v>
@@ -24045,7 +24045,7 @@
         <v>1.5</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AU116" t="n">
         <v>1.42</v>
@@ -24857,7 +24857,7 @@
         <v>1.57</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU120" t="n">
         <v>1.29</v>
@@ -25263,7 +25263,7 @@
         <v>2</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU122" t="n">
         <v>1.73</v>
@@ -26072,7 +26072,7 @@
         <v>1.17</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT126" t="n">
         <v>1.63</v>
@@ -26478,7 +26478,7 @@
         <v>1.29</v>
       </c>
       <c r="AS128" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AT128" t="n">
         <v>1.5</v>
@@ -26684,7 +26684,7 @@
         <v>0.88</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU129" t="n">
         <v>1.05</v>
@@ -26887,7 +26887,7 @@
         <v>1.5</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU130" t="n">
         <v>1.41</v>
@@ -27087,10 +27087,10 @@
         <v>0.43</v>
       </c>
       <c r="AS131" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AU131" t="n">
         <v>1.62</v>
@@ -27290,7 +27290,7 @@
         <v>0.43</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT132" t="n">
         <v>0.5600000000000001</v>
@@ -27696,7 +27696,7 @@
         <v>1.71</v>
       </c>
       <c r="AS134" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT134" t="n">
         <v>1.5</v>
@@ -29781,6 +29781,818 @@
       </c>
       <c r="BK144" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>4407767</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>44962.40625</v>
+      </c>
+      <c r="F145" t="n">
+        <v>17</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>El Daklyeh FC</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Aswan FC</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>2</v>
+      </c>
+      <c r="K145" t="n">
+        <v>3</v>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="n">
+        <v>2</v>
+      </c>
+      <c r="N145" t="n">
+        <v>3</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>['1', '40']</t>
+        </is>
+      </c>
+      <c r="Q145" t="n">
+        <v>11</v>
+      </c>
+      <c r="R145" t="n">
+        <v>3</v>
+      </c>
+      <c r="S145" t="n">
+        <v>14</v>
+      </c>
+      <c r="T145" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U145" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V145" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="W145" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X145" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AD145" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AE145" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI145" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ145" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AK145" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL145" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM145" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AN145" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO145" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP145" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ145" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR145" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS145" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT145" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU145" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AV145" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW145" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AX145" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AY145" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ145" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BA145" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB145" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC145" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BD145" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BE145" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF145" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG145" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH145" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI145" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ145" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK145" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>4407768</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>44962.40625</v>
+      </c>
+      <c r="F146" t="n">
+        <v>17</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Ghazl El Mehalla</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Haras El Hodood</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>2</v>
+      </c>
+      <c r="K146" t="n">
+        <v>2</v>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="n">
+        <v>2</v>
+      </c>
+      <c r="N146" t="n">
+        <v>3</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>['15', '44']</t>
+        </is>
+      </c>
+      <c r="Q146" t="n">
+        <v>8</v>
+      </c>
+      <c r="R146" t="n">
+        <v>1</v>
+      </c>
+      <c r="S146" t="n">
+        <v>9</v>
+      </c>
+      <c r="T146" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U146" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V146" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W146" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X146" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AD146" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AE146" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="AF146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ146" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AK146" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AL146" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AM146" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ146" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR146" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AS146" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AT146" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU146" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV146" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW146" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AX146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF146" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG146" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH146" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI146" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ146" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK146" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>4407770</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>44962.58333333334</v>
+      </c>
+      <c r="F147" t="n">
+        <v>17</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Ceramica Cleopatra</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>ENPPI</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>1</v>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="n">
+        <v>1</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="Q147" t="n">
+        <v>2</v>
+      </c>
+      <c r="R147" t="n">
+        <v>2</v>
+      </c>
+      <c r="S147" t="n">
+        <v>4</v>
+      </c>
+      <c r="T147" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U147" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V147" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="W147" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X147" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AB147" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC147" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD147" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE147" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF147" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI147" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AJ147" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK147" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL147" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AM147" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN147" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO147" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP147" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AQ147" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR147" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS147" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT147" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU147" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV147" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW147" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX147" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY147" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ147" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BA147" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB147" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC147" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BD147" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BE147" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF147" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG147" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH147" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI147" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ147" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK147" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>4407769</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>44962.58333333334</v>
+      </c>
+      <c r="F148" t="n">
+        <v>17</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Ismaily SC</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>1</v>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="n">
+        <v>2</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>['76']</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+      <c r="Q148" t="n">
+        <v>3</v>
+      </c>
+      <c r="R148" t="n">
+        <v>1</v>
+      </c>
+      <c r="S148" t="n">
+        <v>4</v>
+      </c>
+      <c r="T148" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U148" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V148" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="W148" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X148" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC148" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD148" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE148" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF148" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ148" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK148" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL148" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AM148" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN148" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO148" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP148" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AQ148" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR148" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS148" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AT148" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU148" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV148" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW148" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX148" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY148" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ148" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="BA148" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB148" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC148" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BD148" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BE148" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BF148" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG148" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH148" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI148" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ148" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK148" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK148"/>
+  <dimension ref="A1:BK149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2933,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT19" t="n">
         <v>0.67</v>
@@ -5978,7 +5978,7 @@
         <v>0.5</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU27" t="n">
         <v>0.93</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT30" t="n">
         <v>0.89</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT42" t="n">
         <v>0.88</v>
@@ -9429,7 +9429,7 @@
         <v>1.57</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU44" t="n">
         <v>1.02</v>
@@ -13286,7 +13286,7 @@
         <v>1.13</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU63" t="n">
         <v>1.77</v>
@@ -14907,7 +14907,7 @@
         <v>3</v>
       </c>
       <c r="AS71" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT71" t="n">
         <v>2.71</v>
@@ -16940,7 +16940,7 @@
         <v>2</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU81" t="n">
         <v>1.58</v>
@@ -17952,7 +17952,7 @@
         <v>2</v>
       </c>
       <c r="AS86" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT86" t="n">
         <v>2.13</v>
@@ -19173,7 +19173,7 @@
         <v>1.5</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU92" t="n">
         <v>1.39</v>
@@ -20794,7 +20794,7 @@
         <v>0.4</v>
       </c>
       <c r="AS100" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT100" t="n">
         <v>0.5600000000000001</v>
@@ -23436,7 +23436,7 @@
         <v>1.89</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU113" t="n">
         <v>1.68</v>
@@ -24245,7 +24245,7 @@
         <v>1.2</v>
       </c>
       <c r="AS117" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT117" t="n">
         <v>1.14</v>
@@ -26681,7 +26681,7 @@
         <v>0.86</v>
       </c>
       <c r="AS129" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT129" t="n">
         <v>1.33</v>
@@ -27699,7 +27699,7 @@
         <v>1.78</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU134" t="n">
         <v>1.39</v>
@@ -30174,19 +30174,19 @@
         <v>6</v>
       </c>
       <c r="BG146" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BH146" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BI146" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ146" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BK146" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="147">
@@ -30592,6 +30592,209 @@
         <v>13</v>
       </c>
       <c r="BK148" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>4407771</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>44963.5</v>
+      </c>
+      <c r="F149" t="n">
+        <v>17</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Pharco</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Zamalek</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>2</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>2</v>
+      </c>
+      <c r="L149" t="n">
+        <v>3</v>
+      </c>
+      <c r="M149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N149" t="n">
+        <v>3</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>['6', '29', '90+4']</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q149" t="n">
+        <v>1</v>
+      </c>
+      <c r="R149" t="n">
+        <v>4</v>
+      </c>
+      <c r="S149" t="n">
+        <v>5</v>
+      </c>
+      <c r="T149" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U149" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V149" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W149" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X149" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC149" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AD149" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AE149" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AF149" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ149" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK149" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL149" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN149" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO149" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP149" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AQ149" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AR149" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS149" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT149" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU149" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AV149" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AW149" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX149" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AY149" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ149" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BA149" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB149" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC149" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD149" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BE149" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF149" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG149" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH149" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI149" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ149" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK149" t="n">
         <v>10</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="247">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -535,6 +535,9 @@
     <t>['23', '45', '79']</t>
   </si>
   <si>
+    <t>['51', '63']</t>
+  </si>
+  <si>
     <t>['85']</t>
   </si>
   <si>
@@ -749,6 +752,9 @@
   </si>
   <si>
     <t>['1']</t>
+  </si>
+  <si>
+    <t>['1', '63', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -1110,7 +1116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK152"/>
+  <dimension ref="A1:BK154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1354,7 +1360,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1736,7 +1742,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q4">
         <v>9</v>
@@ -1927,7 +1933,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q5">
         <v>9</v>
@@ -2118,7 +2124,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -2500,7 +2506,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2691,7 +2697,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3264,7 +3270,7 @@
         <v>83</v>
       </c>
       <c r="P12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3545,7 +3551,7 @@
         <v>2.25</v>
       </c>
       <c r="AT13">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3646,7 +3652,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3733,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT14">
         <v>0.89</v>
@@ -3924,7 +3930,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT15">
         <v>0.88</v>
@@ -4118,7 +4124,7 @@
         <v>1.89</v>
       </c>
       <c r="AT16">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4792,7 +4798,7 @@
         <v>83</v>
       </c>
       <c r="P20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5261,7 +5267,7 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT22">
         <v>0.5600000000000001</v>
@@ -5747,7 +5753,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5938,7 +5944,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6511,7 +6517,7 @@
         <v>99</v>
       </c>
       <c r="P29" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -6601,7 +6607,7 @@
         <v>1.89</v>
       </c>
       <c r="AT29">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU29">
         <v>1.91</v>
@@ -6702,7 +6708,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -6893,7 +6899,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -7084,7 +7090,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7275,7 +7281,7 @@
         <v>83</v>
       </c>
       <c r="P33" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7362,7 +7368,7 @@
         <v>2</v>
       </c>
       <c r="AS33">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT33">
         <v>1.25</v>
@@ -7466,7 +7472,7 @@
         <v>83</v>
       </c>
       <c r="P34" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7848,7 +7854,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8039,7 +8045,7 @@
         <v>104</v>
       </c>
       <c r="P37" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8893,7 +8899,7 @@
         <v>2.5</v>
       </c>
       <c r="AT41">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU41">
         <v>1.38</v>
@@ -8994,7 +9000,7 @@
         <v>107</v>
       </c>
       <c r="P42" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9185,7 +9191,7 @@
         <v>83</v>
       </c>
       <c r="P43" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9272,7 +9278,7 @@
         <v>3</v>
       </c>
       <c r="AS43">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT43">
         <v>2.71</v>
@@ -9376,7 +9382,7 @@
         <v>83</v>
       </c>
       <c r="P44" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9758,7 +9764,7 @@
         <v>107</v>
       </c>
       <c r="P46" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q46">
         <v>12</v>
@@ -9848,7 +9854,7 @@
         <v>0.78</v>
       </c>
       <c r="AT46">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU46">
         <v>0.89</v>
@@ -10140,7 +10146,7 @@
         <v>109</v>
       </c>
       <c r="P48" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q48">
         <v>6</v>
@@ -10331,7 +10337,7 @@
         <v>110</v>
       </c>
       <c r="P49" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10418,7 +10424,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT49">
         <v>0.88</v>
@@ -10612,7 +10618,7 @@
         <v>0.78</v>
       </c>
       <c r="AT50">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU50">
         <v>1.39</v>
@@ -10713,7 +10719,7 @@
         <v>111</v>
       </c>
       <c r="P51" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -11095,7 +11101,7 @@
         <v>113</v>
       </c>
       <c r="P53" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q53">
         <v>7</v>
@@ -11668,7 +11674,7 @@
         <v>115</v>
       </c>
       <c r="P56" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -11755,7 +11761,7 @@
         <v>0.33</v>
       </c>
       <c r="AS56">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT56">
         <v>0.5600000000000001</v>
@@ -11859,7 +11865,7 @@
         <v>116</v>
       </c>
       <c r="P57" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -11949,7 +11955,7 @@
         <v>1</v>
       </c>
       <c r="AT57">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU57">
         <v>1.79</v>
@@ -12328,7 +12334,7 @@
         <v>0.67</v>
       </c>
       <c r="AS59">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT59">
         <v>1.13</v>
@@ -12432,7 +12438,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12623,7 +12629,7 @@
         <v>119</v>
       </c>
       <c r="P61" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q61">
         <v>1</v>
@@ -13196,7 +13202,7 @@
         <v>119</v>
       </c>
       <c r="P64" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13769,7 +13775,7 @@
         <v>83</v>
       </c>
       <c r="P67" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -13960,7 +13966,7 @@
         <v>121</v>
       </c>
       <c r="P68" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14050,7 +14056,7 @@
         <v>2.5</v>
       </c>
       <c r="AT68">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU68">
         <v>1.51</v>
@@ -14151,7 +14157,7 @@
         <v>122</v>
       </c>
       <c r="P69" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q69">
         <v>8</v>
@@ -14533,7 +14539,7 @@
         <v>124</v>
       </c>
       <c r="P71" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -14915,7 +14921,7 @@
         <v>126</v>
       </c>
       <c r="P73" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15005,7 +15011,7 @@
         <v>1.13</v>
       </c>
       <c r="AT73">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU73">
         <v>1.74</v>
@@ -15193,7 +15199,7 @@
         <v>1</v>
       </c>
       <c r="AS74">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT74">
         <v>1.14</v>
@@ -15297,7 +15303,7 @@
         <v>128</v>
       </c>
       <c r="P75" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15766,7 +15772,7 @@
         <v>0.5</v>
       </c>
       <c r="AS77">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT77">
         <v>1.13</v>
@@ -15870,7 +15876,7 @@
         <v>130</v>
       </c>
       <c r="P78" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -16252,7 +16258,7 @@
         <v>83</v>
       </c>
       <c r="P80" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -17207,7 +17213,7 @@
         <v>121</v>
       </c>
       <c r="P85" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -17398,7 +17404,7 @@
         <v>132</v>
       </c>
       <c r="P86" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17589,7 +17595,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -17780,7 +17786,7 @@
         <v>134</v>
       </c>
       <c r="P88" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q88">
         <v>13</v>
@@ -17870,7 +17876,7 @@
         <v>1.13</v>
       </c>
       <c r="AT88">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU88">
         <v>1.73</v>
@@ -17971,7 +17977,7 @@
         <v>135</v>
       </c>
       <c r="P89" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18353,7 +18359,7 @@
         <v>136</v>
       </c>
       <c r="P91" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q91">
         <v>1</v>
@@ -18443,7 +18449,7 @@
         <v>1.13</v>
       </c>
       <c r="AT91">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU91">
         <v>1.72</v>
@@ -18544,7 +18550,7 @@
         <v>137</v>
       </c>
       <c r="P92" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -18735,7 +18741,7 @@
         <v>83</v>
       </c>
       <c r="P93" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q93">
         <v>4</v>
@@ -18926,7 +18932,7 @@
         <v>97</v>
       </c>
       <c r="P94" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -19013,7 +19019,7 @@
         <v>0.6</v>
       </c>
       <c r="AS94">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT94">
         <v>1.33</v>
@@ -19308,7 +19314,7 @@
         <v>83</v>
       </c>
       <c r="P96" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19395,7 +19401,7 @@
         <v>0.75</v>
       </c>
       <c r="AS96">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT96">
         <v>1.14</v>
@@ -19499,7 +19505,7 @@
         <v>139</v>
       </c>
       <c r="P97" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -20263,7 +20269,7 @@
         <v>83</v>
       </c>
       <c r="P101" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -20836,7 +20842,7 @@
         <v>143</v>
       </c>
       <c r="P104" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -21027,7 +21033,7 @@
         <v>144</v>
       </c>
       <c r="P105" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -21499,7 +21505,7 @@
         <v>1.13</v>
       </c>
       <c r="AT107">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU107">
         <v>1.66</v>
@@ -21600,7 +21606,7 @@
         <v>83</v>
       </c>
       <c r="P108" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -21791,7 +21797,7 @@
         <v>146</v>
       </c>
       <c r="P109" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q109">
         <v>10</v>
@@ -21881,7 +21887,7 @@
         <v>1.38</v>
       </c>
       <c r="AT109">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU109">
         <v>1.21</v>
@@ -21982,7 +21988,7 @@
         <v>147</v>
       </c>
       <c r="P110" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q110">
         <v>1</v>
@@ -22642,7 +22648,7 @@
         <v>1.83</v>
       </c>
       <c r="AS113">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT113">
         <v>1.33</v>
@@ -22833,7 +22839,7 @@
         <v>1</v>
       </c>
       <c r="AS114">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT114">
         <v>1.33</v>
@@ -23128,7 +23134,7 @@
         <v>151</v>
       </c>
       <c r="P116" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23319,7 +23325,7 @@
         <v>152</v>
       </c>
       <c r="P117" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q117">
         <v>2</v>
@@ -23510,7 +23516,7 @@
         <v>153</v>
       </c>
       <c r="P118" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -23600,7 +23606,7 @@
         <v>0.63</v>
       </c>
       <c r="AT118">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU118">
         <v>1.22</v>
@@ -23701,7 +23707,7 @@
         <v>83</v>
       </c>
       <c r="P119" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q119">
         <v>2</v>
@@ -24083,7 +24089,7 @@
         <v>154</v>
       </c>
       <c r="P121" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24364,7 +24370,7 @@
         <v>2</v>
       </c>
       <c r="AT122">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU122">
         <v>1.73</v>
@@ -24465,7 +24471,7 @@
         <v>155</v>
       </c>
       <c r="P123" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -24847,7 +24853,7 @@
         <v>157</v>
       </c>
       <c r="P125" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -25038,7 +25044,7 @@
         <v>83</v>
       </c>
       <c r="P126" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q126">
         <v>7</v>
@@ -25229,7 +25235,7 @@
         <v>83</v>
       </c>
       <c r="P127" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q127">
         <v>7</v>
@@ -25420,7 +25426,7 @@
         <v>158</v>
       </c>
       <c r="P128" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -25510,7 +25516,7 @@
         <v>0.67</v>
       </c>
       <c r="AT128">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU128">
         <v>0.98</v>
@@ -26080,7 +26086,7 @@
         <v>0.43</v>
       </c>
       <c r="AS131">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT131">
         <v>0.67</v>
@@ -26375,7 +26381,7 @@
         <v>157</v>
       </c>
       <c r="P133" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -26566,7 +26572,7 @@
         <v>159</v>
       </c>
       <c r="P134" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -26653,7 +26659,7 @@
         <v>1.71</v>
       </c>
       <c r="AS134">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT134">
         <v>1.33</v>
@@ -26757,7 +26763,7 @@
         <v>160</v>
       </c>
       <c r="P135" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -27139,7 +27145,7 @@
         <v>161</v>
       </c>
       <c r="P137" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q137">
         <v>2</v>
@@ -27330,7 +27336,7 @@
         <v>162</v>
       </c>
       <c r="P138" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q138">
         <v>7</v>
@@ -27712,7 +27718,7 @@
         <v>163</v>
       </c>
       <c r="P140" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q140">
         <v>10</v>
@@ -27903,7 +27909,7 @@
         <v>83</v>
       </c>
       <c r="P141" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q141">
         <v>9</v>
@@ -28094,7 +28100,7 @@
         <v>164</v>
       </c>
       <c r="P142" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -28285,7 +28291,7 @@
         <v>165</v>
       </c>
       <c r="P143" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q143">
         <v>2</v>
@@ -28476,7 +28482,7 @@
         <v>166</v>
       </c>
       <c r="P144" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q144">
         <v>1</v>
@@ -28667,7 +28673,7 @@
         <v>167</v>
       </c>
       <c r="P145" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q145">
         <v>11</v>
@@ -28757,7 +28763,7 @@
         <v>0.67</v>
       </c>
       <c r="AT145">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU145">
         <v>0.9399999999999999</v>
@@ -28858,7 +28864,7 @@
         <v>168</v>
       </c>
       <c r="P146" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q146">
         <v>8</v>
@@ -28945,7 +28951,7 @@
         <v>0.38</v>
       </c>
       <c r="AS146">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT146">
         <v>0.67</v>
@@ -29240,7 +29246,7 @@
         <v>169</v>
       </c>
       <c r="P148" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -29327,7 +29333,7 @@
         <v>0.88</v>
       </c>
       <c r="AS148">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT148">
         <v>0.89</v>
@@ -29813,7 +29819,7 @@
         <v>83</v>
       </c>
       <c r="P151" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -30146,6 +30152,388 @@
       </c>
       <c r="BK152">
         <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:63">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>4407776</v>
+      </c>
+      <c r="C153" t="s">
+        <v>63</v>
+      </c>
+      <c r="D153" t="s">
+        <v>64</v>
+      </c>
+      <c r="E153" s="2">
+        <v>44966.40625</v>
+      </c>
+      <c r="F153">
+        <v>18</v>
+      </c>
+      <c r="G153" t="s">
+        <v>78</v>
+      </c>
+      <c r="H153" t="s">
+        <v>65</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>2</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <v>2</v>
+      </c>
+      <c r="O153" t="s">
+        <v>173</v>
+      </c>
+      <c r="P153" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q153">
+        <v>9</v>
+      </c>
+      <c r="R153">
+        <v>3</v>
+      </c>
+      <c r="S153">
+        <v>12</v>
+      </c>
+      <c r="T153">
+        <v>2.65</v>
+      </c>
+      <c r="U153">
+        <v>1.93</v>
+      </c>
+      <c r="V153">
+        <v>4.5</v>
+      </c>
+      <c r="W153">
+        <v>1.5</v>
+      </c>
+      <c r="X153">
+        <v>2.4</v>
+      </c>
+      <c r="Y153">
+        <v>3.2</v>
+      </c>
+      <c r="Z153">
+        <v>1.31</v>
+      </c>
+      <c r="AA153">
+        <v>8.75</v>
+      </c>
+      <c r="AB153">
+        <v>1.06</v>
+      </c>
+      <c r="AC153">
+        <v>2.06</v>
+      </c>
+      <c r="AD153">
+        <v>3.15</v>
+      </c>
+      <c r="AE153">
+        <v>3.6</v>
+      </c>
+      <c r="AF153">
+        <v>1.07</v>
+      </c>
+      <c r="AG153">
+        <v>8</v>
+      </c>
+      <c r="AH153">
+        <v>1.41</v>
+      </c>
+      <c r="AI153">
+        <v>2.7</v>
+      </c>
+      <c r="AJ153">
+        <v>2.2</v>
+      </c>
+      <c r="AK153">
+        <v>1.62</v>
+      </c>
+      <c r="AL153">
+        <v>2</v>
+      </c>
+      <c r="AM153">
+        <v>1.7</v>
+      </c>
+      <c r="AN153">
+        <v>1.23</v>
+      </c>
+      <c r="AO153">
+        <v>1.35</v>
+      </c>
+      <c r="AP153">
+        <v>1.77</v>
+      </c>
+      <c r="AQ153">
+        <v>1.89</v>
+      </c>
+      <c r="AR153">
+        <v>1.11</v>
+      </c>
+      <c r="AS153">
+        <v>2</v>
+      </c>
+      <c r="AT153">
+        <v>1</v>
+      </c>
+      <c r="AU153">
+        <v>1.6</v>
+      </c>
+      <c r="AV153">
+        <v>1.11</v>
+      </c>
+      <c r="AW153">
+        <v>2.71</v>
+      </c>
+      <c r="AX153">
+        <v>1.54</v>
+      </c>
+      <c r="AY153">
+        <v>8.5</v>
+      </c>
+      <c r="AZ153">
+        <v>3.02</v>
+      </c>
+      <c r="BA153">
+        <v>1.21</v>
+      </c>
+      <c r="BB153">
+        <v>1.4</v>
+      </c>
+      <c r="BC153">
+        <v>1.76</v>
+      </c>
+      <c r="BD153">
+        <v>2.18</v>
+      </c>
+      <c r="BE153">
+        <v>2.85</v>
+      </c>
+      <c r="BF153">
+        <v>9</v>
+      </c>
+      <c r="BG153">
+        <v>3</v>
+      </c>
+      <c r="BH153">
+        <v>5</v>
+      </c>
+      <c r="BI153">
+        <v>4</v>
+      </c>
+      <c r="BJ153">
+        <v>14</v>
+      </c>
+      <c r="BK153">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:63">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>4407777</v>
+      </c>
+      <c r="C154" t="s">
+        <v>63</v>
+      </c>
+      <c r="D154" t="s">
+        <v>64</v>
+      </c>
+      <c r="E154" s="2">
+        <v>44967.54166666666</v>
+      </c>
+      <c r="F154">
+        <v>18</v>
+      </c>
+      <c r="G154" t="s">
+        <v>77</v>
+      </c>
+      <c r="H154" t="s">
+        <v>71</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>1</v>
+      </c>
+      <c r="K154">
+        <v>1</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="M154">
+        <v>3</v>
+      </c>
+      <c r="N154">
+        <v>3</v>
+      </c>
+      <c r="O154" t="s">
+        <v>83</v>
+      </c>
+      <c r="P154" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q154">
+        <v>6</v>
+      </c>
+      <c r="R154">
+        <v>6</v>
+      </c>
+      <c r="S154">
+        <v>12</v>
+      </c>
+      <c r="T154">
+        <v>3.95</v>
+      </c>
+      <c r="U154">
+        <v>1.8</v>
+      </c>
+      <c r="V154">
+        <v>3.05</v>
+      </c>
+      <c r="W154">
+        <v>1.57</v>
+      </c>
+      <c r="X154">
+        <v>2.3</v>
+      </c>
+      <c r="Y154">
+        <v>3.5</v>
+      </c>
+      <c r="Z154">
+        <v>1.27</v>
+      </c>
+      <c r="AA154">
+        <v>10.75</v>
+      </c>
+      <c r="AB154">
+        <v>1.05</v>
+      </c>
+      <c r="AC154">
+        <v>3.35</v>
+      </c>
+      <c r="AD154">
+        <v>2.65</v>
+      </c>
+      <c r="AE154">
+        <v>2.3</v>
+      </c>
+      <c r="AF154">
+        <v>1.11</v>
+      </c>
+      <c r="AG154">
+        <v>6.5</v>
+      </c>
+      <c r="AH154">
+        <v>1.5</v>
+      </c>
+      <c r="AI154">
+        <v>2.45</v>
+      </c>
+      <c r="AJ154">
+        <v>2.5</v>
+      </c>
+      <c r="AK154">
+        <v>1.5</v>
+      </c>
+      <c r="AL154">
+        <v>2</v>
+      </c>
+      <c r="AM154">
+        <v>1.76</v>
+      </c>
+      <c r="AN154">
+        <v>1.54</v>
+      </c>
+      <c r="AO154">
+        <v>1.45</v>
+      </c>
+      <c r="AP154">
+        <v>1.29</v>
+      </c>
+      <c r="AQ154">
+        <v>1.78</v>
+      </c>
+      <c r="AR154">
+        <v>1.5</v>
+      </c>
+      <c r="AS154">
+        <v>1.6</v>
+      </c>
+      <c r="AT154">
+        <v>1.67</v>
+      </c>
+      <c r="AU154">
+        <v>1.45</v>
+      </c>
+      <c r="AV154">
+        <v>1.04</v>
+      </c>
+      <c r="AW154">
+        <v>2.49</v>
+      </c>
+      <c r="AX154">
+        <v>2.2</v>
+      </c>
+      <c r="AY154">
+        <v>7.5</v>
+      </c>
+      <c r="AZ154">
+        <v>1.9</v>
+      </c>
+      <c r="BA154">
+        <v>1.24</v>
+      </c>
+      <c r="BB154">
+        <v>1.53</v>
+      </c>
+      <c r="BC154">
+        <v>1.88</v>
+      </c>
+      <c r="BD154">
+        <v>2.34</v>
+      </c>
+      <c r="BE154">
+        <v>3.2</v>
+      </c>
+      <c r="BF154">
+        <v>4</v>
+      </c>
+      <c r="BG154">
+        <v>7</v>
+      </c>
+      <c r="BH154">
+        <v>6</v>
+      </c>
+      <c r="BI154">
+        <v>5</v>
+      </c>
+      <c r="BJ154">
+        <v>10</v>
+      </c>
+      <c r="BK154">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="248">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -536,6 +536,9 @@
   </si>
   <si>
     <t>['51', '63']</t>
+  </si>
+  <si>
+    <t>['31', '49', '75']</t>
   </si>
   <si>
     <t>['85']</t>
@@ -1116,7 +1119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK154"/>
+  <dimension ref="A1:BK157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1360,7 +1363,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1742,7 +1745,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q4">
         <v>9</v>
@@ -1933,7 +1936,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q5">
         <v>9</v>
@@ -2124,7 +2127,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -2506,7 +2509,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2697,7 +2700,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3169,7 +3172,7 @@
         <v>2.5</v>
       </c>
       <c r="AT11">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3270,7 +3273,7 @@
         <v>83</v>
       </c>
       <c r="P12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3357,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT12">
         <v>1.33</v>
@@ -3652,7 +3655,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3933,7 +3936,7 @@
         <v>2</v>
       </c>
       <c r="AT15">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4315,7 +4318,7 @@
         <v>0.78</v>
       </c>
       <c r="AT17">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4503,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT18">
         <v>1.33</v>
@@ -4694,7 +4697,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT19">
         <v>0.67</v>
@@ -4798,7 +4801,7 @@
         <v>83</v>
       </c>
       <c r="P20" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5753,7 +5756,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5944,7 +5947,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6416,7 +6419,7 @@
         <v>2.5</v>
       </c>
       <c r="AT28">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU28">
         <v>0.8</v>
@@ -6517,7 +6520,7 @@
         <v>99</v>
       </c>
       <c r="P29" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -6708,7 +6711,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -6795,7 +6798,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT30">
         <v>0.89</v>
@@ -6899,7 +6902,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -7090,7 +7093,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7281,7 +7284,7 @@
         <v>83</v>
       </c>
       <c r="P33" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7472,7 +7475,7 @@
         <v>83</v>
       </c>
       <c r="P34" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7854,7 +7857,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -7944,7 +7947,7 @@
         <v>2.13</v>
       </c>
       <c r="AT36">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU36">
         <v>1.08</v>
@@ -8045,7 +8048,7 @@
         <v>104</v>
       </c>
       <c r="P37" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8708,7 +8711,7 @@
         <v>1.13</v>
       </c>
       <c r="AT40">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU40">
         <v>1.74</v>
@@ -9000,7 +9003,7 @@
         <v>107</v>
       </c>
       <c r="P42" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9087,10 +9090,10 @@
         <v>0</v>
       </c>
       <c r="AS42">
+        <v>1.3</v>
+      </c>
+      <c r="AT42">
         <v>1.11</v>
-      </c>
-      <c r="AT42">
-        <v>0.88</v>
       </c>
       <c r="AU42">
         <v>1.19</v>
@@ -9191,7 +9194,7 @@
         <v>83</v>
       </c>
       <c r="P43" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9382,7 +9385,7 @@
         <v>83</v>
       </c>
       <c r="P44" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9469,7 +9472,7 @@
         <v>2</v>
       </c>
       <c r="AS44">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT44">
         <v>1.33</v>
@@ -9764,7 +9767,7 @@
         <v>107</v>
       </c>
       <c r="P46" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q46">
         <v>12</v>
@@ -10146,7 +10149,7 @@
         <v>109</v>
       </c>
       <c r="P48" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q48">
         <v>6</v>
@@ -10233,7 +10236,7 @@
         <v>0.5</v>
       </c>
       <c r="AS48">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT48">
         <v>0.89</v>
@@ -10337,7 +10340,7 @@
         <v>110</v>
       </c>
       <c r="P49" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10427,7 +10430,7 @@
         <v>1.6</v>
       </c>
       <c r="AT49">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU49">
         <v>1.38</v>
@@ -10719,7 +10722,7 @@
         <v>111</v>
       </c>
       <c r="P51" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -10806,10 +10809,10 @@
         <v>1</v>
       </c>
       <c r="AS51">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT51">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU51">
         <v>1.01</v>
@@ -11101,7 +11104,7 @@
         <v>113</v>
       </c>
       <c r="P53" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q53">
         <v>7</v>
@@ -11188,7 +11191,7 @@
         <v>0.5</v>
       </c>
       <c r="AS53">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT53">
         <v>0.67</v>
@@ -11674,7 +11677,7 @@
         <v>115</v>
       </c>
       <c r="P56" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -11865,7 +11868,7 @@
         <v>116</v>
       </c>
       <c r="P57" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -11952,7 +11955,7 @@
         <v>1</v>
       </c>
       <c r="AS57">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT57">
         <v>1</v>
@@ -12438,7 +12441,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12629,7 +12632,7 @@
         <v>119</v>
       </c>
       <c r="P61" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q61">
         <v>1</v>
@@ -12910,7 +12913,7 @@
         <v>1.14</v>
       </c>
       <c r="AT62">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU62">
         <v>0.76</v>
@@ -13202,7 +13205,7 @@
         <v>119</v>
       </c>
       <c r="P64" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13480,10 +13483,10 @@
         <v>0.33</v>
       </c>
       <c r="AS65">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT65">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU65">
         <v>1.7</v>
@@ -13775,7 +13778,7 @@
         <v>83</v>
       </c>
       <c r="P67" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -13966,7 +13969,7 @@
         <v>121</v>
       </c>
       <c r="P68" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14157,7 +14160,7 @@
         <v>122</v>
       </c>
       <c r="P69" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q69">
         <v>8</v>
@@ -14435,10 +14438,10 @@
         <v>0.67</v>
       </c>
       <c r="AS70">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT70">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU70">
         <v>1.17</v>
@@ -14539,7 +14542,7 @@
         <v>124</v>
       </c>
       <c r="P71" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -14626,7 +14629,7 @@
         <v>3</v>
       </c>
       <c r="AS71">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT71">
         <v>2.71</v>
@@ -14921,7 +14924,7 @@
         <v>126</v>
       </c>
       <c r="P73" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15303,7 +15306,7 @@
         <v>128</v>
       </c>
       <c r="P75" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15876,7 +15879,7 @@
         <v>130</v>
       </c>
       <c r="P78" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -15966,7 +15969,7 @@
         <v>1.14</v>
       </c>
       <c r="AT78">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU78">
         <v>0.93</v>
@@ -16258,7 +16261,7 @@
         <v>83</v>
       </c>
       <c r="P80" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -16348,7 +16351,7 @@
         <v>0.63</v>
       </c>
       <c r="AT80">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU80">
         <v>1.19</v>
@@ -17112,7 +17115,7 @@
         <v>0.5</v>
       </c>
       <c r="AT84">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU84">
         <v>1.04</v>
@@ -17213,7 +17216,7 @@
         <v>121</v>
       </c>
       <c r="P85" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -17300,7 +17303,7 @@
         <v>0.25</v>
       </c>
       <c r="AS85">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT85">
         <v>0.67</v>
@@ -17404,7 +17407,7 @@
         <v>132</v>
       </c>
       <c r="P86" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17491,7 +17494,7 @@
         <v>2</v>
       </c>
       <c r="AS86">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT86">
         <v>2.13</v>
@@ -17595,7 +17598,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -17682,7 +17685,7 @@
         <v>3</v>
       </c>
       <c r="AS87">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT87">
         <v>2.71</v>
@@ -17786,7 +17789,7 @@
         <v>134</v>
       </c>
       <c r="P88" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q88">
         <v>13</v>
@@ -17977,7 +17980,7 @@
         <v>135</v>
       </c>
       <c r="P89" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18359,7 +18362,7 @@
         <v>136</v>
       </c>
       <c r="P91" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q91">
         <v>1</v>
@@ -18550,7 +18553,7 @@
         <v>137</v>
       </c>
       <c r="P92" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -18741,7 +18744,7 @@
         <v>83</v>
       </c>
       <c r="P93" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q93">
         <v>4</v>
@@ -18831,7 +18834,7 @@
         <v>0.67</v>
       </c>
       <c r="AT93">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU93">
         <v>0.92</v>
@@ -18932,7 +18935,7 @@
         <v>97</v>
       </c>
       <c r="P94" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -19314,7 +19317,7 @@
         <v>83</v>
       </c>
       <c r="P96" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19505,7 +19508,7 @@
         <v>139</v>
       </c>
       <c r="P97" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -19786,7 +19789,7 @@
         <v>0.63</v>
       </c>
       <c r="AT98">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU98">
         <v>1.18</v>
@@ -20165,7 +20168,7 @@
         <v>0.4</v>
       </c>
       <c r="AS100">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT100">
         <v>0.5600000000000001</v>
@@ -20269,7 +20272,7 @@
         <v>83</v>
       </c>
       <c r="P101" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -20550,7 +20553,7 @@
         <v>2.13</v>
       </c>
       <c r="AT102">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU102">
         <v>1.36</v>
@@ -20842,7 +20845,7 @@
         <v>143</v>
       </c>
       <c r="P104" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -21033,7 +21036,7 @@
         <v>144</v>
       </c>
       <c r="P105" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -21120,7 +21123,7 @@
         <v>2.2</v>
       </c>
       <c r="AS105">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT105">
         <v>2.13</v>
@@ -21606,7 +21609,7 @@
         <v>83</v>
       </c>
       <c r="P108" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -21797,7 +21800,7 @@
         <v>146</v>
       </c>
       <c r="P109" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q109">
         <v>10</v>
@@ -21884,7 +21887,7 @@
         <v>0.6</v>
       </c>
       <c r="AS109">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT109">
         <v>1.67</v>
@@ -21988,7 +21991,7 @@
         <v>147</v>
       </c>
       <c r="P110" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q110">
         <v>1</v>
@@ -22078,7 +22081,7 @@
         <v>0.67</v>
       </c>
       <c r="AT110">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU110">
         <v>0.93</v>
@@ -23033,7 +23036,7 @@
         <v>2.25</v>
       </c>
       <c r="AT115">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU115">
         <v>1.57</v>
@@ -23134,7 +23137,7 @@
         <v>151</v>
       </c>
       <c r="P116" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23325,7 +23328,7 @@
         <v>152</v>
       </c>
       <c r="P117" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q117">
         <v>2</v>
@@ -23412,7 +23415,7 @@
         <v>1.2</v>
       </c>
       <c r="AS117">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT117">
         <v>1.14</v>
@@ -23516,7 +23519,7 @@
         <v>153</v>
       </c>
       <c r="P118" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -23707,7 +23710,7 @@
         <v>83</v>
       </c>
       <c r="P119" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q119">
         <v>2</v>
@@ -23797,7 +23800,7 @@
         <v>1.14</v>
       </c>
       <c r="AT119">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU119">
         <v>1</v>
@@ -23985,7 +23988,7 @@
         <v>0.83</v>
       </c>
       <c r="AS120">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT120">
         <v>0.89</v>
@@ -24089,7 +24092,7 @@
         <v>154</v>
       </c>
       <c r="P121" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24471,7 +24474,7 @@
         <v>155</v>
       </c>
       <c r="P123" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -24853,7 +24856,7 @@
         <v>157</v>
       </c>
       <c r="P125" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -25044,7 +25047,7 @@
         <v>83</v>
       </c>
       <c r="P126" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q126">
         <v>7</v>
@@ -25131,7 +25134,7 @@
         <v>1.17</v>
       </c>
       <c r="AS126">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT126">
         <v>1.63</v>
@@ -25235,7 +25238,7 @@
         <v>83</v>
       </c>
       <c r="P127" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q127">
         <v>7</v>
@@ -25426,7 +25429,7 @@
         <v>158</v>
       </c>
       <c r="P128" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -25704,7 +25707,7 @@
         <v>0.86</v>
       </c>
       <c r="AS129">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT129">
         <v>1.33</v>
@@ -26277,7 +26280,7 @@
         <v>0.43</v>
       </c>
       <c r="AS132">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT132">
         <v>0.5600000000000001</v>
@@ -26381,7 +26384,7 @@
         <v>157</v>
       </c>
       <c r="P133" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -26471,7 +26474,7 @@
         <v>1.89</v>
       </c>
       <c r="AT133">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU133">
         <v>1.21</v>
@@ -26572,7 +26575,7 @@
         <v>159</v>
       </c>
       <c r="P134" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -26763,7 +26766,7 @@
         <v>160</v>
       </c>
       <c r="P135" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -27044,7 +27047,7 @@
         <v>2.25</v>
       </c>
       <c r="AT136">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU136">
         <v>1.54</v>
@@ -27145,7 +27148,7 @@
         <v>161</v>
       </c>
       <c r="P137" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q137">
         <v>2</v>
@@ -27336,7 +27339,7 @@
         <v>162</v>
       </c>
       <c r="P138" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q138">
         <v>7</v>
@@ -27426,7 +27429,7 @@
         <v>0.63</v>
       </c>
       <c r="AT138">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU138">
         <v>1.28</v>
@@ -27718,7 +27721,7 @@
         <v>163</v>
       </c>
       <c r="P140" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q140">
         <v>10</v>
@@ -27909,7 +27912,7 @@
         <v>83</v>
       </c>
       <c r="P141" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q141">
         <v>9</v>
@@ -28100,7 +28103,7 @@
         <v>164</v>
       </c>
       <c r="P142" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -28291,7 +28294,7 @@
         <v>165</v>
       </c>
       <c r="P143" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q143">
         <v>2</v>
@@ -28482,7 +28485,7 @@
         <v>166</v>
       </c>
       <c r="P144" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q144">
         <v>1</v>
@@ -28673,7 +28676,7 @@
         <v>167</v>
       </c>
       <c r="P145" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q145">
         <v>11</v>
@@ -28864,7 +28867,7 @@
         <v>168</v>
       </c>
       <c r="P146" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q146">
         <v>8</v>
@@ -29142,7 +29145,7 @@
         <v>1.13</v>
       </c>
       <c r="AS147">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT147">
         <v>1.33</v>
@@ -29246,7 +29249,7 @@
         <v>169</v>
       </c>
       <c r="P148" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -29524,7 +29527,7 @@
         <v>1.5</v>
       </c>
       <c r="AS149">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT149">
         <v>1.33</v>
@@ -29718,7 +29721,7 @@
         <v>0.78</v>
       </c>
       <c r="AT150">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU150">
         <v>1.29</v>
@@ -29819,7 +29822,7 @@
         <v>83</v>
       </c>
       <c r="P151" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -29906,7 +29909,7 @@
         <v>1.38</v>
       </c>
       <c r="AS151">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT151">
         <v>1.56</v>
@@ -30100,7 +30103,7 @@
         <v>1.89</v>
       </c>
       <c r="AT152">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU152">
         <v>1.22</v>
@@ -30392,7 +30395,7 @@
         <v>83</v>
       </c>
       <c r="P154" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q154">
         <v>6</v>
@@ -30534,6 +30537,579 @@
       </c>
       <c r="BK154">
         <v>12</v>
+      </c>
+    </row>
+    <row r="155" spans="1:63">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>4407778</v>
+      </c>
+      <c r="C155" t="s">
+        <v>63</v>
+      </c>
+      <c r="D155" t="s">
+        <v>64</v>
+      </c>
+      <c r="E155" s="2">
+        <v>44968.5</v>
+      </c>
+      <c r="F155">
+        <v>18</v>
+      </c>
+      <c r="G155" t="s">
+        <v>82</v>
+      </c>
+      <c r="H155" t="s">
+        <v>66</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>1</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <v>1</v>
+      </c>
+      <c r="O155" t="s">
+        <v>112</v>
+      </c>
+      <c r="P155" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q155">
+        <v>1</v>
+      </c>
+      <c r="R155">
+        <v>6</v>
+      </c>
+      <c r="S155">
+        <v>7</v>
+      </c>
+      <c r="T155">
+        <v>3.1</v>
+      </c>
+      <c r="U155">
+        <v>1.83</v>
+      </c>
+      <c r="V155">
+        <v>4</v>
+      </c>
+      <c r="W155">
+        <v>1.58</v>
+      </c>
+      <c r="X155">
+        <v>2.26</v>
+      </c>
+      <c r="Y155">
+        <v>3.5</v>
+      </c>
+      <c r="Z155">
+        <v>1.26</v>
+      </c>
+      <c r="AA155">
+        <v>10.25</v>
+      </c>
+      <c r="AB155">
+        <v>1.03</v>
+      </c>
+      <c r="AC155">
+        <v>2.6</v>
+      </c>
+      <c r="AD155">
+        <v>2.6</v>
+      </c>
+      <c r="AE155">
+        <v>3.2</v>
+      </c>
+      <c r="AF155">
+        <v>1.07</v>
+      </c>
+      <c r="AG155">
+        <v>5.75</v>
+      </c>
+      <c r="AH155">
+        <v>1.5</v>
+      </c>
+      <c r="AI155">
+        <v>2.47</v>
+      </c>
+      <c r="AJ155">
+        <v>2.53</v>
+      </c>
+      <c r="AK155">
+        <v>1.38</v>
+      </c>
+      <c r="AL155">
+        <v>2.09</v>
+      </c>
+      <c r="AM155">
+        <v>1.68</v>
+      </c>
+      <c r="AN155">
+        <v>1.35</v>
+      </c>
+      <c r="AO155">
+        <v>1.36</v>
+      </c>
+      <c r="AP155">
+        <v>1.57</v>
+      </c>
+      <c r="AQ155">
+        <v>1.11</v>
+      </c>
+      <c r="AR155">
+        <v>0.44</v>
+      </c>
+      <c r="AS155">
+        <v>1.3</v>
+      </c>
+      <c r="AT155">
+        <v>0.4</v>
+      </c>
+      <c r="AU155">
+        <v>1.09</v>
+      </c>
+      <c r="AV155">
+        <v>1.2</v>
+      </c>
+      <c r="AW155">
+        <v>2.29</v>
+      </c>
+      <c r="AX155">
+        <v>1.85</v>
+      </c>
+      <c r="AY155">
+        <v>7.3</v>
+      </c>
+      <c r="AZ155">
+        <v>2.38</v>
+      </c>
+      <c r="BA155">
+        <v>1.34</v>
+      </c>
+      <c r="BB155">
+        <v>1.62</v>
+      </c>
+      <c r="BC155">
+        <v>2.07</v>
+      </c>
+      <c r="BD155">
+        <v>2.75</v>
+      </c>
+      <c r="BE155">
+        <v>3.64</v>
+      </c>
+      <c r="BF155">
+        <v>4</v>
+      </c>
+      <c r="BG155">
+        <v>3</v>
+      </c>
+      <c r="BH155">
+        <v>4</v>
+      </c>
+      <c r="BI155">
+        <v>6</v>
+      </c>
+      <c r="BJ155">
+        <v>8</v>
+      </c>
+      <c r="BK155">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156" spans="1:63">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>4407779</v>
+      </c>
+      <c r="C156" t="s">
+        <v>63</v>
+      </c>
+      <c r="D156" t="s">
+        <v>64</v>
+      </c>
+      <c r="E156" s="2">
+        <v>44968.58333333334</v>
+      </c>
+      <c r="F156">
+        <v>18</v>
+      </c>
+      <c r="G156" t="s">
+        <v>81</v>
+      </c>
+      <c r="H156" t="s">
+        <v>73</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+      <c r="M156">
+        <v>1</v>
+      </c>
+      <c r="N156">
+        <v>1</v>
+      </c>
+      <c r="O156" t="s">
+        <v>83</v>
+      </c>
+      <c r="P156" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q156">
+        <v>3</v>
+      </c>
+      <c r="R156">
+        <v>1</v>
+      </c>
+      <c r="S156">
+        <v>4</v>
+      </c>
+      <c r="T156">
+        <v>2.86</v>
+      </c>
+      <c r="U156">
+        <v>2</v>
+      </c>
+      <c r="V156">
+        <v>4.96</v>
+      </c>
+      <c r="W156">
+        <v>1.55</v>
+      </c>
+      <c r="X156">
+        <v>2.3</v>
+      </c>
+      <c r="Y156">
+        <v>3.6</v>
+      </c>
+      <c r="Z156">
+        <v>1.26</v>
+      </c>
+      <c r="AA156">
+        <v>11</v>
+      </c>
+      <c r="AB156">
+        <v>1.05</v>
+      </c>
+      <c r="AC156">
+        <v>2.05</v>
+      </c>
+      <c r="AD156">
+        <v>2.89</v>
+      </c>
+      <c r="AE156">
+        <v>4.05</v>
+      </c>
+      <c r="AF156">
+        <v>1.07</v>
+      </c>
+      <c r="AG156">
+        <v>6.5</v>
+      </c>
+      <c r="AH156">
+        <v>1.53</v>
+      </c>
+      <c r="AI156">
+        <v>2.4</v>
+      </c>
+      <c r="AJ156">
+        <v>2.44</v>
+      </c>
+      <c r="AK156">
+        <v>1.41</v>
+      </c>
+      <c r="AL156">
+        <v>2.25</v>
+      </c>
+      <c r="AM156">
+        <v>1.61</v>
+      </c>
+      <c r="AN156">
+        <v>1.17</v>
+      </c>
+      <c r="AO156">
+        <v>1.33</v>
+      </c>
+      <c r="AP156">
+        <v>1.73</v>
+      </c>
+      <c r="AQ156">
+        <v>1.38</v>
+      </c>
+      <c r="AR156">
+        <v>0.88</v>
+      </c>
+      <c r="AS156">
+        <v>1.22</v>
+      </c>
+      <c r="AT156">
+        <v>1.11</v>
+      </c>
+      <c r="AU156">
+        <v>1.27</v>
+      </c>
+      <c r="AV156">
+        <v>1.2</v>
+      </c>
+      <c r="AW156">
+        <v>2.47</v>
+      </c>
+      <c r="AX156">
+        <v>1.51</v>
+      </c>
+      <c r="AY156">
+        <v>8</v>
+      </c>
+      <c r="AZ156">
+        <v>3.17</v>
+      </c>
+      <c r="BA156">
+        <v>1.31</v>
+      </c>
+      <c r="BB156">
+        <v>1.64</v>
+      </c>
+      <c r="BC156">
+        <v>2.03</v>
+      </c>
+      <c r="BD156">
+        <v>2.75</v>
+      </c>
+      <c r="BE156">
+        <v>3.65</v>
+      </c>
+      <c r="BF156">
+        <v>4</v>
+      </c>
+      <c r="BG156">
+        <v>6</v>
+      </c>
+      <c r="BH156">
+        <v>9</v>
+      </c>
+      <c r="BI156">
+        <v>2</v>
+      </c>
+      <c r="BJ156">
+        <v>13</v>
+      </c>
+      <c r="BK156">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:63">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>4407780</v>
+      </c>
+      <c r="C157" t="s">
+        <v>63</v>
+      </c>
+      <c r="D157" t="s">
+        <v>64</v>
+      </c>
+      <c r="E157" s="2">
+        <v>44969.54166666666</v>
+      </c>
+      <c r="F157">
+        <v>18</v>
+      </c>
+      <c r="G157" t="s">
+        <v>75</v>
+      </c>
+      <c r="H157" t="s">
+        <v>67</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>1</v>
+      </c>
+      <c r="L157">
+        <v>3</v>
+      </c>
+      <c r="M157">
+        <v>0</v>
+      </c>
+      <c r="N157">
+        <v>3</v>
+      </c>
+      <c r="O157" t="s">
+        <v>174</v>
+      </c>
+      <c r="P157" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q157">
+        <v>0</v>
+      </c>
+      <c r="R157">
+        <v>3</v>
+      </c>
+      <c r="S157">
+        <v>3</v>
+      </c>
+      <c r="T157">
+        <v>3.1</v>
+      </c>
+      <c r="U157">
+        <v>1.83</v>
+      </c>
+      <c r="V157">
+        <v>4.33</v>
+      </c>
+      <c r="W157">
+        <v>1.58</v>
+      </c>
+      <c r="X157">
+        <v>2.2</v>
+      </c>
+      <c r="Y157">
+        <v>3.8</v>
+      </c>
+      <c r="Z157">
+        <v>1.23</v>
+      </c>
+      <c r="AA157">
+        <v>11.5</v>
+      </c>
+      <c r="AB157">
+        <v>1.04</v>
+      </c>
+      <c r="AC157">
+        <v>2.3</v>
+      </c>
+      <c r="AD157">
+        <v>2.75</v>
+      </c>
+      <c r="AE157">
+        <v>3.26</v>
+      </c>
+      <c r="AF157">
+        <v>1.11</v>
+      </c>
+      <c r="AG157">
+        <v>6</v>
+      </c>
+      <c r="AH157">
+        <v>1.53</v>
+      </c>
+      <c r="AI157">
+        <v>2.4</v>
+      </c>
+      <c r="AJ157">
+        <v>2.65</v>
+      </c>
+      <c r="AK157">
+        <v>1.42</v>
+      </c>
+      <c r="AL157">
+        <v>2.2</v>
+      </c>
+      <c r="AM157">
+        <v>1.6</v>
+      </c>
+      <c r="AN157">
+        <v>1.33</v>
+      </c>
+      <c r="AO157">
+        <v>1.36</v>
+      </c>
+      <c r="AP157">
+        <v>1.57</v>
+      </c>
+      <c r="AQ157">
+        <v>1</v>
+      </c>
+      <c r="AR157">
+        <v>1.33</v>
+      </c>
+      <c r="AS157">
+        <v>1.18</v>
+      </c>
+      <c r="AT157">
+        <v>1.2</v>
+      </c>
+      <c r="AU157">
+        <v>1.56</v>
+      </c>
+      <c r="AV157">
+        <v>1.21</v>
+      </c>
+      <c r="AW157">
+        <v>2.77</v>
+      </c>
+      <c r="AX157">
+        <v>1.75</v>
+      </c>
+      <c r="AY157">
+        <v>7.4</v>
+      </c>
+      <c r="AZ157">
+        <v>2.53</v>
+      </c>
+      <c r="BA157">
+        <v>1.37</v>
+      </c>
+      <c r="BB157">
+        <v>1.71</v>
+      </c>
+      <c r="BC157">
+        <v>2.14</v>
+      </c>
+      <c r="BD157">
+        <v>2.85</v>
+      </c>
+      <c r="BE157">
+        <v>3.9</v>
+      </c>
+      <c r="BF157">
+        <v>6</v>
+      </c>
+      <c r="BG157">
+        <v>4</v>
+      </c>
+      <c r="BH157">
+        <v>7</v>
+      </c>
+      <c r="BI157">
+        <v>6</v>
+      </c>
+      <c r="BJ157">
+        <v>13</v>
+      </c>
+      <c r="BK157">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -30780,13 +30780,13 @@
         <v>87</v>
       </c>
       <c r="Q156">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S156">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T156">
         <v>2.86</v>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="249">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -541,6 +541,9 @@
     <t>['31', '49', '75']</t>
   </si>
   <si>
+    <t>['90']</t>
+  </si>
+  <si>
     <t>['85']</t>
   </si>
   <si>
@@ -563,9 +566,6 @@
   </si>
   <si>
     <t>['87']</t>
-  </si>
-  <si>
-    <t>['90']</t>
   </si>
   <si>
     <t>['65']</t>
@@ -758,6 +758,9 @@
   </si>
   <si>
     <t>['1', '63', '90+5']</t>
+  </si>
+  <si>
+    <t>['35', '39', '42']</t>
   </si>
 </sst>
 </file>
@@ -1119,7 +1122,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK157"/>
+  <dimension ref="A1:BK158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1363,7 +1366,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1745,7 +1748,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q4">
         <v>9</v>
@@ -1936,7 +1939,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q5">
         <v>9</v>
@@ -2127,7 +2130,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -2509,7 +2512,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2700,7 +2703,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3273,7 +3276,7 @@
         <v>83</v>
       </c>
       <c r="P12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3363,7 +3366,7 @@
         <v>1.18</v>
       </c>
       <c r="AT12">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3655,7 +3658,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4315,7 +4318,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT17">
         <v>0.4</v>
@@ -4801,7 +4804,7 @@
         <v>83</v>
       </c>
       <c r="P20" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -6228,7 +6231,7 @@
         <v>0.5</v>
       </c>
       <c r="AT27">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU27">
         <v>0.93</v>
@@ -7475,7 +7478,7 @@
         <v>83</v>
       </c>
       <c r="P34" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -9475,7 +9478,7 @@
         <v>1.22</v>
       </c>
       <c r="AT44">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU44">
         <v>1.02</v>
@@ -9854,7 +9857,7 @@
         <v>0</v>
       </c>
       <c r="AS46">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT46">
         <v>1</v>
@@ -10618,7 +10621,7 @@
         <v>0.5</v>
       </c>
       <c r="AS50">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT50">
         <v>1.67</v>
@@ -10722,7 +10725,7 @@
         <v>111</v>
       </c>
       <c r="P51" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -13104,7 +13107,7 @@
         <v>1.13</v>
       </c>
       <c r="AT63">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU63">
         <v>1.77</v>
@@ -13865,7 +13868,7 @@
         <v>1</v>
       </c>
       <c r="AS67">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT67">
         <v>1.25</v>
@@ -16542,7 +16545,7 @@
         <v>2</v>
       </c>
       <c r="AT81">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU81">
         <v>1.58</v>
@@ -18258,7 +18261,7 @@
         <v>1.75</v>
       </c>
       <c r="AS90">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT90">
         <v>1.25</v>
@@ -18643,7 +18646,7 @@
         <v>1.5</v>
       </c>
       <c r="AT92">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU92">
         <v>1.39</v>
@@ -21696,7 +21699,7 @@
         <v>0.6</v>
       </c>
       <c r="AS108">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT108">
         <v>1.13</v>
@@ -22269,7 +22272,7 @@
         <v>0.5</v>
       </c>
       <c r="AS111">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT111">
         <v>0.5600000000000001</v>
@@ -22654,7 +22657,7 @@
         <v>2</v>
       </c>
       <c r="AT113">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU113">
         <v>1.68</v>
@@ -26384,7 +26387,7 @@
         <v>157</v>
       </c>
       <c r="P133" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -26665,7 +26668,7 @@
         <v>1.6</v>
       </c>
       <c r="AT134">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU134">
         <v>1.39</v>
@@ -26853,7 +26856,7 @@
         <v>1.14</v>
       </c>
       <c r="AS135">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT135">
         <v>1.56</v>
@@ -29530,7 +29533,7 @@
         <v>1.3</v>
       </c>
       <c r="AT149">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU149">
         <v>1.07</v>
@@ -29718,7 +29721,7 @@
         <v>1.38</v>
       </c>
       <c r="AS150">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT150">
         <v>1.2</v>
@@ -31110,6 +31113,197 @@
       </c>
       <c r="BK157">
         <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:63">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>4407781</v>
+      </c>
+      <c r="C158" t="s">
+        <v>63</v>
+      </c>
+      <c r="D158" t="s">
+        <v>64</v>
+      </c>
+      <c r="E158" s="2">
+        <v>44970.58333333334</v>
+      </c>
+      <c r="F158">
+        <v>18</v>
+      </c>
+      <c r="G158" t="s">
+        <v>80</v>
+      </c>
+      <c r="H158" t="s">
+        <v>70</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>3</v>
+      </c>
+      <c r="K158">
+        <v>3</v>
+      </c>
+      <c r="L158">
+        <v>1</v>
+      </c>
+      <c r="M158">
+        <v>3</v>
+      </c>
+      <c r="N158">
+        <v>4</v>
+      </c>
+      <c r="O158" t="s">
+        <v>175</v>
+      </c>
+      <c r="P158" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q158">
+        <v>8</v>
+      </c>
+      <c r="R158">
+        <v>1</v>
+      </c>
+      <c r="S158">
+        <v>9</v>
+      </c>
+      <c r="T158">
+        <v>4</v>
+      </c>
+      <c r="U158">
+        <v>1.83</v>
+      </c>
+      <c r="V158">
+        <v>3.2</v>
+      </c>
+      <c r="W158">
+        <v>1.61</v>
+      </c>
+      <c r="X158">
+        <v>2.23</v>
+      </c>
+      <c r="Y158">
+        <v>3.62</v>
+      </c>
+      <c r="Z158">
+        <v>1.26</v>
+      </c>
+      <c r="AA158">
+        <v>10.25</v>
+      </c>
+      <c r="AB158">
+        <v>1.03</v>
+      </c>
+      <c r="AC158">
+        <v>3.28</v>
+      </c>
+      <c r="AD158">
+        <v>2.9</v>
+      </c>
+      <c r="AE158">
+        <v>2.53</v>
+      </c>
+      <c r="AF158">
+        <v>1.09</v>
+      </c>
+      <c r="AG158">
+        <v>5.75</v>
+      </c>
+      <c r="AH158">
+        <v>1.53</v>
+      </c>
+      <c r="AI158">
+        <v>2.33</v>
+      </c>
+      <c r="AJ158">
+        <v>2.37</v>
+      </c>
+      <c r="AK158">
+        <v>1.4</v>
+      </c>
+      <c r="AL158">
+        <v>2.09</v>
+      </c>
+      <c r="AM158">
+        <v>1.66</v>
+      </c>
+      <c r="AN158">
+        <v>1.54</v>
+      </c>
+      <c r="AO158">
+        <v>1.4</v>
+      </c>
+      <c r="AP158">
+        <v>1.33</v>
+      </c>
+      <c r="AQ158">
+        <v>0.78</v>
+      </c>
+      <c r="AR158">
+        <v>1.33</v>
+      </c>
+      <c r="AS158">
+        <v>0.7</v>
+      </c>
+      <c r="AT158">
+        <v>1.5</v>
+      </c>
+      <c r="AU158">
+        <v>1.31</v>
+      </c>
+      <c r="AV158">
+        <v>1.76</v>
+      </c>
+      <c r="AW158">
+        <v>3.07</v>
+      </c>
+      <c r="AX158">
+        <v>2.28</v>
+      </c>
+      <c r="AY158">
+        <v>6.8</v>
+      </c>
+      <c r="AZ158">
+        <v>1.9</v>
+      </c>
+      <c r="BA158">
+        <v>1.25</v>
+      </c>
+      <c r="BB158">
+        <v>1.48</v>
+      </c>
+      <c r="BC158">
+        <v>1.79</v>
+      </c>
+      <c r="BD158">
+        <v>2.23</v>
+      </c>
+      <c r="BE158">
+        <v>2.9</v>
+      </c>
+      <c r="BF158">
+        <v>8</v>
+      </c>
+      <c r="BG158">
+        <v>8</v>
+      </c>
+      <c r="BH158">
+        <v>11</v>
+      </c>
+      <c r="BI158">
+        <v>5</v>
+      </c>
+      <c r="BJ158">
+        <v>19</v>
+      </c>
+      <c r="BK158">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="249">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1122,7 +1122,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK158"/>
+  <dimension ref="A1:BK159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4127,7 +4127,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT16">
         <v>1.67</v>
@@ -4703,7 +4703,7 @@
         <v>1.3</v>
       </c>
       <c r="AT19">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -6610,7 +6610,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT29">
         <v>1</v>
@@ -9669,7 +9669,7 @@
         <v>0.5</v>
       </c>
       <c r="AT45">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU45">
         <v>0.95</v>
@@ -10048,7 +10048,7 @@
         <v>3</v>
       </c>
       <c r="AS47">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT47">
         <v>1.25</v>
@@ -11197,7 +11197,7 @@
         <v>1.18</v>
       </c>
       <c r="AT53">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU53">
         <v>1.6</v>
@@ -13677,7 +13677,7 @@
         <v>2.33</v>
       </c>
       <c r="AS66">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT66">
         <v>1.25</v>
@@ -14826,7 +14826,7 @@
         <v>2.13</v>
       </c>
       <c r="AT72">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU72">
         <v>1.07</v>
@@ -16160,7 +16160,7 @@
         <v>0.25</v>
       </c>
       <c r="AS79">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT79">
         <v>0.5600000000000001</v>
@@ -17309,7 +17309,7 @@
         <v>1.22</v>
       </c>
       <c r="AT85">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU85">
         <v>1.1</v>
@@ -19601,7 +19601,7 @@
         <v>2</v>
       </c>
       <c r="AT97">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU97">
         <v>1.6</v>
@@ -19980,7 +19980,7 @@
         <v>1.2</v>
       </c>
       <c r="AS99">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT99">
         <v>1.63</v>
@@ -22463,7 +22463,7 @@
         <v>1.17</v>
       </c>
       <c r="AS112">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT112">
         <v>1.56</v>
@@ -23230,7 +23230,7 @@
         <v>1.5</v>
       </c>
       <c r="AT116">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU116">
         <v>1.42</v>
@@ -26095,7 +26095,7 @@
         <v>2</v>
       </c>
       <c r="AT131">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU131">
         <v>1.62</v>
@@ -26474,7 +26474,7 @@
         <v>1.43</v>
       </c>
       <c r="AS133">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT133">
         <v>1.2</v>
@@ -28960,7 +28960,7 @@
         <v>1.6</v>
       </c>
       <c r="AT146">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU146">
         <v>1.38</v>
@@ -30103,7 +30103,7 @@
         <v>0.5</v>
       </c>
       <c r="AS152">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT152">
         <v>0.4</v>
@@ -31304,6 +31304,197 @@
       </c>
       <c r="BK158">
         <v>13</v>
+      </c>
+    </row>
+    <row r="159" spans="1:63">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>4407784</v>
+      </c>
+      <c r="C159" t="s">
+        <v>63</v>
+      </c>
+      <c r="D159" t="s">
+        <v>64</v>
+      </c>
+      <c r="E159" s="2">
+        <v>44973.5</v>
+      </c>
+      <c r="F159">
+        <v>18</v>
+      </c>
+      <c r="G159" t="s">
+        <v>79</v>
+      </c>
+      <c r="H159" t="s">
+        <v>72</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>1</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>1</v>
+      </c>
+      <c r="O159" t="s">
+        <v>97</v>
+      </c>
+      <c r="P159" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q159">
+        <v>5</v>
+      </c>
+      <c r="R159">
+        <v>4</v>
+      </c>
+      <c r="S159">
+        <v>9</v>
+      </c>
+      <c r="T159">
+        <v>2.13</v>
+      </c>
+      <c r="U159">
+        <v>2.06</v>
+      </c>
+      <c r="V159">
+        <v>6.65</v>
+      </c>
+      <c r="W159">
+        <v>1.49</v>
+      </c>
+      <c r="X159">
+        <v>2.51</v>
+      </c>
+      <c r="Y159">
+        <v>3.34</v>
+      </c>
+      <c r="Z159">
+        <v>1.3</v>
+      </c>
+      <c r="AA159">
+        <v>8.9</v>
+      </c>
+      <c r="AB159">
+        <v>1.05</v>
+      </c>
+      <c r="AC159">
+        <v>1.54</v>
+      </c>
+      <c r="AD159">
+        <v>3.55</v>
+      </c>
+      <c r="AE159">
+        <v>6</v>
+      </c>
+      <c r="AF159">
+        <v>1.05</v>
+      </c>
+      <c r="AG159">
+        <v>7.2</v>
+      </c>
+      <c r="AH159">
+        <v>1.39</v>
+      </c>
+      <c r="AI159">
+        <v>2.67</v>
+      </c>
+      <c r="AJ159">
+        <v>2.18</v>
+      </c>
+      <c r="AK159">
+        <v>1.61</v>
+      </c>
+      <c r="AL159">
+        <v>2.27</v>
+      </c>
+      <c r="AM159">
+        <v>1.56</v>
+      </c>
+      <c r="AN159">
+        <v>1.11</v>
+      </c>
+      <c r="AO159">
+        <v>1.26</v>
+      </c>
+      <c r="AP159">
+        <v>2.38</v>
+      </c>
+      <c r="AQ159">
+        <v>1.89</v>
+      </c>
+      <c r="AR159">
+        <v>0.67</v>
+      </c>
+      <c r="AS159">
+        <v>2</v>
+      </c>
+      <c r="AT159">
+        <v>0.6</v>
+      </c>
+      <c r="AU159">
+        <v>1.25</v>
+      </c>
+      <c r="AV159">
+        <v>1.23</v>
+      </c>
+      <c r="AW159">
+        <v>2.48</v>
+      </c>
+      <c r="AX159">
+        <v>1.31</v>
+      </c>
+      <c r="AY159">
+        <v>10.5</v>
+      </c>
+      <c r="AZ159">
+        <v>4.05</v>
+      </c>
+      <c r="BA159">
+        <v>1.33</v>
+      </c>
+      <c r="BB159">
+        <v>1.69</v>
+      </c>
+      <c r="BC159">
+        <v>2.1</v>
+      </c>
+      <c r="BD159">
+        <v>2.79</v>
+      </c>
+      <c r="BE159">
+        <v>3.96</v>
+      </c>
+      <c r="BF159">
+        <v>8</v>
+      </c>
+      <c r="BG159">
+        <v>4</v>
+      </c>
+      <c r="BH159">
+        <v>5</v>
+      </c>
+      <c r="BI159">
+        <v>6</v>
+      </c>
+      <c r="BJ159">
+        <v>13</v>
+      </c>
+      <c r="BK159">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="250">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -542,6 +542,9 @@
   </si>
   <si>
     <t>['90']</t>
+  </si>
+  <si>
+    <t>['24', '67']</t>
   </si>
   <si>
     <t>['85']</t>
@@ -1122,7 +1125,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK159"/>
+  <dimension ref="A1:BK160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1366,7 +1369,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1748,7 +1751,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q4">
         <v>9</v>
@@ -1939,7 +1942,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q5">
         <v>9</v>
@@ -2130,7 +2133,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -2512,7 +2515,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2703,7 +2706,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3172,7 +3175,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT11">
         <v>1.2</v>
@@ -3276,7 +3279,7 @@
         <v>83</v>
       </c>
       <c r="P12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3658,7 +3661,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4512,7 +4515,7 @@
         <v>1.22</v>
       </c>
       <c r="AT18">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -5085,7 +5088,7 @@
         <v>1.13</v>
       </c>
       <c r="AT21">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU21">
         <v>1.98</v>
@@ -5759,7 +5762,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5950,7 +5953,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6419,7 +6422,7 @@
         <v>1</v>
       </c>
       <c r="AS28">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT28">
         <v>0.4</v>
@@ -6523,7 +6526,7 @@
         <v>99</v>
       </c>
       <c r="P29" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -6714,7 +6717,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -6905,7 +6908,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -7096,7 +7099,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7186,7 +7189,7 @@
         <v>1.13</v>
       </c>
       <c r="AT32">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU32">
         <v>1.48</v>
@@ -7287,7 +7290,7 @@
         <v>83</v>
       </c>
       <c r="P33" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7478,7 +7481,7 @@
         <v>83</v>
       </c>
       <c r="P34" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7860,7 +7863,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8051,7 +8054,7 @@
         <v>104</v>
       </c>
       <c r="P37" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8902,7 +8905,7 @@
         <v>1</v>
       </c>
       <c r="AS41">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT41">
         <v>1.67</v>
@@ -9006,7 +9009,7 @@
         <v>107</v>
       </c>
       <c r="P42" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9197,7 +9200,7 @@
         <v>83</v>
       </c>
       <c r="P43" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9388,7 +9391,7 @@
         <v>83</v>
       </c>
       <c r="P44" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9770,7 +9773,7 @@
         <v>107</v>
       </c>
       <c r="P46" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q46">
         <v>12</v>
@@ -10152,7 +10155,7 @@
         <v>109</v>
       </c>
       <c r="P48" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q48">
         <v>6</v>
@@ -10343,7 +10346,7 @@
         <v>110</v>
       </c>
       <c r="P49" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10725,7 +10728,7 @@
         <v>111</v>
       </c>
       <c r="P51" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -11107,7 +11110,7 @@
         <v>113</v>
       </c>
       <c r="P53" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q53">
         <v>7</v>
@@ -11680,7 +11683,7 @@
         <v>115</v>
       </c>
       <c r="P56" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -11871,7 +11874,7 @@
         <v>116</v>
       </c>
       <c r="P57" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -12444,7 +12447,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12534,7 +12537,7 @@
         <v>2</v>
       </c>
       <c r="AT60">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU60">
         <v>1.59</v>
@@ -12635,7 +12638,7 @@
         <v>119</v>
       </c>
       <c r="P61" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q61">
         <v>1</v>
@@ -13208,7 +13211,7 @@
         <v>119</v>
       </c>
       <c r="P64" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13781,7 +13784,7 @@
         <v>83</v>
       </c>
       <c r="P67" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -13972,7 +13975,7 @@
         <v>121</v>
       </c>
       <c r="P68" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14059,7 +14062,7 @@
         <v>0.75</v>
       </c>
       <c r="AS68">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT68">
         <v>1</v>
@@ -14163,7 +14166,7 @@
         <v>122</v>
       </c>
       <c r="P69" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q69">
         <v>8</v>
@@ -14545,7 +14548,7 @@
         <v>124</v>
       </c>
       <c r="P71" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -14927,7 +14930,7 @@
         <v>126</v>
       </c>
       <c r="P73" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15309,7 +15312,7 @@
         <v>128</v>
       </c>
       <c r="P75" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15590,7 +15593,7 @@
         <v>1.5</v>
       </c>
       <c r="AT76">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU76">
         <v>1.36</v>
@@ -15882,7 +15885,7 @@
         <v>130</v>
       </c>
       <c r="P78" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -16264,7 +16267,7 @@
         <v>83</v>
       </c>
       <c r="P80" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -16924,7 +16927,7 @@
         <v>1.5</v>
       </c>
       <c r="AS83">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT83">
         <v>1.25</v>
@@ -17219,7 +17222,7 @@
         <v>121</v>
       </c>
       <c r="P85" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -17410,7 +17413,7 @@
         <v>132</v>
       </c>
       <c r="P86" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17601,7 +17604,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -17792,7 +17795,7 @@
         <v>134</v>
       </c>
       <c r="P88" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q88">
         <v>13</v>
@@ -17983,7 +17986,7 @@
         <v>135</v>
       </c>
       <c r="P89" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18365,7 +18368,7 @@
         <v>136</v>
       </c>
       <c r="P91" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q91">
         <v>1</v>
@@ -18556,7 +18559,7 @@
         <v>137</v>
       </c>
       <c r="P92" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -18747,7 +18750,7 @@
         <v>83</v>
       </c>
       <c r="P93" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q93">
         <v>4</v>
@@ -18938,7 +18941,7 @@
         <v>97</v>
       </c>
       <c r="P94" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -19028,7 +19031,7 @@
         <v>2</v>
       </c>
       <c r="AT94">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU94">
         <v>1.76</v>
@@ -19320,7 +19323,7 @@
         <v>83</v>
       </c>
       <c r="P96" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19511,7 +19514,7 @@
         <v>139</v>
       </c>
       <c r="P97" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -20275,7 +20278,7 @@
         <v>83</v>
       </c>
       <c r="P101" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -20744,7 +20747,7 @@
         <v>1.6</v>
       </c>
       <c r="AS103">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT103">
         <v>1.25</v>
@@ -20848,7 +20851,7 @@
         <v>143</v>
       </c>
       <c r="P104" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -21039,7 +21042,7 @@
         <v>144</v>
       </c>
       <c r="P105" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -21612,7 +21615,7 @@
         <v>83</v>
       </c>
       <c r="P108" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -21803,7 +21806,7 @@
         <v>146</v>
       </c>
       <c r="P109" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q109">
         <v>10</v>
@@ -21994,7 +21997,7 @@
         <v>147</v>
       </c>
       <c r="P110" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q110">
         <v>1</v>
@@ -22848,7 +22851,7 @@
         <v>1.6</v>
       </c>
       <c r="AT114">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU114">
         <v>1.48</v>
@@ -23140,7 +23143,7 @@
         <v>151</v>
       </c>
       <c r="P116" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23331,7 +23334,7 @@
         <v>152</v>
       </c>
       <c r="P117" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q117">
         <v>2</v>
@@ -23522,7 +23525,7 @@
         <v>153</v>
       </c>
       <c r="P118" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -23713,7 +23716,7 @@
         <v>83</v>
       </c>
       <c r="P119" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q119">
         <v>2</v>
@@ -24095,7 +24098,7 @@
         <v>154</v>
       </c>
       <c r="P121" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24477,7 +24480,7 @@
         <v>155</v>
       </c>
       <c r="P123" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -24755,7 +24758,7 @@
         <v>1</v>
       </c>
       <c r="AS124">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT124">
         <v>1.13</v>
@@ -24859,7 +24862,7 @@
         <v>157</v>
       </c>
       <c r="P125" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -25050,7 +25053,7 @@
         <v>83</v>
       </c>
       <c r="P126" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q126">
         <v>7</v>
@@ -25241,7 +25244,7 @@
         <v>83</v>
       </c>
       <c r="P127" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q127">
         <v>7</v>
@@ -25432,7 +25435,7 @@
         <v>158</v>
       </c>
       <c r="P128" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -25713,7 +25716,7 @@
         <v>1.3</v>
       </c>
       <c r="AT129">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU129">
         <v>1.05</v>
@@ -26387,7 +26390,7 @@
         <v>157</v>
       </c>
       <c r="P133" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -26578,7 +26581,7 @@
         <v>159</v>
       </c>
       <c r="P134" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -26769,7 +26772,7 @@
         <v>160</v>
       </c>
       <c r="P135" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -27151,7 +27154,7 @@
         <v>161</v>
       </c>
       <c r="P137" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q137">
         <v>2</v>
@@ -27342,7 +27345,7 @@
         <v>162</v>
       </c>
       <c r="P138" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q138">
         <v>7</v>
@@ -27724,7 +27727,7 @@
         <v>163</v>
       </c>
       <c r="P140" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q140">
         <v>10</v>
@@ -27915,7 +27918,7 @@
         <v>83</v>
       </c>
       <c r="P141" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q141">
         <v>9</v>
@@ -28106,7 +28109,7 @@
         <v>164</v>
       </c>
       <c r="P142" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -28193,7 +28196,7 @@
         <v>1.17</v>
       </c>
       <c r="AS142">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT142">
         <v>1.14</v>
@@ -28297,7 +28300,7 @@
         <v>165</v>
       </c>
       <c r="P143" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q143">
         <v>2</v>
@@ -28488,7 +28491,7 @@
         <v>166</v>
       </c>
       <c r="P144" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q144">
         <v>1</v>
@@ -28679,7 +28682,7 @@
         <v>167</v>
       </c>
       <c r="P145" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q145">
         <v>11</v>
@@ -28870,7 +28873,7 @@
         <v>168</v>
       </c>
       <c r="P146" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q146">
         <v>8</v>
@@ -29151,7 +29154,7 @@
         <v>1.18</v>
       </c>
       <c r="AT147">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU147">
         <v>1.52</v>
@@ -29252,7 +29255,7 @@
         <v>169</v>
       </c>
       <c r="P148" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -29825,7 +29828,7 @@
         <v>83</v>
       </c>
       <c r="P151" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -30398,7 +30401,7 @@
         <v>83</v>
       </c>
       <c r="P154" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q154">
         <v>6</v>
@@ -31162,7 +31165,7 @@
         <v>175</v>
       </c>
       <c r="P158" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q158">
         <v>8</v>
@@ -31495,6 +31498,197 @@
       </c>
       <c r="BK159">
         <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:63">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>4407783</v>
+      </c>
+      <c r="C160" t="s">
+        <v>63</v>
+      </c>
+      <c r="D160" t="s">
+        <v>64</v>
+      </c>
+      <c r="E160" s="2">
+        <v>44973.58333333334</v>
+      </c>
+      <c r="F160">
+        <v>18</v>
+      </c>
+      <c r="G160" t="s">
+        <v>74</v>
+      </c>
+      <c r="H160" t="s">
+        <v>69</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160">
+        <v>1</v>
+      </c>
+      <c r="K160">
+        <v>2</v>
+      </c>
+      <c r="L160">
+        <v>2</v>
+      </c>
+      <c r="M160">
+        <v>1</v>
+      </c>
+      <c r="N160">
+        <v>3</v>
+      </c>
+      <c r="O160" t="s">
+        <v>176</v>
+      </c>
+      <c r="P160" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q160">
+        <v>4</v>
+      </c>
+      <c r="R160">
+        <v>1</v>
+      </c>
+      <c r="S160">
+        <v>5</v>
+      </c>
+      <c r="T160">
+        <v>2.3</v>
+      </c>
+      <c r="U160">
+        <v>2.1</v>
+      </c>
+      <c r="V160">
+        <v>5</v>
+      </c>
+      <c r="W160">
+        <v>1.45</v>
+      </c>
+      <c r="X160">
+        <v>2.63</v>
+      </c>
+      <c r="Y160">
+        <v>3.1</v>
+      </c>
+      <c r="Z160">
+        <v>1.31</v>
+      </c>
+      <c r="AA160">
+        <v>8.75</v>
+      </c>
+      <c r="AB160">
+        <v>1.06</v>
+      </c>
+      <c r="AC160">
+        <v>1.6</v>
+      </c>
+      <c r="AD160">
+        <v>3.4</v>
+      </c>
+      <c r="AE160">
+        <v>5</v>
+      </c>
+      <c r="AF160">
+        <v>1.04</v>
+      </c>
+      <c r="AG160">
+        <v>7.9</v>
+      </c>
+      <c r="AH160">
+        <v>1.34</v>
+      </c>
+      <c r="AI160">
+        <v>2.88</v>
+      </c>
+      <c r="AJ160">
+        <v>2.08</v>
+      </c>
+      <c r="AK160">
+        <v>1.66</v>
+      </c>
+      <c r="AL160">
+        <v>1.98</v>
+      </c>
+      <c r="AM160">
+        <v>1.78</v>
+      </c>
+      <c r="AN160">
+        <v>1.19</v>
+      </c>
+      <c r="AO160">
+        <v>1.29</v>
+      </c>
+      <c r="AP160">
+        <v>2</v>
+      </c>
+      <c r="AQ160">
+        <v>2.5</v>
+      </c>
+      <c r="AR160">
+        <v>1.33</v>
+      </c>
+      <c r="AS160">
+        <v>2.56</v>
+      </c>
+      <c r="AT160">
+        <v>1.2</v>
+      </c>
+      <c r="AU160">
+        <v>1.72</v>
+      </c>
+      <c r="AV160">
+        <v>1.23</v>
+      </c>
+      <c r="AW160">
+        <v>2.95</v>
+      </c>
+      <c r="AX160">
+        <v>1.34</v>
+      </c>
+      <c r="AY160">
+        <v>9.5</v>
+      </c>
+      <c r="AZ160">
+        <v>4.02</v>
+      </c>
+      <c r="BA160">
+        <v>1.26</v>
+      </c>
+      <c r="BB160">
+        <v>1.48</v>
+      </c>
+      <c r="BC160">
+        <v>1.95</v>
+      </c>
+      <c r="BD160">
+        <v>2.43</v>
+      </c>
+      <c r="BE160">
+        <v>3.35</v>
+      </c>
+      <c r="BF160">
+        <v>4</v>
+      </c>
+      <c r="BG160">
+        <v>0</v>
+      </c>
+      <c r="BH160">
+        <v>4</v>
+      </c>
+      <c r="BI160">
+        <v>3</v>
+      </c>
+      <c r="BJ160">
+        <v>8</v>
+      </c>
+      <c r="BK160">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="254">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -547,6 +547,15 @@
     <t>['24', '67']</t>
   </si>
   <si>
+    <t>['15', '61']</t>
+  </si>
+  <si>
+    <t>['69']</t>
+  </si>
+  <si>
+    <t>['54']</t>
+  </si>
+  <si>
     <t>['85']</t>
   </si>
   <si>
@@ -583,9 +592,6 @@
     <t>['79']</t>
   </si>
   <si>
-    <t>['54']</t>
-  </si>
-  <si>
     <t>['2', '5', '26']</t>
   </si>
   <si>
@@ -608,9 +614,6 @@
   </si>
   <si>
     <t>['15', '38']</t>
-  </si>
-  <si>
-    <t>['69']</t>
   </si>
   <si>
     <t>['27']</t>
@@ -764,6 +767,15 @@
   </si>
   <si>
     <t>['35', '39', '42']</t>
+  </si>
+  <si>
+    <t>['59', '76']</t>
+  </si>
+  <si>
+    <t>['25', '90+6']</t>
+  </si>
+  <si>
+    <t>['34', '41', '45+2']</t>
   </si>
 </sst>
 </file>
@@ -1125,7 +1137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK160"/>
+  <dimension ref="A1:BK165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1369,7 +1381,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1456,10 +1468,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT2">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1647,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT3">
         <v>1.13</v>
@@ -1751,7 +1763,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q4">
         <v>9</v>
@@ -1942,7 +1954,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q5">
         <v>9</v>
@@ -2029,10 +2041,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AT5">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2133,7 +2145,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -2220,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT6">
         <v>1.56</v>
@@ -2414,7 +2426,7 @@
         <v>2.13</v>
       </c>
       <c r="AT7">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2515,7 +2527,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2605,7 +2617,7 @@
         <v>2</v>
       </c>
       <c r="AT8">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2706,7 +2718,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2984,10 +2996,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT10">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3279,7 +3291,7 @@
         <v>83</v>
       </c>
       <c r="P12" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3661,7 +3673,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4894,10 +4906,10 @@
         <v>1</v>
       </c>
       <c r="AS20">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT20">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU20">
         <v>1.11</v>
@@ -5279,7 +5291,7 @@
         <v>2</v>
       </c>
       <c r="AT22">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU22">
         <v>1.15</v>
@@ -5661,7 +5673,7 @@
         <v>1.14</v>
       </c>
       <c r="AT24">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU24">
         <v>0.68</v>
@@ -5762,7 +5774,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5849,7 +5861,7 @@
         <v>3</v>
       </c>
       <c r="AS25">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT25">
         <v>1.14</v>
@@ -5953,7 +5965,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6040,10 +6052,10 @@
         <v>3</v>
       </c>
       <c r="AS26">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT26">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AU26">
         <v>1.37</v>
@@ -6231,7 +6243,7 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT27">
         <v>1.5</v>
@@ -6526,7 +6538,7 @@
         <v>99</v>
       </c>
       <c r="P29" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -6717,7 +6729,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -6908,7 +6920,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -7099,7 +7111,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7186,7 +7198,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT32">
         <v>1.2</v>
@@ -7290,7 +7302,7 @@
         <v>83</v>
       </c>
       <c r="P33" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7380,7 +7392,7 @@
         <v>2</v>
       </c>
       <c r="AT33">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU33">
         <v>2.03</v>
@@ -7481,7 +7493,7 @@
         <v>83</v>
       </c>
       <c r="P34" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7568,7 +7580,7 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT34">
         <v>2.13</v>
@@ -7759,7 +7771,7 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT35">
         <v>1.13</v>
@@ -7863,7 +7875,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8054,7 +8066,7 @@
         <v>104</v>
       </c>
       <c r="P37" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8332,10 +8344,10 @@
         <v>0.5</v>
       </c>
       <c r="AS38">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AT38">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU38">
         <v>0.54</v>
@@ -8526,7 +8538,7 @@
         <v>2.25</v>
       </c>
       <c r="AT39">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU39">
         <v>1.58</v>
@@ -9009,7 +9021,7 @@
         <v>107</v>
       </c>
       <c r="P42" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9200,7 +9212,7 @@
         <v>83</v>
       </c>
       <c r="P43" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9290,7 +9302,7 @@
         <v>1.6</v>
       </c>
       <c r="AT43">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AU43">
         <v>1.83</v>
@@ -9391,7 +9403,7 @@
         <v>83</v>
       </c>
       <c r="P44" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9669,7 +9681,7 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT45">
         <v>0.6</v>
@@ -9773,7 +9785,7 @@
         <v>107</v>
       </c>
       <c r="P46" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q46">
         <v>12</v>
@@ -10054,7 +10066,7 @@
         <v>2</v>
       </c>
       <c r="AT47">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU47">
         <v>1.74</v>
@@ -10155,7 +10167,7 @@
         <v>109</v>
       </c>
       <c r="P48" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="Q48">
         <v>6</v>
@@ -10346,7 +10358,7 @@
         <v>110</v>
       </c>
       <c r="P49" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10728,7 +10740,7 @@
         <v>111</v>
       </c>
       <c r="P51" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -11110,7 +11122,7 @@
         <v>113</v>
       </c>
       <c r="P53" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q53">
         <v>7</v>
@@ -11388,7 +11400,7 @@
         <v>3</v>
       </c>
       <c r="AS54">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AT54">
         <v>2.13</v>
@@ -11582,7 +11594,7 @@
         <v>2.25</v>
       </c>
       <c r="AT55">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU55">
         <v>1.45</v>
@@ -11683,7 +11695,7 @@
         <v>115</v>
       </c>
       <c r="P56" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -11773,7 +11785,7 @@
         <v>1.6</v>
       </c>
       <c r="AT56">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU56">
         <v>1.51</v>
@@ -11874,7 +11886,7 @@
         <v>116</v>
       </c>
       <c r="P57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -12152,10 +12164,10 @@
         <v>1.33</v>
       </c>
       <c r="AS58">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT58">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU58">
         <v>0.97</v>
@@ -12447,7 +12459,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12638,7 +12650,7 @@
         <v>119</v>
       </c>
       <c r="P61" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q61">
         <v>1</v>
@@ -12725,7 +12737,7 @@
         <v>1.33</v>
       </c>
       <c r="AS61">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AT61">
         <v>1.56</v>
@@ -13107,7 +13119,7 @@
         <v>2.33</v>
       </c>
       <c r="AS63">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT63">
         <v>1.5</v>
@@ -13211,7 +13223,7 @@
         <v>119</v>
       </c>
       <c r="P64" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13683,7 +13695,7 @@
         <v>2</v>
       </c>
       <c r="AT66">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU66">
         <v>1.47</v>
@@ -13784,7 +13796,7 @@
         <v>83</v>
       </c>
       <c r="P67" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -13874,7 +13886,7 @@
         <v>0.7</v>
       </c>
       <c r="AT67">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU67">
         <v>1.23</v>
@@ -13975,7 +13987,7 @@
         <v>121</v>
       </c>
       <c r="P68" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14166,7 +14178,7 @@
         <v>122</v>
       </c>
       <c r="P69" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q69">
         <v>8</v>
@@ -14253,7 +14265,7 @@
         <v>0.67</v>
       </c>
       <c r="AS69">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT69">
         <v>0.89</v>
@@ -14548,7 +14560,7 @@
         <v>124</v>
       </c>
       <c r="P71" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -14638,7 +14650,7 @@
         <v>1.3</v>
       </c>
       <c r="AT71">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AU71">
         <v>1.02</v>
@@ -14930,7 +14942,7 @@
         <v>126</v>
       </c>
       <c r="P73" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15312,7 +15324,7 @@
         <v>128</v>
       </c>
       <c r="P75" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15399,7 +15411,7 @@
         <v>1.75</v>
       </c>
       <c r="AS75">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT75">
         <v>1.56</v>
@@ -15590,7 +15602,7 @@
         <v>0.75</v>
       </c>
       <c r="AS76">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT76">
         <v>1.2</v>
@@ -15885,7 +15897,7 @@
         <v>130</v>
       </c>
       <c r="P78" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -16166,7 +16178,7 @@
         <v>2</v>
       </c>
       <c r="AT79">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU79">
         <v>1.41</v>
@@ -16267,7 +16279,7 @@
         <v>83</v>
       </c>
       <c r="P80" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -16354,7 +16366,7 @@
         <v>0.75</v>
       </c>
       <c r="AS80">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AT80">
         <v>1.2</v>
@@ -16739,7 +16751,7 @@
         <v>2.25</v>
       </c>
       <c r="AT82">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU82">
         <v>1.65</v>
@@ -16930,7 +16942,7 @@
         <v>2.56</v>
       </c>
       <c r="AT83">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU83">
         <v>1.61</v>
@@ -17118,7 +17130,7 @@
         <v>0.5</v>
       </c>
       <c r="AS84">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT84">
         <v>1.11</v>
@@ -17222,7 +17234,7 @@
         <v>121</v>
       </c>
       <c r="P85" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -17413,7 +17425,7 @@
         <v>132</v>
       </c>
       <c r="P86" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17604,7 +17616,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -17694,7 +17706,7 @@
         <v>1.18</v>
       </c>
       <c r="AT87">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AU87">
         <v>1.71</v>
@@ -17795,7 +17807,7 @@
         <v>134</v>
       </c>
       <c r="P88" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q88">
         <v>13</v>
@@ -17986,7 +17998,7 @@
         <v>135</v>
       </c>
       <c r="P89" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18267,7 +18279,7 @@
         <v>0.7</v>
       </c>
       <c r="AT90">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU90">
         <v>1.33</v>
@@ -18368,7 +18380,7 @@
         <v>136</v>
       </c>
       <c r="P91" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q91">
         <v>1</v>
@@ -18455,7 +18467,7 @@
         <v>0.75</v>
       </c>
       <c r="AS91">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT91">
         <v>1.67</v>
@@ -18559,7 +18571,7 @@
         <v>137</v>
       </c>
       <c r="P92" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -18646,7 +18658,7 @@
         <v>2.2</v>
       </c>
       <c r="AS92">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT92">
         <v>1.5</v>
@@ -18750,7 +18762,7 @@
         <v>83</v>
       </c>
       <c r="P93" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q93">
         <v>4</v>
@@ -18837,7 +18849,7 @@
         <v>1.2</v>
       </c>
       <c r="AS93">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT93">
         <v>1.2</v>
@@ -18941,7 +18953,7 @@
         <v>97</v>
       </c>
       <c r="P94" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -19323,7 +19335,7 @@
         <v>83</v>
       </c>
       <c r="P96" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19514,7 +19526,7 @@
         <v>139</v>
       </c>
       <c r="P97" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -19792,7 +19804,7 @@
         <v>0.4</v>
       </c>
       <c r="AS98">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AT98">
         <v>0.4</v>
@@ -19986,7 +19998,7 @@
         <v>2</v>
       </c>
       <c r="AT99">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU99">
         <v>1.26</v>
@@ -20177,7 +20189,7 @@
         <v>1.3</v>
       </c>
       <c r="AT100">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU100">
         <v>1.11</v>
@@ -20278,7 +20290,7 @@
         <v>83</v>
       </c>
       <c r="P101" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -20365,10 +20377,10 @@
         <v>2.6</v>
       </c>
       <c r="AS101">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT101">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AU101">
         <v>0.99</v>
@@ -20750,7 +20762,7 @@
         <v>2.56</v>
       </c>
       <c r="AT103">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU103">
         <v>1.68</v>
@@ -20851,7 +20863,7 @@
         <v>143</v>
       </c>
       <c r="P104" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -20941,7 +20953,7 @@
         <v>1.13</v>
       </c>
       <c r="AT104">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU104">
         <v>1.64</v>
@@ -21042,7 +21054,7 @@
         <v>144</v>
       </c>
       <c r="P105" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -21511,7 +21523,7 @@
         <v>1</v>
       </c>
       <c r="AS107">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT107">
         <v>1</v>
@@ -21615,7 +21627,7 @@
         <v>83</v>
       </c>
       <c r="P108" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -21806,7 +21818,7 @@
         <v>146</v>
       </c>
       <c r="P109" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q109">
         <v>10</v>
@@ -21997,7 +22009,7 @@
         <v>147</v>
       </c>
       <c r="P110" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q110">
         <v>1</v>
@@ -22084,7 +22096,7 @@
         <v>0.5</v>
       </c>
       <c r="AS110">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT110">
         <v>0.4</v>
@@ -22278,7 +22290,7 @@
         <v>0.7</v>
       </c>
       <c r="AT111">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU111">
         <v>1.41</v>
@@ -23143,7 +23155,7 @@
         <v>151</v>
       </c>
       <c r="P116" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23230,7 +23242,7 @@
         <v>0.33</v>
       </c>
       <c r="AS116">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT116">
         <v>0.6</v>
@@ -23334,7 +23346,7 @@
         <v>152</v>
       </c>
       <c r="P117" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="Q117">
         <v>2</v>
@@ -23525,7 +23537,7 @@
         <v>153</v>
       </c>
       <c r="P118" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -23612,7 +23624,7 @@
         <v>1</v>
       </c>
       <c r="AS118">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AT118">
         <v>1.67</v>
@@ -23716,7 +23728,7 @@
         <v>83</v>
       </c>
       <c r="P119" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q119">
         <v>2</v>
@@ -24098,7 +24110,7 @@
         <v>154</v>
       </c>
       <c r="P121" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24185,7 +24197,7 @@
         <v>2.33</v>
       </c>
       <c r="AS121">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT121">
         <v>2.13</v>
@@ -24480,7 +24492,7 @@
         <v>155</v>
       </c>
       <c r="P123" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -24567,10 +24579,10 @@
         <v>1</v>
       </c>
       <c r="AS123">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT123">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU123">
         <v>1.59</v>
@@ -24862,7 +24874,7 @@
         <v>157</v>
       </c>
       <c r="P125" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -24952,7 +24964,7 @@
         <v>1.13</v>
       </c>
       <c r="AT125">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU125">
         <v>1.61</v>
@@ -25053,7 +25065,7 @@
         <v>83</v>
       </c>
       <c r="P126" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q126">
         <v>7</v>
@@ -25143,7 +25155,7 @@
         <v>1.18</v>
       </c>
       <c r="AT126">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU126">
         <v>1.5</v>
@@ -25244,7 +25256,7 @@
         <v>83</v>
       </c>
       <c r="P127" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q127">
         <v>7</v>
@@ -25334,7 +25346,7 @@
         <v>2.13</v>
       </c>
       <c r="AT127">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AU127">
         <v>1.51</v>
@@ -25435,7 +25447,7 @@
         <v>158</v>
       </c>
       <c r="P128" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -25522,7 +25534,7 @@
         <v>1.29</v>
       </c>
       <c r="AS128">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT128">
         <v>1.67</v>
@@ -25904,7 +25916,7 @@
         <v>0.86</v>
       </c>
       <c r="AS130">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT130">
         <v>0.89</v>
@@ -26289,7 +26301,7 @@
         <v>1.18</v>
       </c>
       <c r="AT132">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU132">
         <v>1.5</v>
@@ -26390,7 +26402,7 @@
         <v>157</v>
       </c>
       <c r="P133" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -26581,7 +26593,7 @@
         <v>159</v>
       </c>
       <c r="P134" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -26772,7 +26784,7 @@
         <v>160</v>
       </c>
       <c r="P135" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -27154,7 +27166,7 @@
         <v>161</v>
       </c>
       <c r="P137" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q137">
         <v>2</v>
@@ -27241,10 +27253,10 @@
         <v>0.5</v>
       </c>
       <c r="AS137">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT137">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU137">
         <v>1.4</v>
@@ -27345,7 +27357,7 @@
         <v>162</v>
       </c>
       <c r="P138" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q138">
         <v>7</v>
@@ -27432,7 +27444,7 @@
         <v>1</v>
       </c>
       <c r="AS138">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AT138">
         <v>1.11</v>
@@ -27626,7 +27638,7 @@
         <v>2</v>
       </c>
       <c r="AT139">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU139">
         <v>1.64</v>
@@ -27727,7 +27739,7 @@
         <v>163</v>
       </c>
       <c r="P140" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q140">
         <v>10</v>
@@ -27918,7 +27930,7 @@
         <v>83</v>
       </c>
       <c r="P141" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q141">
         <v>9</v>
@@ -28005,10 +28017,10 @@
         <v>1.43</v>
       </c>
       <c r="AS141">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT141">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU141">
         <v>1.11</v>
@@ -28109,7 +28121,7 @@
         <v>164</v>
       </c>
       <c r="P142" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -28300,7 +28312,7 @@
         <v>165</v>
       </c>
       <c r="P143" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q143">
         <v>2</v>
@@ -28491,7 +28503,7 @@
         <v>166</v>
       </c>
       <c r="P144" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q144">
         <v>1</v>
@@ -28578,10 +28590,10 @@
         <v>1.29</v>
       </c>
       <c r="AS144">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT144">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU144">
         <v>1.53</v>
@@ -28682,7 +28694,7 @@
         <v>167</v>
       </c>
       <c r="P145" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q145">
         <v>11</v>
@@ -28769,7 +28781,7 @@
         <v>0.88</v>
       </c>
       <c r="AS145">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AT145">
         <v>1</v>
@@ -28873,7 +28885,7 @@
         <v>168</v>
       </c>
       <c r="P146" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q146">
         <v>8</v>
@@ -29255,7 +29267,7 @@
         <v>169</v>
       </c>
       <c r="P148" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -29828,7 +29840,7 @@
         <v>83</v>
       </c>
       <c r="P151" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -30401,7 +30413,7 @@
         <v>83</v>
       </c>
       <c r="P154" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q154">
         <v>6</v>
@@ -31165,7 +31177,7 @@
         <v>175</v>
       </c>
       <c r="P158" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q158">
         <v>8</v>
@@ -31689,6 +31701,961 @@
       </c>
       <c r="BK160">
         <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:63">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>4407789</v>
+      </c>
+      <c r="C161" t="s">
+        <v>63</v>
+      </c>
+      <c r="D161" t="s">
+        <v>64</v>
+      </c>
+      <c r="E161" s="2">
+        <v>44976.5</v>
+      </c>
+      <c r="F161">
+        <v>19</v>
+      </c>
+      <c r="G161" t="s">
+        <v>66</v>
+      </c>
+      <c r="H161" t="s">
+        <v>80</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>1</v>
+      </c>
+      <c r="L161">
+        <v>2</v>
+      </c>
+      <c r="M161">
+        <v>2</v>
+      </c>
+      <c r="N161">
+        <v>4</v>
+      </c>
+      <c r="O161" t="s">
+        <v>177</v>
+      </c>
+      <c r="P161" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q161">
+        <v>2</v>
+      </c>
+      <c r="R161">
+        <v>9</v>
+      </c>
+      <c r="S161">
+        <v>11</v>
+      </c>
+      <c r="T161">
+        <v>3.6</v>
+      </c>
+      <c r="U161">
+        <v>1.83</v>
+      </c>
+      <c r="V161">
+        <v>3.4</v>
+      </c>
+      <c r="W161">
+        <v>1.54</v>
+      </c>
+      <c r="X161">
+        <v>2.38</v>
+      </c>
+      <c r="Y161">
+        <v>3.62</v>
+      </c>
+      <c r="Z161">
+        <v>1.26</v>
+      </c>
+      <c r="AA161">
+        <v>10</v>
+      </c>
+      <c r="AB161">
+        <v>1.03</v>
+      </c>
+      <c r="AC161">
+        <v>2.88</v>
+      </c>
+      <c r="AD161">
+        <v>2.75</v>
+      </c>
+      <c r="AE161">
+        <v>2.5</v>
+      </c>
+      <c r="AF161">
+        <v>1.1</v>
+      </c>
+      <c r="AG161">
+        <v>5.35</v>
+      </c>
+      <c r="AH161">
+        <v>1.48</v>
+      </c>
+      <c r="AI161">
+        <v>2.45</v>
+      </c>
+      <c r="AJ161">
+        <v>2.5</v>
+      </c>
+      <c r="AK161">
+        <v>1.47</v>
+      </c>
+      <c r="AL161">
+        <v>2.11</v>
+      </c>
+      <c r="AM161">
+        <v>1.65</v>
+      </c>
+      <c r="AN161">
+        <v>1.44</v>
+      </c>
+      <c r="AO161">
+        <v>1.43</v>
+      </c>
+      <c r="AP161">
+        <v>1.38</v>
+      </c>
+      <c r="AQ161">
+        <v>1.13</v>
+      </c>
+      <c r="AR161">
+        <v>1.63</v>
+      </c>
+      <c r="AS161">
+        <v>1.11</v>
+      </c>
+      <c r="AT161">
+        <v>1.56</v>
+      </c>
+      <c r="AU161">
+        <v>1.46</v>
+      </c>
+      <c r="AV161">
+        <v>1.1</v>
+      </c>
+      <c r="AW161">
+        <v>2.56</v>
+      </c>
+      <c r="AX161">
+        <v>1.9</v>
+      </c>
+      <c r="AY161">
+        <v>6.8</v>
+      </c>
+      <c r="AZ161">
+        <v>2.28</v>
+      </c>
+      <c r="BA161">
+        <v>1.33</v>
+      </c>
+      <c r="BB161">
+        <v>1.57</v>
+      </c>
+      <c r="BC161">
+        <v>1.99</v>
+      </c>
+      <c r="BD161">
+        <v>2.55</v>
+      </c>
+      <c r="BE161">
+        <v>3.4</v>
+      </c>
+      <c r="BF161">
+        <v>4</v>
+      </c>
+      <c r="BG161">
+        <v>4</v>
+      </c>
+      <c r="BH161">
+        <v>2</v>
+      </c>
+      <c r="BI161">
+        <v>9</v>
+      </c>
+      <c r="BJ161">
+        <v>6</v>
+      </c>
+      <c r="BK161">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162" spans="1:63">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>4407790</v>
+      </c>
+      <c r="C162" t="s">
+        <v>63</v>
+      </c>
+      <c r="D162" t="s">
+        <v>64</v>
+      </c>
+      <c r="E162" s="2">
+        <v>44977.5</v>
+      </c>
+      <c r="F162">
+        <v>19</v>
+      </c>
+      <c r="G162" t="s">
+        <v>73</v>
+      </c>
+      <c r="H162" t="s">
+        <v>78</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>1</v>
+      </c>
+      <c r="K162">
+        <v>1</v>
+      </c>
+      <c r="L162">
+        <v>1</v>
+      </c>
+      <c r="M162">
+        <v>2</v>
+      </c>
+      <c r="N162">
+        <v>3</v>
+      </c>
+      <c r="O162" t="s">
+        <v>178</v>
+      </c>
+      <c r="P162" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q162">
+        <v>8</v>
+      </c>
+      <c r="R162">
+        <v>7</v>
+      </c>
+      <c r="S162">
+        <v>15</v>
+      </c>
+      <c r="T162">
+        <v>4.54</v>
+      </c>
+      <c r="U162">
+        <v>1.97</v>
+      </c>
+      <c r="V162">
+        <v>2.73</v>
+      </c>
+      <c r="W162">
+        <v>1.5</v>
+      </c>
+      <c r="X162">
+        <v>2.48</v>
+      </c>
+      <c r="Y162">
+        <v>3.34</v>
+      </c>
+      <c r="Z162">
+        <v>1.3</v>
+      </c>
+      <c r="AA162">
+        <v>9</v>
+      </c>
+      <c r="AB162">
+        <v>1.04</v>
+      </c>
+      <c r="AC162">
+        <v>3.65</v>
+      </c>
+      <c r="AD162">
+        <v>2.85</v>
+      </c>
+      <c r="AE162">
+        <v>2.12</v>
+      </c>
+      <c r="AF162">
+        <v>1.05</v>
+      </c>
+      <c r="AG162">
+        <v>7.1</v>
+      </c>
+      <c r="AH162">
+        <v>1.45</v>
+      </c>
+      <c r="AI162">
+        <v>2.65</v>
+      </c>
+      <c r="AJ162">
+        <v>2.3</v>
+      </c>
+      <c r="AK162">
+        <v>1.55</v>
+      </c>
+      <c r="AL162">
+        <v>2</v>
+      </c>
+      <c r="AM162">
+        <v>1.77</v>
+      </c>
+      <c r="AN162">
+        <v>1.74</v>
+      </c>
+      <c r="AO162">
+        <v>1.33</v>
+      </c>
+      <c r="AP162">
+        <v>1.27</v>
+      </c>
+      <c r="AQ162">
+        <v>0.67</v>
+      </c>
+      <c r="AR162">
+        <v>1.25</v>
+      </c>
+      <c r="AS162">
+        <v>0.6</v>
+      </c>
+      <c r="AT162">
+        <v>1.44</v>
+      </c>
+      <c r="AU162">
+        <v>1.15</v>
+      </c>
+      <c r="AV162">
+        <v>1.42</v>
+      </c>
+      <c r="AW162">
+        <v>2.57</v>
+      </c>
+      <c r="AX162">
+        <v>2.48</v>
+      </c>
+      <c r="AY162">
+        <v>7.5</v>
+      </c>
+      <c r="AZ162">
+        <v>1.77</v>
+      </c>
+      <c r="BA162">
+        <v>1.26</v>
+      </c>
+      <c r="BB162">
+        <v>1.56</v>
+      </c>
+      <c r="BC162">
+        <v>1.93</v>
+      </c>
+      <c r="BD162">
+        <v>2.41</v>
+      </c>
+      <c r="BE162">
+        <v>3.34</v>
+      </c>
+      <c r="BF162">
+        <v>6</v>
+      </c>
+      <c r="BG162">
+        <v>5</v>
+      </c>
+      <c r="BH162">
+        <v>6</v>
+      </c>
+      <c r="BI162">
+        <v>9</v>
+      </c>
+      <c r="BJ162">
+        <v>12</v>
+      </c>
+      <c r="BK162">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="163" spans="1:63">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>4407791</v>
+      </c>
+      <c r="C163" t="s">
+        <v>63</v>
+      </c>
+      <c r="D163" t="s">
+        <v>64</v>
+      </c>
+      <c r="E163" s="2">
+        <v>44977.58333333334</v>
+      </c>
+      <c r="F163">
+        <v>19</v>
+      </c>
+      <c r="G163" t="s">
+        <v>69</v>
+      </c>
+      <c r="H163" t="s">
+        <v>81</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+      <c r="M163">
+        <v>0</v>
+      </c>
+      <c r="N163">
+        <v>0</v>
+      </c>
+      <c r="O163" t="s">
+        <v>83</v>
+      </c>
+      <c r="P163" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q163">
+        <v>4</v>
+      </c>
+      <c r="R163">
+        <v>6</v>
+      </c>
+      <c r="S163">
+        <v>10</v>
+      </c>
+      <c r="T163">
+        <v>3.4</v>
+      </c>
+      <c r="U163">
+        <v>1.83</v>
+      </c>
+      <c r="V163">
+        <v>3.6</v>
+      </c>
+      <c r="W163">
+        <v>1.53</v>
+      </c>
+      <c r="X163">
+        <v>2.4</v>
+      </c>
+      <c r="Y163">
+        <v>3.72</v>
+      </c>
+      <c r="Z163">
+        <v>1.25</v>
+      </c>
+      <c r="AA163">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AB163">
+        <v>1.03</v>
+      </c>
+      <c r="AC163">
+        <v>2.8</v>
+      </c>
+      <c r="AD163">
+        <v>2.6</v>
+      </c>
+      <c r="AE163">
+        <v>2.75</v>
+      </c>
+      <c r="AF163">
+        <v>1.08</v>
+      </c>
+      <c r="AG163">
+        <v>6.05</v>
+      </c>
+      <c r="AH163">
+        <v>1.5</v>
+      </c>
+      <c r="AI163">
+        <v>2.38</v>
+      </c>
+      <c r="AJ163">
+        <v>2.4</v>
+      </c>
+      <c r="AK163">
+        <v>1.39</v>
+      </c>
+      <c r="AL163">
+        <v>2.02</v>
+      </c>
+      <c r="AM163">
+        <v>1.71</v>
+      </c>
+      <c r="AN163">
+        <v>1.35</v>
+      </c>
+      <c r="AO163">
+        <v>1.41</v>
+      </c>
+      <c r="AP163">
+        <v>1.38</v>
+      </c>
+      <c r="AQ163">
+        <v>0.5</v>
+      </c>
+      <c r="AR163">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS163">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AT163">
+        <v>0.6</v>
+      </c>
+      <c r="AU163">
+        <v>1.14</v>
+      </c>
+      <c r="AV163">
+        <v>1.27</v>
+      </c>
+      <c r="AW163">
+        <v>2.41</v>
+      </c>
+      <c r="AX163">
+        <v>2.03</v>
+      </c>
+      <c r="AY163">
+        <v>6.5</v>
+      </c>
+      <c r="AZ163">
+        <v>2.15</v>
+      </c>
+      <c r="BA163">
+        <v>1.33</v>
+      </c>
+      <c r="BB163">
+        <v>1.57</v>
+      </c>
+      <c r="BC163">
+        <v>1.98</v>
+      </c>
+      <c r="BD163">
+        <v>2.55</v>
+      </c>
+      <c r="BE163">
+        <v>3.4</v>
+      </c>
+      <c r="BF163">
+        <v>2</v>
+      </c>
+      <c r="BG163">
+        <v>2</v>
+      </c>
+      <c r="BH163">
+        <v>3</v>
+      </c>
+      <c r="BI163">
+        <v>3</v>
+      </c>
+      <c r="BJ163">
+        <v>5</v>
+      </c>
+      <c r="BK163">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:63">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>4407785</v>
+      </c>
+      <c r="C164" t="s">
+        <v>63</v>
+      </c>
+      <c r="D164" t="s">
+        <v>64</v>
+      </c>
+      <c r="E164" s="2">
+        <v>44978.40625</v>
+      </c>
+      <c r="F164">
+        <v>19</v>
+      </c>
+      <c r="G164" t="s">
+        <v>65</v>
+      </c>
+      <c r="H164" t="s">
+        <v>76</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>3</v>
+      </c>
+      <c r="K164">
+        <v>3</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="M164">
+        <v>3</v>
+      </c>
+      <c r="N164">
+        <v>3</v>
+      </c>
+      <c r="O164" t="s">
+        <v>83</v>
+      </c>
+      <c r="P164" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q164">
+        <v>1</v>
+      </c>
+      <c r="R164">
+        <v>5</v>
+      </c>
+      <c r="S164">
+        <v>6</v>
+      </c>
+      <c r="T164">
+        <v>7.4</v>
+      </c>
+      <c r="U164">
+        <v>2.3</v>
+      </c>
+      <c r="V164">
+        <v>1.9</v>
+      </c>
+      <c r="W164">
+        <v>1.38</v>
+      </c>
+      <c r="X164">
+        <v>2.9</v>
+      </c>
+      <c r="Y164">
+        <v>2.78</v>
+      </c>
+      <c r="Z164">
+        <v>1.41</v>
+      </c>
+      <c r="AA164">
+        <v>6.9</v>
+      </c>
+      <c r="AB164">
+        <v>1.08</v>
+      </c>
+      <c r="AC164">
+        <v>7</v>
+      </c>
+      <c r="AD164">
+        <v>4.25</v>
+      </c>
+      <c r="AE164">
+        <v>1.38</v>
+      </c>
+      <c r="AF164">
+        <v>1.01</v>
+      </c>
+      <c r="AG164">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AH164">
+        <v>1.26</v>
+      </c>
+      <c r="AI164">
+        <v>3.34</v>
+      </c>
+      <c r="AJ164">
+        <v>1.85</v>
+      </c>
+      <c r="AK164">
+        <v>1.85</v>
+      </c>
+      <c r="AL164">
+        <v>2.16</v>
+      </c>
+      <c r="AM164">
+        <v>1.66</v>
+      </c>
+      <c r="AN164">
+        <v>2.34</v>
+      </c>
+      <c r="AO164">
+        <v>1.15</v>
+      </c>
+      <c r="AP164">
+        <v>1.08</v>
+      </c>
+      <c r="AQ164">
+        <v>1.5</v>
+      </c>
+      <c r="AR164">
+        <v>2.71</v>
+      </c>
+      <c r="AS164">
+        <v>1.33</v>
+      </c>
+      <c r="AT164">
+        <v>2.75</v>
+      </c>
+      <c r="AU164">
+        <v>1.43</v>
+      </c>
+      <c r="AV164">
+        <v>2.05</v>
+      </c>
+      <c r="AW164">
+        <v>3.48</v>
+      </c>
+      <c r="AX164">
+        <v>4.82</v>
+      </c>
+      <c r="AY164">
+        <v>9.9</v>
+      </c>
+      <c r="AZ164">
+        <v>1.27</v>
+      </c>
+      <c r="BA164">
+        <v>1.18</v>
+      </c>
+      <c r="BB164">
+        <v>1.36</v>
+      </c>
+      <c r="BC164">
+        <v>1.68</v>
+      </c>
+      <c r="BD164">
+        <v>2.08</v>
+      </c>
+      <c r="BE164">
+        <v>2.71</v>
+      </c>
+      <c r="BF164">
+        <v>3</v>
+      </c>
+      <c r="BG164">
+        <v>12</v>
+      </c>
+      <c r="BH164">
+        <v>0</v>
+      </c>
+      <c r="BI164">
+        <v>5</v>
+      </c>
+      <c r="BJ164">
+        <v>3</v>
+      </c>
+      <c r="BK164">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="165" spans="1:63">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>4407792</v>
+      </c>
+      <c r="C165" t="s">
+        <v>63</v>
+      </c>
+      <c r="D165" t="s">
+        <v>64</v>
+      </c>
+      <c r="E165" s="2">
+        <v>44978.5</v>
+      </c>
+      <c r="F165">
+        <v>19</v>
+      </c>
+      <c r="G165" t="s">
+        <v>68</v>
+      </c>
+      <c r="H165" t="s">
+        <v>77</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>1</v>
+      </c>
+      <c r="M165">
+        <v>1</v>
+      </c>
+      <c r="N165">
+        <v>2</v>
+      </c>
+      <c r="O165" t="s">
+        <v>179</v>
+      </c>
+      <c r="P165" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q165">
+        <v>4</v>
+      </c>
+      <c r="R165">
+        <v>6</v>
+      </c>
+      <c r="S165">
+        <v>10</v>
+      </c>
+      <c r="T165">
+        <v>2.71</v>
+      </c>
+      <c r="U165">
+        <v>1.85</v>
+      </c>
+      <c r="V165">
+        <v>5.4</v>
+      </c>
+      <c r="W165">
+        <v>1.6</v>
+      </c>
+      <c r="X165">
+        <v>2.25</v>
+      </c>
+      <c r="Y165">
+        <v>3.62</v>
+      </c>
+      <c r="Z165">
+        <v>1.26</v>
+      </c>
+      <c r="AA165">
+        <v>10</v>
+      </c>
+      <c r="AB165">
+        <v>1.03</v>
+      </c>
+      <c r="AC165">
+        <v>1.83</v>
+      </c>
+      <c r="AD165">
+        <v>2.3</v>
+      </c>
+      <c r="AE165">
+        <v>7.75</v>
+      </c>
+      <c r="AF165">
+        <v>1.08</v>
+      </c>
+      <c r="AG165">
+        <v>5.85</v>
+      </c>
+      <c r="AH165">
+        <v>1.48</v>
+      </c>
+      <c r="AI165">
+        <v>2.45</v>
+      </c>
+      <c r="AJ165">
+        <v>2.45</v>
+      </c>
+      <c r="AK165">
+        <v>1.5</v>
+      </c>
+      <c r="AL165">
+        <v>2.17</v>
+      </c>
+      <c r="AM165">
+        <v>1.66</v>
+      </c>
+      <c r="AN165">
+        <v>1.21</v>
+      </c>
+      <c r="AO165">
+        <v>1.37</v>
+      </c>
+      <c r="AP165">
+        <v>1.8</v>
+      </c>
+      <c r="AQ165">
+        <v>0.63</v>
+      </c>
+      <c r="AR165">
+        <v>1.25</v>
+      </c>
+      <c r="AS165">
+        <v>0.67</v>
+      </c>
+      <c r="AT165">
+        <v>1.22</v>
+      </c>
+      <c r="AU165">
+        <v>1.3</v>
+      </c>
+      <c r="AV165">
+        <v>1.05</v>
+      </c>
+      <c r="AW165">
+        <v>2.35</v>
+      </c>
+      <c r="AX165">
+        <v>1.61</v>
+      </c>
+      <c r="AY165">
+        <v>7.5</v>
+      </c>
+      <c r="AZ165">
+        <v>2.94</v>
+      </c>
+      <c r="BA165">
+        <v>1.27</v>
+      </c>
+      <c r="BB165">
+        <v>1.56</v>
+      </c>
+      <c r="BC165">
+        <v>1.93</v>
+      </c>
+      <c r="BD165">
+        <v>2.41</v>
+      </c>
+      <c r="BE165">
+        <v>3.28</v>
+      </c>
+      <c r="BF165">
+        <v>5</v>
+      </c>
+      <c r="BG165">
+        <v>9</v>
+      </c>
+      <c r="BH165">
+        <v>6</v>
+      </c>
+      <c r="BI165">
+        <v>6</v>
+      </c>
+      <c r="BJ165">
+        <v>11</v>
+      </c>
+      <c r="BK165">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="254">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1137,7 +1137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK165"/>
+  <dimension ref="A1:BK166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1662,7 +1662,7 @@
         <v>1.11</v>
       </c>
       <c r="AT3">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2805,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT9">
         <v>2.13</v>
@@ -5482,7 +5482,7 @@
         <v>2</v>
       </c>
       <c r="AT23">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU23">
         <v>1.7</v>
@@ -5670,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT24">
         <v>1.56</v>
@@ -7007,7 +7007,7 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT31">
         <v>1.56</v>
@@ -7774,7 +7774,7 @@
         <v>1.33</v>
       </c>
       <c r="AT35">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU35">
         <v>1.4</v>
@@ -12358,7 +12358,7 @@
         <v>2</v>
       </c>
       <c r="AT59">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU59">
         <v>1.97</v>
@@ -12928,7 +12928,7 @@
         <v>0.67</v>
       </c>
       <c r="AS62">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT62">
         <v>1.2</v>
@@ -15796,7 +15796,7 @@
         <v>1.6</v>
       </c>
       <c r="AT77">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU77">
         <v>1.56</v>
@@ -15984,7 +15984,7 @@
         <v>0.5</v>
       </c>
       <c r="AS78">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT78">
         <v>0.4</v>
@@ -21332,7 +21332,7 @@
         <v>1</v>
       </c>
       <c r="AS106">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT106">
         <v>0.89</v>
@@ -21717,7 +21717,7 @@
         <v>0.7</v>
       </c>
       <c r="AT108">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU108">
         <v>1.4</v>
@@ -23815,7 +23815,7 @@
         <v>0.67</v>
       </c>
       <c r="AS119">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT119">
         <v>1.11</v>
@@ -24773,7 +24773,7 @@
         <v>2.56</v>
       </c>
       <c r="AT124">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU124">
         <v>1.82</v>
@@ -27829,7 +27829,7 @@
         <v>1.13</v>
       </c>
       <c r="AT140">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU140">
         <v>1.68</v>
@@ -32656,6 +32656,197 @@
       </c>
       <c r="BK165">
         <v>15</v>
+      </c>
+    </row>
+    <row r="166" spans="1:63">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>4407793</v>
+      </c>
+      <c r="C166" t="s">
+        <v>63</v>
+      </c>
+      <c r="D166" t="s">
+        <v>64</v>
+      </c>
+      <c r="E166" s="2">
+        <v>44978.58333333334</v>
+      </c>
+      <c r="F166">
+        <v>19</v>
+      </c>
+      <c r="G166" t="s">
+        <v>72</v>
+      </c>
+      <c r="H166" t="s">
+        <v>82</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+      <c r="M166">
+        <v>0</v>
+      </c>
+      <c r="N166">
+        <v>0</v>
+      </c>
+      <c r="O166" t="s">
+        <v>83</v>
+      </c>
+      <c r="P166" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q166">
+        <v>2</v>
+      </c>
+      <c r="R166">
+        <v>1</v>
+      </c>
+      <c r="S166">
+        <v>3</v>
+      </c>
+      <c r="T166">
+        <v>3.5</v>
+      </c>
+      <c r="U166">
+        <v>1.8</v>
+      </c>
+      <c r="V166">
+        <v>3.8</v>
+      </c>
+      <c r="W166">
+        <v>1.61</v>
+      </c>
+      <c r="X166">
+        <v>2.2</v>
+      </c>
+      <c r="Y166">
+        <v>3.6</v>
+      </c>
+      <c r="Z166">
+        <v>1.25</v>
+      </c>
+      <c r="AA166">
+        <v>12</v>
+      </c>
+      <c r="AB166">
+        <v>1.04</v>
+      </c>
+      <c r="AC166">
+        <v>3.73</v>
+      </c>
+      <c r="AD166">
+        <v>7.02</v>
+      </c>
+      <c r="AE166">
+        <v>1.43</v>
+      </c>
+      <c r="AF166">
+        <v>1.11</v>
+      </c>
+      <c r="AG166">
+        <v>5.5</v>
+      </c>
+      <c r="AH166">
+        <v>1.55</v>
+      </c>
+      <c r="AI166">
+        <v>2.3</v>
+      </c>
+      <c r="AJ166">
+        <v>2.69</v>
+      </c>
+      <c r="AK166">
+        <v>1.41</v>
+      </c>
+      <c r="AL166">
+        <v>2.15</v>
+      </c>
+      <c r="AM166">
+        <v>1.62</v>
+      </c>
+      <c r="AN166">
+        <v>1.38</v>
+      </c>
+      <c r="AO166">
+        <v>1.48</v>
+      </c>
+      <c r="AP166">
+        <v>1.44</v>
+      </c>
+      <c r="AQ166">
+        <v>1.14</v>
+      </c>
+      <c r="AR166">
+        <v>1.13</v>
+      </c>
+      <c r="AS166">
+        <v>1.13</v>
+      </c>
+      <c r="AT166">
+        <v>1.11</v>
+      </c>
+      <c r="AU166">
+        <v>1.02</v>
+      </c>
+      <c r="AV166">
+        <v>1.09</v>
+      </c>
+      <c r="AW166">
+        <v>2.11</v>
+      </c>
+      <c r="AX166">
+        <v>2.01</v>
+      </c>
+      <c r="AY166">
+        <v>7</v>
+      </c>
+      <c r="AZ166">
+        <v>2.15</v>
+      </c>
+      <c r="BA166">
+        <v>1.43</v>
+      </c>
+      <c r="BB166">
+        <v>1.8</v>
+      </c>
+      <c r="BC166">
+        <v>2.34</v>
+      </c>
+      <c r="BD166">
+        <v>3.2</v>
+      </c>
+      <c r="BE166">
+        <v>0</v>
+      </c>
+      <c r="BF166">
+        <v>0</v>
+      </c>
+      <c r="BG166">
+        <v>3</v>
+      </c>
+      <c r="BH166">
+        <v>3</v>
+      </c>
+      <c r="BI166">
+        <v>7</v>
+      </c>
+      <c r="BJ166">
+        <v>3</v>
+      </c>
+      <c r="BK166">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="254">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1137,7 +1137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK166"/>
+  <dimension ref="A1:BK168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT4">
         <v>1.14</v>
@@ -2235,7 +2235,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT6">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT8">
         <v>1.22</v>
@@ -2808,7 +2808,7 @@
         <v>1.13</v>
       </c>
       <c r="AT9">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -5097,7 +5097,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT21">
         <v>1.2</v>
@@ -5479,7 +5479,7 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT23">
         <v>1.11</v>
@@ -7010,7 +7010,7 @@
         <v>1.13</v>
       </c>
       <c r="AT31">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU31">
         <v>0.76</v>
@@ -7583,7 +7583,7 @@
         <v>0.6</v>
       </c>
       <c r="AT34">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU34">
         <v>1.19</v>
@@ -8153,7 +8153,7 @@
         <v>1.5</v>
       </c>
       <c r="AS37">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT37">
         <v>1.14</v>
@@ -8726,7 +8726,7 @@
         <v>0.5</v>
       </c>
       <c r="AS40">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT40">
         <v>0.4</v>
@@ -11021,7 +11021,7 @@
         <v>2.13</v>
       </c>
       <c r="AT52">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU52">
         <v>1.24</v>
@@ -11403,7 +11403,7 @@
         <v>0.67</v>
       </c>
       <c r="AT54">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU54">
         <v>0.89</v>
@@ -12546,7 +12546,7 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT60">
         <v>1.2</v>
@@ -12740,7 +12740,7 @@
         <v>0.67</v>
       </c>
       <c r="AT61">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU61">
         <v>1.21</v>
@@ -13313,7 +13313,7 @@
         <v>2.25</v>
       </c>
       <c r="AT64">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU64">
         <v>1.49</v>
@@ -15029,7 +15029,7 @@
         <v>0.67</v>
       </c>
       <c r="AS73">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT73">
         <v>1.67</v>
@@ -15414,7 +15414,7 @@
         <v>0.6</v>
       </c>
       <c r="AT75">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU75">
         <v>0.92</v>
@@ -16557,7 +16557,7 @@
         <v>2.5</v>
       </c>
       <c r="AS81">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT81">
         <v>1.5</v>
@@ -17515,7 +17515,7 @@
         <v>1.3</v>
       </c>
       <c r="AT86">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU86">
         <v>1.01</v>
@@ -17894,7 +17894,7 @@
         <v>0.6</v>
       </c>
       <c r="AS88">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT88">
         <v>1</v>
@@ -19234,7 +19234,7 @@
         <v>2.25</v>
       </c>
       <c r="AT95">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU95">
         <v>1.53</v>
@@ -19613,7 +19613,7 @@
         <v>0.4</v>
       </c>
       <c r="AS97">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT97">
         <v>0.6</v>
@@ -20950,7 +20950,7 @@
         <v>1.2</v>
       </c>
       <c r="AS104">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT104">
         <v>1.44</v>
@@ -21144,7 +21144,7 @@
         <v>1.18</v>
       </c>
       <c r="AT105">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU105">
         <v>1.57</v>
@@ -22481,7 +22481,7 @@
         <v>2</v>
       </c>
       <c r="AT112">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU112">
         <v>1.25</v>
@@ -24200,7 +24200,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT121">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU121">
         <v>1.04</v>
@@ -24388,7 +24388,7 @@
         <v>1</v>
       </c>
       <c r="AS122">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT122">
         <v>1</v>
@@ -24961,7 +24961,7 @@
         <v>1.33</v>
       </c>
       <c r="AS125">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT125">
         <v>1.22</v>
@@ -26874,7 +26874,7 @@
         <v>0.7</v>
       </c>
       <c r="AT135">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU135">
         <v>1.31</v>
@@ -27635,7 +27635,7 @@
         <v>1.29</v>
       </c>
       <c r="AS139">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT139">
         <v>1.44</v>
@@ -27826,7 +27826,7 @@
         <v>0.86</v>
       </c>
       <c r="AS140">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT140">
         <v>1.11</v>
@@ -28402,7 +28402,7 @@
         <v>2.13</v>
       </c>
       <c r="AT143">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AU143">
         <v>1.45</v>
@@ -29930,7 +29930,7 @@
         <v>1.22</v>
       </c>
       <c r="AT151">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU151">
         <v>1.26</v>
@@ -32847,6 +32847,388 @@
       </c>
       <c r="BK166">
         <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:63">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>4407788</v>
+      </c>
+      <c r="C167" t="s">
+        <v>63</v>
+      </c>
+      <c r="D167" t="s">
+        <v>64</v>
+      </c>
+      <c r="E167" s="2">
+        <v>44979.5</v>
+      </c>
+      <c r="F167">
+        <v>19</v>
+      </c>
+      <c r="G167" t="s">
+        <v>71</v>
+      </c>
+      <c r="H167" t="s">
+        <v>79</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+      <c r="M167">
+        <v>0</v>
+      </c>
+      <c r="N167">
+        <v>0</v>
+      </c>
+      <c r="O167" t="s">
+        <v>83</v>
+      </c>
+      <c r="P167" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q167">
+        <v>4</v>
+      </c>
+      <c r="R167">
+        <v>4</v>
+      </c>
+      <c r="S167">
+        <v>8</v>
+      </c>
+      <c r="T167">
+        <v>2.88</v>
+      </c>
+      <c r="U167">
+        <v>1.91</v>
+      </c>
+      <c r="V167">
+        <v>4.33</v>
+      </c>
+      <c r="W167">
+        <v>1.57</v>
+      </c>
+      <c r="X167">
+        <v>2.25</v>
+      </c>
+      <c r="Y167">
+        <v>3.75</v>
+      </c>
+      <c r="Z167">
+        <v>1.25</v>
+      </c>
+      <c r="AA167">
+        <v>11</v>
+      </c>
+      <c r="AB167">
+        <v>1.05</v>
+      </c>
+      <c r="AC167">
+        <v>2.06</v>
+      </c>
+      <c r="AD167">
+        <v>3.02</v>
+      </c>
+      <c r="AE167">
+        <v>3.53</v>
+      </c>
+      <c r="AF167">
+        <v>1.06</v>
+      </c>
+      <c r="AG167">
+        <v>6.7</v>
+      </c>
+      <c r="AH167">
+        <v>1.49</v>
+      </c>
+      <c r="AI167">
+        <v>2.49</v>
+      </c>
+      <c r="AJ167">
+        <v>2.45</v>
+      </c>
+      <c r="AK167">
+        <v>1.5</v>
+      </c>
+      <c r="AL167">
+        <v>2.2</v>
+      </c>
+      <c r="AM167">
+        <v>1.62</v>
+      </c>
+      <c r="AN167">
+        <v>1.3</v>
+      </c>
+      <c r="AO167">
+        <v>1.33</v>
+      </c>
+      <c r="AP167">
+        <v>1.45</v>
+      </c>
+      <c r="AQ167">
+        <v>2</v>
+      </c>
+      <c r="AR167">
+        <v>2.13</v>
+      </c>
+      <c r="AS167">
+        <v>1.89</v>
+      </c>
+      <c r="AT167">
+        <v>2</v>
+      </c>
+      <c r="AU167">
+        <v>1.62</v>
+      </c>
+      <c r="AV167">
+        <v>1.38</v>
+      </c>
+      <c r="AW167">
+        <v>3</v>
+      </c>
+      <c r="AX167">
+        <v>0</v>
+      </c>
+      <c r="AY167">
+        <v>0</v>
+      </c>
+      <c r="AZ167">
+        <v>0</v>
+      </c>
+      <c r="BA167">
+        <v>1.43</v>
+      </c>
+      <c r="BB167">
+        <v>1.7</v>
+      </c>
+      <c r="BC167">
+        <v>2.1</v>
+      </c>
+      <c r="BD167">
+        <v>2.7</v>
+      </c>
+      <c r="BE167">
+        <v>0</v>
+      </c>
+      <c r="BF167">
+        <v>5</v>
+      </c>
+      <c r="BG167">
+        <v>4</v>
+      </c>
+      <c r="BH167">
+        <v>7</v>
+      </c>
+      <c r="BI167">
+        <v>3</v>
+      </c>
+      <c r="BJ167">
+        <v>12</v>
+      </c>
+      <c r="BK167">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:63">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>4407787</v>
+      </c>
+      <c r="C168" t="s">
+        <v>63</v>
+      </c>
+      <c r="D168" t="s">
+        <v>64</v>
+      </c>
+      <c r="E168" s="2">
+        <v>44979.58333333334</v>
+      </c>
+      <c r="F168">
+        <v>19</v>
+      </c>
+      <c r="G168" t="s">
+        <v>67</v>
+      </c>
+      <c r="H168" t="s">
+        <v>74</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+      <c r="M168">
+        <v>0</v>
+      </c>
+      <c r="N168">
+        <v>0</v>
+      </c>
+      <c r="O168" t="s">
+        <v>83</v>
+      </c>
+      <c r="P168" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q168">
+        <v>5</v>
+      </c>
+      <c r="R168">
+        <v>3</v>
+      </c>
+      <c r="S168">
+        <v>8</v>
+      </c>
+      <c r="T168">
+        <v>4.75</v>
+      </c>
+      <c r="U168">
+        <v>1.95</v>
+      </c>
+      <c r="V168">
+        <v>2.6</v>
+      </c>
+      <c r="W168">
+        <v>1.53</v>
+      </c>
+      <c r="X168">
+        <v>2.38</v>
+      </c>
+      <c r="Y168">
+        <v>3.75</v>
+      </c>
+      <c r="Z168">
+        <v>1.25</v>
+      </c>
+      <c r="AA168">
+        <v>11</v>
+      </c>
+      <c r="AB168">
+        <v>1.05</v>
+      </c>
+      <c r="AC168">
+        <v>3.87</v>
+      </c>
+      <c r="AD168">
+        <v>3.26</v>
+      </c>
+      <c r="AE168">
+        <v>1.87</v>
+      </c>
+      <c r="AF168">
+        <v>1.08</v>
+      </c>
+      <c r="AG168">
+        <v>6.5</v>
+      </c>
+      <c r="AH168">
+        <v>1.44</v>
+      </c>
+      <c r="AI168">
+        <v>2.62</v>
+      </c>
+      <c r="AJ168">
+        <v>2.3</v>
+      </c>
+      <c r="AK168">
+        <v>1.57</v>
+      </c>
+      <c r="AL168">
+        <v>2.25</v>
+      </c>
+      <c r="AM168">
+        <v>1.57</v>
+      </c>
+      <c r="AN168">
+        <v>1.8</v>
+      </c>
+      <c r="AO168">
+        <v>1.33</v>
+      </c>
+      <c r="AP168">
+        <v>1.22</v>
+      </c>
+      <c r="AQ168">
+        <v>1.13</v>
+      </c>
+      <c r="AR168">
+        <v>1.56</v>
+      </c>
+      <c r="AS168">
+        <v>1.11</v>
+      </c>
+      <c r="AT168">
+        <v>1.5</v>
+      </c>
+      <c r="AU168">
+        <v>1.74</v>
+      </c>
+      <c r="AV168">
+        <v>1.58</v>
+      </c>
+      <c r="AW168">
+        <v>3.32</v>
+      </c>
+      <c r="AX168">
+        <v>2.81</v>
+      </c>
+      <c r="AY168">
+        <v>7.8</v>
+      </c>
+      <c r="AZ168">
+        <v>1.65</v>
+      </c>
+      <c r="BA168">
+        <v>1.39</v>
+      </c>
+      <c r="BB168">
+        <v>1.67</v>
+      </c>
+      <c r="BC168">
+        <v>2.1</v>
+      </c>
+      <c r="BD168">
+        <v>2.75</v>
+      </c>
+      <c r="BE168">
+        <v>3.9</v>
+      </c>
+      <c r="BF168">
+        <v>3</v>
+      </c>
+      <c r="BG168">
+        <v>3</v>
+      </c>
+      <c r="BH168">
+        <v>1</v>
+      </c>
+      <c r="BI168">
+        <v>2</v>
+      </c>
+      <c r="BJ168">
+        <v>4</v>
+      </c>
+      <c r="BK168">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -33022,19 +33022,19 @@
         <v>0</v>
       </c>
       <c r="BF167">
+        <v>6</v>
+      </c>
+      <c r="BG167">
+        <v>2</v>
+      </c>
+      <c r="BH167">
+        <v>9</v>
+      </c>
+      <c r="BI167">
         <v>5</v>
       </c>
-      <c r="BG167">
-        <v>4</v>
-      </c>
-      <c r="BH167">
-        <v>7</v>
-      </c>
-      <c r="BI167">
-        <v>3</v>
-      </c>
       <c r="BJ167">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BK167">
         <v>7</v>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="255">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -554,6 +554,9 @@
   </si>
   <si>
     <t>['54']</t>
+  </si>
+  <si>
+    <t>['12', '87', '90+5']</t>
   </si>
   <si>
     <t>['85']</t>
@@ -1137,7 +1140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK168"/>
+  <dimension ref="A1:BK169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1381,7 +1384,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1763,7 +1766,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q4">
         <v>9</v>
@@ -1954,7 +1957,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q5">
         <v>9</v>
@@ -2145,7 +2148,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -2527,7 +2530,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2718,7 +2721,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3291,7 +3294,7 @@
         <v>83</v>
       </c>
       <c r="P12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3673,7 +3676,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4333,7 +4336,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT17">
         <v>0.4</v>
@@ -4718,7 +4721,7 @@
         <v>1.3</v>
       </c>
       <c r="AT19">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5774,7 +5777,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5965,7 +5968,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6538,7 +6541,7 @@
         <v>99</v>
       </c>
       <c r="P29" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -6729,7 +6732,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -7111,7 +7114,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7302,7 +7305,7 @@
         <v>83</v>
       </c>
       <c r="P33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7493,7 +7496,7 @@
         <v>83</v>
       </c>
       <c r="P34" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7875,7 +7878,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8066,7 +8069,7 @@
         <v>104</v>
       </c>
       <c r="P37" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -9021,7 +9024,7 @@
         <v>107</v>
       </c>
       <c r="P42" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9212,7 +9215,7 @@
         <v>83</v>
       </c>
       <c r="P43" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9403,7 +9406,7 @@
         <v>83</v>
       </c>
       <c r="P44" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9684,7 +9687,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT45">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU45">
         <v>0.95</v>
@@ -9785,7 +9788,7 @@
         <v>107</v>
       </c>
       <c r="P46" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q46">
         <v>12</v>
@@ -9872,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="AS46">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT46">
         <v>1</v>
@@ -10358,7 +10361,7 @@
         <v>110</v>
       </c>
       <c r="P49" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10636,7 +10639,7 @@
         <v>0.5</v>
       </c>
       <c r="AS50">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT50">
         <v>1.67</v>
@@ -10740,7 +10743,7 @@
         <v>111</v>
       </c>
       <c r="P51" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -11122,7 +11125,7 @@
         <v>113</v>
       </c>
       <c r="P53" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q53">
         <v>7</v>
@@ -11212,7 +11215,7 @@
         <v>1.18</v>
       </c>
       <c r="AT53">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU53">
         <v>1.6</v>
@@ -11695,7 +11698,7 @@
         <v>115</v>
       </c>
       <c r="P56" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -11886,7 +11889,7 @@
         <v>116</v>
       </c>
       <c r="P57" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -12459,7 +12462,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12650,7 +12653,7 @@
         <v>119</v>
       </c>
       <c r="P61" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q61">
         <v>1</v>
@@ -13223,7 +13226,7 @@
         <v>119</v>
       </c>
       <c r="P64" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13796,7 +13799,7 @@
         <v>83</v>
       </c>
       <c r="P67" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -13883,7 +13886,7 @@
         <v>1</v>
       </c>
       <c r="AS67">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT67">
         <v>1.44</v>
@@ -13987,7 +13990,7 @@
         <v>121</v>
       </c>
       <c r="P68" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14178,7 +14181,7 @@
         <v>122</v>
       </c>
       <c r="P69" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q69">
         <v>8</v>
@@ -14560,7 +14563,7 @@
         <v>124</v>
       </c>
       <c r="P71" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -14841,7 +14844,7 @@
         <v>2.13</v>
       </c>
       <c r="AT72">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU72">
         <v>1.07</v>
@@ -14942,7 +14945,7 @@
         <v>126</v>
       </c>
       <c r="P73" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15324,7 +15327,7 @@
         <v>128</v>
       </c>
       <c r="P75" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15897,7 +15900,7 @@
         <v>130</v>
       </c>
       <c r="P78" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -16279,7 +16282,7 @@
         <v>83</v>
       </c>
       <c r="P80" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -17234,7 +17237,7 @@
         <v>121</v>
       </c>
       <c r="P85" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -17324,7 +17327,7 @@
         <v>1.22</v>
       </c>
       <c r="AT85">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU85">
         <v>1.1</v>
@@ -17425,7 +17428,7 @@
         <v>132</v>
       </c>
       <c r="P86" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17616,7 +17619,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -17807,7 +17810,7 @@
         <v>134</v>
       </c>
       <c r="P88" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q88">
         <v>13</v>
@@ -17998,7 +18001,7 @@
         <v>135</v>
       </c>
       <c r="P89" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18276,7 +18279,7 @@
         <v>1.75</v>
       </c>
       <c r="AS90">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT90">
         <v>1.22</v>
@@ -18380,7 +18383,7 @@
         <v>136</v>
       </c>
       <c r="P91" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q91">
         <v>1</v>
@@ -18571,7 +18574,7 @@
         <v>137</v>
       </c>
       <c r="P92" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -18762,7 +18765,7 @@
         <v>83</v>
       </c>
       <c r="P93" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q93">
         <v>4</v>
@@ -18953,7 +18956,7 @@
         <v>97</v>
       </c>
       <c r="P94" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -19335,7 +19338,7 @@
         <v>83</v>
       </c>
       <c r="P96" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19526,7 +19529,7 @@
         <v>139</v>
       </c>
       <c r="P97" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -19616,7 +19619,7 @@
         <v>1.89</v>
       </c>
       <c r="AT97">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU97">
         <v>1.6</v>
@@ -20290,7 +20293,7 @@
         <v>83</v>
       </c>
       <c r="P101" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -20863,7 +20866,7 @@
         <v>143</v>
       </c>
       <c r="P104" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -21054,7 +21057,7 @@
         <v>144</v>
       </c>
       <c r="P105" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -21627,7 +21630,7 @@
         <v>83</v>
       </c>
       <c r="P108" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -21714,7 +21717,7 @@
         <v>0.6</v>
       </c>
       <c r="AS108">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT108">
         <v>1.11</v>
@@ -21818,7 +21821,7 @@
         <v>146</v>
       </c>
       <c r="P109" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q109">
         <v>10</v>
@@ -22009,7 +22012,7 @@
         <v>147</v>
       </c>
       <c r="P110" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q110">
         <v>1</v>
@@ -22287,7 +22290,7 @@
         <v>0.5</v>
       </c>
       <c r="AS111">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT111">
         <v>0.6</v>
@@ -23155,7 +23158,7 @@
         <v>151</v>
       </c>
       <c r="P116" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23245,7 +23248,7 @@
         <v>1.33</v>
       </c>
       <c r="AT116">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU116">
         <v>1.42</v>
@@ -23537,7 +23540,7 @@
         <v>153</v>
       </c>
       <c r="P118" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -23728,7 +23731,7 @@
         <v>83</v>
       </c>
       <c r="P119" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q119">
         <v>2</v>
@@ -24110,7 +24113,7 @@
         <v>154</v>
       </c>
       <c r="P121" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24492,7 +24495,7 @@
         <v>155</v>
       </c>
       <c r="P123" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -24874,7 +24877,7 @@
         <v>157</v>
       </c>
       <c r="P125" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -25065,7 +25068,7 @@
         <v>83</v>
       </c>
       <c r="P126" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q126">
         <v>7</v>
@@ -25256,7 +25259,7 @@
         <v>83</v>
       </c>
       <c r="P127" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q127">
         <v>7</v>
@@ -25447,7 +25450,7 @@
         <v>158</v>
       </c>
       <c r="P128" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -26110,7 +26113,7 @@
         <v>2</v>
       </c>
       <c r="AT131">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU131">
         <v>1.62</v>
@@ -26402,7 +26405,7 @@
         <v>157</v>
       </c>
       <c r="P133" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -26593,7 +26596,7 @@
         <v>159</v>
       </c>
       <c r="P134" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -26784,7 +26787,7 @@
         <v>160</v>
       </c>
       <c r="P135" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -26871,7 +26874,7 @@
         <v>1.14</v>
       </c>
       <c r="AS135">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT135">
         <v>1.5</v>
@@ -27166,7 +27169,7 @@
         <v>161</v>
       </c>
       <c r="P137" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q137">
         <v>2</v>
@@ -27357,7 +27360,7 @@
         <v>162</v>
       </c>
       <c r="P138" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q138">
         <v>7</v>
@@ -27739,7 +27742,7 @@
         <v>163</v>
       </c>
       <c r="P140" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q140">
         <v>10</v>
@@ -27930,7 +27933,7 @@
         <v>83</v>
       </c>
       <c r="P141" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q141">
         <v>9</v>
@@ -28121,7 +28124,7 @@
         <v>164</v>
       </c>
       <c r="P142" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -28312,7 +28315,7 @@
         <v>165</v>
       </c>
       <c r="P143" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q143">
         <v>2</v>
@@ -28503,7 +28506,7 @@
         <v>166</v>
       </c>
       <c r="P144" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q144">
         <v>1</v>
@@ -28694,7 +28697,7 @@
         <v>167</v>
       </c>
       <c r="P145" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q145">
         <v>11</v>
@@ -28885,7 +28888,7 @@
         <v>168</v>
       </c>
       <c r="P146" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q146">
         <v>8</v>
@@ -28975,7 +28978,7 @@
         <v>1.6</v>
       </c>
       <c r="AT146">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU146">
         <v>1.38</v>
@@ -29267,7 +29270,7 @@
         <v>169</v>
       </c>
       <c r="P148" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -29736,7 +29739,7 @@
         <v>1.38</v>
       </c>
       <c r="AS150">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT150">
         <v>1.2</v>
@@ -29840,7 +29843,7 @@
         <v>83</v>
       </c>
       <c r="P151" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -30413,7 +30416,7 @@
         <v>83</v>
       </c>
       <c r="P154" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q154">
         <v>6</v>
@@ -31177,7 +31180,7 @@
         <v>175</v>
       </c>
       <c r="P158" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q158">
         <v>8</v>
@@ -31264,7 +31267,7 @@
         <v>1.33</v>
       </c>
       <c r="AS158">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AT158">
         <v>1.5</v>
@@ -31458,7 +31461,7 @@
         <v>2</v>
       </c>
       <c r="AT159">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU159">
         <v>1.25</v>
@@ -31750,7 +31753,7 @@
         <v>177</v>
       </c>
       <c r="P161" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q161">
         <v>2</v>
@@ -31941,7 +31944,7 @@
         <v>178</v>
       </c>
       <c r="P162" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -32323,7 +32326,7 @@
         <v>83</v>
       </c>
       <c r="P164" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q164">
         <v>1</v>
@@ -33229,6 +33232,197 @@
       </c>
       <c r="BK168">
         <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:63">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>4407795</v>
+      </c>
+      <c r="C169" t="s">
+        <v>63</v>
+      </c>
+      <c r="D169" t="s">
+        <v>64</v>
+      </c>
+      <c r="E169" s="2">
+        <v>44983.5</v>
+      </c>
+      <c r="F169">
+        <v>20</v>
+      </c>
+      <c r="G169" t="s">
+        <v>80</v>
+      </c>
+      <c r="H169" t="s">
+        <v>72</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>1</v>
+      </c>
+      <c r="L169">
+        <v>3</v>
+      </c>
+      <c r="M169">
+        <v>0</v>
+      </c>
+      <c r="N169">
+        <v>3</v>
+      </c>
+      <c r="O169" t="s">
+        <v>180</v>
+      </c>
+      <c r="P169" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q169">
+        <v>7</v>
+      </c>
+      <c r="R169">
+        <v>1</v>
+      </c>
+      <c r="S169">
+        <v>8</v>
+      </c>
+      <c r="T169">
+        <v>2.77</v>
+      </c>
+      <c r="U169">
+        <v>1.96</v>
+      </c>
+      <c r="V169">
+        <v>5.2</v>
+      </c>
+      <c r="W169">
+        <v>1.55</v>
+      </c>
+      <c r="X169">
+        <v>2.3</v>
+      </c>
+      <c r="Y169">
+        <v>3.72</v>
+      </c>
+      <c r="Z169">
+        <v>1.25</v>
+      </c>
+      <c r="AA169">
+        <v>10.5</v>
+      </c>
+      <c r="AB169">
+        <v>1.03</v>
+      </c>
+      <c r="AC169">
+        <v>2</v>
+      </c>
+      <c r="AD169">
+        <v>3.18</v>
+      </c>
+      <c r="AE169">
+        <v>4.12</v>
+      </c>
+      <c r="AF169">
+        <v>1.11</v>
+      </c>
+      <c r="AG169">
+        <v>6.75</v>
+      </c>
+      <c r="AH169">
+        <v>1.5</v>
+      </c>
+      <c r="AI169">
+        <v>2.35</v>
+      </c>
+      <c r="AJ169">
+        <v>2.3</v>
+      </c>
+      <c r="AK169">
+        <v>1.57</v>
+      </c>
+      <c r="AL169">
+        <v>2.27</v>
+      </c>
+      <c r="AM169">
+        <v>1.61</v>
+      </c>
+      <c r="AN169">
+        <v>1.19</v>
+      </c>
+      <c r="AO169">
+        <v>1.37</v>
+      </c>
+      <c r="AP169">
+        <v>1.87</v>
+      </c>
+      <c r="AQ169">
+        <v>0.7</v>
+      </c>
+      <c r="AR169">
+        <v>0.6</v>
+      </c>
+      <c r="AS169">
+        <v>0.91</v>
+      </c>
+      <c r="AT169">
+        <v>0.55</v>
+      </c>
+      <c r="AU169">
+        <v>1.41</v>
+      </c>
+      <c r="AV169">
+        <v>1.22</v>
+      </c>
+      <c r="AW169">
+        <v>2.63</v>
+      </c>
+      <c r="AX169">
+        <v>1.41</v>
+      </c>
+      <c r="AY169">
+        <v>9</v>
+      </c>
+      <c r="AZ169">
+        <v>3.6</v>
+      </c>
+      <c r="BA169">
+        <v>1.32</v>
+      </c>
+      <c r="BB169">
+        <v>1.65</v>
+      </c>
+      <c r="BC169">
+        <v>2.04</v>
+      </c>
+      <c r="BD169">
+        <v>2.75</v>
+      </c>
+      <c r="BE169">
+        <v>3.75</v>
+      </c>
+      <c r="BF169">
+        <v>6</v>
+      </c>
+      <c r="BG169">
+        <v>4</v>
+      </c>
+      <c r="BH169">
+        <v>9</v>
+      </c>
+      <c r="BI169">
+        <v>4</v>
+      </c>
+      <c r="BJ169">
+        <v>15</v>
+      </c>
+      <c r="BK169">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="261">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -559,6 +559,18 @@
     <t>['12', '87', '90+5']</t>
   </si>
   <si>
+    <t>['74']</t>
+  </si>
+  <si>
+    <t>['27', '64', '78']</t>
+  </si>
+  <si>
+    <t>['77', '90+6']</t>
+  </si>
+  <si>
+    <t>['70']</t>
+  </si>
+  <si>
     <t>['85']</t>
   </si>
   <si>
@@ -709,9 +721,6 @@
     <t>['34', '66', '90+12']</t>
   </si>
   <si>
-    <t>['74']</t>
-  </si>
-  <si>
     <t>['50', '61', '80']</t>
   </si>
   <si>
@@ -779,6 +788,15 @@
   </si>
   <si>
     <t>['34', '41', '45+2']</t>
+  </si>
+  <si>
+    <t>['25', '69']</t>
+  </si>
+  <si>
+    <t>['13', '35', '45', '74']</t>
+  </si>
+  <si>
+    <t>['31', '50']</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +1158,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK169"/>
+  <dimension ref="A1:BK174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1384,7 +1402,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1474,7 +1492,7 @@
         <v>1.33</v>
       </c>
       <c r="AT2">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1766,7 +1784,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q4">
         <v>9</v>
@@ -1957,7 +1975,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q5">
         <v>9</v>
@@ -2148,7 +2166,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -2235,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AT6">
         <v>1.5</v>
@@ -2530,7 +2548,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2721,7 +2739,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3193,7 +3211,7 @@
         <v>2.56</v>
       </c>
       <c r="AT11">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3294,7 +3312,7 @@
         <v>83</v>
       </c>
       <c r="P12" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3381,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT12">
         <v>1.5</v>
@@ -3572,10 +3590,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT13">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3676,7 +3694,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3763,7 +3781,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT14">
         <v>0.89</v>
@@ -3957,7 +3975,7 @@
         <v>2</v>
       </c>
       <c r="AT15">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4339,7 +4357,7 @@
         <v>0.91</v>
       </c>
       <c r="AT17">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4527,7 +4545,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT18">
         <v>1.2</v>
@@ -5777,7 +5795,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5968,7 +5986,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6246,7 +6264,7 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AT27">
         <v>1.5</v>
@@ -6440,7 +6458,7 @@
         <v>2.56</v>
       </c>
       <c r="AT28">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU28">
         <v>0.8</v>
@@ -6541,7 +6559,7 @@
         <v>99</v>
       </c>
       <c r="P29" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -6631,7 +6649,7 @@
         <v>2</v>
       </c>
       <c r="AT29">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU29">
         <v>1.91</v>
@@ -6732,7 +6750,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -7114,7 +7132,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7305,7 +7323,7 @@
         <v>83</v>
       </c>
       <c r="P33" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7496,7 +7514,7 @@
         <v>83</v>
       </c>
       <c r="P34" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7878,7 +7896,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -7968,7 +7986,7 @@
         <v>2.13</v>
       </c>
       <c r="AT36">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU36">
         <v>1.08</v>
@@ -8069,7 +8087,7 @@
         <v>104</v>
       </c>
       <c r="P37" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8538,7 +8556,7 @@
         <v>0.5</v>
       </c>
       <c r="AS39">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT39">
         <v>0.6</v>
@@ -8732,7 +8750,7 @@
         <v>1.11</v>
       </c>
       <c r="AT40">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU40">
         <v>1.74</v>
@@ -9024,7 +9042,7 @@
         <v>107</v>
       </c>
       <c r="P42" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9114,7 +9132,7 @@
         <v>1.3</v>
       </c>
       <c r="AT42">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU42">
         <v>1.19</v>
@@ -9215,7 +9233,7 @@
         <v>83</v>
       </c>
       <c r="P43" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9302,7 +9320,7 @@
         <v>3</v>
       </c>
       <c r="AS43">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT43">
         <v>2.75</v>
@@ -9406,7 +9424,7 @@
         <v>83</v>
       </c>
       <c r="P44" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9493,7 +9511,7 @@
         <v>2</v>
       </c>
       <c r="AS44">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT44">
         <v>1.5</v>
@@ -9684,7 +9702,7 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AT45">
         <v>0.55</v>
@@ -9788,7 +9806,7 @@
         <v>107</v>
       </c>
       <c r="P46" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q46">
         <v>12</v>
@@ -9878,7 +9896,7 @@
         <v>0.91</v>
       </c>
       <c r="AT46">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU46">
         <v>0.89</v>
@@ -10069,7 +10087,7 @@
         <v>2</v>
       </c>
       <c r="AT47">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU47">
         <v>1.74</v>
@@ -10257,7 +10275,7 @@
         <v>0.5</v>
       </c>
       <c r="AS48">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT48">
         <v>0.89</v>
@@ -10361,7 +10379,7 @@
         <v>110</v>
       </c>
       <c r="P49" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10448,10 +10466,10 @@
         <v>0.5</v>
       </c>
       <c r="AS49">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT49">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU49">
         <v>1.38</v>
@@ -10743,7 +10761,7 @@
         <v>111</v>
       </c>
       <c r="P51" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -10830,10 +10848,10 @@
         <v>1</v>
       </c>
       <c r="AS51">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT51">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU51">
         <v>1.01</v>
@@ -11125,7 +11143,7 @@
         <v>113</v>
       </c>
       <c r="P53" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q53">
         <v>7</v>
@@ -11212,7 +11230,7 @@
         <v>0.5</v>
       </c>
       <c r="AS53">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT53">
         <v>0.55</v>
@@ -11594,10 +11612,10 @@
         <v>1.5</v>
       </c>
       <c r="AS55">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT55">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU55">
         <v>1.45</v>
@@ -11698,7 +11716,7 @@
         <v>115</v>
       </c>
       <c r="P56" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -11785,7 +11803,7 @@
         <v>0.33</v>
       </c>
       <c r="AS56">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT56">
         <v>0.6</v>
@@ -11889,7 +11907,7 @@
         <v>116</v>
       </c>
       <c r="P57" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -11976,10 +11994,10 @@
         <v>1</v>
       </c>
       <c r="AS57">
+        <v>1.33</v>
+      </c>
+      <c r="AT57">
         <v>1.18</v>
-      </c>
-      <c r="AT57">
-        <v>1</v>
       </c>
       <c r="AU57">
         <v>1.79</v>
@@ -12462,7 +12480,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12653,7 +12671,7 @@
         <v>119</v>
       </c>
       <c r="P61" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q61">
         <v>1</v>
@@ -12934,7 +12952,7 @@
         <v>1.13</v>
       </c>
       <c r="AT62">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU62">
         <v>0.76</v>
@@ -13226,7 +13244,7 @@
         <v>119</v>
       </c>
       <c r="P64" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13313,7 +13331,7 @@
         <v>2.33</v>
       </c>
       <c r="AS64">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT64">
         <v>2</v>
@@ -13504,10 +13522,10 @@
         <v>0.33</v>
       </c>
       <c r="AS65">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT65">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU65">
         <v>1.7</v>
@@ -13799,7 +13817,7 @@
         <v>83</v>
       </c>
       <c r="P67" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -13889,7 +13907,7 @@
         <v>0.91</v>
       </c>
       <c r="AT67">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU67">
         <v>1.23</v>
@@ -13990,7 +14008,7 @@
         <v>121</v>
       </c>
       <c r="P68" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14080,7 +14098,7 @@
         <v>2.56</v>
       </c>
       <c r="AT68">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU68">
         <v>1.51</v>
@@ -14181,7 +14199,7 @@
         <v>122</v>
       </c>
       <c r="P69" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q69">
         <v>8</v>
@@ -14268,7 +14286,7 @@
         <v>0.67</v>
       </c>
       <c r="AS69">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AT69">
         <v>0.89</v>
@@ -14459,10 +14477,10 @@
         <v>0.67</v>
       </c>
       <c r="AS70">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT70">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU70">
         <v>1.17</v>
@@ -14563,7 +14581,7 @@
         <v>124</v>
       </c>
       <c r="P71" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -14945,7 +14963,7 @@
         <v>126</v>
       </c>
       <c r="P73" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15327,7 +15345,7 @@
         <v>128</v>
       </c>
       <c r="P75" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15796,7 +15814,7 @@
         <v>0.5</v>
       </c>
       <c r="AS77">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT77">
         <v>1.11</v>
@@ -15900,7 +15918,7 @@
         <v>130</v>
       </c>
       <c r="P78" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -15990,7 +16008,7 @@
         <v>1.13</v>
       </c>
       <c r="AT78">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU78">
         <v>0.93</v>
@@ -16282,7 +16300,7 @@
         <v>83</v>
       </c>
       <c r="P80" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -16372,7 +16390,7 @@
         <v>0.67</v>
       </c>
       <c r="AT80">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU80">
         <v>1.19</v>
@@ -16751,7 +16769,7 @@
         <v>1.25</v>
       </c>
       <c r="AS82">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT82">
         <v>1.56</v>
@@ -16945,7 +16963,7 @@
         <v>2.56</v>
       </c>
       <c r="AT83">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU83">
         <v>1.61</v>
@@ -17133,10 +17151,10 @@
         <v>0.5</v>
       </c>
       <c r="AS84">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AT84">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU84">
         <v>1.04</v>
@@ -17237,7 +17255,7 @@
         <v>121</v>
       </c>
       <c r="P85" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -17324,7 +17342,7 @@
         <v>0.25</v>
       </c>
       <c r="AS85">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT85">
         <v>0.55</v>
@@ -17428,7 +17446,7 @@
         <v>132</v>
       </c>
       <c r="P86" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17619,7 +17637,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -17706,7 +17724,7 @@
         <v>3</v>
       </c>
       <c r="AS87">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT87">
         <v>2.75</v>
@@ -17810,7 +17828,7 @@
         <v>134</v>
       </c>
       <c r="P88" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q88">
         <v>13</v>
@@ -17900,7 +17918,7 @@
         <v>1.11</v>
       </c>
       <c r="AT88">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU88">
         <v>1.73</v>
@@ -18001,7 +18019,7 @@
         <v>135</v>
       </c>
       <c r="P89" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18383,7 +18401,7 @@
         <v>136</v>
       </c>
       <c r="P91" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q91">
         <v>1</v>
@@ -18574,7 +18592,7 @@
         <v>137</v>
       </c>
       <c r="P92" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -18765,7 +18783,7 @@
         <v>83</v>
       </c>
       <c r="P93" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q93">
         <v>4</v>
@@ -18855,7 +18873,7 @@
         <v>0.6</v>
       </c>
       <c r="AT93">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU93">
         <v>0.92</v>
@@ -18956,7 +18974,7 @@
         <v>97</v>
       </c>
       <c r="P94" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -19234,7 +19252,7 @@
         <v>1.4</v>
       </c>
       <c r="AS95">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT95">
         <v>1.5</v>
@@ -19338,7 +19356,7 @@
         <v>83</v>
       </c>
       <c r="P96" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19425,7 +19443,7 @@
         <v>0.75</v>
       </c>
       <c r="AS96">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT96">
         <v>1.14</v>
@@ -19529,7 +19547,7 @@
         <v>139</v>
       </c>
       <c r="P97" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -19810,7 +19828,7 @@
         <v>0.67</v>
       </c>
       <c r="AT98">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU98">
         <v>1.18</v>
@@ -20293,7 +20311,7 @@
         <v>83</v>
       </c>
       <c r="P101" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -20380,7 +20398,7 @@
         <v>2.6</v>
       </c>
       <c r="AS101">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AT101">
         <v>2.75</v>
@@ -20574,7 +20592,7 @@
         <v>2.13</v>
       </c>
       <c r="AT102">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU102">
         <v>1.36</v>
@@ -20866,7 +20884,7 @@
         <v>143</v>
       </c>
       <c r="P104" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -20956,7 +20974,7 @@
         <v>1.11</v>
       </c>
       <c r="AT104">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU104">
         <v>1.64</v>
@@ -21057,7 +21075,7 @@
         <v>144</v>
       </c>
       <c r="P105" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -21144,7 +21162,7 @@
         <v>2.2</v>
       </c>
       <c r="AS105">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT105">
         <v>2</v>
@@ -21529,7 +21547,7 @@
         <v>1.11</v>
       </c>
       <c r="AT107">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU107">
         <v>1.66</v>
@@ -21630,7 +21648,7 @@
         <v>83</v>
       </c>
       <c r="P108" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -21821,7 +21839,7 @@
         <v>146</v>
       </c>
       <c r="P109" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q109">
         <v>10</v>
@@ -21908,7 +21926,7 @@
         <v>0.6</v>
       </c>
       <c r="AS109">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT109">
         <v>1.67</v>
@@ -22012,7 +22030,7 @@
         <v>147</v>
       </c>
       <c r="P110" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q110">
         <v>1</v>
@@ -22102,7 +22120,7 @@
         <v>0.6</v>
       </c>
       <c r="AT110">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU110">
         <v>0.93</v>
@@ -22863,7 +22881,7 @@
         <v>1</v>
       </c>
       <c r="AS114">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT114">
         <v>1.2</v>
@@ -23054,10 +23072,10 @@
         <v>1.5</v>
       </c>
       <c r="AS115">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT115">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU115">
         <v>1.57</v>
@@ -23158,7 +23176,7 @@
         <v>151</v>
       </c>
       <c r="P116" t="s">
-        <v>231</v>
+        <v>181</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23540,7 +23558,7 @@
         <v>153</v>
       </c>
       <c r="P118" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -23731,7 +23749,7 @@
         <v>83</v>
       </c>
       <c r="P119" t="s">
-        <v>231</v>
+        <v>181</v>
       </c>
       <c r="Q119">
         <v>2</v>
@@ -23821,7 +23839,7 @@
         <v>1.13</v>
       </c>
       <c r="AT119">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU119">
         <v>1</v>
@@ -24009,7 +24027,7 @@
         <v>0.83</v>
       </c>
       <c r="AS120">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT120">
         <v>0.89</v>
@@ -24113,7 +24131,7 @@
         <v>154</v>
       </c>
       <c r="P121" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24200,7 +24218,7 @@
         <v>2.33</v>
       </c>
       <c r="AS121">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AT121">
         <v>2</v>
@@ -24394,7 +24412,7 @@
         <v>1.89</v>
       </c>
       <c r="AT122">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU122">
         <v>1.73</v>
@@ -24495,7 +24513,7 @@
         <v>155</v>
       </c>
       <c r="P123" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -24585,7 +24603,7 @@
         <v>1.11</v>
       </c>
       <c r="AT123">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU123">
         <v>1.59</v>
@@ -24877,7 +24895,7 @@
         <v>157</v>
       </c>
       <c r="P125" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -25068,7 +25086,7 @@
         <v>83</v>
       </c>
       <c r="P126" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q126">
         <v>7</v>
@@ -25155,7 +25173,7 @@
         <v>1.17</v>
       </c>
       <c r="AS126">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT126">
         <v>1.56</v>
@@ -25259,7 +25277,7 @@
         <v>83</v>
       </c>
       <c r="P127" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q127">
         <v>7</v>
@@ -25450,7 +25468,7 @@
         <v>158</v>
       </c>
       <c r="P128" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -26301,7 +26319,7 @@
         <v>0.43</v>
       </c>
       <c r="AS132">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT132">
         <v>0.6</v>
@@ -26405,7 +26423,7 @@
         <v>157</v>
       </c>
       <c r="P133" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -26495,7 +26513,7 @@
         <v>2</v>
       </c>
       <c r="AT133">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU133">
         <v>1.21</v>
@@ -26596,7 +26614,7 @@
         <v>159</v>
       </c>
       <c r="P134" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -26683,7 +26701,7 @@
         <v>1.71</v>
       </c>
       <c r="AS134">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT134">
         <v>1.5</v>
@@ -26787,7 +26805,7 @@
         <v>160</v>
       </c>
       <c r="P135" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -27065,10 +27083,10 @@
         <v>0.57</v>
       </c>
       <c r="AS136">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT136">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU136">
         <v>1.54</v>
@@ -27169,7 +27187,7 @@
         <v>161</v>
       </c>
       <c r="P137" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q137">
         <v>2</v>
@@ -27360,7 +27378,7 @@
         <v>162</v>
       </c>
       <c r="P138" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q138">
         <v>7</v>
@@ -27450,7 +27468,7 @@
         <v>0.67</v>
       </c>
       <c r="AT138">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU138">
         <v>1.28</v>
@@ -27641,7 +27659,7 @@
         <v>1.89</v>
       </c>
       <c r="AT139">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU139">
         <v>1.64</v>
@@ -27742,7 +27760,7 @@
         <v>163</v>
       </c>
       <c r="P140" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q140">
         <v>10</v>
@@ -27933,7 +27951,7 @@
         <v>83</v>
       </c>
       <c r="P141" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q141">
         <v>9</v>
@@ -28020,7 +28038,7 @@
         <v>1.43</v>
       </c>
       <c r="AS141">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AT141">
         <v>1.56</v>
@@ -28124,7 +28142,7 @@
         <v>164</v>
       </c>
       <c r="P142" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -28315,7 +28333,7 @@
         <v>165</v>
       </c>
       <c r="P143" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q143">
         <v>2</v>
@@ -28506,7 +28524,7 @@
         <v>166</v>
       </c>
       <c r="P144" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q144">
         <v>1</v>
@@ -28697,7 +28715,7 @@
         <v>167</v>
       </c>
       <c r="P145" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q145">
         <v>11</v>
@@ -28787,7 +28805,7 @@
         <v>0.6</v>
       </c>
       <c r="AT145">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU145">
         <v>0.9399999999999999</v>
@@ -28888,7 +28906,7 @@
         <v>168</v>
       </c>
       <c r="P146" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q146">
         <v>8</v>
@@ -28975,7 +28993,7 @@
         <v>0.38</v>
       </c>
       <c r="AS146">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT146">
         <v>0.55</v>
@@ -29166,7 +29184,7 @@
         <v>1.13</v>
       </c>
       <c r="AS147">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT147">
         <v>1.2</v>
@@ -29270,7 +29288,7 @@
         <v>169</v>
       </c>
       <c r="P148" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -29742,7 +29760,7 @@
         <v>0.91</v>
       </c>
       <c r="AT150">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU150">
         <v>1.29</v>
@@ -29843,7 +29861,7 @@
         <v>83</v>
       </c>
       <c r="P151" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -29930,7 +29948,7 @@
         <v>1.38</v>
       </c>
       <c r="AS151">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT151">
         <v>1.5</v>
@@ -30124,7 +30142,7 @@
         <v>2</v>
       </c>
       <c r="AT152">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU152">
         <v>1.22</v>
@@ -30315,7 +30333,7 @@
         <v>2</v>
       </c>
       <c r="AT153">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU153">
         <v>1.6</v>
@@ -30416,7 +30434,7 @@
         <v>83</v>
       </c>
       <c r="P154" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q154">
         <v>6</v>
@@ -30503,7 +30521,7 @@
         <v>1.5</v>
       </c>
       <c r="AS154">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT154">
         <v>1.67</v>
@@ -30697,7 +30715,7 @@
         <v>1.3</v>
       </c>
       <c r="AT155">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU155">
         <v>1.09</v>
@@ -30885,10 +30903,10 @@
         <v>0.88</v>
       </c>
       <c r="AS156">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT156">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU156">
         <v>1.27</v>
@@ -31076,10 +31094,10 @@
         <v>1.33</v>
       </c>
       <c r="AS157">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT157">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU157">
         <v>1.56</v>
@@ -31180,7 +31198,7 @@
         <v>175</v>
       </c>
       <c r="P158" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q158">
         <v>8</v>
@@ -31753,7 +31771,7 @@
         <v>177</v>
       </c>
       <c r="P161" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q161">
         <v>2</v>
@@ -31944,7 +31962,7 @@
         <v>178</v>
       </c>
       <c r="P162" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -32034,7 +32052,7 @@
         <v>0.6</v>
       </c>
       <c r="AT162">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU162">
         <v>1.15</v>
@@ -32222,7 +32240,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS163">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AT163">
         <v>0.6</v>
@@ -32326,7 +32344,7 @@
         <v>83</v>
       </c>
       <c r="P164" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q164">
         <v>1</v>
@@ -33422,6 +33440,961 @@
         <v>15</v>
       </c>
       <c r="BK169">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:63">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>4407794</v>
+      </c>
+      <c r="C170" t="s">
+        <v>63</v>
+      </c>
+      <c r="D170" t="s">
+        <v>64</v>
+      </c>
+      <c r="E170" s="2">
+        <v>44984.41666666666</v>
+      </c>
+      <c r="F170">
+        <v>20</v>
+      </c>
+      <c r="G170" t="s">
+        <v>77</v>
+      </c>
+      <c r="H170" t="s">
+        <v>65</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>1</v>
+      </c>
+      <c r="K170">
+        <v>1</v>
+      </c>
+      <c r="L170">
+        <v>1</v>
+      </c>
+      <c r="M170">
+        <v>2</v>
+      </c>
+      <c r="N170">
+        <v>3</v>
+      </c>
+      <c r="O170" t="s">
+        <v>181</v>
+      </c>
+      <c r="P170" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q170">
+        <v>5</v>
+      </c>
+      <c r="R170">
+        <v>6</v>
+      </c>
+      <c r="S170">
+        <v>11</v>
+      </c>
+      <c r="T170">
+        <v>3.5</v>
+      </c>
+      <c r="U170">
+        <v>1.94</v>
+      </c>
+      <c r="V170">
+        <v>3.3</v>
+      </c>
+      <c r="W170">
+        <v>1.52</v>
+      </c>
+      <c r="X170">
+        <v>2.43</v>
+      </c>
+      <c r="Y170">
+        <v>3.44</v>
+      </c>
+      <c r="Z170">
+        <v>1.29</v>
+      </c>
+      <c r="AA170">
+        <v>9.4</v>
+      </c>
+      <c r="AB170">
+        <v>1.04</v>
+      </c>
+      <c r="AC170">
+        <v>2.6</v>
+      </c>
+      <c r="AD170">
+        <v>2.8</v>
+      </c>
+      <c r="AE170">
+        <v>2.9</v>
+      </c>
+      <c r="AF170">
+        <v>1.08</v>
+      </c>
+      <c r="AG170">
+        <v>6.4</v>
+      </c>
+      <c r="AH170">
+        <v>1.43</v>
+      </c>
+      <c r="AI170">
+        <v>2.6</v>
+      </c>
+      <c r="AJ170">
+        <v>2.35</v>
+      </c>
+      <c r="AK170">
+        <v>1.55</v>
+      </c>
+      <c r="AL170">
+        <v>1.94</v>
+      </c>
+      <c r="AM170">
+        <v>1.8</v>
+      </c>
+      <c r="AN170">
+        <v>1.42</v>
+      </c>
+      <c r="AO170">
+        <v>1.38</v>
+      </c>
+      <c r="AP170">
+        <v>1.37</v>
+      </c>
+      <c r="AQ170">
+        <v>1.6</v>
+      </c>
+      <c r="AR170">
+        <v>1</v>
+      </c>
+      <c r="AS170">
+        <v>1.45</v>
+      </c>
+      <c r="AT170">
+        <v>1.18</v>
+      </c>
+      <c r="AU170">
+        <v>1.44</v>
+      </c>
+      <c r="AV170">
+        <v>1.09</v>
+      </c>
+      <c r="AW170">
+        <v>2.53</v>
+      </c>
+      <c r="AX170">
+        <v>1.95</v>
+      </c>
+      <c r="AY170">
+        <v>7.5</v>
+      </c>
+      <c r="AZ170">
+        <v>2.15</v>
+      </c>
+      <c r="BA170">
+        <v>1.24</v>
+      </c>
+      <c r="BB170">
+        <v>1.48</v>
+      </c>
+      <c r="BC170">
+        <v>1.8</v>
+      </c>
+      <c r="BD170">
+        <v>2.33</v>
+      </c>
+      <c r="BE170">
+        <v>3.1</v>
+      </c>
+      <c r="BF170">
+        <v>4</v>
+      </c>
+      <c r="BG170">
+        <v>9</v>
+      </c>
+      <c r="BH170">
+        <v>6</v>
+      </c>
+      <c r="BI170">
+        <v>4</v>
+      </c>
+      <c r="BJ170">
+        <v>10</v>
+      </c>
+      <c r="BK170">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="171" spans="1:63">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>4407796</v>
+      </c>
+      <c r="C171" t="s">
+        <v>63</v>
+      </c>
+      <c r="D171" t="s">
+        <v>64</v>
+      </c>
+      <c r="E171" s="2">
+        <v>44984.58333333334</v>
+      </c>
+      <c r="F171">
+        <v>20</v>
+      </c>
+      <c r="G171" t="s">
+        <v>81</v>
+      </c>
+      <c r="H171" t="s">
+        <v>78</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="J171">
+        <v>3</v>
+      </c>
+      <c r="K171">
+        <v>4</v>
+      </c>
+      <c r="L171">
+        <v>3</v>
+      </c>
+      <c r="M171">
+        <v>4</v>
+      </c>
+      <c r="N171">
+        <v>7</v>
+      </c>
+      <c r="O171" t="s">
+        <v>182</v>
+      </c>
+      <c r="P171" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q171">
+        <v>7</v>
+      </c>
+      <c r="R171">
+        <v>2</v>
+      </c>
+      <c r="S171">
+        <v>9</v>
+      </c>
+      <c r="T171">
+        <v>3.55</v>
+      </c>
+      <c r="U171">
+        <v>1.85</v>
+      </c>
+      <c r="V171">
+        <v>3.65</v>
+      </c>
+      <c r="W171">
+        <v>1.52</v>
+      </c>
+      <c r="X171">
+        <v>2.38</v>
+      </c>
+      <c r="Y171">
+        <v>3.6</v>
+      </c>
+      <c r="Z171">
+        <v>1.25</v>
+      </c>
+      <c r="AA171">
+        <v>10.5</v>
+      </c>
+      <c r="AB171">
+        <v>1.03</v>
+      </c>
+      <c r="AC171">
+        <v>2.63</v>
+      </c>
+      <c r="AD171">
+        <v>2.7</v>
+      </c>
+      <c r="AE171">
+        <v>2.75</v>
+      </c>
+      <c r="AF171">
+        <v>1.08</v>
+      </c>
+      <c r="AG171">
+        <v>6.4</v>
+      </c>
+      <c r="AH171">
+        <v>1.49</v>
+      </c>
+      <c r="AI171">
+        <v>2.51</v>
+      </c>
+      <c r="AJ171">
+        <v>2.4</v>
+      </c>
+      <c r="AK171">
+        <v>1.5</v>
+      </c>
+      <c r="AL171">
+        <v>1.93</v>
+      </c>
+      <c r="AM171">
+        <v>1.8</v>
+      </c>
+      <c r="AN171">
+        <v>1.37</v>
+      </c>
+      <c r="AO171">
+        <v>1.41</v>
+      </c>
+      <c r="AP171">
+        <v>1.41</v>
+      </c>
+      <c r="AQ171">
+        <v>1.22</v>
+      </c>
+      <c r="AR171">
+        <v>1.44</v>
+      </c>
+      <c r="AS171">
+        <v>1.1</v>
+      </c>
+      <c r="AT171">
+        <v>1.6</v>
+      </c>
+      <c r="AU171">
+        <v>1.32</v>
+      </c>
+      <c r="AV171">
+        <v>1.45</v>
+      </c>
+      <c r="AW171">
+        <v>2.77</v>
+      </c>
+      <c r="AX171">
+        <v>1.82</v>
+      </c>
+      <c r="AY171">
+        <v>7.6</v>
+      </c>
+      <c r="AZ171">
+        <v>2.38</v>
+      </c>
+      <c r="BA171">
+        <v>1.24</v>
+      </c>
+      <c r="BB171">
+        <v>1.46</v>
+      </c>
+      <c r="BC171">
+        <v>1.8</v>
+      </c>
+      <c r="BD171">
+        <v>2.32</v>
+      </c>
+      <c r="BE171">
+        <v>3.15</v>
+      </c>
+      <c r="BF171">
+        <v>10</v>
+      </c>
+      <c r="BG171">
+        <v>6</v>
+      </c>
+      <c r="BH171">
+        <v>6</v>
+      </c>
+      <c r="BI171">
+        <v>3</v>
+      </c>
+      <c r="BJ171">
+        <v>16</v>
+      </c>
+      <c r="BK171">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172" spans="1:63">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>4407797</v>
+      </c>
+      <c r="C172" t="s">
+        <v>63</v>
+      </c>
+      <c r="D172" t="s">
+        <v>64</v>
+      </c>
+      <c r="E172" s="2">
+        <v>44985.5</v>
+      </c>
+      <c r="F172">
+        <v>20</v>
+      </c>
+      <c r="G172" t="s">
+        <v>69</v>
+      </c>
+      <c r="H172" t="s">
+        <v>67</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>1</v>
+      </c>
+      <c r="K172">
+        <v>1</v>
+      </c>
+      <c r="L172">
+        <v>1</v>
+      </c>
+      <c r="M172">
+        <v>2</v>
+      </c>
+      <c r="N172">
+        <v>3</v>
+      </c>
+      <c r="O172" t="s">
+        <v>171</v>
+      </c>
+      <c r="P172" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q172">
+        <v>6</v>
+      </c>
+      <c r="R172">
+        <v>6</v>
+      </c>
+      <c r="S172">
+        <v>12</v>
+      </c>
+      <c r="T172">
+        <v>4.2</v>
+      </c>
+      <c r="U172">
+        <v>1.83</v>
+      </c>
+      <c r="V172">
+        <v>2.9</v>
+      </c>
+      <c r="W172">
+        <v>1.58</v>
+      </c>
+      <c r="X172">
+        <v>2.2</v>
+      </c>
+      <c r="Y172">
+        <v>3.7</v>
+      </c>
+      <c r="Z172">
+        <v>1.24</v>
+      </c>
+      <c r="AA172">
+        <v>11</v>
+      </c>
+      <c r="AB172">
+        <v>1.04</v>
+      </c>
+      <c r="AC172">
+        <v>3.4</v>
+      </c>
+      <c r="AD172">
+        <v>2.8</v>
+      </c>
+      <c r="AE172">
+        <v>2.1</v>
+      </c>
+      <c r="AF172">
+        <v>1.12</v>
+      </c>
+      <c r="AG172">
+        <v>5.75</v>
+      </c>
+      <c r="AH172">
+        <v>1.53</v>
+      </c>
+      <c r="AI172">
+        <v>2.3</v>
+      </c>
+      <c r="AJ172">
+        <v>2.6</v>
+      </c>
+      <c r="AK172">
+        <v>1.43</v>
+      </c>
+      <c r="AL172">
+        <v>2.2</v>
+      </c>
+      <c r="AM172">
+        <v>1.58</v>
+      </c>
+      <c r="AN172">
+        <v>1.63</v>
+      </c>
+      <c r="AO172">
+        <v>1.38</v>
+      </c>
+      <c r="AP172">
+        <v>1.27</v>
+      </c>
+      <c r="AQ172">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR172">
+        <v>1.2</v>
+      </c>
+      <c r="AS172">
+        <v>0.5</v>
+      </c>
+      <c r="AT172">
+        <v>1.36</v>
+      </c>
+      <c r="AU172">
+        <v>1.09</v>
+      </c>
+      <c r="AV172">
+        <v>1.22</v>
+      </c>
+      <c r="AW172">
+        <v>2.31</v>
+      </c>
+      <c r="AX172">
+        <v>0</v>
+      </c>
+      <c r="AY172">
+        <v>0</v>
+      </c>
+      <c r="AZ172">
+        <v>0</v>
+      </c>
+      <c r="BA172">
+        <v>1.44</v>
+      </c>
+      <c r="BB172">
+        <v>1.73</v>
+      </c>
+      <c r="BC172">
+        <v>2.2</v>
+      </c>
+      <c r="BD172">
+        <v>2.7</v>
+      </c>
+      <c r="BE172">
+        <v>0</v>
+      </c>
+      <c r="BF172">
+        <v>4</v>
+      </c>
+      <c r="BG172">
+        <v>8</v>
+      </c>
+      <c r="BH172">
+        <v>4</v>
+      </c>
+      <c r="BI172">
+        <v>8</v>
+      </c>
+      <c r="BJ172">
+        <v>8</v>
+      </c>
+      <c r="BK172">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="173" spans="1:63">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>4407798</v>
+      </c>
+      <c r="C173" t="s">
+        <v>63</v>
+      </c>
+      <c r="D173" t="s">
+        <v>64</v>
+      </c>
+      <c r="E173" s="2">
+        <v>44985.5</v>
+      </c>
+      <c r="F173">
+        <v>20</v>
+      </c>
+      <c r="G173" t="s">
+        <v>75</v>
+      </c>
+      <c r="H173" t="s">
+        <v>66</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <v>2</v>
+      </c>
+      <c r="M173">
+        <v>1</v>
+      </c>
+      <c r="N173">
+        <v>3</v>
+      </c>
+      <c r="O173" t="s">
+        <v>183</v>
+      </c>
+      <c r="P173" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q173">
+        <v>7</v>
+      </c>
+      <c r="R173">
+        <v>5</v>
+      </c>
+      <c r="S173">
+        <v>12</v>
+      </c>
+      <c r="T173">
+        <v>3.1</v>
+      </c>
+      <c r="U173">
+        <v>1.91</v>
+      </c>
+      <c r="V173">
+        <v>3.75</v>
+      </c>
+      <c r="W173">
+        <v>1.45</v>
+      </c>
+      <c r="X173">
+        <v>2.55</v>
+      </c>
+      <c r="Y173">
+        <v>3.4</v>
+      </c>
+      <c r="Z173">
+        <v>1.29</v>
+      </c>
+      <c r="AA173">
+        <v>10</v>
+      </c>
+      <c r="AB173">
+        <v>1.06</v>
+      </c>
+      <c r="AC173">
+        <v>2.25</v>
+      </c>
+      <c r="AD173">
+        <v>3.05</v>
+      </c>
+      <c r="AE173">
+        <v>3.01</v>
+      </c>
+      <c r="AF173">
+        <v>1.09</v>
+      </c>
+      <c r="AG173">
+        <v>7.25</v>
+      </c>
+      <c r="AH173">
+        <v>1.4</v>
+      </c>
+      <c r="AI173">
+        <v>2.76</v>
+      </c>
+      <c r="AJ173">
+        <v>2.23</v>
+      </c>
+      <c r="AK173">
+        <v>1.58</v>
+      </c>
+      <c r="AL173">
+        <v>1.91</v>
+      </c>
+      <c r="AM173">
+        <v>1.82</v>
+      </c>
+      <c r="AN173">
+        <v>1.3</v>
+      </c>
+      <c r="AO173">
+        <v>1.28</v>
+      </c>
+      <c r="AP173">
+        <v>1.57</v>
+      </c>
+      <c r="AQ173">
+        <v>1.18</v>
+      </c>
+      <c r="AR173">
+        <v>0.4</v>
+      </c>
+      <c r="AS173">
+        <v>1.33</v>
+      </c>
+      <c r="AT173">
+        <v>0.36</v>
+      </c>
+      <c r="AU173">
+        <v>1.56</v>
+      </c>
+      <c r="AV173">
+        <v>1.21</v>
+      </c>
+      <c r="AW173">
+        <v>2.77</v>
+      </c>
+      <c r="AX173">
+        <v>1.67</v>
+      </c>
+      <c r="AY173">
+        <v>7.5</v>
+      </c>
+      <c r="AZ173">
+        <v>2.73</v>
+      </c>
+      <c r="BA173">
+        <v>1.35</v>
+      </c>
+      <c r="BB173">
+        <v>1.63</v>
+      </c>
+      <c r="BC173">
+        <v>2.1</v>
+      </c>
+      <c r="BD173">
+        <v>2.8</v>
+      </c>
+      <c r="BE173">
+        <v>3.8</v>
+      </c>
+      <c r="BF173">
+        <v>8</v>
+      </c>
+      <c r="BG173">
+        <v>4</v>
+      </c>
+      <c r="BH173">
+        <v>5</v>
+      </c>
+      <c r="BI173">
+        <v>2</v>
+      </c>
+      <c r="BJ173">
+        <v>13</v>
+      </c>
+      <c r="BK173">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:63">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>4407800</v>
+      </c>
+      <c r="C174" t="s">
+        <v>63</v>
+      </c>
+      <c r="D174" t="s">
+        <v>64</v>
+      </c>
+      <c r="E174" s="2">
+        <v>44985.58333333334</v>
+      </c>
+      <c r="F174">
+        <v>20</v>
+      </c>
+      <c r="G174" t="s">
+        <v>76</v>
+      </c>
+      <c r="H174" t="s">
+        <v>73</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+      <c r="M174">
+        <v>1</v>
+      </c>
+      <c r="N174">
+        <v>2</v>
+      </c>
+      <c r="O174" t="s">
+        <v>184</v>
+      </c>
+      <c r="P174" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q174">
+        <v>7</v>
+      </c>
+      <c r="R174">
+        <v>3</v>
+      </c>
+      <c r="S174">
+        <v>10</v>
+      </c>
+      <c r="T174">
+        <v>2.05</v>
+      </c>
+      <c r="U174">
+        <v>2.2</v>
+      </c>
+      <c r="V174">
+        <v>6</v>
+      </c>
+      <c r="W174">
+        <v>1.4</v>
+      </c>
+      <c r="X174">
+        <v>2.75</v>
+      </c>
+      <c r="Y174">
+        <v>3</v>
+      </c>
+      <c r="Z174">
+        <v>1.36</v>
+      </c>
+      <c r="AA174">
+        <v>8</v>
+      </c>
+      <c r="AB174">
+        <v>1.08</v>
+      </c>
+      <c r="AC174">
+        <v>1.48</v>
+      </c>
+      <c r="AD174">
+        <v>3.76</v>
+      </c>
+      <c r="AE174">
+        <v>5.69</v>
+      </c>
+      <c r="AF174">
+        <v>1.05</v>
+      </c>
+      <c r="AG174">
+        <v>9</v>
+      </c>
+      <c r="AH174">
+        <v>1.22</v>
+      </c>
+      <c r="AI174">
+        <v>4</v>
+      </c>
+      <c r="AJ174">
+        <v>1.95</v>
+      </c>
+      <c r="AK174">
+        <v>1.75</v>
+      </c>
+      <c r="AL174">
+        <v>2.1</v>
+      </c>
+      <c r="AM174">
+        <v>1.67</v>
+      </c>
+      <c r="AN174">
+        <v>1.08</v>
+      </c>
+      <c r="AO174">
+        <v>1.17</v>
+      </c>
+      <c r="AP174">
+        <v>3</v>
+      </c>
+      <c r="AQ174">
+        <v>2.25</v>
+      </c>
+      <c r="AR174">
+        <v>1.11</v>
+      </c>
+      <c r="AS174">
+        <v>2.11</v>
+      </c>
+      <c r="AT174">
+        <v>1.1</v>
+      </c>
+      <c r="AU174">
+        <v>1.62</v>
+      </c>
+      <c r="AV174">
+        <v>1.22</v>
+      </c>
+      <c r="AW174">
+        <v>2.84</v>
+      </c>
+      <c r="AX174">
+        <v>1.26</v>
+      </c>
+      <c r="AY174">
+        <v>11</v>
+      </c>
+      <c r="AZ174">
+        <v>4.68</v>
+      </c>
+      <c r="BA174">
+        <v>0</v>
+      </c>
+      <c r="BB174">
+        <v>1.5</v>
+      </c>
+      <c r="BC174">
+        <v>1.95</v>
+      </c>
+      <c r="BD174">
+        <v>2.47</v>
+      </c>
+      <c r="BE174">
+        <v>3.34</v>
+      </c>
+      <c r="BF174">
+        <v>7</v>
+      </c>
+      <c r="BG174">
+        <v>6</v>
+      </c>
+      <c r="BH174">
+        <v>9</v>
+      </c>
+      <c r="BI174">
+        <v>2</v>
+      </c>
+      <c r="BJ174">
+        <v>16</v>
+      </c>
+      <c r="BK174">
         <v>8</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="262">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -569,6 +569,9 @@
   </si>
   <si>
     <t>['70']</t>
+  </si>
+  <si>
+    <t>['41', '90+9']</t>
   </si>
   <si>
     <t>['85']</t>
@@ -1158,7 +1161,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK174"/>
+  <dimension ref="A1:BK175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1402,7 +1405,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1784,7 +1787,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q4">
         <v>9</v>
@@ -1975,7 +1978,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q5">
         <v>9</v>
@@ -2166,7 +2169,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -2548,7 +2551,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2739,7 +2742,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3312,7 +3315,7 @@
         <v>83</v>
       </c>
       <c r="P12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3694,7 +3697,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4166,7 +4169,7 @@
         <v>2</v>
       </c>
       <c r="AT16">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4736,7 +4739,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT19">
         <v>0.55</v>
@@ -5795,7 +5798,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5986,7 +5989,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6559,7 +6562,7 @@
         <v>99</v>
       </c>
       <c r="P29" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -6750,7 +6753,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -6837,7 +6840,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT30">
         <v>0.89</v>
@@ -7132,7 +7135,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7323,7 +7326,7 @@
         <v>83</v>
       </c>
       <c r="P33" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7514,7 +7517,7 @@
         <v>83</v>
       </c>
       <c r="P34" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7896,7 +7899,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8087,7 +8090,7 @@
         <v>104</v>
       </c>
       <c r="P37" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8941,7 +8944,7 @@
         <v>2.56</v>
       </c>
       <c r="AT41">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU41">
         <v>1.38</v>
@@ -9042,7 +9045,7 @@
         <v>107</v>
       </c>
       <c r="P42" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9129,7 +9132,7 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT42">
         <v>1.1</v>
@@ -9233,7 +9236,7 @@
         <v>83</v>
       </c>
       <c r="P43" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9424,7 +9427,7 @@
         <v>83</v>
       </c>
       <c r="P44" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9806,7 +9809,7 @@
         <v>107</v>
       </c>
       <c r="P46" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q46">
         <v>12</v>
@@ -10379,7 +10382,7 @@
         <v>110</v>
       </c>
       <c r="P49" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10660,7 +10663,7 @@
         <v>0.91</v>
       </c>
       <c r="AT50">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU50">
         <v>1.39</v>
@@ -10761,7 +10764,7 @@
         <v>111</v>
       </c>
       <c r="P51" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -11143,7 +11146,7 @@
         <v>113</v>
       </c>
       <c r="P53" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q53">
         <v>7</v>
@@ -11716,7 +11719,7 @@
         <v>115</v>
       </c>
       <c r="P56" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -11907,7 +11910,7 @@
         <v>116</v>
       </c>
       <c r="P57" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -12480,7 +12483,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12671,7 +12674,7 @@
         <v>119</v>
       </c>
       <c r="P61" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q61">
         <v>1</v>
@@ -13244,7 +13247,7 @@
         <v>119</v>
       </c>
       <c r="P64" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13817,7 +13820,7 @@
         <v>83</v>
       </c>
       <c r="P67" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -14008,7 +14011,7 @@
         <v>121</v>
       </c>
       <c r="P68" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14199,7 +14202,7 @@
         <v>122</v>
       </c>
       <c r="P69" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q69">
         <v>8</v>
@@ -14581,7 +14584,7 @@
         <v>124</v>
       </c>
       <c r="P71" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -14668,7 +14671,7 @@
         <v>3</v>
       </c>
       <c r="AS71">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT71">
         <v>2.75</v>
@@ -14963,7 +14966,7 @@
         <v>126</v>
       </c>
       <c r="P73" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15053,7 +15056,7 @@
         <v>1.11</v>
       </c>
       <c r="AT73">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU73">
         <v>1.74</v>
@@ -15345,7 +15348,7 @@
         <v>128</v>
       </c>
       <c r="P75" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15918,7 +15921,7 @@
         <v>130</v>
       </c>
       <c r="P78" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -16300,7 +16303,7 @@
         <v>83</v>
       </c>
       <c r="P80" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -17255,7 +17258,7 @@
         <v>121</v>
       </c>
       <c r="P85" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -17446,7 +17449,7 @@
         <v>132</v>
       </c>
       <c r="P86" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17533,7 +17536,7 @@
         <v>2</v>
       </c>
       <c r="AS86">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT86">
         <v>2</v>
@@ -17637,7 +17640,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -17828,7 +17831,7 @@
         <v>134</v>
       </c>
       <c r="P88" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q88">
         <v>13</v>
@@ -18019,7 +18022,7 @@
         <v>135</v>
       </c>
       <c r="P89" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18401,7 +18404,7 @@
         <v>136</v>
       </c>
       <c r="P91" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q91">
         <v>1</v>
@@ -18491,7 +18494,7 @@
         <v>1.11</v>
       </c>
       <c r="AT91">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU91">
         <v>1.72</v>
@@ -18592,7 +18595,7 @@
         <v>137</v>
       </c>
       <c r="P92" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -18783,7 +18786,7 @@
         <v>83</v>
       </c>
       <c r="P93" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q93">
         <v>4</v>
@@ -18974,7 +18977,7 @@
         <v>97</v>
       </c>
       <c r="P94" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -19356,7 +19359,7 @@
         <v>83</v>
       </c>
       <c r="P96" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19547,7 +19550,7 @@
         <v>139</v>
       </c>
       <c r="P97" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -20207,7 +20210,7 @@
         <v>0.4</v>
       </c>
       <c r="AS100">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT100">
         <v>0.6</v>
@@ -20311,7 +20314,7 @@
         <v>83</v>
       </c>
       <c r="P101" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -20884,7 +20887,7 @@
         <v>143</v>
       </c>
       <c r="P104" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -21075,7 +21078,7 @@
         <v>144</v>
       </c>
       <c r="P105" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -21648,7 +21651,7 @@
         <v>83</v>
       </c>
       <c r="P108" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -21839,7 +21842,7 @@
         <v>146</v>
       </c>
       <c r="P109" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q109">
         <v>10</v>
@@ -21929,7 +21932,7 @@
         <v>1.1</v>
       </c>
       <c r="AT109">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU109">
         <v>1.21</v>
@@ -22030,7 +22033,7 @@
         <v>147</v>
       </c>
       <c r="P110" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q110">
         <v>1</v>
@@ -23454,7 +23457,7 @@
         <v>1.2</v>
       </c>
       <c r="AS117">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT117">
         <v>1.14</v>
@@ -23558,7 +23561,7 @@
         <v>153</v>
       </c>
       <c r="P118" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -23648,7 +23651,7 @@
         <v>0.67</v>
       </c>
       <c r="AT118">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU118">
         <v>1.22</v>
@@ -24131,7 +24134,7 @@
         <v>154</v>
       </c>
       <c r="P121" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24513,7 +24516,7 @@
         <v>155</v>
       </c>
       <c r="P123" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -24895,7 +24898,7 @@
         <v>157</v>
       </c>
       <c r="P125" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -25086,7 +25089,7 @@
         <v>83</v>
       </c>
       <c r="P126" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q126">
         <v>7</v>
@@ -25277,7 +25280,7 @@
         <v>83</v>
       </c>
       <c r="P127" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q127">
         <v>7</v>
@@ -25468,7 +25471,7 @@
         <v>158</v>
       </c>
       <c r="P128" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -25558,7 +25561,7 @@
         <v>0.6</v>
       </c>
       <c r="AT128">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU128">
         <v>0.98</v>
@@ -25746,7 +25749,7 @@
         <v>0.86</v>
       </c>
       <c r="AS129">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT129">
         <v>1.2</v>
@@ -26423,7 +26426,7 @@
         <v>157</v>
       </c>
       <c r="P133" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -26614,7 +26617,7 @@
         <v>159</v>
       </c>
       <c r="P134" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -26805,7 +26808,7 @@
         <v>160</v>
       </c>
       <c r="P135" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -27187,7 +27190,7 @@
         <v>161</v>
       </c>
       <c r="P137" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q137">
         <v>2</v>
@@ -27378,7 +27381,7 @@
         <v>162</v>
       </c>
       <c r="P138" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q138">
         <v>7</v>
@@ -27760,7 +27763,7 @@
         <v>163</v>
       </c>
       <c r="P140" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q140">
         <v>10</v>
@@ -27951,7 +27954,7 @@
         <v>83</v>
       </c>
       <c r="P141" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q141">
         <v>9</v>
@@ -28142,7 +28145,7 @@
         <v>164</v>
       </c>
       <c r="P142" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -28333,7 +28336,7 @@
         <v>165</v>
       </c>
       <c r="P143" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q143">
         <v>2</v>
@@ -28524,7 +28527,7 @@
         <v>166</v>
       </c>
       <c r="P144" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q144">
         <v>1</v>
@@ -28715,7 +28718,7 @@
         <v>167</v>
       </c>
       <c r="P145" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q145">
         <v>11</v>
@@ -28906,7 +28909,7 @@
         <v>168</v>
       </c>
       <c r="P146" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q146">
         <v>8</v>
@@ -29288,7 +29291,7 @@
         <v>169</v>
       </c>
       <c r="P148" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -29566,7 +29569,7 @@
         <v>1.5</v>
       </c>
       <c r="AS149">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT149">
         <v>1.5</v>
@@ -29861,7 +29864,7 @@
         <v>83</v>
       </c>
       <c r="P151" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -30434,7 +30437,7 @@
         <v>83</v>
       </c>
       <c r="P154" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q154">
         <v>6</v>
@@ -30524,7 +30527,7 @@
         <v>1.45</v>
       </c>
       <c r="AT154">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU154">
         <v>1.45</v>
@@ -30712,7 +30715,7 @@
         <v>0.44</v>
       </c>
       <c r="AS155">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT155">
         <v>0.36</v>
@@ -31198,7 +31201,7 @@
         <v>175</v>
       </c>
       <c r="P158" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q158">
         <v>8</v>
@@ -31771,7 +31774,7 @@
         <v>177</v>
       </c>
       <c r="P161" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q161">
         <v>2</v>
@@ -31962,7 +31965,7 @@
         <v>178</v>
       </c>
       <c r="P162" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -32344,7 +32347,7 @@
         <v>83</v>
       </c>
       <c r="P164" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q164">
         <v>1</v>
@@ -33490,7 +33493,7 @@
         <v>181</v>
       </c>
       <c r="P170" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q170">
         <v>5</v>
@@ -33681,7 +33684,7 @@
         <v>182</v>
       </c>
       <c r="P171" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q171">
         <v>7</v>
@@ -33872,7 +33875,7 @@
         <v>171</v>
       </c>
       <c r="P172" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q172">
         <v>6</v>
@@ -34396,6 +34399,197 @@
       </c>
       <c r="BK174">
         <v>8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:63">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>4407799</v>
+      </c>
+      <c r="C175" t="s">
+        <v>63</v>
+      </c>
+      <c r="D175" t="s">
+        <v>64</v>
+      </c>
+      <c r="E175" s="2">
+        <v>44986.54166666666</v>
+      </c>
+      <c r="F175">
+        <v>20</v>
+      </c>
+      <c r="G175" t="s">
+        <v>82</v>
+      </c>
+      <c r="H175" t="s">
+        <v>71</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+      <c r="J175">
+        <v>1</v>
+      </c>
+      <c r="K175">
+        <v>2</v>
+      </c>
+      <c r="L175">
+        <v>2</v>
+      </c>
+      <c r="M175">
+        <v>1</v>
+      </c>
+      <c r="N175">
+        <v>3</v>
+      </c>
+      <c r="O175" t="s">
+        <v>185</v>
+      </c>
+      <c r="P175" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q175">
+        <v>9</v>
+      </c>
+      <c r="R175">
+        <v>7</v>
+      </c>
+      <c r="S175">
+        <v>16</v>
+      </c>
+      <c r="T175">
+        <v>4.2</v>
+      </c>
+      <c r="U175">
+        <v>1.8</v>
+      </c>
+      <c r="V175">
+        <v>3.1</v>
+      </c>
+      <c r="W175">
+        <v>1.64</v>
+      </c>
+      <c r="X175">
+        <v>2.16</v>
+      </c>
+      <c r="Y175">
+        <v>4</v>
+      </c>
+      <c r="Z175">
+        <v>1.21</v>
+      </c>
+      <c r="AA175">
+        <v>10.5</v>
+      </c>
+      <c r="AB175">
+        <v>1.03</v>
+      </c>
+      <c r="AC175">
+        <v>3.5</v>
+      </c>
+      <c r="AD175">
+        <v>2.8</v>
+      </c>
+      <c r="AE175">
+        <v>2.3</v>
+      </c>
+      <c r="AF175">
+        <v>1.12</v>
+      </c>
+      <c r="AG175">
+        <v>5.5</v>
+      </c>
+      <c r="AH175">
+        <v>1.53</v>
+      </c>
+      <c r="AI175">
+        <v>2.35</v>
+      </c>
+      <c r="AJ175">
+        <v>2.73</v>
+      </c>
+      <c r="AK175">
+        <v>1.4</v>
+      </c>
+      <c r="AL175">
+        <v>2.15</v>
+      </c>
+      <c r="AM175">
+        <v>1.65</v>
+      </c>
+      <c r="AN175">
+        <v>1.5</v>
+      </c>
+      <c r="AO175">
+        <v>1.36</v>
+      </c>
+      <c r="AP175">
+        <v>1.22</v>
+      </c>
+      <c r="AQ175">
+        <v>1.3</v>
+      </c>
+      <c r="AR175">
+        <v>1.67</v>
+      </c>
+      <c r="AS175">
+        <v>1.45</v>
+      </c>
+      <c r="AT175">
+        <v>1.5</v>
+      </c>
+      <c r="AU175">
+        <v>1.09</v>
+      </c>
+      <c r="AV175">
+        <v>1.11</v>
+      </c>
+      <c r="AW175">
+        <v>2.2</v>
+      </c>
+      <c r="AX175">
+        <v>2.58</v>
+      </c>
+      <c r="AY175">
+        <v>7.5</v>
+      </c>
+      <c r="AZ175">
+        <v>1.72</v>
+      </c>
+      <c r="BA175">
+        <v>1.29</v>
+      </c>
+      <c r="BB175">
+        <v>1.59</v>
+      </c>
+      <c r="BC175">
+        <v>1.96</v>
+      </c>
+      <c r="BD175">
+        <v>2.47</v>
+      </c>
+      <c r="BE175">
+        <v>3.1</v>
+      </c>
+      <c r="BF175">
+        <v>5</v>
+      </c>
+      <c r="BG175">
+        <v>5</v>
+      </c>
+      <c r="BH175">
+        <v>11</v>
+      </c>
+      <c r="BI175">
+        <v>1</v>
+      </c>
+      <c r="BJ175">
+        <v>16</v>
+      </c>
+      <c r="BK175">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="262">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1161,7 +1161,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK175"/>
+  <dimension ref="A1:BK177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3211,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT11">
         <v>1.36</v>
@@ -3405,7 +3405,7 @@
         <v>1.33</v>
       </c>
       <c r="AT12">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>1.45</v>
       </c>
       <c r="AT14">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT16">
         <v>1.5</v>
@@ -6270,7 +6270,7 @@
         <v>0.5</v>
       </c>
       <c r="AT27">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU27">
         <v>0.93</v>
@@ -6458,7 +6458,7 @@
         <v>1</v>
       </c>
       <c r="AS28">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT28">
         <v>0.36</v>
@@ -6649,7 +6649,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT29">
         <v>1.18</v>
@@ -6843,7 +6843,7 @@
         <v>1.45</v>
       </c>
       <c r="AT30">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU30">
         <v>1.45</v>
@@ -8941,7 +8941,7 @@
         <v>1</v>
       </c>
       <c r="AS41">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT41">
         <v>1.5</v>
@@ -9517,7 +9517,7 @@
         <v>1.1</v>
       </c>
       <c r="AT44">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU44">
         <v>1.02</v>
@@ -10087,7 +10087,7 @@
         <v>3</v>
       </c>
       <c r="AS47">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT47">
         <v>1.6</v>
@@ -10281,7 +10281,7 @@
         <v>1.33</v>
       </c>
       <c r="AT48">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU48">
         <v>1.59</v>
@@ -13146,7 +13146,7 @@
         <v>1.11</v>
       </c>
       <c r="AT63">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU63">
         <v>1.77</v>
@@ -13716,7 +13716,7 @@
         <v>2.33</v>
       </c>
       <c r="AS66">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT66">
         <v>1.22</v>
@@ -14098,7 +14098,7 @@
         <v>0.75</v>
       </c>
       <c r="AS68">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT68">
         <v>1.18</v>
@@ -14292,7 +14292,7 @@
         <v>0.5</v>
       </c>
       <c r="AT69">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU69">
         <v>0.89</v>
@@ -16199,7 +16199,7 @@
         <v>0.25</v>
       </c>
       <c r="AS79">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT79">
         <v>0.6</v>
@@ -16584,7 +16584,7 @@
         <v>1.89</v>
       </c>
       <c r="AT81">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU81">
         <v>1.58</v>
@@ -16963,7 +16963,7 @@
         <v>1.5</v>
       </c>
       <c r="AS83">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT83">
         <v>1.6</v>
@@ -18112,7 +18112,7 @@
         <v>2.13</v>
       </c>
       <c r="AT89">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU89">
         <v>1.33</v>
@@ -18685,7 +18685,7 @@
         <v>1.33</v>
       </c>
       <c r="AT92">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU92">
         <v>1.39</v>
@@ -20019,7 +20019,7 @@
         <v>1.2</v>
       </c>
       <c r="AS99">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT99">
         <v>1.56</v>
@@ -20783,7 +20783,7 @@
         <v>1.6</v>
       </c>
       <c r="AS103">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT103">
         <v>1.22</v>
@@ -21359,7 +21359,7 @@
         <v>1.13</v>
       </c>
       <c r="AT106">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU106">
         <v>0.95</v>
@@ -22502,7 +22502,7 @@
         <v>1.17</v>
       </c>
       <c r="AS112">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT112">
         <v>1.5</v>
@@ -22696,7 +22696,7 @@
         <v>2</v>
       </c>
       <c r="AT113">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU113">
         <v>1.68</v>
@@ -24033,7 +24033,7 @@
         <v>1.1</v>
       </c>
       <c r="AT120">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU120">
         <v>1.29</v>
@@ -24794,7 +24794,7 @@
         <v>1</v>
       </c>
       <c r="AS124">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT124">
         <v>1.11</v>
@@ -25943,7 +25943,7 @@
         <v>1.33</v>
       </c>
       <c r="AT130">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU130">
         <v>1.41</v>
@@ -26513,7 +26513,7 @@
         <v>1.43</v>
       </c>
       <c r="AS133">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT133">
         <v>1.36</v>
@@ -26707,7 +26707,7 @@
         <v>1.45</v>
       </c>
       <c r="AT134">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU134">
         <v>1.39</v>
@@ -28232,7 +28232,7 @@
         <v>1.17</v>
       </c>
       <c r="AS142">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT142">
         <v>1.14</v>
@@ -29381,7 +29381,7 @@
         <v>2</v>
       </c>
       <c r="AT148">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU148">
         <v>1.63</v>
@@ -29572,7 +29572,7 @@
         <v>1.45</v>
       </c>
       <c r="AT149">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU149">
         <v>1.07</v>
@@ -30142,7 +30142,7 @@
         <v>0.5</v>
       </c>
       <c r="AS152">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT152">
         <v>0.36</v>
@@ -31291,7 +31291,7 @@
         <v>0.91</v>
       </c>
       <c r="AT158">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU158">
         <v>1.31</v>
@@ -31479,7 +31479,7 @@
         <v>0.67</v>
       </c>
       <c r="AS159">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT159">
         <v>0.55</v>
@@ -31670,7 +31670,7 @@
         <v>1.33</v>
       </c>
       <c r="AS160">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT160">
         <v>1.2</v>
@@ -34590,6 +34590,388 @@
       </c>
       <c r="BK175">
         <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:63">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>4407801</v>
+      </c>
+      <c r="C176" t="s">
+        <v>63</v>
+      </c>
+      <c r="D176" t="s">
+        <v>64</v>
+      </c>
+      <c r="E176" s="2">
+        <v>44988.5</v>
+      </c>
+      <c r="F176">
+        <v>20</v>
+      </c>
+      <c r="G176" t="s">
+        <v>79</v>
+      </c>
+      <c r="H176" t="s">
+        <v>68</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <v>0</v>
+      </c>
+      <c r="M176">
+        <v>0</v>
+      </c>
+      <c r="N176">
+        <v>0</v>
+      </c>
+      <c r="O176" t="s">
+        <v>83</v>
+      </c>
+      <c r="P176" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q176">
+        <v>7</v>
+      </c>
+      <c r="R176">
+        <v>3</v>
+      </c>
+      <c r="S176">
+        <v>10</v>
+      </c>
+      <c r="T176">
+        <v>2.58</v>
+      </c>
+      <c r="U176">
+        <v>1.97</v>
+      </c>
+      <c r="V176">
+        <v>5</v>
+      </c>
+      <c r="W176">
+        <v>1.51</v>
+      </c>
+      <c r="X176">
+        <v>2.46</v>
+      </c>
+      <c r="Y176">
+        <v>3.44</v>
+      </c>
+      <c r="Z176">
+        <v>1.29</v>
+      </c>
+      <c r="AA176">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AB176">
+        <v>1.04</v>
+      </c>
+      <c r="AC176">
+        <v>2.02</v>
+      </c>
+      <c r="AD176">
+        <v>3.15</v>
+      </c>
+      <c r="AE176">
+        <v>3.75</v>
+      </c>
+      <c r="AF176">
+        <v>1.07</v>
+      </c>
+      <c r="AG176">
+        <v>7</v>
+      </c>
+      <c r="AH176">
+        <v>1.43</v>
+      </c>
+      <c r="AI176">
+        <v>2.63</v>
+      </c>
+      <c r="AJ176">
+        <v>2.4</v>
+      </c>
+      <c r="AK176">
+        <v>1.53</v>
+      </c>
+      <c r="AL176">
+        <v>2.08</v>
+      </c>
+      <c r="AM176">
+        <v>1.71</v>
+      </c>
+      <c r="AN176">
+        <v>1.23</v>
+      </c>
+      <c r="AO176">
+        <v>1.32</v>
+      </c>
+      <c r="AP176">
+        <v>1.84</v>
+      </c>
+      <c r="AQ176">
+        <v>2</v>
+      </c>
+      <c r="AR176">
+        <v>0.89</v>
+      </c>
+      <c r="AS176">
+        <v>1.91</v>
+      </c>
+      <c r="AT176">
+        <v>0.9</v>
+      </c>
+      <c r="AU176">
+        <v>1.32</v>
+      </c>
+      <c r="AV176">
+        <v>1.39</v>
+      </c>
+      <c r="AW176">
+        <v>2.71</v>
+      </c>
+      <c r="AX176">
+        <v>1.6</v>
+      </c>
+      <c r="AY176">
+        <v>7.7</v>
+      </c>
+      <c r="AZ176">
+        <v>2.86</v>
+      </c>
+      <c r="BA176">
+        <v>1.35</v>
+      </c>
+      <c r="BB176">
+        <v>1.7</v>
+      </c>
+      <c r="BC176">
+        <v>2.12</v>
+      </c>
+      <c r="BD176">
+        <v>2.78</v>
+      </c>
+      <c r="BE176">
+        <v>4</v>
+      </c>
+      <c r="BF176">
+        <v>5</v>
+      </c>
+      <c r="BG176">
+        <v>2</v>
+      </c>
+      <c r="BH176">
+        <v>7</v>
+      </c>
+      <c r="BI176">
+        <v>6</v>
+      </c>
+      <c r="BJ176">
+        <v>12</v>
+      </c>
+      <c r="BK176">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:63">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>4407802</v>
+      </c>
+      <c r="C177" t="s">
+        <v>63</v>
+      </c>
+      <c r="D177" t="s">
+        <v>64</v>
+      </c>
+      <c r="E177" s="2">
+        <v>44988.58333333334</v>
+      </c>
+      <c r="F177">
+        <v>20</v>
+      </c>
+      <c r="G177" t="s">
+        <v>74</v>
+      </c>
+      <c r="H177" t="s">
+        <v>70</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>0</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177">
+        <v>0</v>
+      </c>
+      <c r="O177" t="s">
+        <v>83</v>
+      </c>
+      <c r="P177" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q177">
+        <v>7</v>
+      </c>
+      <c r="R177">
+        <v>9</v>
+      </c>
+      <c r="S177">
+        <v>16</v>
+      </c>
+      <c r="T177">
+        <v>2.75</v>
+      </c>
+      <c r="U177">
+        <v>1.91</v>
+      </c>
+      <c r="V177">
+        <v>4.5</v>
+      </c>
+      <c r="W177">
+        <v>1.5</v>
+      </c>
+      <c r="X177">
+        <v>2.4</v>
+      </c>
+      <c r="Y177">
+        <v>3.5</v>
+      </c>
+      <c r="Z177">
+        <v>1.25</v>
+      </c>
+      <c r="AA177">
+        <v>11.5</v>
+      </c>
+      <c r="AB177">
+        <v>1.04</v>
+      </c>
+      <c r="AC177">
+        <v>1.95</v>
+      </c>
+      <c r="AD177">
+        <v>3.25</v>
+      </c>
+      <c r="AE177">
+        <v>3.9</v>
+      </c>
+      <c r="AF177">
+        <v>1.09</v>
+      </c>
+      <c r="AG177">
+        <v>6.5</v>
+      </c>
+      <c r="AH177">
+        <v>1.56</v>
+      </c>
+      <c r="AI177">
+        <v>2.33</v>
+      </c>
+      <c r="AJ177">
+        <v>2.35</v>
+      </c>
+      <c r="AK177">
+        <v>1.55</v>
+      </c>
+      <c r="AL177">
+        <v>2.33</v>
+      </c>
+      <c r="AM177">
+        <v>1.57</v>
+      </c>
+      <c r="AN177">
+        <v>1.22</v>
+      </c>
+      <c r="AO177">
+        <v>1.36</v>
+      </c>
+      <c r="AP177">
+        <v>1.7</v>
+      </c>
+      <c r="AQ177">
+        <v>2.56</v>
+      </c>
+      <c r="AR177">
+        <v>1.5</v>
+      </c>
+      <c r="AS177">
+        <v>2.4</v>
+      </c>
+      <c r="AT177">
+        <v>1.45</v>
+      </c>
+      <c r="AU177">
+        <v>1.67</v>
+      </c>
+      <c r="AV177">
+        <v>1.75</v>
+      </c>
+      <c r="AW177">
+        <v>3.42</v>
+      </c>
+      <c r="AX177">
+        <v>1.44</v>
+      </c>
+      <c r="AY177">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ177">
+        <v>3.44</v>
+      </c>
+      <c r="BA177">
+        <v>1.29</v>
+      </c>
+      <c r="BB177">
+        <v>1.54</v>
+      </c>
+      <c r="BC177">
+        <v>1.93</v>
+      </c>
+      <c r="BD177">
+        <v>2.35</v>
+      </c>
+      <c r="BE177">
+        <v>3.1</v>
+      </c>
+      <c r="BF177">
+        <v>4</v>
+      </c>
+      <c r="BG177">
+        <v>2</v>
+      </c>
+      <c r="BH177">
+        <v>5</v>
+      </c>
+      <c r="BI177">
+        <v>7</v>
+      </c>
+      <c r="BJ177">
+        <v>9</v>
+      </c>
+      <c r="BK177">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="263">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -572,6 +572,9 @@
   </si>
   <si>
     <t>['41', '90+9']</t>
+  </si>
+  <si>
+    <t>['19', '46']</t>
   </si>
   <si>
     <t>['85']</t>
@@ -1161,7 +1164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK177"/>
+  <dimension ref="A1:BK179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1405,7 +1408,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1787,7 +1790,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q4">
         <v>9</v>
@@ -1877,7 +1880,7 @@
         <v>1.11</v>
       </c>
       <c r="AT4">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1978,7 +1981,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q5">
         <v>9</v>
@@ -2169,7 +2172,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -2551,7 +2554,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2641,7 +2644,7 @@
         <v>1.89</v>
       </c>
       <c r="AT8">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2742,7 +2745,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2829,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT9">
         <v>2</v>
@@ -3020,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AT10">
         <v>0.6</v>
@@ -3315,7 +3318,7 @@
         <v>83</v>
       </c>
       <c r="P12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3697,7 +3700,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4933,7 +4936,7 @@
         <v>1.33</v>
       </c>
       <c r="AT20">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU20">
         <v>1.11</v>
@@ -5694,7 +5697,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT24">
         <v>1.56</v>
@@ -5798,7 +5801,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5888,7 +5891,7 @@
         <v>1.11</v>
       </c>
       <c r="AT25">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU25">
         <v>1.34</v>
@@ -5989,7 +5992,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6076,7 +6079,7 @@
         <v>3</v>
       </c>
       <c r="AS26">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AT26">
         <v>2.75</v>
@@ -6562,7 +6565,7 @@
         <v>99</v>
       </c>
       <c r="P29" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -6753,7 +6756,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -7031,7 +7034,7 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT31">
         <v>1.5</v>
@@ -7135,7 +7138,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7326,7 +7329,7 @@
         <v>83</v>
       </c>
       <c r="P33" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7416,7 +7419,7 @@
         <v>2</v>
       </c>
       <c r="AT33">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU33">
         <v>2.03</v>
@@ -7517,7 +7520,7 @@
         <v>83</v>
       </c>
       <c r="P34" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7604,7 +7607,7 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AT34">
         <v>2</v>
@@ -7899,7 +7902,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8090,7 +8093,7 @@
         <v>104</v>
       </c>
       <c r="P37" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8180,7 +8183,7 @@
         <v>1.89</v>
       </c>
       <c r="AT37">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU37">
         <v>1.66</v>
@@ -9045,7 +9048,7 @@
         <v>107</v>
       </c>
       <c r="P42" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9236,7 +9239,7 @@
         <v>83</v>
       </c>
       <c r="P43" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9427,7 +9430,7 @@
         <v>83</v>
       </c>
       <c r="P44" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9809,7 +9812,7 @@
         <v>107</v>
       </c>
       <c r="P46" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q46">
         <v>12</v>
@@ -10382,7 +10385,7 @@
         <v>110</v>
       </c>
       <c r="P49" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10764,7 +10767,7 @@
         <v>111</v>
       </c>
       <c r="P51" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -11146,7 +11149,7 @@
         <v>113</v>
       </c>
       <c r="P53" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q53">
         <v>7</v>
@@ -11719,7 +11722,7 @@
         <v>115</v>
       </c>
       <c r="P56" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -11910,7 +11913,7 @@
         <v>116</v>
       </c>
       <c r="P57" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -12188,7 +12191,7 @@
         <v>1.33</v>
       </c>
       <c r="AS58">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AT58">
         <v>1.56</v>
@@ -12483,7 +12486,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12674,7 +12677,7 @@
         <v>119</v>
       </c>
       <c r="P61" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q61">
         <v>1</v>
@@ -12952,7 +12955,7 @@
         <v>0.67</v>
       </c>
       <c r="AS62">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT62">
         <v>1.36</v>
@@ -13247,7 +13250,7 @@
         <v>119</v>
       </c>
       <c r="P64" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13719,7 +13722,7 @@
         <v>1.91</v>
       </c>
       <c r="AT66">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU66">
         <v>1.47</v>
@@ -13820,7 +13823,7 @@
         <v>83</v>
       </c>
       <c r="P67" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -14011,7 +14014,7 @@
         <v>121</v>
       </c>
       <c r="P68" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14202,7 +14205,7 @@
         <v>122</v>
       </c>
       <c r="P69" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q69">
         <v>8</v>
@@ -14584,7 +14587,7 @@
         <v>124</v>
       </c>
       <c r="P71" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -14966,7 +14969,7 @@
         <v>126</v>
       </c>
       <c r="P73" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15247,7 +15250,7 @@
         <v>2</v>
       </c>
       <c r="AT74">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU74">
         <v>2</v>
@@ -15348,7 +15351,7 @@
         <v>128</v>
       </c>
       <c r="P75" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15435,7 +15438,7 @@
         <v>1.75</v>
       </c>
       <c r="AS75">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AT75">
         <v>1.5</v>
@@ -15921,7 +15924,7 @@
         <v>130</v>
       </c>
       <c r="P78" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -16008,7 +16011,7 @@
         <v>0.5</v>
       </c>
       <c r="AS78">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT78">
         <v>0.36</v>
@@ -16303,7 +16306,7 @@
         <v>83</v>
       </c>
       <c r="P80" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -17258,7 +17261,7 @@
         <v>121</v>
       </c>
       <c r="P85" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -17449,7 +17452,7 @@
         <v>132</v>
       </c>
       <c r="P86" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17640,7 +17643,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -17831,7 +17834,7 @@
         <v>134</v>
       </c>
       <c r="P88" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q88">
         <v>13</v>
@@ -18022,7 +18025,7 @@
         <v>135</v>
       </c>
       <c r="P89" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18303,7 +18306,7 @@
         <v>0.91</v>
       </c>
       <c r="AT90">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU90">
         <v>1.33</v>
@@ -18404,7 +18407,7 @@
         <v>136</v>
       </c>
       <c r="P91" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q91">
         <v>1</v>
@@ -18595,7 +18598,7 @@
         <v>137</v>
       </c>
       <c r="P92" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -18786,7 +18789,7 @@
         <v>83</v>
       </c>
       <c r="P93" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q93">
         <v>4</v>
@@ -18873,7 +18876,7 @@
         <v>1.2</v>
       </c>
       <c r="AS93">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AT93">
         <v>1.36</v>
@@ -18977,7 +18980,7 @@
         <v>97</v>
       </c>
       <c r="P94" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -19359,7 +19362,7 @@
         <v>83</v>
       </c>
       <c r="P96" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19449,7 +19452,7 @@
         <v>1.45</v>
       </c>
       <c r="AT96">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU96">
         <v>1.5</v>
@@ -19550,7 +19553,7 @@
         <v>139</v>
       </c>
       <c r="P97" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -20314,7 +20317,7 @@
         <v>83</v>
       </c>
       <c r="P101" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -20786,7 +20789,7 @@
         <v>2.4</v>
       </c>
       <c r="AT103">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU103">
         <v>1.68</v>
@@ -20887,7 +20890,7 @@
         <v>143</v>
       </c>
       <c r="P104" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -21078,7 +21081,7 @@
         <v>144</v>
       </c>
       <c r="P105" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -21356,7 +21359,7 @@
         <v>1</v>
       </c>
       <c r="AS106">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT106">
         <v>0.9</v>
@@ -21651,7 +21654,7 @@
         <v>83</v>
       </c>
       <c r="P108" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -21842,7 +21845,7 @@
         <v>146</v>
       </c>
       <c r="P109" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q109">
         <v>10</v>
@@ -22033,7 +22036,7 @@
         <v>147</v>
       </c>
       <c r="P110" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q110">
         <v>1</v>
@@ -22120,7 +22123,7 @@
         <v>0.5</v>
       </c>
       <c r="AS110">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AT110">
         <v>0.36</v>
@@ -23460,7 +23463,7 @@
         <v>1.45</v>
       </c>
       <c r="AT117">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU117">
         <v>1.09</v>
@@ -23561,7 +23564,7 @@
         <v>153</v>
       </c>
       <c r="P118" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -23839,7 +23842,7 @@
         <v>0.67</v>
       </c>
       <c r="AS119">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT119">
         <v>1.1</v>
@@ -24134,7 +24137,7 @@
         <v>154</v>
       </c>
       <c r="P121" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24516,7 +24519,7 @@
         <v>155</v>
       </c>
       <c r="P123" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -24898,7 +24901,7 @@
         <v>157</v>
       </c>
       <c r="P125" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -24988,7 +24991,7 @@
         <v>1.11</v>
       </c>
       <c r="AT125">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU125">
         <v>1.61</v>
@@ -25089,7 +25092,7 @@
         <v>83</v>
       </c>
       <c r="P126" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q126">
         <v>7</v>
@@ -25280,7 +25283,7 @@
         <v>83</v>
       </c>
       <c r="P127" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q127">
         <v>7</v>
@@ -25471,7 +25474,7 @@
         <v>158</v>
       </c>
       <c r="P128" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -25558,7 +25561,7 @@
         <v>1.29</v>
       </c>
       <c r="AS128">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AT128">
         <v>1.5</v>
@@ -26426,7 +26429,7 @@
         <v>157</v>
       </c>
       <c r="P133" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -26617,7 +26620,7 @@
         <v>159</v>
       </c>
       <c r="P134" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -26808,7 +26811,7 @@
         <v>160</v>
       </c>
       <c r="P135" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -27190,7 +27193,7 @@
         <v>161</v>
       </c>
       <c r="P137" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q137">
         <v>2</v>
@@ -27381,7 +27384,7 @@
         <v>162</v>
       </c>
       <c r="P138" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q138">
         <v>7</v>
@@ -27763,7 +27766,7 @@
         <v>163</v>
       </c>
       <c r="P140" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q140">
         <v>10</v>
@@ -27954,7 +27957,7 @@
         <v>83</v>
       </c>
       <c r="P141" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q141">
         <v>9</v>
@@ -28145,7 +28148,7 @@
         <v>164</v>
       </c>
       <c r="P142" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -28235,7 +28238,7 @@
         <v>2.4</v>
       </c>
       <c r="AT142">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU142">
         <v>1.83</v>
@@ -28336,7 +28339,7 @@
         <v>165</v>
       </c>
       <c r="P143" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q143">
         <v>2</v>
@@ -28527,7 +28530,7 @@
         <v>166</v>
       </c>
       <c r="P144" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q144">
         <v>1</v>
@@ -28617,7 +28620,7 @@
         <v>1.11</v>
       </c>
       <c r="AT144">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU144">
         <v>1.53</v>
@@ -28718,7 +28721,7 @@
         <v>167</v>
       </c>
       <c r="P145" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q145">
         <v>11</v>
@@ -28805,7 +28808,7 @@
         <v>0.88</v>
       </c>
       <c r="AS145">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AT145">
         <v>1.18</v>
@@ -28909,7 +28912,7 @@
         <v>168</v>
       </c>
       <c r="P146" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q146">
         <v>8</v>
@@ -29291,7 +29294,7 @@
         <v>169</v>
       </c>
       <c r="P148" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -29864,7 +29867,7 @@
         <v>83</v>
       </c>
       <c r="P151" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -30437,7 +30440,7 @@
         <v>83</v>
       </c>
       <c r="P154" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q154">
         <v>6</v>
@@ -31201,7 +31204,7 @@
         <v>175</v>
       </c>
       <c r="P158" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q158">
         <v>8</v>
@@ -31774,7 +31777,7 @@
         <v>177</v>
       </c>
       <c r="P161" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q161">
         <v>2</v>
@@ -31965,7 +31968,7 @@
         <v>178</v>
       </c>
       <c r="P162" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -32052,7 +32055,7 @@
         <v>1.25</v>
       </c>
       <c r="AS162">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AT162">
         <v>1.6</v>
@@ -32347,7 +32350,7 @@
         <v>83</v>
       </c>
       <c r="P164" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q164">
         <v>1</v>
@@ -32628,7 +32631,7 @@
         <v>0.67</v>
       </c>
       <c r="AT165">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU165">
         <v>1.3</v>
@@ -32816,7 +32819,7 @@
         <v>1.13</v>
       </c>
       <c r="AS166">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT166">
         <v>1.11</v>
@@ -33493,7 +33496,7 @@
         <v>181</v>
       </c>
       <c r="P170" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q170">
         <v>5</v>
@@ -33684,7 +33687,7 @@
         <v>182</v>
       </c>
       <c r="P171" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q171">
         <v>7</v>
@@ -33875,7 +33878,7 @@
         <v>171</v>
       </c>
       <c r="P172" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q172">
         <v>6</v>
@@ -34971,6 +34974,388 @@
         <v>9</v>
       </c>
       <c r="BK177">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178" spans="1:63">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>4407803</v>
+      </c>
+      <c r="C178" t="s">
+        <v>63</v>
+      </c>
+      <c r="D178" t="s">
+        <v>64</v>
+      </c>
+      <c r="E178" s="2">
+        <v>44990.54166666666</v>
+      </c>
+      <c r="F178">
+        <v>21</v>
+      </c>
+      <c r="G178" t="s">
+        <v>72</v>
+      </c>
+      <c r="H178" t="s">
+        <v>75</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>0</v>
+      </c>
+      <c r="M178">
+        <v>0</v>
+      </c>
+      <c r="N178">
+        <v>0</v>
+      </c>
+      <c r="O178" t="s">
+        <v>83</v>
+      </c>
+      <c r="P178" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q178">
+        <v>5</v>
+      </c>
+      <c r="R178">
+        <v>3</v>
+      </c>
+      <c r="S178">
+        <v>8</v>
+      </c>
+      <c r="T178">
+        <v>4.9</v>
+      </c>
+      <c r="U178">
+        <v>1.86</v>
+      </c>
+      <c r="V178">
+        <v>2.5</v>
+      </c>
+      <c r="W178">
+        <v>1.5</v>
+      </c>
+      <c r="X178">
+        <v>2.35</v>
+      </c>
+      <c r="Y178">
+        <v>3.3</v>
+      </c>
+      <c r="Z178">
+        <v>1.3</v>
+      </c>
+      <c r="AA178">
+        <v>10</v>
+      </c>
+      <c r="AB178">
+        <v>1.05</v>
+      </c>
+      <c r="AC178">
+        <v>4.35</v>
+      </c>
+      <c r="AD178">
+        <v>3</v>
+      </c>
+      <c r="AE178">
+        <v>1.87</v>
+      </c>
+      <c r="AF178">
+        <v>1.09</v>
+      </c>
+      <c r="AG178">
+        <v>7.75</v>
+      </c>
+      <c r="AH178">
+        <v>1.44</v>
+      </c>
+      <c r="AI178">
+        <v>2.65</v>
+      </c>
+      <c r="AJ178">
+        <v>2.38</v>
+      </c>
+      <c r="AK178">
+        <v>1.52</v>
+      </c>
+      <c r="AL178">
+        <v>2</v>
+      </c>
+      <c r="AM178">
+        <v>1.74</v>
+      </c>
+      <c r="AN178">
+        <v>1.9</v>
+      </c>
+      <c r="AO178">
+        <v>1.35</v>
+      </c>
+      <c r="AP178">
+        <v>1.19</v>
+      </c>
+      <c r="AQ178">
+        <v>1.13</v>
+      </c>
+      <c r="AR178">
+        <v>1.14</v>
+      </c>
+      <c r="AS178">
+        <v>1.11</v>
+      </c>
+      <c r="AT178">
+        <v>1.13</v>
+      </c>
+      <c r="AU178">
+        <v>0.95</v>
+      </c>
+      <c r="AV178">
+        <v>1.68</v>
+      </c>
+      <c r="AW178">
+        <v>2.63</v>
+      </c>
+      <c r="AX178">
+        <v>3.38</v>
+      </c>
+      <c r="AY178">
+        <v>7.7</v>
+      </c>
+      <c r="AZ178">
+        <v>1.47</v>
+      </c>
+      <c r="BA178">
+        <v>1.38</v>
+      </c>
+      <c r="BB178">
+        <v>1.73</v>
+      </c>
+      <c r="BC178">
+        <v>2.16</v>
+      </c>
+      <c r="BD178">
+        <v>2.98</v>
+      </c>
+      <c r="BE178">
+        <v>0</v>
+      </c>
+      <c r="BF178">
+        <v>4</v>
+      </c>
+      <c r="BG178">
+        <v>7</v>
+      </c>
+      <c r="BH178">
+        <v>4</v>
+      </c>
+      <c r="BI178">
+        <v>2</v>
+      </c>
+      <c r="BJ178">
+        <v>8</v>
+      </c>
+      <c r="BK178">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:63">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>4407804</v>
+      </c>
+      <c r="C179" t="s">
+        <v>63</v>
+      </c>
+      <c r="D179" t="s">
+        <v>64</v>
+      </c>
+      <c r="E179" s="2">
+        <v>44991.41666666666</v>
+      </c>
+      <c r="F179">
+        <v>21</v>
+      </c>
+      <c r="G179" t="s">
+        <v>73</v>
+      </c>
+      <c r="H179" t="s">
+        <v>77</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>1</v>
+      </c>
+      <c r="L179">
+        <v>2</v>
+      </c>
+      <c r="M179">
+        <v>1</v>
+      </c>
+      <c r="N179">
+        <v>3</v>
+      </c>
+      <c r="O179" t="s">
+        <v>186</v>
+      </c>
+      <c r="P179" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q179">
+        <v>3</v>
+      </c>
+      <c r="R179">
+        <v>5</v>
+      </c>
+      <c r="S179">
+        <v>8</v>
+      </c>
+      <c r="T179">
+        <v>3.05</v>
+      </c>
+      <c r="U179">
+        <v>1.9</v>
+      </c>
+      <c r="V179">
+        <v>3.98</v>
+      </c>
+      <c r="W179">
+        <v>1.56</v>
+      </c>
+      <c r="X179">
+        <v>2.39</v>
+      </c>
+      <c r="Y179">
+        <v>3.62</v>
+      </c>
+      <c r="Z179">
+        <v>1.26</v>
+      </c>
+      <c r="AA179">
+        <v>10</v>
+      </c>
+      <c r="AB179">
+        <v>1.03</v>
+      </c>
+      <c r="AC179">
+        <v>2.38</v>
+      </c>
+      <c r="AD179">
+        <v>2.9</v>
+      </c>
+      <c r="AE179">
+        <v>3</v>
+      </c>
+      <c r="AF179">
+        <v>1.07</v>
+      </c>
+      <c r="AG179">
+        <v>6.35</v>
+      </c>
+      <c r="AH179">
+        <v>1.47</v>
+      </c>
+      <c r="AI179">
+        <v>2.48</v>
+      </c>
+      <c r="AJ179">
+        <v>2.37</v>
+      </c>
+      <c r="AK179">
+        <v>1.44</v>
+      </c>
+      <c r="AL179">
+        <v>2.06</v>
+      </c>
+      <c r="AM179">
+        <v>1.74</v>
+      </c>
+      <c r="AN179">
+        <v>1.29</v>
+      </c>
+      <c r="AO179">
+        <v>1.33</v>
+      </c>
+      <c r="AP179">
+        <v>1.44</v>
+      </c>
+      <c r="AQ179">
+        <v>0.6</v>
+      </c>
+      <c r="AR179">
+        <v>1.22</v>
+      </c>
+      <c r="AS179">
+        <v>0.82</v>
+      </c>
+      <c r="AT179">
+        <v>1.1</v>
+      </c>
+      <c r="AU179">
+        <v>1.2</v>
+      </c>
+      <c r="AV179">
+        <v>1.16</v>
+      </c>
+      <c r="AW179">
+        <v>2.36</v>
+      </c>
+      <c r="AX179">
+        <v>1.82</v>
+      </c>
+      <c r="AY179">
+        <v>7.5</v>
+      </c>
+      <c r="AZ179">
+        <v>2.42</v>
+      </c>
+      <c r="BA179">
+        <v>1.27</v>
+      </c>
+      <c r="BB179">
+        <v>1.5</v>
+      </c>
+      <c r="BC179">
+        <v>1.9</v>
+      </c>
+      <c r="BD179">
+        <v>2.45</v>
+      </c>
+      <c r="BE179">
+        <v>3.42</v>
+      </c>
+      <c r="BF179">
+        <v>7</v>
+      </c>
+      <c r="BG179">
+        <v>5</v>
+      </c>
+      <c r="BH179">
+        <v>5</v>
+      </c>
+      <c r="BI179">
+        <v>4</v>
+      </c>
+      <c r="BJ179">
+        <v>12</v>
+      </c>
+      <c r="BK179">
         <v>9</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="265">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -575,6 +575,12 @@
   </si>
   <si>
     <t>['19', '46']</t>
+  </si>
+  <si>
+    <t>['64']</t>
+  </si>
+  <si>
+    <t>['3', '22']</t>
   </si>
   <si>
     <t>['85']</t>
@@ -1164,7 +1170,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK179"/>
+  <dimension ref="A1:BK181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1408,7 +1414,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1790,7 +1796,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q4">
         <v>9</v>
@@ -1877,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT4">
         <v>1.13</v>
@@ -1981,7 +1987,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q5">
         <v>9</v>
@@ -2172,7 +2178,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -2554,7 +2560,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2745,7 +2751,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3026,7 +3032,7 @@
         <v>0.82</v>
       </c>
       <c r="AT10">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3318,7 +3324,7 @@
         <v>83</v>
       </c>
       <c r="P12" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3596,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT13">
         <v>1.18</v>
@@ -3700,7 +3706,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4172,7 +4178,7 @@
         <v>1.91</v>
       </c>
       <c r="AT16">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -5124,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT21">
         <v>1.2</v>
@@ -5318,7 +5324,7 @@
         <v>2</v>
       </c>
       <c r="AT22">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU22">
         <v>1.15</v>
@@ -5801,7 +5807,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5992,7 +5998,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6565,7 +6571,7 @@
         <v>99</v>
       </c>
       <c r="P29" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -6756,7 +6762,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -7138,7 +7144,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7329,7 +7335,7 @@
         <v>83</v>
       </c>
       <c r="P33" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7520,7 +7526,7 @@
         <v>83</v>
       </c>
       <c r="P34" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7902,7 +7908,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8093,7 +8099,7 @@
         <v>104</v>
       </c>
       <c r="P37" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8562,10 +8568,10 @@
         <v>0.5</v>
       </c>
       <c r="AS39">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT39">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU39">
         <v>1.58</v>
@@ -8753,7 +8759,7 @@
         <v>0.5</v>
       </c>
       <c r="AS40">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT40">
         <v>0.36</v>
@@ -8947,7 +8953,7 @@
         <v>2.4</v>
       </c>
       <c r="AT41">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU41">
         <v>1.38</v>
@@ -9048,7 +9054,7 @@
         <v>107</v>
       </c>
       <c r="P42" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9239,7 +9245,7 @@
         <v>83</v>
       </c>
       <c r="P43" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9430,7 +9436,7 @@
         <v>83</v>
       </c>
       <c r="P44" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9812,7 +9818,7 @@
         <v>107</v>
       </c>
       <c r="P46" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q46">
         <v>12</v>
@@ -10385,7 +10391,7 @@
         <v>110</v>
       </c>
       <c r="P49" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10666,7 +10672,7 @@
         <v>0.91</v>
       </c>
       <c r="AT50">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU50">
         <v>1.39</v>
@@ -10767,7 +10773,7 @@
         <v>111</v>
       </c>
       <c r="P51" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -11149,7 +11155,7 @@
         <v>113</v>
       </c>
       <c r="P53" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q53">
         <v>7</v>
@@ -11618,7 +11624,7 @@
         <v>1.5</v>
       </c>
       <c r="AS55">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT55">
         <v>1.6</v>
@@ -11722,7 +11728,7 @@
         <v>115</v>
       </c>
       <c r="P56" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -11812,7 +11818,7 @@
         <v>1.45</v>
       </c>
       <c r="AT56">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU56">
         <v>1.51</v>
@@ -11913,7 +11919,7 @@
         <v>116</v>
       </c>
       <c r="P57" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -12486,7 +12492,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12677,7 +12683,7 @@
         <v>119</v>
       </c>
       <c r="P61" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q61">
         <v>1</v>
@@ -13250,7 +13256,7 @@
         <v>119</v>
       </c>
       <c r="P64" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13337,7 +13343,7 @@
         <v>2.33</v>
       </c>
       <c r="AS64">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT64">
         <v>2</v>
@@ -13823,7 +13829,7 @@
         <v>83</v>
       </c>
       <c r="P67" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -14014,7 +14020,7 @@
         <v>121</v>
       </c>
       <c r="P68" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14205,7 +14211,7 @@
         <v>122</v>
       </c>
       <c r="P69" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q69">
         <v>8</v>
@@ -14587,7 +14593,7 @@
         <v>124</v>
       </c>
       <c r="P71" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -14969,7 +14975,7 @@
         <v>126</v>
       </c>
       <c r="P73" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15056,10 +15062,10 @@
         <v>0.67</v>
       </c>
       <c r="AS73">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT73">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU73">
         <v>1.74</v>
@@ -15351,7 +15357,7 @@
         <v>128</v>
       </c>
       <c r="P75" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15924,7 +15930,7 @@
         <v>130</v>
       </c>
       <c r="P78" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -16205,7 +16211,7 @@
         <v>1.91</v>
       </c>
       <c r="AT79">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU79">
         <v>1.41</v>
@@ -16306,7 +16312,7 @@
         <v>83</v>
       </c>
       <c r="P80" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -16775,7 +16781,7 @@
         <v>1.25</v>
       </c>
       <c r="AS82">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT82">
         <v>1.56</v>
@@ -17261,7 +17267,7 @@
         <v>121</v>
       </c>
       <c r="P85" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -17452,7 +17458,7 @@
         <v>132</v>
       </c>
       <c r="P86" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17643,7 +17649,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -17834,7 +17840,7 @@
         <v>134</v>
       </c>
       <c r="P88" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q88">
         <v>13</v>
@@ -17921,7 +17927,7 @@
         <v>0.6</v>
       </c>
       <c r="AS88">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT88">
         <v>1.18</v>
@@ -18025,7 +18031,7 @@
         <v>135</v>
       </c>
       <c r="P89" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18407,7 +18413,7 @@
         <v>136</v>
       </c>
       <c r="P91" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q91">
         <v>1</v>
@@ -18497,7 +18503,7 @@
         <v>1.11</v>
       </c>
       <c r="AT91">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU91">
         <v>1.72</v>
@@ -18598,7 +18604,7 @@
         <v>137</v>
       </c>
       <c r="P92" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -18789,7 +18795,7 @@
         <v>83</v>
       </c>
       <c r="P93" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q93">
         <v>4</v>
@@ -18980,7 +18986,7 @@
         <v>97</v>
       </c>
       <c r="P94" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -19258,7 +19264,7 @@
         <v>1.4</v>
       </c>
       <c r="AS95">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT95">
         <v>1.5</v>
@@ -19362,7 +19368,7 @@
         <v>83</v>
       </c>
       <c r="P96" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19553,7 +19559,7 @@
         <v>139</v>
       </c>
       <c r="P97" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -20216,7 +20222,7 @@
         <v>1.45</v>
       </c>
       <c r="AT100">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU100">
         <v>1.11</v>
@@ -20317,7 +20323,7 @@
         <v>83</v>
       </c>
       <c r="P101" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -20890,7 +20896,7 @@
         <v>143</v>
       </c>
       <c r="P104" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -20977,7 +20983,7 @@
         <v>1.2</v>
       </c>
       <c r="AS104">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT104">
         <v>1.6</v>
@@ -21081,7 +21087,7 @@
         <v>144</v>
       </c>
       <c r="P105" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -21654,7 +21660,7 @@
         <v>83</v>
       </c>
       <c r="P108" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -21845,7 +21851,7 @@
         <v>146</v>
       </c>
       <c r="P109" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q109">
         <v>10</v>
@@ -21935,7 +21941,7 @@
         <v>1.1</v>
       </c>
       <c r="AT109">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU109">
         <v>1.21</v>
@@ -22036,7 +22042,7 @@
         <v>147</v>
       </c>
       <c r="P110" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q110">
         <v>1</v>
@@ -22317,7 +22323,7 @@
         <v>0.91</v>
       </c>
       <c r="AT111">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU111">
         <v>1.41</v>
@@ -23078,7 +23084,7 @@
         <v>1.5</v>
       </c>
       <c r="AS115">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT115">
         <v>1.36</v>
@@ -23564,7 +23570,7 @@
         <v>153</v>
       </c>
       <c r="P118" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -23654,7 +23660,7 @@
         <v>0.67</v>
       </c>
       <c r="AT118">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU118">
         <v>1.22</v>
@@ -24137,7 +24143,7 @@
         <v>154</v>
       </c>
       <c r="P121" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24519,7 +24525,7 @@
         <v>155</v>
       </c>
       <c r="P123" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -24901,7 +24907,7 @@
         <v>157</v>
       </c>
       <c r="P125" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -24988,7 +24994,7 @@
         <v>1.33</v>
       </c>
       <c r="AS125">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT125">
         <v>1.1</v>
@@ -25092,7 +25098,7 @@
         <v>83</v>
       </c>
       <c r="P126" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q126">
         <v>7</v>
@@ -25283,7 +25289,7 @@
         <v>83</v>
       </c>
       <c r="P127" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q127">
         <v>7</v>
@@ -25474,7 +25480,7 @@
         <v>158</v>
       </c>
       <c r="P128" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -25564,7 +25570,7 @@
         <v>0.82</v>
       </c>
       <c r="AT128">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU128">
         <v>0.98</v>
@@ -26328,7 +26334,7 @@
         <v>1.33</v>
       </c>
       <c r="AT132">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU132">
         <v>1.5</v>
@@ -26429,7 +26435,7 @@
         <v>157</v>
       </c>
       <c r="P133" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -26620,7 +26626,7 @@
         <v>159</v>
       </c>
       <c r="P134" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -26811,7 +26817,7 @@
         <v>160</v>
       </c>
       <c r="P135" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -27089,7 +27095,7 @@
         <v>0.57</v>
       </c>
       <c r="AS136">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT136">
         <v>0.36</v>
@@ -27193,7 +27199,7 @@
         <v>161</v>
       </c>
       <c r="P137" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q137">
         <v>2</v>
@@ -27283,7 +27289,7 @@
         <v>1.33</v>
       </c>
       <c r="AT137">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU137">
         <v>1.4</v>
@@ -27384,7 +27390,7 @@
         <v>162</v>
       </c>
       <c r="P138" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q138">
         <v>7</v>
@@ -27766,7 +27772,7 @@
         <v>163</v>
       </c>
       <c r="P140" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q140">
         <v>10</v>
@@ -27853,7 +27859,7 @@
         <v>0.86</v>
       </c>
       <c r="AS140">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT140">
         <v>1.11</v>
@@ -27957,7 +27963,7 @@
         <v>83</v>
       </c>
       <c r="P141" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q141">
         <v>9</v>
@@ -28148,7 +28154,7 @@
         <v>164</v>
       </c>
       <c r="P142" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -28339,7 +28345,7 @@
         <v>165</v>
       </c>
       <c r="P143" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q143">
         <v>2</v>
@@ -28530,7 +28536,7 @@
         <v>166</v>
       </c>
       <c r="P144" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q144">
         <v>1</v>
@@ -28721,7 +28727,7 @@
         <v>167</v>
       </c>
       <c r="P145" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q145">
         <v>11</v>
@@ -28912,7 +28918,7 @@
         <v>168</v>
       </c>
       <c r="P146" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q146">
         <v>8</v>
@@ -29294,7 +29300,7 @@
         <v>169</v>
       </c>
       <c r="P148" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -29867,7 +29873,7 @@
         <v>83</v>
       </c>
       <c r="P151" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -30440,7 +30446,7 @@
         <v>83</v>
       </c>
       <c r="P154" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q154">
         <v>6</v>
@@ -30530,7 +30536,7 @@
         <v>1.45</v>
       </c>
       <c r="AT154">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU154">
         <v>1.45</v>
@@ -31204,7 +31210,7 @@
         <v>175</v>
       </c>
       <c r="P158" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q158">
         <v>8</v>
@@ -31777,7 +31783,7 @@
         <v>177</v>
       </c>
       <c r="P161" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q161">
         <v>2</v>
@@ -31968,7 +31974,7 @@
         <v>178</v>
       </c>
       <c r="P162" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -32249,7 +32255,7 @@
         <v>0.5</v>
       </c>
       <c r="AT163">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU163">
         <v>1.14</v>
@@ -32350,7 +32356,7 @@
         <v>83</v>
       </c>
       <c r="P164" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q164">
         <v>1</v>
@@ -33201,7 +33207,7 @@
         <v>1.56</v>
       </c>
       <c r="AS168">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT168">
         <v>1.5</v>
@@ -33496,7 +33502,7 @@
         <v>181</v>
       </c>
       <c r="P170" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q170">
         <v>5</v>
@@ -33687,7 +33693,7 @@
         <v>182</v>
       </c>
       <c r="P171" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q171">
         <v>7</v>
@@ -33878,7 +33884,7 @@
         <v>171</v>
       </c>
       <c r="P172" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q172">
         <v>6</v>
@@ -34347,7 +34353,7 @@
         <v>1.11</v>
       </c>
       <c r="AS174">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT174">
         <v>1.1</v>
@@ -34541,7 +34547,7 @@
         <v>1.45</v>
       </c>
       <c r="AT175">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU175">
         <v>1.09</v>
@@ -35150,22 +35156,22 @@
         <v>0</v>
       </c>
       <c r="BF178">
+        <v>3</v>
+      </c>
+      <c r="BG178">
         <v>4</v>
       </c>
-      <c r="BG178">
-        <v>7</v>
-      </c>
       <c r="BH178">
+        <v>5</v>
+      </c>
+      <c r="BI178">
         <v>4</v>
-      </c>
-      <c r="BI178">
-        <v>2</v>
       </c>
       <c r="BJ178">
         <v>8</v>
       </c>
       <c r="BK178">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="179" spans="1:63">
@@ -35215,7 +35221,7 @@
         <v>186</v>
       </c>
       <c r="P179" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q179">
         <v>3</v>
@@ -35357,6 +35363,388 @@
       </c>
       <c r="BK179">
         <v>9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:63">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>4407805</v>
+      </c>
+      <c r="C180" t="s">
+        <v>63</v>
+      </c>
+      <c r="D180" t="s">
+        <v>64</v>
+      </c>
+      <c r="E180" s="2">
+        <v>44991.5</v>
+      </c>
+      <c r="F180">
+        <v>21</v>
+      </c>
+      <c r="G180" t="s">
+        <v>67</v>
+      </c>
+      <c r="H180" t="s">
+        <v>81</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>1</v>
+      </c>
+      <c r="M180">
+        <v>0</v>
+      </c>
+      <c r="N180">
+        <v>1</v>
+      </c>
+      <c r="O180" t="s">
+        <v>187</v>
+      </c>
+      <c r="P180" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q180">
+        <v>4</v>
+      </c>
+      <c r="R180">
+        <v>9</v>
+      </c>
+      <c r="S180">
+        <v>13</v>
+      </c>
+      <c r="T180">
+        <v>3.5</v>
+      </c>
+      <c r="U180">
+        <v>1.8</v>
+      </c>
+      <c r="V180">
+        <v>3.75</v>
+      </c>
+      <c r="W180">
+        <v>1.64</v>
+      </c>
+      <c r="X180">
+        <v>2.16</v>
+      </c>
+      <c r="Y180">
+        <v>4.33</v>
+      </c>
+      <c r="Z180">
+        <v>1.2</v>
+      </c>
+      <c r="AA180">
+        <v>12</v>
+      </c>
+      <c r="AB180">
+        <v>1.02</v>
+      </c>
+      <c r="AC180">
+        <v>2.49</v>
+      </c>
+      <c r="AD180">
+        <v>2.76</v>
+      </c>
+      <c r="AE180">
+        <v>3.15</v>
+      </c>
+      <c r="AF180">
+        <v>1.12</v>
+      </c>
+      <c r="AG180">
+        <v>5.5</v>
+      </c>
+      <c r="AH180">
+        <v>1.59</v>
+      </c>
+      <c r="AI180">
+        <v>2.22</v>
+      </c>
+      <c r="AJ180">
+        <v>2.73</v>
+      </c>
+      <c r="AK180">
+        <v>1.4</v>
+      </c>
+      <c r="AL180">
+        <v>2.25</v>
+      </c>
+      <c r="AM180">
+        <v>1.6</v>
+      </c>
+      <c r="AN180">
+        <v>1.33</v>
+      </c>
+      <c r="AO180">
+        <v>1.33</v>
+      </c>
+      <c r="AP180">
+        <v>1.42</v>
+      </c>
+      <c r="AQ180">
+        <v>1.11</v>
+      </c>
+      <c r="AR180">
+        <v>0.6</v>
+      </c>
+      <c r="AS180">
+        <v>1.3</v>
+      </c>
+      <c r="AT180">
+        <v>0.55</v>
+      </c>
+      <c r="AU180">
+        <v>1.62</v>
+      </c>
+      <c r="AV180">
+        <v>1.23</v>
+      </c>
+      <c r="AW180">
+        <v>2.85</v>
+      </c>
+      <c r="AX180">
+        <v>1.8</v>
+      </c>
+      <c r="AY180">
+        <v>7.2</v>
+      </c>
+      <c r="AZ180">
+        <v>2.43</v>
+      </c>
+      <c r="BA180">
+        <v>1.4</v>
+      </c>
+      <c r="BB180">
+        <v>1.78</v>
+      </c>
+      <c r="BC180">
+        <v>2.24</v>
+      </c>
+      <c r="BD180">
+        <v>3.04</v>
+      </c>
+      <c r="BE180">
+        <v>0</v>
+      </c>
+      <c r="BF180">
+        <v>6</v>
+      </c>
+      <c r="BG180">
+        <v>0</v>
+      </c>
+      <c r="BH180">
+        <v>6</v>
+      </c>
+      <c r="BI180">
+        <v>5</v>
+      </c>
+      <c r="BJ180">
+        <v>12</v>
+      </c>
+      <c r="BK180">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:63">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>4407772</v>
+      </c>
+      <c r="C181" t="s">
+        <v>63</v>
+      </c>
+      <c r="D181" t="s">
+        <v>64</v>
+      </c>
+      <c r="E181" s="2">
+        <v>44992.5</v>
+      </c>
+      <c r="F181">
+        <v>17</v>
+      </c>
+      <c r="G181" t="s">
+        <v>76</v>
+      </c>
+      <c r="H181" t="s">
+        <v>71</v>
+      </c>
+      <c r="I181">
+        <v>2</v>
+      </c>
+      <c r="J181">
+        <v>1</v>
+      </c>
+      <c r="K181">
+        <v>3</v>
+      </c>
+      <c r="L181">
+        <v>2</v>
+      </c>
+      <c r="M181">
+        <v>1</v>
+      </c>
+      <c r="N181">
+        <v>3</v>
+      </c>
+      <c r="O181" t="s">
+        <v>188</v>
+      </c>
+      <c r="P181" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q181">
+        <v>6</v>
+      </c>
+      <c r="R181">
+        <v>9</v>
+      </c>
+      <c r="S181">
+        <v>15</v>
+      </c>
+      <c r="T181">
+        <v>2.05</v>
+      </c>
+      <c r="U181">
+        <v>2.2</v>
+      </c>
+      <c r="V181">
+        <v>6</v>
+      </c>
+      <c r="W181">
+        <v>1.44</v>
+      </c>
+      <c r="X181">
+        <v>2.63</v>
+      </c>
+      <c r="Y181">
+        <v>3</v>
+      </c>
+      <c r="Z181">
+        <v>1.36</v>
+      </c>
+      <c r="AA181">
+        <v>9</v>
+      </c>
+      <c r="AB181">
+        <v>1.07</v>
+      </c>
+      <c r="AC181">
+        <v>1.37</v>
+      </c>
+      <c r="AD181">
+        <v>3.97</v>
+      </c>
+      <c r="AE181">
+        <v>7.95</v>
+      </c>
+      <c r="AF181">
+        <v>1.02</v>
+      </c>
+      <c r="AG181">
+        <v>10</v>
+      </c>
+      <c r="AH181">
+        <v>1.27</v>
+      </c>
+      <c r="AI181">
+        <v>3.4</v>
+      </c>
+      <c r="AJ181">
+        <v>1.98</v>
+      </c>
+      <c r="AK181">
+        <v>1.77</v>
+      </c>
+      <c r="AL181">
+        <v>2.25</v>
+      </c>
+      <c r="AM181">
+        <v>1.57</v>
+      </c>
+      <c r="AN181">
+        <v>1.08</v>
+      </c>
+      <c r="AO181">
+        <v>1.21</v>
+      </c>
+      <c r="AP181">
+        <v>2.78</v>
+      </c>
+      <c r="AQ181">
+        <v>2.11</v>
+      </c>
+      <c r="AR181">
+        <v>1.5</v>
+      </c>
+      <c r="AS181">
+        <v>2.2</v>
+      </c>
+      <c r="AT181">
+        <v>1.36</v>
+      </c>
+      <c r="AU181">
+        <v>1.67</v>
+      </c>
+      <c r="AV181">
+        <v>1.11</v>
+      </c>
+      <c r="AW181">
+        <v>2.78</v>
+      </c>
+      <c r="AX181">
+        <v>1.17</v>
+      </c>
+      <c r="AY181">
+        <v>10.75</v>
+      </c>
+      <c r="AZ181">
+        <v>6.25</v>
+      </c>
+      <c r="BA181">
+        <v>1.19</v>
+      </c>
+      <c r="BB181">
+        <v>1.37</v>
+      </c>
+      <c r="BC181">
+        <v>1.69</v>
+      </c>
+      <c r="BD181">
+        <v>2.12</v>
+      </c>
+      <c r="BE181">
+        <v>2.84</v>
+      </c>
+      <c r="BF181">
+        <v>4</v>
+      </c>
+      <c r="BG181">
+        <v>5</v>
+      </c>
+      <c r="BH181">
+        <v>2</v>
+      </c>
+      <c r="BI181">
+        <v>3</v>
+      </c>
+      <c r="BJ181">
+        <v>6</v>
+      </c>
+      <c r="BK181">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="265">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1170,7 +1170,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK181"/>
+  <dimension ref="A1:BK182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1695,7 +1695,7 @@
         <v>1.11</v>
       </c>
       <c r="AT3">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2074,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AT5">
         <v>2.75</v>
@@ -5515,7 +5515,7 @@
         <v>1.89</v>
       </c>
       <c r="AT23">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU23">
         <v>1.7</v>
@@ -7807,7 +7807,7 @@
         <v>1.33</v>
       </c>
       <c r="AT35">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU35">
         <v>1.4</v>
@@ -8377,7 +8377,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AT38">
         <v>1.56</v>
@@ -11433,7 +11433,7 @@
         <v>3</v>
       </c>
       <c r="AS54">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AT54">
         <v>2</v>
@@ -12391,7 +12391,7 @@
         <v>2</v>
       </c>
       <c r="AT59">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU59">
         <v>1.97</v>
@@ -12770,7 +12770,7 @@
         <v>1.33</v>
       </c>
       <c r="AS61">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AT61">
         <v>1.5</v>
@@ -15829,7 +15829,7 @@
         <v>1.45</v>
       </c>
       <c r="AT77">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU77">
         <v>1.56</v>
@@ -16399,7 +16399,7 @@
         <v>0.75</v>
       </c>
       <c r="AS80">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AT80">
         <v>1.36</v>
@@ -19837,7 +19837,7 @@
         <v>0.4</v>
       </c>
       <c r="AS98">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AT98">
         <v>0.36</v>
@@ -21750,7 +21750,7 @@
         <v>0.91</v>
       </c>
       <c r="AT108">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU108">
         <v>1.4</v>
@@ -23657,7 +23657,7 @@
         <v>1</v>
       </c>
       <c r="AS118">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AT118">
         <v>1.36</v>
@@ -24806,7 +24806,7 @@
         <v>2.4</v>
       </c>
       <c r="AT124">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU124">
         <v>1.82</v>
@@ -27477,7 +27477,7 @@
         <v>1</v>
       </c>
       <c r="AS138">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AT138">
         <v>1.1</v>
@@ -27862,7 +27862,7 @@
         <v>1.3</v>
       </c>
       <c r="AT140">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU140">
         <v>1.68</v>
@@ -32634,7 +32634,7 @@
         <v>1.25</v>
       </c>
       <c r="AS165">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AT165">
         <v>1.1</v>
@@ -32828,7 +32828,7 @@
         <v>1.11</v>
       </c>
       <c r="AT166">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU166">
         <v>1.02</v>
@@ -35745,6 +35745,197 @@
       </c>
       <c r="BK181">
         <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:63">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>4407807</v>
+      </c>
+      <c r="C182" t="s">
+        <v>63</v>
+      </c>
+      <c r="D182" t="s">
+        <v>64</v>
+      </c>
+      <c r="E182" s="2">
+        <v>44993.54166666666</v>
+      </c>
+      <c r="F182">
+        <v>21</v>
+      </c>
+      <c r="G182" t="s">
+        <v>68</v>
+      </c>
+      <c r="H182" t="s">
+        <v>82</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="L182">
+        <v>0</v>
+      </c>
+      <c r="M182">
+        <v>0</v>
+      </c>
+      <c r="N182">
+        <v>0</v>
+      </c>
+      <c r="O182" t="s">
+        <v>83</v>
+      </c>
+      <c r="P182" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q182">
+        <v>2</v>
+      </c>
+      <c r="R182">
+        <v>3</v>
+      </c>
+      <c r="S182">
+        <v>5</v>
+      </c>
+      <c r="T182">
+        <v>3.25</v>
+      </c>
+      <c r="U182">
+        <v>1.76</v>
+      </c>
+      <c r="V182">
+        <v>3.8</v>
+      </c>
+      <c r="W182">
+        <v>1.59</v>
+      </c>
+      <c r="X182">
+        <v>2.14</v>
+      </c>
+      <c r="Y182">
+        <v>3.8</v>
+      </c>
+      <c r="Z182">
+        <v>1.25</v>
+      </c>
+      <c r="AA182">
+        <v>12</v>
+      </c>
+      <c r="AB182">
+        <v>1.04</v>
+      </c>
+      <c r="AC182">
+        <v>2.28</v>
+      </c>
+      <c r="AD182">
+        <v>2.6</v>
+      </c>
+      <c r="AE182">
+        <v>3.65</v>
+      </c>
+      <c r="AF182">
+        <v>1.12</v>
+      </c>
+      <c r="AG182">
+        <v>6</v>
+      </c>
+      <c r="AH182">
+        <v>1.53</v>
+      </c>
+      <c r="AI182">
+        <v>2.35</v>
+      </c>
+      <c r="AJ182">
+        <v>2.75</v>
+      </c>
+      <c r="AK182">
+        <v>1.4</v>
+      </c>
+      <c r="AL182">
+        <v>2.05</v>
+      </c>
+      <c r="AM182">
+        <v>1.71</v>
+      </c>
+      <c r="AN182">
+        <v>1.29</v>
+      </c>
+      <c r="AO182">
+        <v>1.36</v>
+      </c>
+      <c r="AP182">
+        <v>1.41</v>
+      </c>
+      <c r="AQ182">
+        <v>0.67</v>
+      </c>
+      <c r="AR182">
+        <v>1.11</v>
+      </c>
+      <c r="AS182">
+        <v>0.7</v>
+      </c>
+      <c r="AT182">
+        <v>1.1</v>
+      </c>
+      <c r="AU182">
+        <v>1.32</v>
+      </c>
+      <c r="AV182">
+        <v>1.12</v>
+      </c>
+      <c r="AW182">
+        <v>2.44</v>
+      </c>
+      <c r="AX182">
+        <v>1.57</v>
+      </c>
+      <c r="AY182">
+        <v>7.8</v>
+      </c>
+      <c r="AZ182">
+        <v>2.94</v>
+      </c>
+      <c r="BA182">
+        <v>1.27</v>
+      </c>
+      <c r="BB182">
+        <v>1.6</v>
+      </c>
+      <c r="BC182">
+        <v>1.97</v>
+      </c>
+      <c r="BD182">
+        <v>2.48</v>
+      </c>
+      <c r="BE182">
+        <v>3.42</v>
+      </c>
+      <c r="BF182">
+        <v>3</v>
+      </c>
+      <c r="BG182">
+        <v>4</v>
+      </c>
+      <c r="BH182">
+        <v>5</v>
+      </c>
+      <c r="BI182">
+        <v>3</v>
+      </c>
+      <c r="BJ182">
+        <v>8</v>
+      </c>
+      <c r="BK182">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -35920,22 +35920,22 @@
         <v>3.42</v>
       </c>
       <c r="BF182">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BG182">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BH182">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BI182">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BJ182">
+        <v>11</v>
+      </c>
+      <c r="BK182">
         <v>8</v>
-      </c>
-      <c r="BK182">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="267">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -583,6 +583,9 @@
     <t>['3', '22']</t>
   </si>
   <si>
+    <t>['79']</t>
+  </si>
+  <si>
     <t>['85']</t>
   </si>
   <si>
@@ -614,9 +617,6 @@
   </si>
   <si>
     <t>['44']</t>
-  </si>
-  <si>
-    <t>['79']</t>
   </si>
   <si>
     <t>['2', '5', '26']</t>
@@ -809,6 +809,12 @@
   </si>
   <si>
     <t>['31', '50']</t>
+  </si>
+  <si>
+    <t>['7', '78']</t>
+  </si>
+  <si>
+    <t>['20', '67']</t>
   </si>
 </sst>
 </file>
@@ -1170,7 +1176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK182"/>
+  <dimension ref="A1:BK185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1414,7 +1420,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1501,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT2">
         <v>1.6</v>
@@ -1796,7 +1802,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q4">
         <v>9</v>
@@ -1987,7 +1993,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q5">
         <v>9</v>
@@ -2178,7 +2184,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -2456,10 +2462,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT7">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2560,7 +2566,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2647,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT8">
         <v>1.1</v>
@@ -2751,7 +2757,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2841,7 +2847,7 @@
         <v>1.11</v>
       </c>
       <c r="AT9">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3324,7 +3330,7 @@
         <v>83</v>
       </c>
       <c r="P12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3706,7 +3712,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4560,7 +4566,7 @@
         <v>1.1</v>
       </c>
       <c r="AT18">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4939,7 +4945,7 @@
         <v>1</v>
       </c>
       <c r="AS20">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT20">
         <v>1.1</v>
@@ -5133,7 +5139,7 @@
         <v>1.3</v>
       </c>
       <c r="AT21">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU21">
         <v>1.98</v>
@@ -5512,7 +5518,7 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT23">
         <v>1.1</v>
@@ -5706,7 +5712,7 @@
         <v>1.11</v>
       </c>
       <c r="AT24">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU24">
         <v>0.68</v>
@@ -5807,7 +5813,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5998,7 +6004,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6571,7 +6577,7 @@
         <v>99</v>
       </c>
       <c r="P29" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -6762,7 +6768,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -7234,7 +7240,7 @@
         <v>1.11</v>
       </c>
       <c r="AT32">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU32">
         <v>1.48</v>
@@ -7526,7 +7532,7 @@
         <v>83</v>
       </c>
       <c r="P34" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7616,7 +7622,7 @@
         <v>0.82</v>
       </c>
       <c r="AT34">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU34">
         <v>1.19</v>
@@ -7804,7 +7810,7 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT35">
         <v>1.1</v>
@@ -7995,7 +8001,7 @@
         <v>1</v>
       </c>
       <c r="AS36">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT36">
         <v>1.36</v>
@@ -8186,7 +8192,7 @@
         <v>1.5</v>
       </c>
       <c r="AS37">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT37">
         <v>1.13</v>
@@ -8380,7 +8386,7 @@
         <v>0.7</v>
       </c>
       <c r="AT38">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU38">
         <v>0.54</v>
@@ -10773,7 +10779,7 @@
         <v>111</v>
       </c>
       <c r="P51" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -11051,7 +11057,7 @@
         <v>2</v>
       </c>
       <c r="AS52">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT52">
         <v>1.5</v>
@@ -11436,7 +11442,7 @@
         <v>0.7</v>
       </c>
       <c r="AT54">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU54">
         <v>0.89</v>
@@ -12200,7 +12206,7 @@
         <v>0.82</v>
       </c>
       <c r="AT58">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU58">
         <v>0.97</v>
@@ -12579,10 +12585,10 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT60">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU60">
         <v>1.59</v>
@@ -13256,7 +13262,7 @@
         <v>119</v>
       </c>
       <c r="P64" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13346,7 +13352,7 @@
         <v>2.2</v>
       </c>
       <c r="AT64">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU64">
         <v>1.49</v>
@@ -14871,7 +14877,7 @@
         <v>0.33</v>
       </c>
       <c r="AS72">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT72">
         <v>0.55</v>
@@ -15635,10 +15641,10 @@
         <v>0.75</v>
       </c>
       <c r="AS76">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT76">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU76">
         <v>1.36</v>
@@ -16590,7 +16596,7 @@
         <v>2.5</v>
       </c>
       <c r="AS81">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT81">
         <v>1.45</v>
@@ -16784,7 +16790,7 @@
         <v>2.2</v>
       </c>
       <c r="AT82">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU82">
         <v>1.65</v>
@@ -17548,7 +17554,7 @@
         <v>1.45</v>
       </c>
       <c r="AT86">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU86">
         <v>1.01</v>
@@ -18118,7 +18124,7 @@
         <v>1.25</v>
       </c>
       <c r="AS89">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT89">
         <v>0.9</v>
@@ -18691,7 +18697,7 @@
         <v>2.2</v>
       </c>
       <c r="AS92">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT92">
         <v>1.45</v>
@@ -19076,7 +19082,7 @@
         <v>2</v>
       </c>
       <c r="AT94">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU94">
         <v>1.76</v>
@@ -19646,7 +19652,7 @@
         <v>0.4</v>
       </c>
       <c r="AS97">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT97">
         <v>0.55</v>
@@ -20031,7 +20037,7 @@
         <v>1.91</v>
       </c>
       <c r="AT99">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU99">
         <v>1.26</v>
@@ -20601,7 +20607,7 @@
         <v>0.6</v>
       </c>
       <c r="AS102">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT102">
         <v>1.1</v>
@@ -21177,7 +21183,7 @@
         <v>1.33</v>
       </c>
       <c r="AT105">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU105">
         <v>1.57</v>
@@ -22896,7 +22902,7 @@
         <v>1.45</v>
       </c>
       <c r="AT114">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU114">
         <v>1.48</v>
@@ -23275,7 +23281,7 @@
         <v>0.33</v>
       </c>
       <c r="AS116">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT116">
         <v>0.55</v>
@@ -24233,7 +24239,7 @@
         <v>0.5</v>
       </c>
       <c r="AT121">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU121">
         <v>1.04</v>
@@ -24421,7 +24427,7 @@
         <v>1</v>
       </c>
       <c r="AS122">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT122">
         <v>1.18</v>
@@ -25188,7 +25194,7 @@
         <v>1.33</v>
       </c>
       <c r="AT126">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU126">
         <v>1.5</v>
@@ -25376,7 +25382,7 @@
         <v>2.67</v>
       </c>
       <c r="AS127">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT127">
         <v>2.75</v>
@@ -25761,7 +25767,7 @@
         <v>1.45</v>
       </c>
       <c r="AT129">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU129">
         <v>1.05</v>
@@ -25949,7 +25955,7 @@
         <v>0.86</v>
       </c>
       <c r="AS130">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT130">
         <v>0.9</v>
@@ -26435,7 +26441,7 @@
         <v>157</v>
       </c>
       <c r="P133" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -27286,7 +27292,7 @@
         <v>0.5</v>
       </c>
       <c r="AS137">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT137">
         <v>0.55</v>
@@ -27668,7 +27674,7 @@
         <v>1.29</v>
       </c>
       <c r="AS139">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT139">
         <v>1.6</v>
@@ -28053,7 +28059,7 @@
         <v>0.5</v>
       </c>
       <c r="AT141">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU141">
         <v>1.11</v>
@@ -28432,10 +28438,10 @@
         <v>2.43</v>
       </c>
       <c r="AS143">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT143">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU143">
         <v>1.45</v>
@@ -29199,7 +29205,7 @@
         <v>1.33</v>
       </c>
       <c r="AT147">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU147">
         <v>1.52</v>
@@ -31682,7 +31688,7 @@
         <v>2.4</v>
       </c>
       <c r="AT160">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU160">
         <v>1.72</v>
@@ -31873,7 +31879,7 @@
         <v>1.11</v>
       </c>
       <c r="AT161">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AU161">
         <v>1.46</v>
@@ -32443,7 +32449,7 @@
         <v>2.71</v>
       </c>
       <c r="AS164">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT164">
         <v>2.75</v>
@@ -33016,10 +33022,10 @@
         <v>2.13</v>
       </c>
       <c r="AS167">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT167">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU167">
         <v>1.62</v>
@@ -35221,7 +35227,7 @@
         <v>186</v>
       </c>
       <c r="P179" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q179">
         <v>3</v>
@@ -35936,6 +35942,579 @@
       </c>
       <c r="BK182">
         <v>8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:63">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>4407806</v>
+      </c>
+      <c r="C183" t="s">
+        <v>63</v>
+      </c>
+      <c r="D183" t="s">
+        <v>64</v>
+      </c>
+      <c r="E183" s="2">
+        <v>44996.58333333334</v>
+      </c>
+      <c r="F183">
+        <v>21</v>
+      </c>
+      <c r="G183" t="s">
+        <v>71</v>
+      </c>
+      <c r="H183" t="s">
+        <v>80</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>1</v>
+      </c>
+      <c r="K183">
+        <v>1</v>
+      </c>
+      <c r="L183">
+        <v>0</v>
+      </c>
+      <c r="M183">
+        <v>1</v>
+      </c>
+      <c r="N183">
+        <v>1</v>
+      </c>
+      <c r="O183" t="s">
+        <v>83</v>
+      </c>
+      <c r="P183" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q183">
+        <v>9</v>
+      </c>
+      <c r="R183">
+        <v>3</v>
+      </c>
+      <c r="S183">
+        <v>12</v>
+      </c>
+      <c r="T183">
+        <v>3.07</v>
+      </c>
+      <c r="U183">
+        <v>1.92</v>
+      </c>
+      <c r="V183">
+        <v>4.62</v>
+      </c>
+      <c r="W183">
+        <v>1.61</v>
+      </c>
+      <c r="X183">
+        <v>2.29</v>
+      </c>
+      <c r="Y183">
+        <v>3.6</v>
+      </c>
+      <c r="Z183">
+        <v>1.26</v>
+      </c>
+      <c r="AA183">
+        <v>9.4</v>
+      </c>
+      <c r="AB183">
+        <v>1.04</v>
+      </c>
+      <c r="AC183">
+        <v>2.03</v>
+      </c>
+      <c r="AD183">
+        <v>2.81</v>
+      </c>
+      <c r="AE183">
+        <v>3.7</v>
+      </c>
+      <c r="AF183">
+        <v>1.08</v>
+      </c>
+      <c r="AG183">
+        <v>5.95</v>
+      </c>
+      <c r="AH183">
+        <v>1.53</v>
+      </c>
+      <c r="AI183">
+        <v>2.3</v>
+      </c>
+      <c r="AJ183">
+        <v>2.58</v>
+      </c>
+      <c r="AK183">
+        <v>1.36</v>
+      </c>
+      <c r="AL183">
+        <v>2.24</v>
+      </c>
+      <c r="AM183">
+        <v>1.63</v>
+      </c>
+      <c r="AN183">
+        <v>1.25</v>
+      </c>
+      <c r="AO183">
+        <v>1.41</v>
+      </c>
+      <c r="AP183">
+        <v>1.67</v>
+      </c>
+      <c r="AQ183">
+        <v>1.89</v>
+      </c>
+      <c r="AR183">
+        <v>1.56</v>
+      </c>
+      <c r="AS183">
+        <v>1.7</v>
+      </c>
+      <c r="AT183">
+        <v>1.7</v>
+      </c>
+      <c r="AU183">
+        <v>1.63</v>
+      </c>
+      <c r="AV183">
+        <v>1.16</v>
+      </c>
+      <c r="AW183">
+        <v>2.79</v>
+      </c>
+      <c r="AX183">
+        <v>1.61</v>
+      </c>
+      <c r="AY183">
+        <v>7.7</v>
+      </c>
+      <c r="AZ183">
+        <v>2.82</v>
+      </c>
+      <c r="BA183">
+        <v>1.22</v>
+      </c>
+      <c r="BB183">
+        <v>1.43</v>
+      </c>
+      <c r="BC183">
+        <v>1.79</v>
+      </c>
+      <c r="BD183">
+        <v>2.28</v>
+      </c>
+      <c r="BE183">
+        <v>3.08</v>
+      </c>
+      <c r="BF183">
+        <v>8</v>
+      </c>
+      <c r="BG183">
+        <v>3</v>
+      </c>
+      <c r="BH183">
+        <v>8</v>
+      </c>
+      <c r="BI183">
+        <v>3</v>
+      </c>
+      <c r="BJ183">
+        <v>16</v>
+      </c>
+      <c r="BK183">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:63">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>4407811</v>
+      </c>
+      <c r="C184" t="s">
+        <v>63</v>
+      </c>
+      <c r="D184" t="s">
+        <v>64</v>
+      </c>
+      <c r="E184" s="2">
+        <v>44997.41666666666</v>
+      </c>
+      <c r="F184">
+        <v>21</v>
+      </c>
+      <c r="G184" t="s">
+        <v>65</v>
+      </c>
+      <c r="H184" t="s">
+        <v>79</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>1</v>
+      </c>
+      <c r="K184">
+        <v>1</v>
+      </c>
+      <c r="L184">
+        <v>1</v>
+      </c>
+      <c r="M184">
+        <v>2</v>
+      </c>
+      <c r="N184">
+        <v>3</v>
+      </c>
+      <c r="O184" t="s">
+        <v>189</v>
+      </c>
+      <c r="P184" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q184">
+        <v>3</v>
+      </c>
+      <c r="R184">
+        <v>2</v>
+      </c>
+      <c r="S184">
+        <v>5</v>
+      </c>
+      <c r="T184">
+        <v>4.23</v>
+      </c>
+      <c r="U184">
+        <v>2.1</v>
+      </c>
+      <c r="V184">
+        <v>2.87</v>
+      </c>
+      <c r="W184">
+        <v>1.47</v>
+      </c>
+      <c r="X184">
+        <v>2.57</v>
+      </c>
+      <c r="Y184">
+        <v>3.2</v>
+      </c>
+      <c r="Z184">
+        <v>1.32</v>
+      </c>
+      <c r="AA184">
+        <v>8.5</v>
+      </c>
+      <c r="AB184">
+        <v>1.05</v>
+      </c>
+      <c r="AC184">
+        <v>3.25</v>
+      </c>
+      <c r="AD184">
+        <v>3.15</v>
+      </c>
+      <c r="AE184">
+        <v>2.19</v>
+      </c>
+      <c r="AF184">
+        <v>1.04</v>
+      </c>
+      <c r="AG184">
+        <v>7.6</v>
+      </c>
+      <c r="AH184">
+        <v>1.36</v>
+      </c>
+      <c r="AI184">
+        <v>2.79</v>
+      </c>
+      <c r="AJ184">
+        <v>2.25</v>
+      </c>
+      <c r="AK184">
+        <v>1.57</v>
+      </c>
+      <c r="AL184">
+        <v>1.92</v>
+      </c>
+      <c r="AM184">
+        <v>1.85</v>
+      </c>
+      <c r="AN184">
+        <v>1.68</v>
+      </c>
+      <c r="AO184">
+        <v>1.36</v>
+      </c>
+      <c r="AP184">
+        <v>1.28</v>
+      </c>
+      <c r="AQ184">
+        <v>1.33</v>
+      </c>
+      <c r="AR184">
+        <v>2</v>
+      </c>
+      <c r="AS184">
+        <v>1.2</v>
+      </c>
+      <c r="AT184">
+        <v>2.1</v>
+      </c>
+      <c r="AU184">
+        <v>1.35</v>
+      </c>
+      <c r="AV184">
+        <v>1.33</v>
+      </c>
+      <c r="AW184">
+        <v>2.68</v>
+      </c>
+      <c r="AX184">
+        <v>2.41</v>
+      </c>
+      <c r="AY184">
+        <v>7.4</v>
+      </c>
+      <c r="AZ184">
+        <v>1.8</v>
+      </c>
+      <c r="BA184">
+        <v>1.29</v>
+      </c>
+      <c r="BB184">
+        <v>1.53</v>
+      </c>
+      <c r="BC184">
+        <v>1.96</v>
+      </c>
+      <c r="BD184">
+        <v>2.54</v>
+      </c>
+      <c r="BE184">
+        <v>3.56</v>
+      </c>
+      <c r="BF184">
+        <v>4</v>
+      </c>
+      <c r="BG184">
+        <v>4</v>
+      </c>
+      <c r="BH184">
+        <v>4</v>
+      </c>
+      <c r="BI184">
+        <v>3</v>
+      </c>
+      <c r="BJ184">
+        <v>8</v>
+      </c>
+      <c r="BK184">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:63">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>4407808</v>
+      </c>
+      <c r="C185" t="s">
+        <v>63</v>
+      </c>
+      <c r="D185" t="s">
+        <v>64</v>
+      </c>
+      <c r="E185" s="2">
+        <v>44997.58333333334</v>
+      </c>
+      <c r="F185">
+        <v>21</v>
+      </c>
+      <c r="G185" t="s">
+        <v>70</v>
+      </c>
+      <c r="H185" t="s">
+        <v>69</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>1</v>
+      </c>
+      <c r="K185">
+        <v>1</v>
+      </c>
+      <c r="L185">
+        <v>0</v>
+      </c>
+      <c r="M185">
+        <v>2</v>
+      </c>
+      <c r="N185">
+        <v>2</v>
+      </c>
+      <c r="O185" t="s">
+        <v>83</v>
+      </c>
+      <c r="P185" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q185">
+        <v>2</v>
+      </c>
+      <c r="R185">
+        <v>6</v>
+      </c>
+      <c r="S185">
+        <v>8</v>
+      </c>
+      <c r="T185">
+        <v>2</v>
+      </c>
+      <c r="U185">
+        <v>2.1</v>
+      </c>
+      <c r="V185">
+        <v>7.5</v>
+      </c>
+      <c r="W185">
+        <v>1.46</v>
+      </c>
+      <c r="X185">
+        <v>2.55</v>
+      </c>
+      <c r="Y185">
+        <v>3.15</v>
+      </c>
+      <c r="Z185">
+        <v>1.33</v>
+      </c>
+      <c r="AA185">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AB185">
+        <v>1.05</v>
+      </c>
+      <c r="AC185">
+        <v>1.41</v>
+      </c>
+      <c r="AD185">
+        <v>3.65</v>
+      </c>
+      <c r="AE185">
+        <v>6.55</v>
+      </c>
+      <c r="AF185">
+        <v>1.07</v>
+      </c>
+      <c r="AG185">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH185">
+        <v>1.38</v>
+      </c>
+      <c r="AI185">
+        <v>2.9</v>
+      </c>
+      <c r="AJ185">
+        <v>2.03</v>
+      </c>
+      <c r="AK185">
+        <v>1.55</v>
+      </c>
+      <c r="AL185">
+        <v>2.37</v>
+      </c>
+      <c r="AM185">
+        <v>1.52</v>
+      </c>
+      <c r="AN185">
+        <v>1.1</v>
+      </c>
+      <c r="AO185">
+        <v>1.21</v>
+      </c>
+      <c r="AP185">
+        <v>2.6</v>
+      </c>
+      <c r="AQ185">
+        <v>2.13</v>
+      </c>
+      <c r="AR185">
+        <v>1.2</v>
+      </c>
+      <c r="AS185">
+        <v>1.89</v>
+      </c>
+      <c r="AT185">
+        <v>1.36</v>
+      </c>
+      <c r="AU185">
+        <v>1.47</v>
+      </c>
+      <c r="AV185">
+        <v>1.15</v>
+      </c>
+      <c r="AW185">
+        <v>2.62</v>
+      </c>
+      <c r="AX185">
+        <v>1.32</v>
+      </c>
+      <c r="AY185">
+        <v>10.75</v>
+      </c>
+      <c r="AZ185">
+        <v>3.92</v>
+      </c>
+      <c r="BA185">
+        <v>1.21</v>
+      </c>
+      <c r="BB185">
+        <v>1.4</v>
+      </c>
+      <c r="BC185">
+        <v>1.72</v>
+      </c>
+      <c r="BD185">
+        <v>2.2</v>
+      </c>
+      <c r="BE185">
+        <v>3</v>
+      </c>
+      <c r="BF185">
+        <v>5</v>
+      </c>
+      <c r="BG185">
+        <v>4</v>
+      </c>
+      <c r="BH185">
+        <v>10</v>
+      </c>
+      <c r="BI185">
+        <v>5</v>
+      </c>
+      <c r="BJ185">
+        <v>15</v>
+      </c>
+      <c r="BK185">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="268">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -584,6 +584,9 @@
   </si>
   <si>
     <t>['79']</t>
+  </si>
+  <si>
+    <t>['20', '81']</t>
   </si>
   <si>
     <t>['85']</t>
@@ -1176,7 +1179,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK185"/>
+  <dimension ref="A1:BK186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1420,7 +1423,7 @@
         <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1698,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT3">
         <v>1.1</v>
@@ -1802,7 +1805,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q4">
         <v>9</v>
@@ -1993,7 +1996,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q5">
         <v>9</v>
@@ -2184,7 +2187,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -2274,7 +2277,7 @@
         <v>0.5</v>
       </c>
       <c r="AT6">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2566,7 +2569,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2757,7 +2760,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -3330,7 +3333,7 @@
         <v>83</v>
       </c>
       <c r="P12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q12">
         <v>5</v>
@@ -3712,7 +3715,7 @@
         <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -5813,7 +5816,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5900,7 +5903,7 @@
         <v>3</v>
       </c>
       <c r="AS25">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT25">
         <v>1.13</v>
@@ -6004,7 +6007,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6577,7 +6580,7 @@
         <v>99</v>
       </c>
       <c r="P29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -7049,7 +7052,7 @@
         <v>1.11</v>
       </c>
       <c r="AT31">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU31">
         <v>0.76</v>
@@ -7150,7 +7153,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7237,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT32">
         <v>1.36</v>
@@ -7341,7 +7344,7 @@
         <v>83</v>
       </c>
       <c r="P33" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7532,7 +7535,7 @@
         <v>83</v>
       </c>
       <c r="P34" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7914,7 +7917,7 @@
         <v>103</v>
       </c>
       <c r="P36" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8105,7 +8108,7 @@
         <v>104</v>
       </c>
       <c r="P37" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -9060,7 +9063,7 @@
         <v>107</v>
       </c>
       <c r="P42" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9251,7 +9254,7 @@
         <v>83</v>
       </c>
       <c r="P43" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9442,7 +9445,7 @@
         <v>83</v>
       </c>
       <c r="P44" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9824,7 +9827,7 @@
         <v>107</v>
       </c>
       <c r="P46" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q46">
         <v>12</v>
@@ -10397,7 +10400,7 @@
         <v>110</v>
       </c>
       <c r="P49" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10779,7 +10782,7 @@
         <v>111</v>
       </c>
       <c r="P51" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -11060,7 +11063,7 @@
         <v>1.89</v>
       </c>
       <c r="AT52">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU52">
         <v>1.24</v>
@@ -11161,7 +11164,7 @@
         <v>113</v>
       </c>
       <c r="P53" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q53">
         <v>7</v>
@@ -11734,7 +11737,7 @@
         <v>115</v>
       </c>
       <c r="P56" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -11925,7 +11928,7 @@
         <v>116</v>
       </c>
       <c r="P57" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -12498,7 +12501,7 @@
         <v>118</v>
       </c>
       <c r="P60" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12689,7 +12692,7 @@
         <v>119</v>
       </c>
       <c r="P61" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q61">
         <v>1</v>
@@ -12779,7 +12782,7 @@
         <v>0.7</v>
       </c>
       <c r="AT61">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU61">
         <v>1.21</v>
@@ -13158,7 +13161,7 @@
         <v>2.33</v>
       </c>
       <c r="AS63">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT63">
         <v>1.45</v>
@@ -13835,7 +13838,7 @@
         <v>83</v>
       </c>
       <c r="P67" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -14026,7 +14029,7 @@
         <v>121</v>
       </c>
       <c r="P68" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14217,7 +14220,7 @@
         <v>122</v>
       </c>
       <c r="P69" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q69">
         <v>8</v>
@@ -14599,7 +14602,7 @@
         <v>124</v>
       </c>
       <c r="P71" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -14981,7 +14984,7 @@
         <v>126</v>
       </c>
       <c r="P73" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q73">
         <v>4</v>
@@ -15363,7 +15366,7 @@
         <v>128</v>
       </c>
       <c r="P75" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q75">
         <v>4</v>
@@ -15453,7 +15456,7 @@
         <v>0.82</v>
       </c>
       <c r="AT75">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU75">
         <v>0.92</v>
@@ -15936,7 +15939,7 @@
         <v>130</v>
       </c>
       <c r="P78" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -16318,7 +16321,7 @@
         <v>83</v>
       </c>
       <c r="P80" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -17273,7 +17276,7 @@
         <v>121</v>
       </c>
       <c r="P85" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -17464,7 +17467,7 @@
         <v>132</v>
       </c>
       <c r="P86" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17655,7 +17658,7 @@
         <v>133</v>
       </c>
       <c r="P87" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -17846,7 +17849,7 @@
         <v>134</v>
       </c>
       <c r="P88" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q88">
         <v>13</v>
@@ -18037,7 +18040,7 @@
         <v>135</v>
       </c>
       <c r="P89" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -18419,7 +18422,7 @@
         <v>136</v>
       </c>
       <c r="P91" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q91">
         <v>1</v>
@@ -18506,7 +18509,7 @@
         <v>0.75</v>
       </c>
       <c r="AS91">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT91">
         <v>1.36</v>
@@ -18610,7 +18613,7 @@
         <v>137</v>
       </c>
       <c r="P92" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -18801,7 +18804,7 @@
         <v>83</v>
       </c>
       <c r="P93" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q93">
         <v>4</v>
@@ -18992,7 +18995,7 @@
         <v>97</v>
       </c>
       <c r="P94" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -19273,7 +19276,7 @@
         <v>2.2</v>
       </c>
       <c r="AT95">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU95">
         <v>1.53</v>
@@ -19374,7 +19377,7 @@
         <v>83</v>
       </c>
       <c r="P96" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19565,7 +19568,7 @@
         <v>139</v>
       </c>
       <c r="P97" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -20329,7 +20332,7 @@
         <v>83</v>
       </c>
       <c r="P101" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q101">
         <v>5</v>
@@ -20902,7 +20905,7 @@
         <v>143</v>
       </c>
       <c r="P104" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -21093,7 +21096,7 @@
         <v>144</v>
       </c>
       <c r="P105" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -21562,7 +21565,7 @@
         <v>1</v>
       </c>
       <c r="AS107">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT107">
         <v>1.18</v>
@@ -21666,7 +21669,7 @@
         <v>83</v>
       </c>
       <c r="P108" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -21857,7 +21860,7 @@
         <v>146</v>
       </c>
       <c r="P109" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q109">
         <v>10</v>
@@ -22048,7 +22051,7 @@
         <v>147</v>
       </c>
       <c r="P110" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q110">
         <v>1</v>
@@ -22520,7 +22523,7 @@
         <v>1.91</v>
       </c>
       <c r="AT112">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU112">
         <v>1.25</v>
@@ -23576,7 +23579,7 @@
         <v>153</v>
       </c>
       <c r="P118" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -24149,7 +24152,7 @@
         <v>154</v>
       </c>
       <c r="P121" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q121">
         <v>3</v>
@@ -24531,7 +24534,7 @@
         <v>155</v>
       </c>
       <c r="P123" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -24618,7 +24621,7 @@
         <v>1</v>
       </c>
       <c r="AS123">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT123">
         <v>1.6</v>
@@ -24913,7 +24916,7 @@
         <v>157</v>
       </c>
       <c r="P125" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -25104,7 +25107,7 @@
         <v>83</v>
       </c>
       <c r="P126" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q126">
         <v>7</v>
@@ -25295,7 +25298,7 @@
         <v>83</v>
       </c>
       <c r="P127" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q127">
         <v>7</v>
@@ -25486,7 +25489,7 @@
         <v>158</v>
       </c>
       <c r="P128" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -26441,7 +26444,7 @@
         <v>157</v>
       </c>
       <c r="P133" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -26632,7 +26635,7 @@
         <v>159</v>
       </c>
       <c r="P134" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -26823,7 +26826,7 @@
         <v>160</v>
       </c>
       <c r="P135" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q135">
         <v>4</v>
@@ -26913,7 +26916,7 @@
         <v>0.91</v>
       </c>
       <c r="AT135">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU135">
         <v>1.31</v>
@@ -27205,7 +27208,7 @@
         <v>161</v>
       </c>
       <c r="P137" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q137">
         <v>2</v>
@@ -27396,7 +27399,7 @@
         <v>162</v>
       </c>
       <c r="P138" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q138">
         <v>7</v>
@@ -27778,7 +27781,7 @@
         <v>163</v>
       </c>
       <c r="P140" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q140">
         <v>10</v>
@@ -27969,7 +27972,7 @@
         <v>83</v>
       </c>
       <c r="P141" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q141">
         <v>9</v>
@@ -28160,7 +28163,7 @@
         <v>164</v>
       </c>
       <c r="P142" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -28351,7 +28354,7 @@
         <v>165</v>
       </c>
       <c r="P143" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q143">
         <v>2</v>
@@ -28542,7 +28545,7 @@
         <v>166</v>
       </c>
       <c r="P144" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q144">
         <v>1</v>
@@ -28629,7 +28632,7 @@
         <v>1.29</v>
       </c>
       <c r="AS144">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT144">
         <v>1.1</v>
@@ -28733,7 +28736,7 @@
         <v>167</v>
       </c>
       <c r="P145" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q145">
         <v>11</v>
@@ -28924,7 +28927,7 @@
         <v>168</v>
       </c>
       <c r="P146" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q146">
         <v>8</v>
@@ -29306,7 +29309,7 @@
         <v>169</v>
       </c>
       <c r="P148" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -29879,7 +29882,7 @@
         <v>83</v>
       </c>
       <c r="P151" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -29969,7 +29972,7 @@
         <v>1.1</v>
       </c>
       <c r="AT151">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU151">
         <v>1.26</v>
@@ -30452,7 +30455,7 @@
         <v>83</v>
       </c>
       <c r="P154" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q154">
         <v>6</v>
@@ -31216,7 +31219,7 @@
         <v>175</v>
       </c>
       <c r="P158" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q158">
         <v>8</v>
@@ -31789,7 +31792,7 @@
         <v>177</v>
       </c>
       <c r="P161" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q161">
         <v>2</v>
@@ -31876,7 +31879,7 @@
         <v>1.63</v>
       </c>
       <c r="AS161">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT161">
         <v>1.7</v>
@@ -31980,7 +31983,7 @@
         <v>178</v>
       </c>
       <c r="P162" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -32362,7 +32365,7 @@
         <v>83</v>
       </c>
       <c r="P164" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q164">
         <v>1</v>
@@ -33216,7 +33219,7 @@
         <v>1.3</v>
       </c>
       <c r="AT168">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU168">
         <v>1.74</v>
@@ -33508,7 +33511,7 @@
         <v>181</v>
       </c>
       <c r="P170" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q170">
         <v>5</v>
@@ -33699,7 +33702,7 @@
         <v>182</v>
       </c>
       <c r="P171" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q171">
         <v>7</v>
@@ -33890,7 +33893,7 @@
         <v>171</v>
       </c>
       <c r="P172" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q172">
         <v>6</v>
@@ -35227,7 +35230,7 @@
         <v>186</v>
       </c>
       <c r="P179" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q179">
         <v>3</v>
@@ -35991,7 +35994,7 @@
         <v>83</v>
       </c>
       <c r="P183" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q183">
         <v>9</v>
@@ -36182,7 +36185,7 @@
         <v>189</v>
       </c>
       <c r="P184" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q184">
         <v>3</v>
@@ -36373,7 +36376,7 @@
         <v>83</v>
       </c>
       <c r="P185" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q185">
         <v>2</v>
@@ -36515,6 +36518,197 @@
       </c>
       <c r="BK185">
         <v>9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:63">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>4407810</v>
+      </c>
+      <c r="C186" t="s">
+        <v>63</v>
+      </c>
+      <c r="D186" t="s">
+        <v>64</v>
+      </c>
+      <c r="E186" s="2">
+        <v>44998.54166666666</v>
+      </c>
+      <c r="F186">
+        <v>21</v>
+      </c>
+      <c r="G186" t="s">
+        <v>66</v>
+      </c>
+      <c r="H186" t="s">
+        <v>74</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>1</v>
+      </c>
+      <c r="L186">
+        <v>2</v>
+      </c>
+      <c r="M186">
+        <v>1</v>
+      </c>
+      <c r="N186">
+        <v>3</v>
+      </c>
+      <c r="O186" t="s">
+        <v>190</v>
+      </c>
+      <c r="P186" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q186">
+        <v>8</v>
+      </c>
+      <c r="R186">
+        <v>7</v>
+      </c>
+      <c r="S186">
+        <v>15</v>
+      </c>
+      <c r="T186">
+        <v>4.5</v>
+      </c>
+      <c r="U186">
+        <v>2</v>
+      </c>
+      <c r="V186">
+        <v>2.6</v>
+      </c>
+      <c r="W186">
+        <v>1.5</v>
+      </c>
+      <c r="X186">
+        <v>2.37</v>
+      </c>
+      <c r="Y186">
+        <v>3.25</v>
+      </c>
+      <c r="Z186">
+        <v>1.29</v>
+      </c>
+      <c r="AA186">
+        <v>9</v>
+      </c>
+      <c r="AB186">
+        <v>1.06</v>
+      </c>
+      <c r="AC186">
+        <v>4</v>
+      </c>
+      <c r="AD186">
+        <v>3.3</v>
+      </c>
+      <c r="AE186">
+        <v>1.9</v>
+      </c>
+      <c r="AF186">
+        <v>1.09</v>
+      </c>
+      <c r="AG186">
+        <v>6.75</v>
+      </c>
+      <c r="AH186">
+        <v>1.38</v>
+      </c>
+      <c r="AI186">
+        <v>2.84</v>
+      </c>
+      <c r="AJ186">
+        <v>2.2</v>
+      </c>
+      <c r="AK186">
+        <v>1.62</v>
+      </c>
+      <c r="AL186">
+        <v>2.05</v>
+      </c>
+      <c r="AM186">
+        <v>1.68</v>
+      </c>
+      <c r="AN186">
+        <v>1.85</v>
+      </c>
+      <c r="AO186">
+        <v>1.33</v>
+      </c>
+      <c r="AP186">
+        <v>1.21</v>
+      </c>
+      <c r="AQ186">
+        <v>1.11</v>
+      </c>
+      <c r="AR186">
+        <v>1.5</v>
+      </c>
+      <c r="AS186">
+        <v>1.3</v>
+      </c>
+      <c r="AT186">
+        <v>1.36</v>
+      </c>
+      <c r="AU186">
+        <v>1.39</v>
+      </c>
+      <c r="AV186">
+        <v>1.51</v>
+      </c>
+      <c r="AW186">
+        <v>2.9</v>
+      </c>
+      <c r="AX186">
+        <v>2.93</v>
+      </c>
+      <c r="AY186">
+        <v>7.1</v>
+      </c>
+      <c r="AZ186">
+        <v>1.62</v>
+      </c>
+      <c r="BA186">
+        <v>1.36</v>
+      </c>
+      <c r="BB186">
+        <v>1.62</v>
+      </c>
+      <c r="BC186">
+        <v>2.03</v>
+      </c>
+      <c r="BD186">
+        <v>2.65</v>
+      </c>
+      <c r="BE186">
+        <v>3.6</v>
+      </c>
+      <c r="BF186">
+        <v>5</v>
+      </c>
+      <c r="BG186">
+        <v>3</v>
+      </c>
+      <c r="BH186">
+        <v>2</v>
+      </c>
+      <c r="BI186">
+        <v>5</v>
+      </c>
+      <c r="BJ186">
+        <v>7</v>
+      </c>
+      <c r="BK186">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK186"/>
+  <dimension ref="A1:BK193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.2</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>1.3</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AT5" t="n">
         <v>2.75</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AT6" t="n">
         <v>1.36</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT9" t="n">
         <v>2.1</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT12" t="n">
         <v>1.45</v>
@@ -3136,7 +3136,7 @@
         <v>2.2</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>1.91</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>1.1</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT19" t="n">
         <v>0.55</v>
@@ -4760,7 +4760,7 @@
         <v>1.3</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU21" t="n">
         <v>1.98</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT24" t="n">
         <v>1.7</v>
@@ -5572,7 +5572,7 @@
         <v>1.3</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU25" t="n">
         <v>1.34</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AT27" t="n">
         <v>1.45</v>
@@ -6181,7 +6181,7 @@
         <v>2.4</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU28" t="n">
         <v>0.8</v>
@@ -6384,7 +6384,7 @@
         <v>1.91</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU29" t="n">
         <v>1.91</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU30" t="n">
         <v>1.45</v>
@@ -6787,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT31" t="n">
         <v>1.36</v>
@@ -6993,7 +6993,7 @@
         <v>1.3</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU32" t="n">
         <v>1.48</v>
@@ -8008,7 +8008,7 @@
         <v>1.7</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU37" t="n">
         <v>1.66</v>
@@ -8208,7 +8208,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AT38" t="n">
         <v>1.7</v>
@@ -8617,7 +8617,7 @@
         <v>1.3</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU40" t="n">
         <v>1.74</v>
@@ -8820,7 +8820,7 @@
         <v>2.4</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU41" t="n">
         <v>1.38</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT42" t="n">
         <v>1.1</v>
@@ -9223,7 +9223,7 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT43" t="n">
         <v>2.75</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AT45" t="n">
         <v>0.55</v>
@@ -9832,10 +9832,10 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU46" t="n">
         <v>0.89</v>
@@ -10038,7 +10038,7 @@
         <v>1.91</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU47" t="n">
         <v>1.74</v>
@@ -10238,10 +10238,10 @@
         <v>0.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU48" t="n">
         <v>1.59</v>
@@ -10441,7 +10441,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT49" t="n">
         <v>1.1</v>
@@ -10644,10 +10644,10 @@
         <v>0.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU50" t="n">
         <v>1.39</v>
@@ -11253,7 +11253,7 @@
         <v>0.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT53" t="n">
         <v>0.55</v>
@@ -11456,7 +11456,7 @@
         <v>3</v>
       </c>
       <c r="AS54" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AT54" t="n">
         <v>2.1</v>
@@ -11662,7 +11662,7 @@
         <v>2.2</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU55" t="n">
         <v>1.45</v>
@@ -11862,7 +11862,7 @@
         <v>0.33</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT56" t="n">
         <v>0.55</v>
@@ -12065,10 +12065,10 @@
         <v>1</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU57" t="n">
         <v>1.79</v>
@@ -12677,7 +12677,7 @@
         <v>1.7</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU60" t="n">
         <v>1.59</v>
@@ -12877,7 +12877,7 @@
         <v>1.33</v>
       </c>
       <c r="AS61" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AT61" t="n">
         <v>1.36</v>
@@ -13080,7 +13080,7 @@
         <v>0.67</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT62" t="n">
         <v>1.36</v>
@@ -13689,7 +13689,7 @@
         <v>0.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT65" t="n">
         <v>1.1</v>
@@ -14095,10 +14095,10 @@
         <v>1</v>
       </c>
       <c r="AS67" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU67" t="n">
         <v>1.23</v>
@@ -14301,7 +14301,7 @@
         <v>2.4</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU68" t="n">
         <v>1.51</v>
@@ -14501,10 +14501,10 @@
         <v>0.67</v>
       </c>
       <c r="AS69" t="n">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU69" t="n">
         <v>0.89</v>
@@ -14707,7 +14707,7 @@
         <v>1.1</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU70" t="n">
         <v>1.17</v>
@@ -14907,7 +14907,7 @@
         <v>3</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT71" t="n">
         <v>2.75</v>
@@ -15316,7 +15316,7 @@
         <v>1.3</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU73" t="n">
         <v>1.74</v>
@@ -15519,7 +15519,7 @@
         <v>2</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU74" t="n">
         <v>2</v>
@@ -15925,7 +15925,7 @@
         <v>1.2</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU76" t="n">
         <v>1.36</v>
@@ -16125,7 +16125,7 @@
         <v>0.5</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT77" t="n">
         <v>1.1</v>
@@ -16328,10 +16328,10 @@
         <v>0.5</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU78" t="n">
         <v>0.93</v>
@@ -16734,7 +16734,7 @@
         <v>0.75</v>
       </c>
       <c r="AS80" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AT80" t="n">
         <v>1.36</v>
@@ -17346,7 +17346,7 @@
         <v>2.4</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU83" t="n">
         <v>1.61</v>
@@ -17546,7 +17546,7 @@
         <v>0.5</v>
       </c>
       <c r="AS84" t="n">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AT84" t="n">
         <v>1.1</v>
@@ -17952,7 +17952,7 @@
         <v>2</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT86" t="n">
         <v>2.1</v>
@@ -18155,7 +18155,7 @@
         <v>3</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT87" t="n">
         <v>2.75</v>
@@ -18361,7 +18361,7 @@
         <v>1.3</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU88" t="n">
         <v>1.73</v>
@@ -18564,7 +18564,7 @@
         <v>1.89</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU89" t="n">
         <v>1.33</v>
@@ -18764,7 +18764,7 @@
         <v>1.75</v>
       </c>
       <c r="AS90" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT90" t="n">
         <v>1.1</v>
@@ -18970,7 +18970,7 @@
         <v>1.3</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU91" t="n">
         <v>1.72</v>
@@ -19579,7 +19579,7 @@
         <v>2</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU94" t="n">
         <v>1.76</v>
@@ -19982,10 +19982,10 @@
         <v>0.75</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU96" t="n">
         <v>1.5</v>
@@ -20388,10 +20388,10 @@
         <v>0.4</v>
       </c>
       <c r="AS98" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU98" t="n">
         <v>1.18</v>
@@ -20794,7 +20794,7 @@
         <v>0.4</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT100" t="n">
         <v>0.55</v>
@@ -20997,7 +20997,7 @@
         <v>2.6</v>
       </c>
       <c r="AS101" t="n">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AT101" t="n">
         <v>2.75</v>
@@ -21609,7 +21609,7 @@
         <v>1.3</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU104" t="n">
         <v>1.64</v>
@@ -21809,7 +21809,7 @@
         <v>2.2</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT105" t="n">
         <v>2.1</v>
@@ -22012,10 +22012,10 @@
         <v>1</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU106" t="n">
         <v>0.95</v>
@@ -22218,7 +22218,7 @@
         <v>1.3</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU107" t="n">
         <v>1.66</v>
@@ -22418,7 +22418,7 @@
         <v>0.6</v>
       </c>
       <c r="AS108" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT108" t="n">
         <v>1.1</v>
@@ -22624,7 +22624,7 @@
         <v>1.1</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU109" t="n">
         <v>1.21</v>
@@ -22827,7 +22827,7 @@
         <v>0.82</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU110" t="n">
         <v>0.93</v>
@@ -23027,7 +23027,7 @@
         <v>0.5</v>
       </c>
       <c r="AS111" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT111" t="n">
         <v>0.55</v>
@@ -23636,10 +23636,10 @@
         <v>1</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU114" t="n">
         <v>1.48</v>
@@ -24245,10 +24245,10 @@
         <v>1.2</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU117" t="n">
         <v>1.09</v>
@@ -24448,10 +24448,10 @@
         <v>1</v>
       </c>
       <c r="AS118" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU118" t="n">
         <v>1.22</v>
@@ -24651,7 +24651,7 @@
         <v>0.67</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT119" t="n">
         <v>1.1</v>
@@ -24857,7 +24857,7 @@
         <v>1.1</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU120" t="n">
         <v>1.29</v>
@@ -25057,7 +25057,7 @@
         <v>2.33</v>
       </c>
       <c r="AS121" t="n">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AT121" t="n">
         <v>2.1</v>
@@ -25263,7 +25263,7 @@
         <v>1.7</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU122" t="n">
         <v>1.73</v>
@@ -25466,7 +25466,7 @@
         <v>1.3</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU123" t="n">
         <v>1.59</v>
@@ -26072,7 +26072,7 @@
         <v>1.17</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT126" t="n">
         <v>1.7</v>
@@ -26481,7 +26481,7 @@
         <v>0.82</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU128" t="n">
         <v>0.98</v>
@@ -26681,10 +26681,10 @@
         <v>0.86</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU129" t="n">
         <v>1.05</v>
@@ -26887,7 +26887,7 @@
         <v>1.2</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU130" t="n">
         <v>1.41</v>
@@ -27290,7 +27290,7 @@
         <v>0.43</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT132" t="n">
         <v>0.55</v>
@@ -27696,7 +27696,7 @@
         <v>1.71</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT134" t="n">
         <v>1.45</v>
@@ -27899,7 +27899,7 @@
         <v>1.14</v>
       </c>
       <c r="AS135" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT135" t="n">
         <v>1.36</v>
@@ -28105,7 +28105,7 @@
         <v>2.2</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU136" t="n">
         <v>1.54</v>
@@ -28508,7 +28508,7 @@
         <v>1</v>
       </c>
       <c r="AS138" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AT138" t="n">
         <v>1.1</v>
@@ -28714,7 +28714,7 @@
         <v>1.7</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU139" t="n">
         <v>1.64</v>
@@ -29117,7 +29117,7 @@
         <v>1.43</v>
       </c>
       <c r="AS141" t="n">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AT141" t="n">
         <v>1.7</v>
@@ -29323,7 +29323,7 @@
         <v>2.4</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU142" t="n">
         <v>1.83</v>
@@ -29788,7 +29788,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>4407767</v>
+        <v>4407768</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -29808,22 +29808,22 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>El Daklyeh FC</t>
+          <t>Ghazl El Mehalla</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aswan FC</t>
+          <t>Haras El Hodood</t>
         </is>
       </c>
       <c r="I145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="n">
         <v>2</v>
       </c>
       <c r="K145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L145" t="n">
         <v>1</v>
@@ -29836,154 +29836,154 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>['28']</t>
+          <t>['90+4']</t>
         </is>
       </c>
       <c r="P145" t="inlineStr">
         <is>
-          <t>['1', '40']</t>
+          <t>['15', '44']</t>
         </is>
       </c>
       <c r="Q145" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="R145" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S145" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="T145" t="n">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="U145" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="V145" t="n">
-        <v>3.55</v>
+        <v>5.5</v>
       </c>
       <c r="W145" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="X145" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y145" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Z145" t="n">
         <v>1.25</v>
       </c>
       <c r="AA145" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="AB145" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AC145" t="n">
-        <v>2.64</v>
+        <v>2.01</v>
       </c>
       <c r="AD145" t="n">
-        <v>2.73</v>
+        <v>2.78</v>
       </c>
       <c r="AE145" t="n">
-        <v>2.71</v>
+        <v>3.86</v>
       </c>
       <c r="AF145" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="AG145" t="n">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="AH145" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="AI145" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AJ145" t="n">
-        <v>2.29</v>
+        <v>2.34</v>
       </c>
       <c r="AK145" t="n">
-        <v>1.55</v>
+        <v>1.41</v>
       </c>
       <c r="AL145" t="n">
-        <v>1.95</v>
+        <v>2.38</v>
       </c>
       <c r="AM145" t="n">
-        <v>1.79</v>
+        <v>1.53</v>
       </c>
       <c r="AN145" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AO145" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AQ145" t="n">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="AR145" t="n">
-        <v>0.88</v>
+        <v>0.38</v>
       </c>
       <c r="AS145" t="n">
-        <v>0.82</v>
+        <v>1.58</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.18</v>
+        <v>0.55</v>
       </c>
       <c r="AU145" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.38</v>
       </c>
       <c r="AV145" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AW145" t="n">
-        <v>2.05</v>
+        <v>2.58</v>
       </c>
       <c r="AX145" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="AY145" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="AZ145" t="n">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="BA145" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="BB145" t="n">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="BC145" t="n">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="BD145" t="n">
-        <v>2.51</v>
+        <v>0</v>
       </c>
       <c r="BE145" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="BF145" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BG145" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BH145" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BI145" t="n">
         <v>4</v>
       </c>
       <c r="BJ145" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="BK145" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="146">
@@ -29991,7 +29991,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>4407768</v>
+        <v>4407767</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -30011,22 +30011,22 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Ghazl El Mehalla</t>
+          <t>El Daklyeh FC</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Haras El Hodood</t>
+          <t>Aswan FC</t>
         </is>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="n">
         <v>2</v>
       </c>
       <c r="K146" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L146" t="n">
         <v>1</v>
@@ -30039,154 +30039,154 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>['90+4']</t>
+          <t>['28']</t>
         </is>
       </c>
       <c r="P146" t="inlineStr">
         <is>
-          <t>['15', '44']</t>
+          <t>['1', '40']</t>
         </is>
       </c>
       <c r="Q146" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="R146" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S146" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="T146" t="n">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="U146" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="V146" t="n">
-        <v>5.5</v>
+        <v>3.55</v>
       </c>
       <c r="W146" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="X146" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Y146" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Z146" t="n">
         <v>1.25</v>
       </c>
       <c r="AA146" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AB146" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AC146" t="n">
-        <v>2.01</v>
+        <v>2.64</v>
       </c>
       <c r="AD146" t="n">
-        <v>2.78</v>
+        <v>2.73</v>
       </c>
       <c r="AE146" t="n">
-        <v>3.86</v>
+        <v>2.71</v>
       </c>
       <c r="AF146" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AG146" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AH146" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="AI146" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AJ146" t="n">
-        <v>2.34</v>
+        <v>2.29</v>
       </c>
       <c r="AK146" t="n">
-        <v>1.41</v>
+        <v>1.55</v>
       </c>
       <c r="AL146" t="n">
-        <v>2.38</v>
+        <v>1.95</v>
       </c>
       <c r="AM146" t="n">
-        <v>1.53</v>
+        <v>1.79</v>
       </c>
       <c r="AN146" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AO146" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AP146" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AQ146" t="n">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="AR146" t="n">
-        <v>0.38</v>
+        <v>0.88</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.45</v>
+        <v>0.82</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.55</v>
+        <v>1.17</v>
       </c>
       <c r="AU146" t="n">
-        <v>1.38</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AV146" t="n">
-        <v>1.2</v>
+        <v>1.11</v>
       </c>
       <c r="AW146" t="n">
-        <v>2.58</v>
+        <v>2.05</v>
       </c>
       <c r="AX146" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AY146" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AZ146" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="BA146" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="BB146" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="BC146" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="BD146" t="n">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="BE146" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="BF146" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BG146" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BH146" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BI146" t="n">
         <v>4</v>
       </c>
       <c r="BJ146" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="BK146" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="147">
@@ -30194,7 +30194,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="n">
-        <v>4407770</v>
+        <v>4407769</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -30214,12 +30214,12 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>ENPPI</t>
+          <t>Ismaily SC</t>
         </is>
       </c>
       <c r="I147" t="n">
@@ -30232,164 +30232,164 @@
         <v>1</v>
       </c>
       <c r="L147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
       <c r="N147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['76']</t>
         </is>
       </c>
       <c r="P147" t="inlineStr">
         <is>
-          <t>['2']</t>
+          <t>['1']</t>
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S147" t="n">
         <v>4</v>
       </c>
       <c r="T147" t="n">
-        <v>2.57</v>
+        <v>2.75</v>
       </c>
       <c r="U147" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="V147" t="n">
-        <v>5.45</v>
+        <v>4.8</v>
       </c>
       <c r="W147" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="X147" t="n">
-        <v>2.36</v>
+        <v>2.35</v>
       </c>
       <c r="Y147" t="n">
-        <v>3.15</v>
+        <v>3.7</v>
       </c>
       <c r="Z147" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AA147" t="n">
-        <v>8.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AB147" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AC147" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="AD147" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="AE147" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="AF147" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AG147" t="n">
-        <v>6.45</v>
+        <v>6.4</v>
       </c>
       <c r="AH147" t="n">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="AI147" t="n">
-        <v>2.79</v>
+        <v>2.6</v>
       </c>
       <c r="AJ147" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AK147" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AL147" t="n">
-        <v>1.96</v>
+        <v>2.12</v>
       </c>
       <c r="AM147" t="n">
-        <v>1.75</v>
+        <v>1.66</v>
       </c>
       <c r="AN147" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="AO147" t="n">
         <v>1.36</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.89</v>
+        <v>1.74</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.11</v>
+        <v>2</v>
       </c>
       <c r="AR147" t="n">
-        <v>1.13</v>
+        <v>0.88</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.36</v>
+        <v>1.09</v>
       </c>
       <c r="AU147" t="n">
-        <v>1.52</v>
+        <v>1.63</v>
       </c>
       <c r="AV147" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="AW147" t="n">
-        <v>2.77</v>
+        <v>3.03</v>
       </c>
       <c r="AX147" t="n">
-        <v>1.41</v>
+        <v>1.62</v>
       </c>
       <c r="AY147" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ147" t="n">
-        <v>3.56</v>
+        <v>2.82</v>
       </c>
       <c r="BA147" t="n">
         <v>1.25</v>
       </c>
       <c r="BB147" t="n">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="BC147" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="BD147" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="BE147" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BF147" t="n">
         <v>3</v>
       </c>
-      <c r="BF147" t="n">
-        <v>5</v>
-      </c>
       <c r="BG147" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BH147" t="n">
         <v>10</v>
       </c>
       <c r="BI147" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BJ147" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BK147" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148">
@@ -30397,7 +30397,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="n">
-        <v>4407769</v>
+        <v>4407770</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -30417,12 +30417,12 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Ismaily SC</t>
+          <t>ENPPI</t>
         </is>
       </c>
       <c r="I148" t="n">
@@ -30435,164 +30435,164 @@
         <v>1</v>
       </c>
       <c r="L148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
       <c r="N148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>['76']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P148" t="inlineStr">
         <is>
-          <t>['1']</t>
+          <t>['2']</t>
         </is>
       </c>
       <c r="Q148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S148" t="n">
         <v>4</v>
       </c>
       <c r="T148" t="n">
-        <v>2.75</v>
+        <v>2.57</v>
       </c>
       <c r="U148" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="V148" t="n">
-        <v>4.8</v>
+        <v>5.45</v>
       </c>
       <c r="W148" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="X148" t="n">
-        <v>2.35</v>
+        <v>2.36</v>
       </c>
       <c r="Y148" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC148" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD148" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE148" t="n">
         <v>3.7</v>
       </c>
-      <c r="Z148" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AA148" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AB148" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AC148" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AD148" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AE148" t="n">
-        <v>3</v>
-      </c>
       <c r="AF148" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AG148" t="n">
-        <v>6.4</v>
+        <v>6.45</v>
       </c>
       <c r="AH148" t="n">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="AI148" t="n">
-        <v>2.6</v>
+        <v>2.79</v>
       </c>
       <c r="AJ148" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="AK148" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AL148" t="n">
-        <v>2.12</v>
+        <v>1.96</v>
       </c>
       <c r="AM148" t="n">
-        <v>1.66</v>
+        <v>1.75</v>
       </c>
       <c r="AN148" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AO148" t="n">
         <v>1.36</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.74</v>
+        <v>1.89</v>
       </c>
       <c r="AQ148" t="n">
-        <v>2</v>
+        <v>1.11</v>
       </c>
       <c r="AR148" t="n">
-        <v>0.88</v>
+        <v>1.13</v>
       </c>
       <c r="AS148" t="n">
-        <v>2</v>
+        <v>1.31</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="AU148" t="n">
-        <v>1.63</v>
+        <v>1.52</v>
       </c>
       <c r="AV148" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="AW148" t="n">
-        <v>3.03</v>
+        <v>2.77</v>
       </c>
       <c r="AX148" t="n">
-        <v>1.62</v>
+        <v>1.41</v>
       </c>
       <c r="AY148" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ148" t="n">
-        <v>2.82</v>
+        <v>3.56</v>
       </c>
       <c r="BA148" t="n">
         <v>1.25</v>
       </c>
       <c r="BB148" t="n">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
       <c r="BC148" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="BD148" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="BE148" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="BF148" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BG148" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BH148" t="n">
         <v>10</v>
       </c>
       <c r="BI148" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BJ148" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BK148" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="149">
@@ -30741,7 +30741,7 @@
         <v>1.5</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT149" t="n">
         <v>1.45</v>
@@ -30944,7 +30944,7 @@
         <v>1.38</v>
       </c>
       <c r="AS150" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT150" t="n">
         <v>1.36</v>
@@ -31353,7 +31353,7 @@
         <v>1.91</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU152" t="n">
         <v>1.22</v>
@@ -31556,7 +31556,7 @@
         <v>2</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU153" t="n">
         <v>1.6</v>
@@ -31756,10 +31756,10 @@
         <v>1.5</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU154" t="n">
         <v>1.45</v>
@@ -31959,10 +31959,10 @@
         <v>0.44</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU155" t="n">
         <v>1.09</v>
@@ -32365,7 +32365,7 @@
         <v>1.33</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT157" t="n">
         <v>1.36</v>
@@ -32568,7 +32568,7 @@
         <v>1.33</v>
       </c>
       <c r="AS158" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT158" t="n">
         <v>1.45</v>
@@ -32977,7 +32977,7 @@
         <v>2.4</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU160" t="n">
         <v>1.72</v>
@@ -33383,7 +33383,7 @@
         <v>0.82</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU162" t="n">
         <v>1.15</v>
@@ -33583,7 +33583,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS163" t="n">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AT163" t="n">
         <v>0.55</v>
@@ -33989,7 +33989,7 @@
         <v>1.25</v>
       </c>
       <c r="AS165" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AT165" t="n">
         <v>1.1</v>
@@ -34192,7 +34192,7 @@
         <v>1.13</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT166" t="n">
         <v>1.1</v>
@@ -34801,7 +34801,7 @@
         <v>0.6</v>
       </c>
       <c r="AS169" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT169" t="n">
         <v>0.55</v>
@@ -35004,10 +35004,10 @@
         <v>1</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU170" t="n">
         <v>1.44</v>
@@ -35210,7 +35210,7 @@
         <v>1.1</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU171" t="n">
         <v>1.32</v>
@@ -35269,7 +35269,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="n">
-        <v>4407797</v>
+        <v>4407798</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -35289,182 +35289,182 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>ENPPI</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Al Masry</t>
+          <t>National Bank of Egypt</t>
         </is>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
       <c r="J172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N172" t="n">
         <v>3</v>
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>['82']</t>
+          <t>['77', '90+6']</t>
         </is>
       </c>
       <c r="P172" t="inlineStr">
         <is>
-          <t>['31', '50']</t>
+          <t>['51']</t>
         </is>
       </c>
       <c r="Q172" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R172" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S172" t="n">
         <v>12</v>
       </c>
       <c r="T172" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="U172" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V172" t="n">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="W172" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X172" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB172" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC172" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD172" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE172" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AF172" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG172" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AH172" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI172" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AJ172" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AK172" t="n">
         <v>1.58</v>
       </c>
-      <c r="X172" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Y172" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="Z172" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AA172" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB172" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AC172" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AD172" t="n">
+      <c r="AL172" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM172" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN172" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO172" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP172" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ172" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AR172" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AS172" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT172" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU172" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV172" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW172" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX172" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY172" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ172" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BA172" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB172" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC172" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD172" t="n">
         <v>2.8</v>
       </c>
-      <c r="AE172" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AF172" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AG172" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="AH172" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AI172" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AJ172" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AK172" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AL172" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AM172" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AN172" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AO172" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AP172" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AQ172" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AR172" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AS172" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AT172" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AU172" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AV172" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AW172" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="AX172" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY172" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ172" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA172" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="BB172" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="BC172" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="BD172" t="n">
-        <v>2.7</v>
-      </c>
       <c r="BE172" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="BF172" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG172" t="n">
         <v>4</v>
       </c>
-      <c r="BG172" t="n">
-        <v>8</v>
-      </c>
       <c r="BH172" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BI172" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BJ172" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BK172" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="173">
@@ -35472,7 +35472,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="n">
-        <v>4407798</v>
+        <v>4407797</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -35492,182 +35492,182 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra</t>
+          <t>ENPPI</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>National Bank of Egypt</t>
+          <t>Al Masry</t>
         </is>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
       <c r="J173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N173" t="n">
         <v>3</v>
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>['77', '90+6']</t>
+          <t>['82']</t>
         </is>
       </c>
       <c r="P173" t="inlineStr">
         <is>
-          <t>['51']</t>
+          <t>['31', '50']</t>
         </is>
       </c>
       <c r="Q173" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R173" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S173" t="n">
         <v>12</v>
       </c>
       <c r="T173" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="U173" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V173" t="n">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="W173" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="X173" t="n">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="Y173" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB173" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC173" t="n">
         <v>3.4</v>
       </c>
-      <c r="Z173" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AA173" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB173" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC173" t="n">
-        <v>2.25</v>
-      </c>
       <c r="AD173" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="AE173" t="n">
-        <v>3.01</v>
+        <v>2.1</v>
       </c>
       <c r="AF173" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG173" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AH173" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI173" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ173" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AK173" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AL173" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM173" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN173" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AO173" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP173" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AQ173" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR173" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS173" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AT173" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AU173" t="n">
         <v>1.09</v>
       </c>
-      <c r="AG173" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="AH173" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AI173" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="AJ173" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AK173" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AL173" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AM173" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AN173" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AO173" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AP173" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AQ173" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AR173" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AS173" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AT173" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AU173" t="n">
-        <v>1.56</v>
-      </c>
       <c r="AV173" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="AW173" t="n">
-        <v>2.77</v>
+        <v>2.31</v>
       </c>
       <c r="AX173" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AY173" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AZ173" t="n">
-        <v>2.73</v>
+        <v>0</v>
       </c>
       <c r="BA173" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="BB173" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="BC173" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="BD173" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="BE173" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="BF173" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG173" t="n">
         <v>8</v>
       </c>
-      <c r="BG173" t="n">
+      <c r="BH173" t="n">
         <v>4</v>
       </c>
-      <c r="BH173" t="n">
-        <v>5</v>
-      </c>
       <c r="BI173" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BJ173" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BK173" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="174">
@@ -36019,10 +36019,10 @@
         <v>1.67</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU175" t="n">
         <v>1.09</v>
@@ -36225,7 +36225,7 @@
         <v>1.91</v>
       </c>
       <c r="AT176" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU176" t="n">
         <v>1.32</v>
@@ -36628,10 +36628,10 @@
         <v>1.14</v>
       </c>
       <c r="AS178" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT178" t="n">
         <v>1.11</v>
-      </c>
-      <c r="AT178" t="n">
-        <v>1.13</v>
       </c>
       <c r="AU178" t="n">
         <v>0.95</v>
@@ -37240,7 +37240,7 @@
         <v>2.2</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU181" t="n">
         <v>1.67</v>
@@ -37440,7 +37440,7 @@
         <v>1.11</v>
       </c>
       <c r="AS182" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AT182" t="n">
         <v>1.1</v>
@@ -38052,7 +38052,7 @@
         <v>1.89</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU185" t="n">
         <v>1.47</v>
@@ -38307,6 +38307,1427 @@
       </c>
       <c r="BK186" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="n">
+        <v>4407820</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>45015.67708333334</v>
+      </c>
+      <c r="F187" t="n">
+        <v>22</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Smouha SC</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Ismaily SC</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>1</v>
+      </c>
+      <c r="J187" t="n">
+        <v>3</v>
+      </c>
+      <c r="K187" t="n">
+        <v>4</v>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="n">
+        <v>3</v>
+      </c>
+      <c r="N187" t="n">
+        <v>4</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>['20', '38', '40']</t>
+        </is>
+      </c>
+      <c r="Q187" t="n">
+        <v>10</v>
+      </c>
+      <c r="R187" t="n">
+        <v>4</v>
+      </c>
+      <c r="S187" t="n">
+        <v>14</v>
+      </c>
+      <c r="T187" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U187" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V187" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="W187" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="X187" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB187" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC187" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD187" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AE187" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF187" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG187" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH187" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI187" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ187" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AK187" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AL187" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM187" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN187" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO187" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP187" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ187" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AR187" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AS187" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AT187" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AU187" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV187" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW187" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AX187" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AY187" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ187" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BA187" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB187" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC187" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BD187" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BE187" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF187" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG187" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH187" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI187" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ187" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK187" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="n">
+        <v>4407812</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>45015.67708333334</v>
+      </c>
+      <c r="F188" t="n">
+        <v>22</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Ceramica Cleopatra</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Al Mokawloon</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L188" t="n">
+        <v>0</v>
+      </c>
+      <c r="M188" t="n">
+        <v>0</v>
+      </c>
+      <c r="N188" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q188" t="n">
+        <v>2</v>
+      </c>
+      <c r="R188" t="n">
+        <v>5</v>
+      </c>
+      <c r="S188" t="n">
+        <v>7</v>
+      </c>
+      <c r="T188" t="n">
+        <v>3</v>
+      </c>
+      <c r="U188" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V188" t="n">
+        <v>4</v>
+      </c>
+      <c r="W188" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X188" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB188" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC188" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD188" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AE188" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF188" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG188" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH188" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI188" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ188" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AK188" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL188" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM188" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN188" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO188" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP188" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ188" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR188" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS188" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT188" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU188" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV188" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW188" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AX188" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AY188" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AZ188" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="BA188" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB188" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC188" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD188" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE188" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BF188" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH188" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI188" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ188" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK188" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="n">
+        <v>4407818</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>45015.67708333334</v>
+      </c>
+      <c r="F189" t="n">
+        <v>22</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>ENPPI</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>National Bank of Egypt</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>1</v>
+      </c>
+      <c r="J189" t="n">
+        <v>1</v>
+      </c>
+      <c r="K189" t="n">
+        <v>2</v>
+      </c>
+      <c r="L189" t="n">
+        <v>2</v>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="n">
+        <v>3</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>['14', '61']</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="Q189" t="n">
+        <v>4</v>
+      </c>
+      <c r="R189" t="n">
+        <v>3</v>
+      </c>
+      <c r="S189" t="n">
+        <v>7</v>
+      </c>
+      <c r="T189" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U189" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V189" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W189" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X189" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB189" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC189" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD189" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AE189" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF189" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG189" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AH189" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI189" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AJ189" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK189" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL189" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM189" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN189" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO189" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AP189" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AQ189" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR189" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AS189" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AT189" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU189" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AV189" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW189" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AX189" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AY189" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ189" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA189" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB189" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC189" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BD189" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE189" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF189" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG189" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH189" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI189" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ189" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK189" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="n">
+        <v>4407819</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>45016.67708333334</v>
+      </c>
+      <c r="F190" t="n">
+        <v>22</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Ghazl El Mehalla</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>1</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="n">
+        <v>2</v>
+      </c>
+      <c r="M190" t="n">
+        <v>0</v>
+      </c>
+      <c r="N190" t="n">
+        <v>2</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>['22', '89']</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q190" t="n">
+        <v>7</v>
+      </c>
+      <c r="R190" t="n">
+        <v>3</v>
+      </c>
+      <c r="S190" t="n">
+        <v>10</v>
+      </c>
+      <c r="T190" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="U190" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V190" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W190" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X190" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AB190" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC190" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD190" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE190" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF190" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG190" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AH190" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI190" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ190" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK190" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL190" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM190" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN190" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO190" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AP190" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ190" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AR190" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS190" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT190" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AU190" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV190" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW190" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX190" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AY190" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ190" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BA190" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB190" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC190" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD190" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE190" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BF190" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG190" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH190" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI190" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ190" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK190" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="n">
+        <v>4407817</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>45016.67708333334</v>
+      </c>
+      <c r="F191" t="n">
+        <v>22</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Pharco</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Aswan FC</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="n">
+        <v>0</v>
+      </c>
+      <c r="L191" t="n">
+        <v>0</v>
+      </c>
+      <c r="M191" t="n">
+        <v>0</v>
+      </c>
+      <c r="N191" t="n">
+        <v>0</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q191" t="n">
+        <v>6</v>
+      </c>
+      <c r="R191" t="n">
+        <v>1</v>
+      </c>
+      <c r="S191" t="n">
+        <v>7</v>
+      </c>
+      <c r="T191" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U191" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V191" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="W191" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X191" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB191" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC191" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD191" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE191" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF191" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG191" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH191" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI191" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AJ191" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK191" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL191" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM191" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AN191" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO191" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AP191" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ191" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AR191" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS191" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT191" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU191" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AV191" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW191" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AX191" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY191" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ191" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BA191" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB191" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BC191" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD191" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BE191" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BF191" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG191" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH191" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI191" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ191" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK191" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="n">
+        <v>4407821</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>45019.67708333334</v>
+      </c>
+      <c r="F192" t="n">
+        <v>23</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Haras El Hodood</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>ENPPI</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="n">
+        <v>0</v>
+      </c>
+      <c r="L192" t="n">
+        <v>0</v>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="n">
+        <v>1</v>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="Q192" t="n">
+        <v>3</v>
+      </c>
+      <c r="R192" t="n">
+        <v>2</v>
+      </c>
+      <c r="S192" t="n">
+        <v>5</v>
+      </c>
+      <c r="T192" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U192" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V192" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W192" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X192" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB192" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC192" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD192" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AE192" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AF192" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AG192" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH192" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI192" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ192" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK192" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL192" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM192" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN192" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO192" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AP192" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AQ192" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR192" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS192" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT192" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU192" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AV192" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW192" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AX192" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY192" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AZ192" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA192" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BB192" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC192" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BD192" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BE192" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF192" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG192" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH192" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI192" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ192" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK192" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="n">
+        <v>4407825</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>45019.67708333334</v>
+      </c>
+      <c r="F193" t="n">
+        <v>23</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Ismaily SC</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Ceramica Cleopatra</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>1</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="n">
+        <v>2</v>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>['76']</t>
+        </is>
+      </c>
+      <c r="Q193" t="n">
+        <v>1</v>
+      </c>
+      <c r="R193" t="n">
+        <v>3</v>
+      </c>
+      <c r="S193" t="n">
+        <v>4</v>
+      </c>
+      <c r="T193" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="U193" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V193" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="W193" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X193" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AB193" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC193" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AD193" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE193" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AF193" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG193" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AH193" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI193" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AJ193" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK193" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL193" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM193" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AN193" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AO193" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP193" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ193" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AR193" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS193" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AT193" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU193" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AV193" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW193" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX193" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY193" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ193" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA193" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB193" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC193" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD193" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE193" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BF193" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG193" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH193" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI193" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ193" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK193" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK193"/>
+  <dimension ref="A1:BK198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT2" t="n">
         <v>1.45</v>
@@ -1106,7 +1106,7 @@
         <v>1.3</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT4" t="n">
         <v>1.11</v>
@@ -1715,7 +1715,7 @@
         <v>0.73</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.89</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT10" t="n">
         <v>0.55</v>
@@ -2933,7 +2933,7 @@
         <v>1.31</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT13" t="n">
         <v>1.17</v>
@@ -4554,10 +4554,10 @@
         <v>1</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU20" t="n">
         <v>1.11</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT21" t="n">
         <v>1.5</v>
@@ -5163,10 +5163,10 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU23" t="n">
         <v>1.7</v>
@@ -5369,7 +5369,7 @@
         <v>1</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU24" t="n">
         <v>0.68</v>
@@ -5772,7 +5772,7 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT26" t="n">
         <v>2.75</v>
@@ -5978,7 +5978,7 @@
         <v>0.73</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU27" t="n">
         <v>0.93</v>
@@ -6790,7 +6790,7 @@
         <v>1</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU31" t="n">
         <v>0.76</v>
@@ -7196,7 +7196,7 @@
         <v>2</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU33" t="n">
         <v>2.03</v>
@@ -7396,7 +7396,7 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT34" t="n">
         <v>2.1</v>
@@ -7599,10 +7599,10 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU35" t="n">
         <v>1.4</v>
@@ -8005,7 +8005,7 @@
         <v>1.5</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT37" t="n">
         <v>1.11</v>
@@ -8211,7 +8211,7 @@
         <v>0.73</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU38" t="n">
         <v>0.54</v>
@@ -8411,7 +8411,7 @@
         <v>0.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT39" t="n">
         <v>0.55</v>
@@ -8614,7 +8614,7 @@
         <v>0.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT40" t="n">
         <v>0.33</v>
@@ -9429,7 +9429,7 @@
         <v>1.1</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU44" t="n">
         <v>1.02</v>
@@ -11053,7 +11053,7 @@
         <v>1.89</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU52" t="n">
         <v>1.24</v>
@@ -11659,7 +11659,7 @@
         <v>1.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT55" t="n">
         <v>1.45</v>
@@ -12268,10 +12268,10 @@
         <v>1.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU58" t="n">
         <v>0.97</v>
@@ -12474,7 +12474,7 @@
         <v>2</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU59" t="n">
         <v>1.97</v>
@@ -12674,7 +12674,7 @@
         <v>1</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT60" t="n">
         <v>1.5</v>
@@ -12880,7 +12880,7 @@
         <v>0.73</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU61" t="n">
         <v>1.21</v>
@@ -13286,7 +13286,7 @@
         <v>1.3</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU63" t="n">
         <v>1.77</v>
@@ -13486,7 +13486,7 @@
         <v>2.33</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT64" t="n">
         <v>2.1</v>
@@ -13895,7 +13895,7 @@
         <v>1.91</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU66" t="n">
         <v>1.47</v>
@@ -15313,7 +15313,7 @@
         <v>0.67</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT73" t="n">
         <v>1.33</v>
@@ -15719,10 +15719,10 @@
         <v>1.75</v>
       </c>
       <c r="AS75" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU75" t="n">
         <v>0.92</v>
@@ -15922,7 +15922,7 @@
         <v>0.75</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT76" t="n">
         <v>1.5</v>
@@ -16128,7 +16128,7 @@
         <v>1.58</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU77" t="n">
         <v>1.56</v>
@@ -16937,10 +16937,10 @@
         <v>2.5</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU81" t="n">
         <v>1.58</v>
@@ -17140,10 +17140,10 @@
         <v>1.25</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU82" t="n">
         <v>1.65</v>
@@ -18358,7 +18358,7 @@
         <v>0.6</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT88" t="n">
         <v>1.17</v>
@@ -18767,7 +18767,7 @@
         <v>0.83</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU90" t="n">
         <v>1.33</v>
@@ -19170,10 +19170,10 @@
         <v>2.2</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU92" t="n">
         <v>1.39</v>
@@ -19373,7 +19373,7 @@
         <v>1.2</v>
       </c>
       <c r="AS93" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT93" t="n">
         <v>1.36</v>
@@ -19779,10 +19779,10 @@
         <v>1.4</v>
       </c>
       <c r="AS95" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU95" t="n">
         <v>1.53</v>
@@ -20185,7 +20185,7 @@
         <v>0.4</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT97" t="n">
         <v>0.55</v>
@@ -20594,7 +20594,7 @@
         <v>1.91</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU99" t="n">
         <v>1.26</v>
@@ -21406,7 +21406,7 @@
         <v>2.4</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU103" t="n">
         <v>1.68</v>
@@ -21606,7 +21606,7 @@
         <v>1.2</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT104" t="n">
         <v>1.45</v>
@@ -22421,7 +22421,7 @@
         <v>0.83</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU108" t="n">
         <v>1.4</v>
@@ -22824,7 +22824,7 @@
         <v>0.5</v>
       </c>
       <c r="AS110" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT110" t="n">
         <v>0.33</v>
@@ -23233,7 +23233,7 @@
         <v>1.91</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU112" t="n">
         <v>1.25</v>
@@ -23436,7 +23436,7 @@
         <v>2</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU113" t="n">
         <v>1.68</v>
@@ -23839,7 +23839,7 @@
         <v>1.5</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT115" t="n">
         <v>1.36</v>
@@ -24042,7 +24042,7 @@
         <v>0.33</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT116" t="n">
         <v>0.55</v>
@@ -25260,7 +25260,7 @@
         <v>1</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT122" t="n">
         <v>1.17</v>
@@ -25669,7 +25669,7 @@
         <v>2.4</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU124" t="n">
         <v>1.82</v>
@@ -25869,10 +25869,10 @@
         <v>1.33</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU125" t="n">
         <v>1.61</v>
@@ -26075,7 +26075,7 @@
         <v>1.31</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU126" t="n">
         <v>1.5</v>
@@ -26478,7 +26478,7 @@
         <v>1.29</v>
       </c>
       <c r="AS128" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT128" t="n">
         <v>1.33</v>
@@ -26884,7 +26884,7 @@
         <v>0.86</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT130" t="n">
         <v>1.09</v>
@@ -27699,7 +27699,7 @@
         <v>1.58</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU134" t="n">
         <v>1.39</v>
@@ -27902,7 +27902,7 @@
         <v>0.83</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU135" t="n">
         <v>1.31</v>
@@ -28102,7 +28102,7 @@
         <v>0.57</v>
       </c>
       <c r="AS136" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT136" t="n">
         <v>0.33</v>
@@ -28305,7 +28305,7 @@
         <v>0.5</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT137" t="n">
         <v>0.55</v>
@@ -28711,7 +28711,7 @@
         <v>1.29</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT139" t="n">
         <v>1.45</v>
@@ -28914,10 +28914,10 @@
         <v>0.86</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU140" t="n">
         <v>1.68</v>
@@ -29120,7 +29120,7 @@
         <v>0.73</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU141" t="n">
         <v>1.11</v>
@@ -29729,7 +29729,7 @@
         <v>1.3</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU144" t="n">
         <v>1.53</v>
@@ -30132,7 +30132,7 @@
         <v>0.88</v>
       </c>
       <c r="AS146" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT146" t="n">
         <v>1.17</v>
@@ -30744,7 +30744,7 @@
         <v>1.42</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU149" t="n">
         <v>1.07</v>
@@ -31150,7 +31150,7 @@
         <v>1.1</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU151" t="n">
         <v>1.26</v>
@@ -32571,7 +32571,7 @@
         <v>0.83</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU158" t="n">
         <v>1.31</v>
@@ -33180,7 +33180,7 @@
         <v>1.3</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU161" t="n">
         <v>1.46</v>
@@ -33380,7 +33380,7 @@
         <v>1.25</v>
       </c>
       <c r="AS162" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT162" t="n">
         <v>1.45</v>
@@ -33786,7 +33786,7 @@
         <v>2.71</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT164" t="n">
         <v>2.75</v>
@@ -33992,7 +33992,7 @@
         <v>0.73</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU165" t="n">
         <v>1.3</v>
@@ -34195,7 +34195,7 @@
         <v>1</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU166" t="n">
         <v>1.02</v>
@@ -34395,7 +34395,7 @@
         <v>2.13</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT167" t="n">
         <v>2.1</v>
@@ -34598,10 +34598,10 @@
         <v>1.56</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU168" t="n">
         <v>1.74</v>
@@ -35816,7 +35816,7 @@
         <v>1.11</v>
       </c>
       <c r="AS174" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT174" t="n">
         <v>1.1</v>
@@ -36428,7 +36428,7 @@
         <v>2.4</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU177" t="n">
         <v>1.67</v>
@@ -36831,10 +36831,10 @@
         <v>1.22</v>
       </c>
       <c r="AS179" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT179" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU179" t="n">
         <v>1.2</v>
@@ -37034,7 +37034,7 @@
         <v>0.6</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT180" t="n">
         <v>0.55</v>
@@ -37237,7 +37237,7 @@
         <v>1.5</v>
       </c>
       <c r="AS181" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT181" t="n">
         <v>1.33</v>
@@ -37443,7 +37443,7 @@
         <v>0.73</v>
       </c>
       <c r="AT182" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU182" t="n">
         <v>1.32</v>
@@ -37643,10 +37643,10 @@
         <v>1.56</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU183" t="n">
         <v>1.63</v>
@@ -37846,7 +37846,7 @@
         <v>2</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT184" t="n">
         <v>2.1</v>
@@ -38255,7 +38255,7 @@
         <v>1.3</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU186" t="n">
         <v>1.39</v>
@@ -39728,6 +39728,1021 @@
       </c>
       <c r="BK193" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="n">
+        <v>4407813</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>45020.67708333334</v>
+      </c>
+      <c r="F194" t="n">
+        <v>22</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Al Masry</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Zamalek</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>1</v>
+      </c>
+      <c r="J194" t="n">
+        <v>2</v>
+      </c>
+      <c r="K194" t="n">
+        <v>3</v>
+      </c>
+      <c r="L194" t="n">
+        <v>3</v>
+      </c>
+      <c r="M194" t="n">
+        <v>2</v>
+      </c>
+      <c r="N194" t="n">
+        <v>5</v>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>['25', '60', '87']</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>['1', '21']</t>
+        </is>
+      </c>
+      <c r="Q194" t="n">
+        <v>11</v>
+      </c>
+      <c r="R194" t="n">
+        <v>3</v>
+      </c>
+      <c r="S194" t="n">
+        <v>14</v>
+      </c>
+      <c r="T194" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U194" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V194" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W194" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X194" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB194" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC194" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD194" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AE194" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF194" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG194" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AH194" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI194" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AJ194" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK194" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL194" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM194" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN194" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO194" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP194" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ194" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AR194" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS194" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT194" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU194" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV194" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AW194" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AX194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ194" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA194" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB194" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BC194" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD194" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE194" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF194" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG194" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH194" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI194" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ194" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK194" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="n">
+        <v>4407823</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>45020.67708333334</v>
+      </c>
+      <c r="F195" t="n">
+        <v>23</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>El Daklyeh FC</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Pharco</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="n">
+        <v>0</v>
+      </c>
+      <c r="L195" t="n">
+        <v>0</v>
+      </c>
+      <c r="M195" t="n">
+        <v>0</v>
+      </c>
+      <c r="N195" t="n">
+        <v>0</v>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q195" t="n">
+        <v>2</v>
+      </c>
+      <c r="R195" t="n">
+        <v>0</v>
+      </c>
+      <c r="S195" t="n">
+        <v>2</v>
+      </c>
+      <c r="T195" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U195" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V195" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W195" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X195" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB195" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC195" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD195" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AE195" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AF195" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG195" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH195" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI195" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ195" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AK195" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL195" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM195" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN195" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO195" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP195" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ195" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AR195" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS195" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AT195" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AU195" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AV195" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW195" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AX195" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY195" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ195" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BA195" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB195" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC195" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BD195" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BE195" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF195" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG195" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH195" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI195" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ195" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK195" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="n">
+        <v>4407824</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>45020.67708333334</v>
+      </c>
+      <c r="F196" t="n">
+        <v>23</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Aswan FC</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Smouha SC</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
+        <v>1</v>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="n">
+        <v>2</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="Q196" t="n">
+        <v>2</v>
+      </c>
+      <c r="R196" t="n">
+        <v>5</v>
+      </c>
+      <c r="S196" t="n">
+        <v>7</v>
+      </c>
+      <c r="T196" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="U196" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V196" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="W196" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X196" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="Y196" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z196" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA196" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB196" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC196" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD196" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AE196" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF196" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG196" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH196" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AI196" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ196" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK196" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL196" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AM196" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AN196" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO196" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP196" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ196" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR196" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AS196" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT196" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AU196" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV196" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW196" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AX196" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AY196" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ196" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BA196" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB196" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC196" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BD196" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BE196" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BF196" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG196" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH196" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI196" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ196" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK196" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="n">
+        <v>4407826</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>45021.67708333334</v>
+      </c>
+      <c r="F197" t="n">
+        <v>23</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Al Ahly</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Ghazl El Mehalla</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
+        <v>1</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="n">
+        <v>3</v>
+      </c>
+      <c r="M197" t="n">
+        <v>0</v>
+      </c>
+      <c r="N197" t="n">
+        <v>3</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>['42', '58', '90+1']</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q197" t="n">
+        <v>8</v>
+      </c>
+      <c r="R197" t="n">
+        <v>4</v>
+      </c>
+      <c r="S197" t="n">
+        <v>12</v>
+      </c>
+      <c r="T197" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U197" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V197" t="n">
+        <v>9</v>
+      </c>
+      <c r="W197" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X197" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB197" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC197" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AD197" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE197" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF197" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG197" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH197" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI197" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ197" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AK197" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AL197" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM197" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AN197" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO197" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AP197" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AQ197" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR197" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS197" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AT197" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU197" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV197" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW197" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX197" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AY197" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ197" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="BA197" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB197" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC197" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BD197" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BE197" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BF197" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG197" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH197" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI197" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ197" t="n">
+        <v>25</v>
+      </c>
+      <c r="BK197" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="n">
+        <v>4407828</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>45021.67708333334</v>
+      </c>
+      <c r="F198" t="n">
+        <v>23</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Al Mokawloon</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Pyramids FC</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="n">
+        <v>0</v>
+      </c>
+      <c r="L198" t="n">
+        <v>0</v>
+      </c>
+      <c r="M198" t="n">
+        <v>0</v>
+      </c>
+      <c r="N198" t="n">
+        <v>0</v>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q198" t="n">
+        <v>5</v>
+      </c>
+      <c r="R198" t="n">
+        <v>4</v>
+      </c>
+      <c r="S198" t="n">
+        <v>9</v>
+      </c>
+      <c r="T198" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="U198" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V198" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="W198" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X198" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="Y198" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AB198" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC198" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AD198" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE198" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AF198" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG198" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH198" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI198" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AJ198" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK198" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL198" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AM198" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN198" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AO198" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP198" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AQ198" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AR198" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS198" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT198" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU198" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV198" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW198" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AX198" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AY198" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ198" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BA198" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB198" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC198" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD198" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BE198" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF198" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG198" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH198" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI198" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ198" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK198" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK198"/>
+  <dimension ref="A1:BK201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT2" t="n">
         <v>1.45</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT15" t="n">
         <v>1.1</v>
@@ -4354,7 +4354,7 @@
         <v>1.42</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT20" t="n">
         <v>1</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT21" t="n">
         <v>1.5</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT22" t="n">
         <v>0.55</v>
@@ -5572,7 +5572,7 @@
         <v>1.3</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU25" t="n">
         <v>1.34</v>
@@ -7193,7 +7193,7 @@
         <v>2</v>
       </c>
       <c r="AS33" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT33" t="n">
         <v>1</v>
@@ -7399,7 +7399,7 @@
         <v>0.83</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU34" t="n">
         <v>1.19</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT35" t="n">
         <v>1.09</v>
@@ -8008,7 +8008,7 @@
         <v>1.64</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU37" t="n">
         <v>1.66</v>
@@ -8614,7 +8614,7 @@
         <v>0.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT40" t="n">
         <v>0.33</v>
@@ -9632,7 +9632,7 @@
         <v>0.73</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU45" t="n">
         <v>0.95</v>
@@ -11256,7 +11256,7 @@
         <v>1.31</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU53" t="n">
         <v>1.6</v>
@@ -11459,7 +11459,7 @@
         <v>0.73</v>
       </c>
       <c r="AT54" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU54" t="n">
         <v>0.89</v>
@@ -12471,7 +12471,7 @@
         <v>0.67</v>
       </c>
       <c r="AS59" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT59" t="n">
         <v>1.09</v>
@@ -13489,7 +13489,7 @@
         <v>2.27</v>
       </c>
       <c r="AT64" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU64" t="n">
         <v>1.49</v>
@@ -15113,7 +15113,7 @@
         <v>1.89</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU72" t="n">
         <v>1.07</v>
@@ -15313,7 +15313,7 @@
         <v>0.67</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT73" t="n">
         <v>1.33</v>
@@ -15516,10 +15516,10 @@
         <v>1</v>
       </c>
       <c r="AS74" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU74" t="n">
         <v>2</v>
@@ -15922,7 +15922,7 @@
         <v>0.75</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT76" t="n">
         <v>1.5</v>
@@ -17752,7 +17752,7 @@
         <v>1.1</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU85" t="n">
         <v>1.1</v>
@@ -17955,7 +17955,7 @@
         <v>1.42</v>
       </c>
       <c r="AT86" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU86" t="n">
         <v>1.01</v>
@@ -18358,7 +18358,7 @@
         <v>0.6</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT88" t="n">
         <v>1.17</v>
@@ -19170,7 +19170,7 @@
         <v>2.2</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT92" t="n">
         <v>1.33</v>
@@ -19576,7 +19576,7 @@
         <v>0.6</v>
       </c>
       <c r="AS94" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT94" t="n">
         <v>1.5</v>
@@ -19985,7 +19985,7 @@
         <v>1.58</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU96" t="n">
         <v>1.5</v>
@@ -20188,7 +20188,7 @@
         <v>1.64</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU97" t="n">
         <v>1.6</v>
@@ -21606,7 +21606,7 @@
         <v>1.2</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT104" t="n">
         <v>1.45</v>
@@ -21812,7 +21812,7 @@
         <v>1.31</v>
       </c>
       <c r="AT105" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU105" t="n">
         <v>1.57</v>
@@ -23433,7 +23433,7 @@
         <v>1.83</v>
       </c>
       <c r="AS113" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT113" t="n">
         <v>1.33</v>
@@ -24042,10 +24042,10 @@
         <v>0.33</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU116" t="n">
         <v>1.42</v>
@@ -24248,7 +24248,7 @@
         <v>1.42</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU117" t="n">
         <v>1.09</v>
@@ -25060,7 +25060,7 @@
         <v>0.73</v>
       </c>
       <c r="AT121" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU121" t="n">
         <v>1.04</v>
@@ -25869,7 +25869,7 @@
         <v>1.33</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT125" t="n">
         <v>1</v>
@@ -26884,7 +26884,7 @@
         <v>0.86</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT130" t="n">
         <v>1.09</v>
@@ -27087,10 +27087,10 @@
         <v>0.43</v>
       </c>
       <c r="AS131" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU131" t="n">
         <v>1.62</v>
@@ -28305,7 +28305,7 @@
         <v>0.5</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT137" t="n">
         <v>0.55</v>
@@ -28914,7 +28914,7 @@
         <v>0.86</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT140" t="n">
         <v>1.09</v>
@@ -29323,7 +29323,7 @@
         <v>2.4</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU142" t="n">
         <v>1.83</v>
@@ -29526,7 +29526,7 @@
         <v>1.89</v>
       </c>
       <c r="AT143" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU143" t="n">
         <v>1.45</v>
@@ -29932,7 +29932,7 @@
         <v>1.58</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU145" t="n">
         <v>1.38</v>
@@ -30335,7 +30335,7 @@
         <v>0.88</v>
       </c>
       <c r="AS147" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT147" t="n">
         <v>1.09</v>
@@ -31553,7 +31553,7 @@
         <v>1.11</v>
       </c>
       <c r="AS153" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT153" t="n">
         <v>1.17</v>
@@ -32774,7 +32774,7 @@
         <v>1.91</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU159" t="n">
         <v>1.25</v>
@@ -33786,7 +33786,7 @@
         <v>2.71</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT164" t="n">
         <v>2.75</v>
@@ -34398,7 +34398,7 @@
         <v>1.64</v>
       </c>
       <c r="AT167" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU167" t="n">
         <v>1.62</v>
@@ -34598,7 +34598,7 @@
         <v>1.56</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT168" t="n">
         <v>1.33</v>
@@ -34804,7 +34804,7 @@
         <v>0.83</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU169" t="n">
         <v>1.41</v>
@@ -36631,7 +36631,7 @@
         <v>1</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU178" t="n">
         <v>0.95</v>
@@ -37034,7 +37034,7 @@
         <v>0.6</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT180" t="n">
         <v>0.55</v>
@@ -37846,10 +37846,10 @@
         <v>2</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT184" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU184" t="n">
         <v>1.35</v>
@@ -39676,7 +39676,7 @@
         <v>0.73</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AU193" t="n">
         <v>1.29</v>
@@ -39876,7 +39876,7 @@
         <v>1.45</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT194" t="n">
         <v>1.33</v>
@@ -40282,7 +40282,7 @@
         <v>1.7</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT196" t="n">
         <v>1.64</v>
@@ -40743,6 +40743,615 @@
       </c>
       <c r="BK198" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="n">
+        <v>4407829</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>45022.67708333334</v>
+      </c>
+      <c r="F199" t="n">
+        <v>23</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Coca-Cola</t>
+        </is>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="n">
+        <v>0</v>
+      </c>
+      <c r="L199" t="n">
+        <v>0</v>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="n">
+        <v>1</v>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="Q199" t="n">
+        <v>4</v>
+      </c>
+      <c r="R199" t="n">
+        <v>3</v>
+      </c>
+      <c r="S199" t="n">
+        <v>7</v>
+      </c>
+      <c r="T199" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="U199" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V199" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="W199" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X199" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB199" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC199" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AD199" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AE199" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AF199" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG199" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH199" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI199" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ199" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AK199" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL199" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AM199" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AN199" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO199" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP199" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AQ199" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR199" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AS199" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AT199" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AU199" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV199" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW199" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX199" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AY199" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AZ199" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BA199" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB199" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC199" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD199" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BE199" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF199" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG199" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH199" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI199" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ199" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK199" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="n">
+        <v>4407830</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>45023.67708333334</v>
+      </c>
+      <c r="F200" t="n">
+        <v>24</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Al Masry</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Haras El Hodood</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="n">
+        <v>0</v>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="n">
+        <v>0</v>
+      </c>
+      <c r="N200" t="n">
+        <v>1</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q200" t="n">
+        <v>3</v>
+      </c>
+      <c r="R200" t="n">
+        <v>3</v>
+      </c>
+      <c r="S200" t="n">
+        <v>6</v>
+      </c>
+      <c r="T200" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U200" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V200" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W200" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="X200" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD200" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE200" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF200" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AH200" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI200" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AJ200" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AK200" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL200" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AM200" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AN200" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO200" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP200" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AQ200" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AR200" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AS200" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT200" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU200" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV200" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW200" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AX200" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AY200" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ200" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="BA200" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BB200" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BC200" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BD200" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BE200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF200" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG200" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH200" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI200" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ200" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK200" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="n">
+        <v>4407831</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>45023.67708333334</v>
+      </c>
+      <c r="F201" t="n">
+        <v>24</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Aswan FC</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Ceramica Cleopatra</t>
+        </is>
+      </c>
+      <c r="I201" t="n">
+        <v>1</v>
+      </c>
+      <c r="J201" t="n">
+        <v>1</v>
+      </c>
+      <c r="K201" t="n">
+        <v>2</v>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="n">
+        <v>2</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="Q201" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R201" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S201" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T201" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U201" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V201" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W201" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X201" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB201" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC201" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AD201" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AE201" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AF201" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG201" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AH201" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI201" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ201" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK201" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL201" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM201" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN201" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO201" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP201" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ201" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AR201" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS201" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT201" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AU201" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV201" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AW201" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF201" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG201" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH201" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI201" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ201" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK201" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK201"/>
+  <dimension ref="A1:BK204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT6" t="n">
         <v>1.33</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT7" t="n">
         <v>1.64</v>
@@ -3542,7 +3542,7 @@
         <v>1.82</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>1.91</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT27" t="n">
         <v>1.33</v>
@@ -6181,7 +6181,7 @@
         <v>2.4</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU28" t="n">
         <v>0.8</v>
@@ -7802,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT36" t="n">
         <v>1.36</v>
@@ -8617,7 +8617,7 @@
         <v>1.58</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU40" t="n">
         <v>1.74</v>
@@ -8820,7 +8820,7 @@
         <v>2.4</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU41" t="n">
         <v>1.38</v>
@@ -9023,7 +9023,7 @@
         <v>1.42</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU42" t="n">
         <v>1.19</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT45" t="n">
         <v>0.5</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT46" t="n">
         <v>1.17</v>
@@ -10444,7 +10444,7 @@
         <v>1.58</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU49" t="n">
         <v>1.38</v>
@@ -10644,10 +10644,10 @@
         <v>0.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU50" t="n">
         <v>1.39</v>
@@ -11050,7 +11050,7 @@
         <v>2</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT52" t="n">
         <v>1.33</v>
@@ -13692,7 +13692,7 @@
         <v>1.31</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU65" t="n">
         <v>1.7</v>
@@ -14095,7 +14095,7 @@
         <v>1</v>
       </c>
       <c r="AS67" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT67" t="n">
         <v>1.45</v>
@@ -14501,7 +14501,7 @@
         <v>0.67</v>
       </c>
       <c r="AS69" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT69" t="n">
         <v>1.09</v>
@@ -14707,7 +14707,7 @@
         <v>1.1</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU70" t="n">
         <v>1.17</v>
@@ -15110,7 +15110,7 @@
         <v>0.33</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT72" t="n">
         <v>0.5</v>
@@ -15316,7 +15316,7 @@
         <v>1.58</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU73" t="n">
         <v>1.74</v>
@@ -16331,7 +16331,7 @@
         <v>1</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU78" t="n">
         <v>0.93</v>
@@ -17546,10 +17546,10 @@
         <v>0.5</v>
       </c>
       <c r="AS84" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU84" t="n">
         <v>1.04</v>
@@ -18561,7 +18561,7 @@
         <v>1.25</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT89" t="n">
         <v>1.09</v>
@@ -18764,7 +18764,7 @@
         <v>1.75</v>
       </c>
       <c r="AS90" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT90" t="n">
         <v>1</v>
@@ -18970,7 +18970,7 @@
         <v>1.3</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU91" t="n">
         <v>1.72</v>
@@ -20391,7 +20391,7 @@
         <v>0.73</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU98" t="n">
         <v>1.18</v>
@@ -20997,7 +20997,7 @@
         <v>2.6</v>
       </c>
       <c r="AS101" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT101" t="n">
         <v>2.75</v>
@@ -21200,10 +21200,10 @@
         <v>0.6</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU102" t="n">
         <v>1.36</v>
@@ -22418,7 +22418,7 @@
         <v>0.6</v>
       </c>
       <c r="AS108" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT108" t="n">
         <v>1.09</v>
@@ -22624,7 +22624,7 @@
         <v>1.1</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU109" t="n">
         <v>1.21</v>
@@ -22827,7 +22827,7 @@
         <v>0.83</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU110" t="n">
         <v>0.93</v>
@@ -23027,7 +23027,7 @@
         <v>0.5</v>
       </c>
       <c r="AS111" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT111" t="n">
         <v>0.55</v>
@@ -24451,7 +24451,7 @@
         <v>0.73</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU118" t="n">
         <v>1.22</v>
@@ -24654,7 +24654,7 @@
         <v>1</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU119" t="n">
         <v>1</v>
@@ -25057,7 +25057,7 @@
         <v>2.33</v>
       </c>
       <c r="AS121" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT121" t="n">
         <v>2.18</v>
@@ -26275,7 +26275,7 @@
         <v>2.67</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT127" t="n">
         <v>2.75</v>
@@ -26481,7 +26481,7 @@
         <v>0.83</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU128" t="n">
         <v>0.98</v>
@@ -27899,7 +27899,7 @@
         <v>1.14</v>
       </c>
       <c r="AS135" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT135" t="n">
         <v>1.33</v>
@@ -28105,7 +28105,7 @@
         <v>2.27</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU136" t="n">
         <v>1.54</v>
@@ -28511,7 +28511,7 @@
         <v>0.73</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU138" t="n">
         <v>1.28</v>
@@ -29117,7 +29117,7 @@
         <v>1.43</v>
       </c>
       <c r="AS141" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT141" t="n">
         <v>1.64</v>
@@ -29523,7 +29523,7 @@
         <v>2.43</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT143" t="n">
         <v>2.18</v>
@@ -30944,7 +30944,7 @@
         <v>1.38</v>
       </c>
       <c r="AS150" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT150" t="n">
         <v>1.36</v>
@@ -31353,7 +31353,7 @@
         <v>1.91</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU152" t="n">
         <v>1.22</v>
@@ -31759,7 +31759,7 @@
         <v>1.58</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU154" t="n">
         <v>1.45</v>
@@ -31962,7 +31962,7 @@
         <v>1.42</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU155" t="n">
         <v>1.09</v>
@@ -32165,7 +32165,7 @@
         <v>1.1</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU156" t="n">
         <v>1.27</v>
@@ -32568,7 +32568,7 @@
         <v>1.33</v>
       </c>
       <c r="AS158" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT158" t="n">
         <v>1.33</v>
@@ -33583,7 +33583,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS163" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT163" t="n">
         <v>0.55</v>
@@ -34801,7 +34801,7 @@
         <v>0.6</v>
       </c>
       <c r="AS169" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT169" t="n">
         <v>0.5</v>
@@ -35413,7 +35413,7 @@
         <v>1.31</v>
       </c>
       <c r="AT172" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU172" t="n">
         <v>1.56</v>
@@ -35613,7 +35613,7 @@
         <v>1.2</v>
       </c>
       <c r="AS173" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT173" t="n">
         <v>1.36</v>
@@ -35819,7 +35819,7 @@
         <v>2.27</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU174" t="n">
         <v>1.62</v>
@@ -36022,7 +36022,7 @@
         <v>1.42</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU175" t="n">
         <v>1.09</v>
@@ -37240,7 +37240,7 @@
         <v>2.27</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU181" t="n">
         <v>1.67</v>
@@ -38049,7 +38049,7 @@
         <v>1.2</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT185" t="n">
         <v>1.5</v>
@@ -38455,7 +38455,7 @@
         <v>0.9</v>
       </c>
       <c r="AS187" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT187" t="n">
         <v>1.09</v>
@@ -38661,7 +38661,7 @@
         <v>1.31</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU188" t="n">
         <v>1.58</v>
@@ -38861,10 +38861,10 @@
         <v>0.36</v>
       </c>
       <c r="AS189" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT189" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AU189" t="n">
         <v>1.11</v>
@@ -41133,22 +41133,22 @@
         <v>0</v>
       </c>
       <c r="BF200" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG200" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH200" t="n">
         <v>7</v>
       </c>
-      <c r="BG200" t="n">
-        <v>9</v>
-      </c>
-      <c r="BH200" t="n">
-        <v>5</v>
-      </c>
       <c r="BI200" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BJ200" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BK200" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="201">
@@ -41213,13 +41213,13 @@
         </is>
       </c>
       <c r="Q201" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="R201" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S201" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="T201" t="n">
         <v>4.5</v>
@@ -41336,22 +41336,631 @@
         <v>0</v>
       </c>
       <c r="BF201" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BG201" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BH201" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BI201" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BJ201" t="n">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="BK201" t="n">
-        <v>-1</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="n">
+        <v>4407832</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>45025.67708333334</v>
+      </c>
+      <c r="F202" t="n">
+        <v>24</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Smouha SC</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>El Daklyeh FC</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>4</v>
+      </c>
+      <c r="J202" t="n">
+        <v>1</v>
+      </c>
+      <c r="K202" t="n">
+        <v>5</v>
+      </c>
+      <c r="L202" t="n">
+        <v>4</v>
+      </c>
+      <c r="M202" t="n">
+        <v>3</v>
+      </c>
+      <c r="N202" t="n">
+        <v>7</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>['2', '21', '33', '43']</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>['24', '71', '88']</t>
+        </is>
+      </c>
+      <c r="Q202" t="n">
+        <v>1</v>
+      </c>
+      <c r="R202" t="n">
+        <v>5</v>
+      </c>
+      <c r="S202" t="n">
+        <v>6</v>
+      </c>
+      <c r="T202" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U202" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V202" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W202" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X202" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK202" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL202" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM202" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN202" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO202" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP202" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AQ202" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR202" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS202" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT202" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU202" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV202" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW202" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX202" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY202" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ202" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="BA202" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BB202" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BC202" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BD202" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE202" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF202" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG202" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH202" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI202" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ202" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK202" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="n">
+        <v>4407836</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>45025.67708333334</v>
+      </c>
+      <c r="F203" t="n">
+        <v>24</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Zamalek</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>National Bank of Egypt</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>1</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="n">
+        <v>0</v>
+      </c>
+      <c r="N203" t="n">
+        <v>1</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q203" t="n">
+        <v>4</v>
+      </c>
+      <c r="R203" t="n">
+        <v>5</v>
+      </c>
+      <c r="S203" t="n">
+        <v>9</v>
+      </c>
+      <c r="T203" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U203" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V203" t="n">
+        <v>5</v>
+      </c>
+      <c r="W203" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X203" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI203" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AJ203" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK203" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL203" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN203" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO203" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP203" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ203" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR203" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS203" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT203" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AU203" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV203" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW203" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AX203" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AY203" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ203" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="BA203" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB203" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC203" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BD203" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BE203" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF203" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG203" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH203" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI203" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ203" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK203" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="n">
+        <v>4407835</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>45025.67708333334</v>
+      </c>
+      <c r="F204" t="n">
+        <v>24</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>ENPPI</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Al Mokawloon</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>2</v>
+      </c>
+      <c r="J204" t="n">
+        <v>1</v>
+      </c>
+      <c r="K204" t="n">
+        <v>3</v>
+      </c>
+      <c r="L204" t="n">
+        <v>2</v>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="n">
+        <v>3</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>['12', '40']</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="Q204" t="n">
+        <v>4</v>
+      </c>
+      <c r="R204" t="n">
+        <v>3</v>
+      </c>
+      <c r="S204" t="n">
+        <v>7</v>
+      </c>
+      <c r="T204" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U204" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V204" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W204" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X204" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB204" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC204" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AD204" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AE204" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF204" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG204" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AH204" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI204" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ204" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AK204" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL204" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AM204" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN204" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AO204" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP204" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ204" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AR204" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS204" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AT204" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AU204" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AV204" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW204" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AX204" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AY204" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ204" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BA204" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB204" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BC204" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD204" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BE204" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF204" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG204" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH204" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI204" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ204" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK204" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK204"/>
+  <dimension ref="A1:BK205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.17</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT19" t="n">
         <v>0.5</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT30" t="n">
         <v>1.09</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT42" t="n">
         <v>1</v>
@@ -10038,7 +10038,7 @@
         <v>1.91</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU47" t="n">
         <v>1.74</v>
@@ -11662,7 +11662,7 @@
         <v>2.27</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU55" t="n">
         <v>1.45</v>
@@ -14098,7 +14098,7 @@
         <v>1</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU67" t="n">
         <v>1.23</v>
@@ -14907,7 +14907,7 @@
         <v>3</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT71" t="n">
         <v>2.75</v>
@@ -17346,7 +17346,7 @@
         <v>2.4</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU83" t="n">
         <v>1.61</v>
@@ -17952,7 +17952,7 @@
         <v>2</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT86" t="n">
         <v>2.18</v>
@@ -20794,7 +20794,7 @@
         <v>0.4</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT100" t="n">
         <v>0.55</v>
@@ -21609,7 +21609,7 @@
         <v>1.58</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU104" t="n">
         <v>1.64</v>
@@ -24245,7 +24245,7 @@
         <v>1.2</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT117" t="n">
         <v>1.1</v>
@@ -25466,7 +25466,7 @@
         <v>1.3</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU123" t="n">
         <v>1.59</v>
@@ -26681,7 +26681,7 @@
         <v>0.86</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT129" t="n">
         <v>1.5</v>
@@ -28714,7 +28714,7 @@
         <v>1.64</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU139" t="n">
         <v>1.64</v>
@@ -30741,7 +30741,7 @@
         <v>1.5</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT149" t="n">
         <v>1.33</v>
@@ -31959,7 +31959,7 @@
         <v>0.44</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT155" t="n">
         <v>0.31</v>
@@ -33383,7 +33383,7 @@
         <v>0.83</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU162" t="n">
         <v>1.15</v>
@@ -35210,7 +35210,7 @@
         <v>1.1</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU171" t="n">
         <v>1.32</v>
@@ -36019,7 +36019,7 @@
         <v>1.67</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT175" t="n">
         <v>1.23</v>
@@ -39067,7 +39067,7 @@
         <v>1.58</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU190" t="n">
         <v>1.43</v>
@@ -39267,7 +39267,7 @@
         <v>1.18</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT191" t="n">
         <v>1.17</v>
@@ -41961,6 +41961,209 @@
       </c>
       <c r="BK204" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="n">
+        <v>4407837</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>45026.67708333334</v>
+      </c>
+      <c r="F205" t="n">
+        <v>24</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Pharco</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>1</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="n">
+        <v>3</v>
+      </c>
+      <c r="M205" t="n">
+        <v>2</v>
+      </c>
+      <c r="N205" t="n">
+        <v>5</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>['22', '65', '81']</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>['90+2', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q205" t="n">
+        <v>7</v>
+      </c>
+      <c r="R205" t="n">
+        <v>7</v>
+      </c>
+      <c r="S205" t="n">
+        <v>14</v>
+      </c>
+      <c r="T205" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="U205" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V205" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="W205" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X205" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="Y205" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AB205" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC205" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD205" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AE205" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AF205" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG205" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AH205" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI205" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AJ205" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AK205" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL205" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM205" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN205" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO205" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AP205" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ205" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AR205" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS205" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT205" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU205" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AV205" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW205" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX205" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AY205" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ205" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BA205" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB205" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BC205" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BD205" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BE205" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BF205" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG205" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH205" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI205" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ205" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK205" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK205"/>
+  <dimension ref="A1:BK210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>1.58</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT5" t="n">
         <v>2.75</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT8" t="n">
         <v>1</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT10" t="n">
         <v>0.55</v>
@@ -2730,7 +2730,7 @@
         <v>2.4</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.31</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT14" t="n">
         <v>1.09</v>
@@ -4151,7 +4151,7 @@
         <v>1.1</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>1.58</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU21" t="n">
         <v>1.98</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT23" t="n">
         <v>1.09</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT24" t="n">
         <v>1.64</v>
@@ -5572,7 +5572,7 @@
         <v>1.3</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU25" t="n">
         <v>1.34</v>
@@ -5772,7 +5772,7 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT26" t="n">
         <v>2.75</v>
@@ -5978,7 +5978,7 @@
         <v>0.92</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU27" t="n">
         <v>0.93</v>
@@ -6787,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT31" t="n">
         <v>1.33</v>
@@ -6993,7 +6993,7 @@
         <v>1.3</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU32" t="n">
         <v>1.48</v>
@@ -7396,10 +7396,10 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU34" t="n">
         <v>1.19</v>
@@ -7805,7 +7805,7 @@
         <v>2</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU36" t="n">
         <v>1.08</v>
@@ -8005,10 +8005,10 @@
         <v>1.5</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU37" t="n">
         <v>1.66</v>
@@ -8208,7 +8208,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT38" t="n">
         <v>1.64</v>
@@ -9223,7 +9223,7 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT43" t="n">
         <v>2.75</v>
@@ -9429,7 +9429,7 @@
         <v>1.1</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU44" t="n">
         <v>1.02</v>
@@ -10441,7 +10441,7 @@
         <v>0.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT49" t="n">
         <v>1</v>
@@ -10850,7 +10850,7 @@
         <v>1.1</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU51" t="n">
         <v>1.01</v>
@@ -11456,10 +11456,10 @@
         <v>3</v>
       </c>
       <c r="AS54" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT54" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU54" t="n">
         <v>0.89</v>
@@ -11862,7 +11862,7 @@
         <v>0.33</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT56" t="n">
         <v>0.55</v>
@@ -12268,7 +12268,7 @@
         <v>1.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT58" t="n">
         <v>1.64</v>
@@ -12674,10 +12674,10 @@
         <v>1</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU60" t="n">
         <v>1.59</v>
@@ -12877,7 +12877,7 @@
         <v>1.33</v>
       </c>
       <c r="AS61" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT61" t="n">
         <v>1.33</v>
@@ -13080,10 +13080,10 @@
         <v>0.67</v>
       </c>
       <c r="AS62" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU62" t="n">
         <v>0.76</v>
@@ -13286,7 +13286,7 @@
         <v>1.3</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU63" t="n">
         <v>1.77</v>
@@ -13489,7 +13489,7 @@
         <v>2.27</v>
       </c>
       <c r="AT64" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU64" t="n">
         <v>1.49</v>
@@ -15519,7 +15519,7 @@
         <v>1.82</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU74" t="n">
         <v>2</v>
@@ -15719,7 +15719,7 @@
         <v>1.75</v>
       </c>
       <c r="AS75" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT75" t="n">
         <v>1.33</v>
@@ -15925,7 +15925,7 @@
         <v>1.17</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU76" t="n">
         <v>1.36</v>
@@ -16125,7 +16125,7 @@
         <v>0.5</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT77" t="n">
         <v>1.09</v>
@@ -16328,7 +16328,7 @@
         <v>0.5</v>
       </c>
       <c r="AS78" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT78" t="n">
         <v>0.31</v>
@@ -16734,10 +16734,10 @@
         <v>0.75</v>
       </c>
       <c r="AS80" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU80" t="n">
         <v>1.19</v>
@@ -16937,10 +16937,10 @@
         <v>2.5</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU81" t="n">
         <v>1.58</v>
@@ -17955,7 +17955,7 @@
         <v>1.54</v>
       </c>
       <c r="AT86" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU86" t="n">
         <v>1.01</v>
@@ -19173,7 +19173,7 @@
         <v>1.17</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU92" t="n">
         <v>1.39</v>
@@ -19373,10 +19373,10 @@
         <v>1.2</v>
       </c>
       <c r="AS93" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU93" t="n">
         <v>0.92</v>
@@ -19579,7 +19579,7 @@
         <v>1.82</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU94" t="n">
         <v>1.76</v>
@@ -19982,10 +19982,10 @@
         <v>0.75</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU96" t="n">
         <v>1.5</v>
@@ -20185,7 +20185,7 @@
         <v>0.4</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT97" t="n">
         <v>0.5</v>
@@ -20388,7 +20388,7 @@
         <v>0.4</v>
       </c>
       <c r="AS98" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT98" t="n">
         <v>0.31</v>
@@ -21812,7 +21812,7 @@
         <v>1.31</v>
       </c>
       <c r="AT105" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU105" t="n">
         <v>1.57</v>
@@ -22012,7 +22012,7 @@
         <v>1</v>
       </c>
       <c r="AS106" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT106" t="n">
         <v>1.09</v>
@@ -22824,7 +22824,7 @@
         <v>0.5</v>
       </c>
       <c r="AS110" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT110" t="n">
         <v>0.31</v>
@@ -23436,7 +23436,7 @@
         <v>1.82</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU113" t="n">
         <v>1.68</v>
@@ -23636,10 +23636,10 @@
         <v>1</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU114" t="n">
         <v>1.48</v>
@@ -23842,7 +23842,7 @@
         <v>2.27</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU115" t="n">
         <v>1.57</v>
@@ -24248,7 +24248,7 @@
         <v>1.54</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU117" t="n">
         <v>1.09</v>
@@ -24448,7 +24448,7 @@
         <v>1</v>
       </c>
       <c r="AS118" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT118" t="n">
         <v>1.23</v>
@@ -24651,7 +24651,7 @@
         <v>0.67</v>
       </c>
       <c r="AS119" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT119" t="n">
         <v>1</v>
@@ -25060,7 +25060,7 @@
         <v>0.92</v>
       </c>
       <c r="AT121" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU121" t="n">
         <v>1.04</v>
@@ -25260,7 +25260,7 @@
         <v>1</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT122" t="n">
         <v>1.17</v>
@@ -26478,7 +26478,7 @@
         <v>1.29</v>
       </c>
       <c r="AS128" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT128" t="n">
         <v>1.23</v>
@@ -26684,7 +26684,7 @@
         <v>1.54</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU129" t="n">
         <v>1.05</v>
@@ -27496,7 +27496,7 @@
         <v>1.91</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU133" t="n">
         <v>1.21</v>
@@ -27696,10 +27696,10 @@
         <v>1.71</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU134" t="n">
         <v>1.39</v>
@@ -28508,7 +28508,7 @@
         <v>1</v>
       </c>
       <c r="AS138" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT138" t="n">
         <v>1</v>
@@ -28711,7 +28711,7 @@
         <v>1.29</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT139" t="n">
         <v>1.33</v>
@@ -29323,7 +29323,7 @@
         <v>2.4</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU142" t="n">
         <v>1.83</v>
@@ -29526,7 +29526,7 @@
         <v>2</v>
       </c>
       <c r="AT143" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU143" t="n">
         <v>1.45</v>
@@ -29929,7 +29929,7 @@
         <v>0.38</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT145" t="n">
         <v>0.5</v>
@@ -30132,7 +30132,7 @@
         <v>0.88</v>
       </c>
       <c r="AS146" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT146" t="n">
         <v>1.17</v>
@@ -30541,7 +30541,7 @@
         <v>1.31</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU148" t="n">
         <v>1.52</v>
@@ -30744,7 +30744,7 @@
         <v>1.54</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU149" t="n">
         <v>1.07</v>
@@ -30947,7 +30947,7 @@
         <v>1</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU150" t="n">
         <v>1.29</v>
@@ -31756,7 +31756,7 @@
         <v>1.5</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT154" t="n">
         <v>1.23</v>
@@ -32368,7 +32368,7 @@
         <v>1.31</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU157" t="n">
         <v>1.56</v>
@@ -32571,7 +32571,7 @@
         <v>1</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU158" t="n">
         <v>1.31</v>
@@ -32977,7 +32977,7 @@
         <v>2.4</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU160" t="n">
         <v>1.72</v>
@@ -33380,7 +33380,7 @@
         <v>1.25</v>
       </c>
       <c r="AS162" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT162" t="n">
         <v>1.33</v>
@@ -33989,7 +33989,7 @@
         <v>1.25</v>
       </c>
       <c r="AS165" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT165" t="n">
         <v>1</v>
@@ -34192,7 +34192,7 @@
         <v>1.13</v>
       </c>
       <c r="AS166" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT166" t="n">
         <v>1.09</v>
@@ -34395,10 +34395,10 @@
         <v>2.13</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT167" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU167" t="n">
         <v>1.62</v>
@@ -35004,7 +35004,7 @@
         <v>1</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT170" t="n">
         <v>1.17</v>
@@ -35616,7 +35616,7 @@
         <v>0.92</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU173" t="n">
         <v>1.09</v>
@@ -36428,7 +36428,7 @@
         <v>2.4</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU177" t="n">
         <v>1.67</v>
@@ -36628,10 +36628,10 @@
         <v>1.14</v>
       </c>
       <c r="AS178" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU178" t="n">
         <v>0.95</v>
@@ -36831,7 +36831,7 @@
         <v>1.22</v>
       </c>
       <c r="AS179" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT179" t="n">
         <v>1</v>
@@ -37440,7 +37440,7 @@
         <v>1.11</v>
       </c>
       <c r="AS182" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT182" t="n">
         <v>1.09</v>
@@ -37643,7 +37643,7 @@
         <v>1.56</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT183" t="n">
         <v>1.64</v>
@@ -37849,7 +37849,7 @@
         <v>1.17</v>
       </c>
       <c r="AT184" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU184" t="n">
         <v>1.35</v>
@@ -38052,7 +38052,7 @@
         <v>2</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU185" t="n">
         <v>1.47</v>
@@ -39064,7 +39064,7 @@
         <v>1.6</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT190" t="n">
         <v>1.33</v>
@@ -39470,10 +39470,10 @@
         <v>1.36</v>
       </c>
       <c r="AS192" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU192" t="n">
         <v>0.96</v>
@@ -39673,10 +39673,10 @@
         <v>1.13</v>
       </c>
       <c r="AS193" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU193" t="n">
         <v>1.29</v>
@@ -39879,7 +39879,7 @@
         <v>1.58</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU194" t="n">
         <v>1.6</v>
@@ -40079,7 +40079,7 @@
         <v>1.1</v>
       </c>
       <c r="AS195" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT195" t="n">
         <v>1.09</v>
@@ -40688,7 +40688,7 @@
         <v>1.36</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT198" t="n">
         <v>1.33</v>
@@ -40894,7 +40894,7 @@
         <v>1.82</v>
       </c>
       <c r="AT199" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU199" t="n">
         <v>1.64</v>
@@ -41300,7 +41300,7 @@
         <v>1.17</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU201" t="n">
         <v>1.37</v>
@@ -42164,6 +42164,1021 @@
       </c>
       <c r="BK205" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="n">
+        <v>4407839</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>45028.67708333334</v>
+      </c>
+      <c r="F206" t="n">
+        <v>25</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>El Daklyeh FC</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Ceramica Cleopatra</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="n">
+        <v>0</v>
+      </c>
+      <c r="L206" t="n">
+        <v>0</v>
+      </c>
+      <c r="M206" t="n">
+        <v>0</v>
+      </c>
+      <c r="N206" t="n">
+        <v>0</v>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q206" t="n">
+        <v>5</v>
+      </c>
+      <c r="R206" t="n">
+        <v>4</v>
+      </c>
+      <c r="S206" t="n">
+        <v>9</v>
+      </c>
+      <c r="T206" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="U206" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="V206" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="W206" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X206" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y206" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z206" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA206" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AB206" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC206" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD206" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE206" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF206" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG206" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH206" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI206" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AJ206" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AK206" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL206" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM206" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN206" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AO206" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP206" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AQ206" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR206" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS206" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AT206" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AU206" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AV206" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AW206" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX206" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AY206" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ206" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BA206" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BB206" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BC206" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BD206" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BE206" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF206" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG206" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH206" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI206" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ206" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK206" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="n">
+        <v>4407842</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>45028.67708333334</v>
+      </c>
+      <c r="F207" t="n">
+        <v>25</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Ghazl El Mehalla</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Coca-Cola</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="n">
+        <v>0</v>
+      </c>
+      <c r="L207" t="n">
+        <v>0</v>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="n">
+        <v>1</v>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="Q207" t="n">
+        <v>5</v>
+      </c>
+      <c r="R207" t="n">
+        <v>7</v>
+      </c>
+      <c r="S207" t="n">
+        <v>12</v>
+      </c>
+      <c r="T207" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="U207" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V207" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="W207" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X207" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AB207" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC207" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AD207" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE207" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AF207" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG207" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH207" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI207" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AJ207" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK207" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL207" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AM207" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN207" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AO207" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP207" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AQ207" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AR207" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AS207" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT207" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU207" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV207" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW207" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AX207" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AY207" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ207" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BA207" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB207" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC207" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BD207" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE207" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BF207" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG207" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH207" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI207" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ207" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK207" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="n">
+        <v>4407845</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>45029.67708333334</v>
+      </c>
+      <c r="F208" t="n">
+        <v>25</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Al Mokawloon</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Al Masry</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="n">
+        <v>0</v>
+      </c>
+      <c r="L208" t="n">
+        <v>0</v>
+      </c>
+      <c r="M208" t="n">
+        <v>0</v>
+      </c>
+      <c r="N208" t="n">
+        <v>0</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q208" t="n">
+        <v>5</v>
+      </c>
+      <c r="R208" t="n">
+        <v>4</v>
+      </c>
+      <c r="S208" t="n">
+        <v>9</v>
+      </c>
+      <c r="T208" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U208" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V208" t="n">
+        <v>4</v>
+      </c>
+      <c r="W208" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X208" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Z208" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB208" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC208" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AD208" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE208" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF208" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG208" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH208" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI208" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AJ208" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK208" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL208" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM208" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN208" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO208" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP208" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ208" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR208" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS208" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT208" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU208" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV208" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW208" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX208" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY208" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ208" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BA208" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB208" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC208" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BD208" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BE208" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="BF208" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG208" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH208" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI208" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ208" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK208" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="n">
+        <v>4407843</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="n">
+        <v>45029.67708333334</v>
+      </c>
+      <c r="F209" t="n">
+        <v>25</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Haras El Hodood</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Zamalek</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>2</v>
+      </c>
+      <c r="K209" t="n">
+        <v>2</v>
+      </c>
+      <c r="L209" t="n">
+        <v>0</v>
+      </c>
+      <c r="M209" t="n">
+        <v>3</v>
+      </c>
+      <c r="N209" t="n">
+        <v>3</v>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>['14', '45+2', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q209" t="n">
+        <v>7</v>
+      </c>
+      <c r="R209" t="n">
+        <v>0</v>
+      </c>
+      <c r="S209" t="n">
+        <v>7</v>
+      </c>
+      <c r="T209" t="n">
+        <v>5</v>
+      </c>
+      <c r="U209" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V209" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W209" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X209" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="Y209" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Z209" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA209" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB209" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC209" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AD209" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE209" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AF209" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG209" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AH209" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AI209" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ209" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK209" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL209" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM209" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN209" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AO209" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP209" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ209" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR209" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS209" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AT209" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AU209" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AV209" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AW209" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX209" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AY209" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ209" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BA209" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BB209" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BC209" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BD209" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BE209" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF209" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG209" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH209" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI209" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ209" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK209" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="n">
+        <v>4407844</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>45029.67708333334</v>
+      </c>
+      <c r="F210" t="n">
+        <v>25</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Ismaily SC</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>ENPPI</t>
+        </is>
+      </c>
+      <c r="I210" t="n">
+        <v>2</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="n">
+        <v>2</v>
+      </c>
+      <c r="L210" t="n">
+        <v>3</v>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="n">
+        <v>4</v>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>['41', '45+2', '57']</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="Q210" t="n">
+        <v>3</v>
+      </c>
+      <c r="R210" t="n">
+        <v>6</v>
+      </c>
+      <c r="S210" t="n">
+        <v>9</v>
+      </c>
+      <c r="T210" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U210" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V210" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W210" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X210" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="Y210" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Z210" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA210" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB210" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC210" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD210" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AE210" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF210" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG210" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH210" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AI210" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AJ210" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AK210" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL210" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM210" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN210" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO210" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP210" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ210" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AR210" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS210" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AT210" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU210" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AV210" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW210" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AX210" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY210" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ210" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA210" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB210" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC210" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD210" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BE210" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF210" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG210" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH210" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI210" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ210" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK210" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK210"/>
+  <dimension ref="A1:BK214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT2" t="n">
         <v>1.33</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>0.92</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>2</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0.85</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT13" t="n">
         <v>1.17</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT15" t="n">
         <v>1</v>
@@ -4554,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT20" t="n">
         <v>1</v>
@@ -4960,10 +4960,10 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU22" t="n">
         <v>1.15</v>
@@ -5166,7 +5166,7 @@
         <v>1.58</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU23" t="n">
         <v>1.7</v>
@@ -5369,7 +5369,7 @@
         <v>0.91</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU24" t="n">
         <v>0.68</v>
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT25" t="n">
         <v>1.09</v>
@@ -6790,7 +6790,7 @@
         <v>0.91</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU31" t="n">
         <v>0.76</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT32" t="n">
         <v>1.38</v>
@@ -7193,7 +7193,7 @@
         <v>2</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT33" t="n">
         <v>1</v>
@@ -7599,10 +7599,10 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU35" t="n">
         <v>1.4</v>
@@ -8211,7 +8211,7 @@
         <v>0.92</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU38" t="n">
         <v>0.54</v>
@@ -8411,10 +8411,10 @@
         <v>0.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU39" t="n">
         <v>1.58</v>
@@ -11053,7 +11053,7 @@
         <v>2</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU52" t="n">
         <v>1.24</v>
@@ -11659,7 +11659,7 @@
         <v>1.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT55" t="n">
         <v>1.33</v>
@@ -11865,7 +11865,7 @@
         <v>1.46</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU56" t="n">
         <v>1.51</v>
@@ -12271,7 +12271,7 @@
         <v>0.85</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU58" t="n">
         <v>0.97</v>
@@ -12471,10 +12471,10 @@
         <v>0.67</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU59" t="n">
         <v>1.97</v>
@@ -12880,7 +12880,7 @@
         <v>0.92</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU61" t="n">
         <v>1.21</v>
@@ -13283,7 +13283,7 @@
         <v>2.33</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT63" t="n">
         <v>1.46</v>
@@ -13486,7 +13486,7 @@
         <v>2.33</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT64" t="n">
         <v>2.25</v>
@@ -15516,7 +15516,7 @@
         <v>1</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT74" t="n">
         <v>1.09</v>
@@ -15722,7 +15722,7 @@
         <v>0.85</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU75" t="n">
         <v>0.92</v>
@@ -15922,7 +15922,7 @@
         <v>0.75</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT76" t="n">
         <v>1.38</v>
@@ -16128,7 +16128,7 @@
         <v>1.46</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU77" t="n">
         <v>1.56</v>
@@ -16534,7 +16534,7 @@
         <v>1.91</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU79" t="n">
         <v>1.41</v>
@@ -17140,10 +17140,10 @@
         <v>1.25</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU82" t="n">
         <v>1.65</v>
@@ -18967,7 +18967,7 @@
         <v>0.75</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT91" t="n">
         <v>1.23</v>
@@ -19170,7 +19170,7 @@
         <v>2.2</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT92" t="n">
         <v>1.46</v>
@@ -19576,7 +19576,7 @@
         <v>0.6</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT94" t="n">
         <v>1.38</v>
@@ -19779,10 +19779,10 @@
         <v>1.4</v>
       </c>
       <c r="AS95" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU95" t="n">
         <v>1.53</v>
@@ -20594,7 +20594,7 @@
         <v>1.91</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU99" t="n">
         <v>1.26</v>
@@ -20797,7 +20797,7 @@
         <v>1.54</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU100" t="n">
         <v>1.11</v>
@@ -22215,7 +22215,7 @@
         <v>1</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT107" t="n">
         <v>1.17</v>
@@ -22421,7 +22421,7 @@
         <v>1</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU108" t="n">
         <v>1.4</v>
@@ -23030,7 +23030,7 @@
         <v>1</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU111" t="n">
         <v>1.41</v>
@@ -23233,7 +23233,7 @@
         <v>1.91</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU112" t="n">
         <v>1.25</v>
@@ -23433,7 +23433,7 @@
         <v>1.83</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT113" t="n">
         <v>1.46</v>
@@ -23839,7 +23839,7 @@
         <v>1.5</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT115" t="n">
         <v>1.33</v>
@@ -24042,7 +24042,7 @@
         <v>0.33</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT116" t="n">
         <v>0.5</v>
@@ -25463,7 +25463,7 @@
         <v>1</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT123" t="n">
         <v>1.33</v>
@@ -25669,7 +25669,7 @@
         <v>2.4</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU124" t="n">
         <v>1.82</v>
@@ -26075,7 +26075,7 @@
         <v>1.31</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU126" t="n">
         <v>1.5</v>
@@ -26884,7 +26884,7 @@
         <v>0.86</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT130" t="n">
         <v>1.09</v>
@@ -27087,7 +27087,7 @@
         <v>0.43</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT131" t="n">
         <v>0.5</v>
@@ -27293,7 +27293,7 @@
         <v>1.31</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU132" t="n">
         <v>1.5</v>
@@ -27902,7 +27902,7 @@
         <v>1</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU135" t="n">
         <v>1.31</v>
@@ -28102,7 +28102,7 @@
         <v>0.57</v>
       </c>
       <c r="AS136" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT136" t="n">
         <v>0.31</v>
@@ -28305,10 +28305,10 @@
         <v>0.5</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU137" t="n">
         <v>1.4</v>
@@ -28917,7 +28917,7 @@
         <v>1.58</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU140" t="n">
         <v>1.68</v>
@@ -29120,7 +29120,7 @@
         <v>0.92</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU141" t="n">
         <v>1.11</v>
@@ -29726,7 +29726,7 @@
         <v>1.29</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT144" t="n">
         <v>1</v>
@@ -30335,7 +30335,7 @@
         <v>0.88</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT147" t="n">
         <v>1.09</v>
@@ -31150,7 +31150,7 @@
         <v>1.1</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU151" t="n">
         <v>1.26</v>
@@ -31553,7 +31553,7 @@
         <v>1.11</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT153" t="n">
         <v>1.17</v>
@@ -33177,10 +33177,10 @@
         <v>1.63</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU161" t="n">
         <v>1.46</v>
@@ -33586,7 +33586,7 @@
         <v>0.92</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU163" t="n">
         <v>1.14</v>
@@ -33786,7 +33786,7 @@
         <v>2.71</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT164" t="n">
         <v>2.75</v>
@@ -34195,7 +34195,7 @@
         <v>0.91</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU166" t="n">
         <v>1.02</v>
@@ -34601,7 +34601,7 @@
         <v>1.58</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU168" t="n">
         <v>1.74</v>
@@ -35816,7 +35816,7 @@
         <v>1.11</v>
       </c>
       <c r="AS174" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT174" t="n">
         <v>1</v>
@@ -37037,7 +37037,7 @@
         <v>1.58</v>
       </c>
       <c r="AT180" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU180" t="n">
         <v>1.62</v>
@@ -37237,7 +37237,7 @@
         <v>1.5</v>
       </c>
       <c r="AS181" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT181" t="n">
         <v>1.23</v>
@@ -37443,7 +37443,7 @@
         <v>0.92</v>
       </c>
       <c r="AT182" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU182" t="n">
         <v>1.32</v>
@@ -37646,7 +37646,7 @@
         <v>1.58</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU183" t="n">
         <v>1.63</v>
@@ -37846,7 +37846,7 @@
         <v>2</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT184" t="n">
         <v>2.25</v>
@@ -38252,10 +38252,10 @@
         <v>1.5</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU186" t="n">
         <v>1.39</v>
@@ -40082,7 +40082,7 @@
         <v>0.85</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU195" t="n">
         <v>1.22</v>
@@ -40282,10 +40282,10 @@
         <v>1.7</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU196" t="n">
         <v>1.36</v>
@@ -40485,7 +40485,7 @@
         <v>1.1</v>
       </c>
       <c r="AS197" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT197" t="n">
         <v>1</v>
@@ -40691,7 +40691,7 @@
         <v>1.58</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU198" t="n">
         <v>1.68</v>
@@ -40891,7 +40891,7 @@
         <v>2.1</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT199" t="n">
         <v>2.25</v>
@@ -41297,7 +41297,7 @@
         <v>1.11</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT201" t="n">
         <v>1.09</v>
@@ -43179,6 +43179,818 @@
       </c>
       <c r="BK210" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="n">
+        <v>4407847</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="n">
+        <v>45030.67708333334</v>
+      </c>
+      <c r="F211" t="n">
+        <v>25</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Smouha SC</t>
+        </is>
+      </c>
+      <c r="I211" t="n">
+        <v>1</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="n">
+        <v>3</v>
+      </c>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="n">
+        <v>4</v>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>['6', '81', '90']</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="Q211" t="n">
+        <v>4</v>
+      </c>
+      <c r="R211" t="n">
+        <v>11</v>
+      </c>
+      <c r="S211" t="n">
+        <v>15</v>
+      </c>
+      <c r="T211" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="U211" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V211" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="W211" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X211" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y211" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z211" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA211" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB211" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC211" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AD211" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE211" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AF211" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG211" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AH211" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI211" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ211" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK211" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL211" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AM211" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN211" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO211" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP211" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ211" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AR211" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AS211" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AT211" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU211" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV211" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW211" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX211" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY211" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ211" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BA211" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB211" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC211" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD211" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE211" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BF211" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG211" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH211" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI211" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ211" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK211" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="n">
+        <v>4407840</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E212" s="2" t="n">
+        <v>45030.67708333334</v>
+      </c>
+      <c r="F212" t="n">
+        <v>25</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Aswan FC</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Pyramids FC</t>
+        </is>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="n">
+        <v>1</v>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="n">
+        <v>0</v>
+      </c>
+      <c r="M212" t="n">
+        <v>3</v>
+      </c>
+      <c r="N212" t="n">
+        <v>3</v>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>['31', '90+1', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q212" t="n">
+        <v>3</v>
+      </c>
+      <c r="R212" t="n">
+        <v>5</v>
+      </c>
+      <c r="S212" t="n">
+        <v>8</v>
+      </c>
+      <c r="T212" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="U212" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="V212" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W212" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X212" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y212" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z212" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA212" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB212" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC212" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD212" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE212" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AF212" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG212" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH212" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI212" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ212" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AK212" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL212" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AM212" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN212" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AO212" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP212" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AQ212" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR212" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS212" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT212" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AU212" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV212" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW212" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX212" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AY212" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ212" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BA212" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB212" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC212" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BD212" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE212" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BF212" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG212" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH212" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI212" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ212" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK212" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="n">
+        <v>4407846</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="n">
+        <v>45030.67708333334</v>
+      </c>
+      <c r="F213" t="n">
+        <v>25</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>Al Ahly</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Pharco</t>
+        </is>
+      </c>
+      <c r="I213" t="n">
+        <v>2</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="n">
+        <v>2</v>
+      </c>
+      <c r="L213" t="n">
+        <v>3</v>
+      </c>
+      <c r="M213" t="n">
+        <v>0</v>
+      </c>
+      <c r="N213" t="n">
+        <v>3</v>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>['19', '45+3', '90+7']</t>
+        </is>
+      </c>
+      <c r="P213" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q213" t="n">
+        <v>5</v>
+      </c>
+      <c r="R213" t="n">
+        <v>7</v>
+      </c>
+      <c r="S213" t="n">
+        <v>12</v>
+      </c>
+      <c r="T213" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U213" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="V213" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W213" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X213" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y213" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z213" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA213" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB213" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC213" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AD213" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE213" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AF213" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG213" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH213" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI213" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ213" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AK213" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AL213" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AM213" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN213" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO213" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP213" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AQ213" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AR213" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AS213" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT213" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU213" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV213" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW213" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX213" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AY213" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AZ213" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BA213" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB213" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC213" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BD213" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BE213" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BF213" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG213" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH213" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI213" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ213" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK213" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" t="n">
+        <v>4407841</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="n">
+        <v>45031.67708333334</v>
+      </c>
+      <c r="F214" t="n">
+        <v>25</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>National Bank of Egypt</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>El Geish</t>
+        </is>
+      </c>
+      <c r="I214" t="n">
+        <v>1</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="n">
+        <v>2</v>
+      </c>
+      <c r="M214" t="n">
+        <v>0</v>
+      </c>
+      <c r="N214" t="n">
+        <v>2</v>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>['25', '51']</t>
+        </is>
+      </c>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q214" t="n">
+        <v>6</v>
+      </c>
+      <c r="R214" t="n">
+        <v>9</v>
+      </c>
+      <c r="S214" t="n">
+        <v>15</v>
+      </c>
+      <c r="T214" t="n">
+        <v>3</v>
+      </c>
+      <c r="U214" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V214" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W214" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X214" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y214" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z214" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA214" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB214" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC214" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AD214" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE214" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AF214" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG214" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH214" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI214" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AJ214" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK214" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL214" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM214" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AN214" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO214" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AP214" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AQ214" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AR214" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AS214" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT214" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU214" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV214" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW214" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AX214" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY214" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB214" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC214" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BD214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF214" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG214" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH214" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI214" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ214" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK214" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK214"/>
+  <dimension ref="A1:BK218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1512,7 +1512,7 @@
         <v>0.92</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT6" t="n">
         <v>1.46</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT7" t="n">
         <v>1.5</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT11" t="n">
         <v>1.33</v>
@@ -3136,7 +3136,7 @@
         <v>2.33</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1.92</v>
       </c>
       <c r="AT15" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>1.91</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT17" t="n">
         <v>0.31</v>
@@ -5775,7 +5775,7 @@
         <v>0.85</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AU26" t="n">
         <v>1.37</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT27" t="n">
         <v>1.46</v>
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT28" t="n">
         <v>0.31</v>
@@ -6384,7 +6384,7 @@
         <v>1.91</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU29" t="n">
         <v>1.91</v>
@@ -7802,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="AS36" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT36" t="n">
         <v>1.33</v>
@@ -8817,10 +8817,10 @@
         <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU41" t="n">
         <v>1.38</v>
@@ -9023,7 +9023,7 @@
         <v>1.54</v>
       </c>
       <c r="AT42" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU42" t="n">
         <v>1.19</v>
@@ -9226,7 +9226,7 @@
         <v>1.46</v>
       </c>
       <c r="AT43" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AU43" t="n">
         <v>1.83</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT45" t="n">
         <v>0.5</v>
@@ -9832,10 +9832,10 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU46" t="n">
         <v>0.89</v>
@@ -10444,7 +10444,7 @@
         <v>1.46</v>
       </c>
       <c r="AT49" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU49" t="n">
         <v>1.38</v>
@@ -10644,10 +10644,10 @@
         <v>0.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU50" t="n">
         <v>1.39</v>
@@ -11050,7 +11050,7 @@
         <v>2</v>
       </c>
       <c r="AS52" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT52" t="n">
         <v>1.46</v>
@@ -12068,7 +12068,7 @@
         <v>1.31</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU57" t="n">
         <v>1.79</v>
@@ -13692,7 +13692,7 @@
         <v>1.31</v>
       </c>
       <c r="AT65" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU65" t="n">
         <v>1.7</v>
@@ -14095,7 +14095,7 @@
         <v>1</v>
       </c>
       <c r="AS67" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT67" t="n">
         <v>1.33</v>
@@ -14298,10 +14298,10 @@
         <v>0.75</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU68" t="n">
         <v>1.51</v>
@@ -14501,7 +14501,7 @@
         <v>0.67</v>
       </c>
       <c r="AS69" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT69" t="n">
         <v>1.09</v>
@@ -14910,7 +14910,7 @@
         <v>1.54</v>
       </c>
       <c r="AT71" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AU71" t="n">
         <v>1.02</v>
@@ -15110,7 +15110,7 @@
         <v>0.33</v>
       </c>
       <c r="AS72" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT72" t="n">
         <v>0.5</v>
@@ -15316,7 +15316,7 @@
         <v>1.58</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU73" t="n">
         <v>1.74</v>
@@ -17343,7 +17343,7 @@
         <v>1.5</v>
       </c>
       <c r="AS83" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT83" t="n">
         <v>1.33</v>
@@ -17546,10 +17546,10 @@
         <v>0.5</v>
       </c>
       <c r="AS84" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT84" t="n">
         <v>0.92</v>
-      </c>
-      <c r="AT84" t="n">
-        <v>1</v>
       </c>
       <c r="AU84" t="n">
         <v>1.04</v>
@@ -18158,7 +18158,7 @@
         <v>1.31</v>
       </c>
       <c r="AT87" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AU87" t="n">
         <v>1.71</v>
@@ -18361,7 +18361,7 @@
         <v>1.58</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU88" t="n">
         <v>1.73</v>
@@ -18561,7 +18561,7 @@
         <v>1.25</v>
       </c>
       <c r="AS89" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT89" t="n">
         <v>1.09</v>
@@ -18764,7 +18764,7 @@
         <v>1.75</v>
       </c>
       <c r="AS90" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT90" t="n">
         <v>1</v>
@@ -18970,7 +18970,7 @@
         <v>1.45</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU91" t="n">
         <v>1.72</v>
@@ -20997,10 +20997,10 @@
         <v>2.6</v>
       </c>
       <c r="AS101" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT101" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AU101" t="n">
         <v>0.99</v>
@@ -21200,10 +21200,10 @@
         <v>0.6</v>
       </c>
       <c r="AS102" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT102" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU102" t="n">
         <v>1.36</v>
@@ -21403,7 +21403,7 @@
         <v>1.6</v>
       </c>
       <c r="AS103" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT103" t="n">
         <v>1</v>
@@ -22218,7 +22218,7 @@
         <v>1.45</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU107" t="n">
         <v>1.66</v>
@@ -22418,7 +22418,7 @@
         <v>0.6</v>
       </c>
       <c r="AS108" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT108" t="n">
         <v>1</v>
@@ -22624,7 +22624,7 @@
         <v>1.1</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU109" t="n">
         <v>1.21</v>
@@ -23027,7 +23027,7 @@
         <v>0.5</v>
       </c>
       <c r="AS111" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT111" t="n">
         <v>0.5</v>
@@ -24451,7 +24451,7 @@
         <v>0.92</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU118" t="n">
         <v>1.22</v>
@@ -24654,7 +24654,7 @@
         <v>0.91</v>
       </c>
       <c r="AT119" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU119" t="n">
         <v>1</v>
@@ -25057,7 +25057,7 @@
         <v>2.33</v>
       </c>
       <c r="AS121" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT121" t="n">
         <v>2.25</v>
@@ -25263,7 +25263,7 @@
         <v>1.58</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU122" t="n">
         <v>1.73</v>
@@ -25666,7 +25666,7 @@
         <v>1</v>
       </c>
       <c r="AS124" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT124" t="n">
         <v>1</v>
@@ -26275,10 +26275,10 @@
         <v>2.67</v>
       </c>
       <c r="AS127" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT127" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AU127" t="n">
         <v>1.51</v>
@@ -26481,7 +26481,7 @@
         <v>0.85</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU128" t="n">
         <v>0.98</v>
@@ -27899,7 +27899,7 @@
         <v>1.14</v>
       </c>
       <c r="AS135" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT135" t="n">
         <v>1.46</v>
@@ -28511,7 +28511,7 @@
         <v>0.92</v>
       </c>
       <c r="AT138" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU138" t="n">
         <v>1.28</v>
@@ -29117,7 +29117,7 @@
         <v>1.43</v>
       </c>
       <c r="AS141" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT141" t="n">
         <v>1.5</v>
@@ -29320,7 +29320,7 @@
         <v>1.17</v>
       </c>
       <c r="AS142" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT142" t="n">
         <v>1.09</v>
@@ -29523,7 +29523,7 @@
         <v>2.43</v>
       </c>
       <c r="AS143" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT143" t="n">
         <v>2.25</v>
@@ -30135,7 +30135,7 @@
         <v>0.85</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU146" t="n">
         <v>0.9399999999999999</v>
@@ -30944,7 +30944,7 @@
         <v>1.38</v>
       </c>
       <c r="AS150" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT150" t="n">
         <v>1.33</v>
@@ -31556,7 +31556,7 @@
         <v>1.92</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU153" t="n">
         <v>1.6</v>
@@ -31759,7 +31759,7 @@
         <v>1.46</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU154" t="n">
         <v>1.45</v>
@@ -32165,7 +32165,7 @@
         <v>1.1</v>
       </c>
       <c r="AT156" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU156" t="n">
         <v>1.27</v>
@@ -32568,7 +32568,7 @@
         <v>1.33</v>
       </c>
       <c r="AS158" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT158" t="n">
         <v>1.46</v>
@@ -32974,7 +32974,7 @@
         <v>1.33</v>
       </c>
       <c r="AS160" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT160" t="n">
         <v>1.38</v>
@@ -33583,7 +33583,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS163" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT163" t="n">
         <v>0.5</v>
@@ -33789,7 +33789,7 @@
         <v>1.08</v>
       </c>
       <c r="AT164" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AU164" t="n">
         <v>1.43</v>
@@ -34801,7 +34801,7 @@
         <v>0.6</v>
       </c>
       <c r="AS169" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT169" t="n">
         <v>0.5</v>
@@ -35007,7 +35007,7 @@
         <v>1.46</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU170" t="n">
         <v>1.44</v>
@@ -35613,7 +35613,7 @@
         <v>1.2</v>
       </c>
       <c r="AS173" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT173" t="n">
         <v>1.33</v>
@@ -35819,7 +35819,7 @@
         <v>2.33</v>
       </c>
       <c r="AT174" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU174" t="n">
         <v>1.62</v>
@@ -36022,7 +36022,7 @@
         <v>1.54</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU175" t="n">
         <v>1.09</v>
@@ -36425,7 +36425,7 @@
         <v>1.5</v>
       </c>
       <c r="AS177" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT177" t="n">
         <v>1.46</v>
@@ -37240,7 +37240,7 @@
         <v>2.33</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU181" t="n">
         <v>1.67</v>
@@ -38049,7 +38049,7 @@
         <v>1.2</v>
       </c>
       <c r="AS185" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT185" t="n">
         <v>1.38</v>
@@ -38455,7 +38455,7 @@
         <v>0.9</v>
       </c>
       <c r="AS187" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT187" t="n">
         <v>1.09</v>
@@ -38661,7 +38661,7 @@
         <v>1.31</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU188" t="n">
         <v>1.58</v>
@@ -38861,7 +38861,7 @@
         <v>0.36</v>
       </c>
       <c r="AS189" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT189" t="n">
         <v>0.31</v>
@@ -39270,7 +39270,7 @@
         <v>1.54</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU191" t="n">
         <v>1.15</v>
@@ -41500,10 +41500,10 @@
         <v>1.1</v>
       </c>
       <c r="AS202" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AT202" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU202" t="n">
         <v>1.45</v>
@@ -41703,7 +41703,7 @@
         <v>0.33</v>
       </c>
       <c r="AS203" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT203" t="n">
         <v>0.31</v>
@@ -41906,10 +41906,10 @@
         <v>1.33</v>
       </c>
       <c r="AS204" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT204" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU204" t="n">
         <v>1.08</v>
@@ -43991,6 +43991,818 @@
       </c>
       <c r="BK214" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" t="n">
+        <v>4407852</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E215" s="2" t="n">
+        <v>45033.67708333334</v>
+      </c>
+      <c r="F215" t="n">
+        <v>26</v>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>Smouha SC</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Al Ahly</t>
+        </is>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="n">
+        <v>1</v>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="n">
+        <v>0</v>
+      </c>
+      <c r="M215" t="n">
+        <v>2</v>
+      </c>
+      <c r="N215" t="n">
+        <v>2</v>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P215" t="inlineStr">
+        <is>
+          <t>['28', '66']</t>
+        </is>
+      </c>
+      <c r="Q215" t="n">
+        <v>4</v>
+      </c>
+      <c r="R215" t="n">
+        <v>2</v>
+      </c>
+      <c r="S215" t="n">
+        <v>6</v>
+      </c>
+      <c r="T215" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="U215" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V215" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W215" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X215" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y215" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z215" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA215" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB215" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC215" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD215" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE215" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF215" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG215" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH215" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI215" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ215" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK215" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL215" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM215" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN215" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AO215" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP215" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AQ215" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR215" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AS215" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AT215" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AU215" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV215" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AW215" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AX215" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AY215" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ215" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BA215" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB215" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC215" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD215" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BE215" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF215" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG215" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH215" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI215" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ215" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK215" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" t="n">
+        <v>4407853</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E216" s="2" t="n">
+        <v>45033.67708333334</v>
+      </c>
+      <c r="F216" t="n">
+        <v>26</v>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Zamalek</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Al Mokawloon</t>
+        </is>
+      </c>
+      <c r="I216" t="n">
+        <v>1</v>
+      </c>
+      <c r="J216" t="n">
+        <v>1</v>
+      </c>
+      <c r="K216" t="n">
+        <v>2</v>
+      </c>
+      <c r="L216" t="n">
+        <v>2</v>
+      </c>
+      <c r="M216" t="n">
+        <v>2</v>
+      </c>
+      <c r="N216" t="n">
+        <v>4</v>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>['34', '58']</t>
+        </is>
+      </c>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>['25', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q216" t="n">
+        <v>6</v>
+      </c>
+      <c r="R216" t="n">
+        <v>3</v>
+      </c>
+      <c r="S216" t="n">
+        <v>9</v>
+      </c>
+      <c r="T216" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U216" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V216" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W216" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X216" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="Y216" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z216" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA216" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB216" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC216" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD216" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE216" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AF216" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG216" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AH216" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI216" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ216" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK216" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL216" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM216" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AN216" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO216" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP216" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ216" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR216" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS216" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AT216" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AU216" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV216" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW216" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AX216" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY216" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AZ216" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BA216" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB216" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC216" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BD216" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BE216" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BF216" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG216" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH216" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI216" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ216" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK216" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" t="n">
+        <v>4407848</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E217" s="2" t="n">
+        <v>45034.67708333334</v>
+      </c>
+      <c r="F217" t="n">
+        <v>26</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>ENPPI</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Aswan FC</t>
+        </is>
+      </c>
+      <c r="I217" t="n">
+        <v>1</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="n">
+        <v>2</v>
+      </c>
+      <c r="M217" t="n">
+        <v>0</v>
+      </c>
+      <c r="N217" t="n">
+        <v>2</v>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>['9', '51']</t>
+        </is>
+      </c>
+      <c r="P217" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q217" t="n">
+        <v>5</v>
+      </c>
+      <c r="R217" t="n">
+        <v>10</v>
+      </c>
+      <c r="S217" t="n">
+        <v>15</v>
+      </c>
+      <c r="T217" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U217" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V217" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W217" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X217" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y217" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z217" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA217" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB217" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC217" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD217" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE217" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF217" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG217" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AH217" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI217" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ217" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK217" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL217" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM217" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN217" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO217" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP217" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ217" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR217" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS217" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT217" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AU217" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AV217" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW217" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AX217" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AY217" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ217" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BA217" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB217" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BC217" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD217" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE217" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BF217" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG217" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH217" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI217" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ217" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK217" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="n">
+        <v>4407849</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>45034.67708333334</v>
+      </c>
+      <c r="F218" t="n">
+        <v>26</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Pyramids FC</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>El Daklyeh FC</t>
+        </is>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="n">
+        <v>0</v>
+      </c>
+      <c r="L218" t="n">
+        <v>2</v>
+      </c>
+      <c r="M218" t="n">
+        <v>0</v>
+      </c>
+      <c r="N218" t="n">
+        <v>2</v>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>['90', '90+4']</t>
+        </is>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q218" t="n">
+        <v>8</v>
+      </c>
+      <c r="R218" t="n">
+        <v>1</v>
+      </c>
+      <c r="S218" t="n">
+        <v>9</v>
+      </c>
+      <c r="T218" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U218" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V218" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W218" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X218" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y218" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z218" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA218" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB218" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC218" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AD218" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE218" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF218" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG218" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH218" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI218" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AJ218" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK218" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL218" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AM218" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AN218" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO218" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP218" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AQ218" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AR218" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS218" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AT218" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AU218" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV218" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW218" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX218" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY218" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AZ218" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BA218" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB218" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC218" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD218" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE218" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF218" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG218" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH218" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ218" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK218" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Egypt Egyptian Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK218"/>
+  <dimension ref="A1:BK221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT3" t="n">
         <v>1</v>
@@ -2121,7 +2121,7 @@
         <v>1.58</v>
       </c>
       <c r="AT8" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>0.91</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT18" t="n">
         <v>1.38</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>1.08</v>
       </c>
       <c r="AT20" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU20" t="n">
         <v>1.11</v>
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT25" t="n">
         <v>1.09</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT30" t="n">
         <v>1.09</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT32" t="n">
         <v>1.38</v>
@@ -7196,7 +7196,7 @@
         <v>1.92</v>
       </c>
       <c r="AT33" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU33" t="n">
         <v>2.03</v>
@@ -7399,7 +7399,7 @@
         <v>0.85</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AU34" t="n">
         <v>1.19</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT42" t="n">
         <v>0.92</v>
@@ -9426,7 +9426,7 @@
         <v>2</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT44" t="n">
         <v>1.46</v>
@@ -9632,7 +9632,7 @@
         <v>1.08</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU45" t="n">
         <v>0.95</v>
@@ -10847,7 +10847,7 @@
         <v>1</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT51" t="n">
         <v>1.33</v>
@@ -11256,7 +11256,7 @@
         <v>1.31</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU53" t="n">
         <v>1.6</v>
@@ -11459,7 +11459,7 @@
         <v>0.92</v>
       </c>
       <c r="AT54" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AU54" t="n">
         <v>0.89</v>
@@ -13283,7 +13283,7 @@
         <v>2.33</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT63" t="n">
         <v>1.46</v>
@@ -13489,7 +13489,7 @@
         <v>2.33</v>
       </c>
       <c r="AT64" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AU64" t="n">
         <v>1.49</v>
@@ -13895,7 +13895,7 @@
         <v>1.91</v>
       </c>
       <c r="AT66" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU66" t="n">
         <v>1.47</v>
@@ -14704,7 +14704,7 @@
         <v>0.67</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT70" t="n">
         <v>0.31</v>
@@ -14907,7 +14907,7 @@
         <v>3</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT71" t="n">
         <v>2.78</v>
@@ -15113,7 +15113,7 @@
         <v>1.91</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU72" t="n">
         <v>1.07</v>
@@ -17749,10 +17749,10 @@
         <v>0.25</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU85" t="n">
         <v>1.1</v>
@@ -17952,10 +17952,10 @@
         <v>2</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT86" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AU86" t="n">
         <v>1.01</v>
@@ -18767,7 +18767,7 @@
         <v>0.93</v>
       </c>
       <c r="AT90" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU90" t="n">
         <v>1.33</v>
@@ -18967,7 +18967,7 @@
         <v>0.75</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT91" t="n">
         <v>1.21</v>
@@ -20188,7 +20188,7 @@
         <v>1.58</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU97" t="n">
         <v>1.6</v>
@@ -20794,7 +20794,7 @@
         <v>0.4</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT100" t="n">
         <v>0.5</v>
@@ -21406,7 +21406,7 @@
         <v>2.45</v>
       </c>
       <c r="AT103" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU103" t="n">
         <v>1.68</v>
@@ -21812,7 +21812,7 @@
         <v>1.31</v>
       </c>
       <c r="AT105" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AU105" t="n">
         <v>1.57</v>
@@ -22215,7 +22215,7 @@
         <v>1</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT107" t="n">
         <v>1.08</v>
@@ -22621,7 +22621,7 @@
         <v>0.6</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT109" t="n">
         <v>1.21</v>
@@ -24045,7 +24045,7 @@
         <v>1.08</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU116" t="n">
         <v>1.42</v>
@@ -24245,7 +24245,7 @@
         <v>1.2</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT117" t="n">
         <v>1.09</v>
@@ -24854,7 +24854,7 @@
         <v>0.83</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT120" t="n">
         <v>1.09</v>
@@ -25060,7 +25060,7 @@
         <v>1.08</v>
       </c>
       <c r="AT121" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AU121" t="n">
         <v>1.04</v>
@@ -25463,7 +25463,7 @@
         <v>1</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT123" t="n">
         <v>1.33</v>
@@ -25872,7 +25872,7 @@
         <v>1.58</v>
       </c>
       <c r="AT125" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU125" t="n">
         <v>1.61</v>
@@ -26681,7 +26681,7 @@
         <v>0.86</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT129" t="n">
         <v>1.38</v>
@@ -27090,7 +27090,7 @@
         <v>1.92</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU131" t="n">
         <v>1.62</v>
@@ -29526,7 +29526,7 @@
         <v>1.91</v>
       </c>
       <c r="AT143" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AU143" t="n">
         <v>1.45</v>
@@ -29726,10 +29726,10 @@
         <v>1.29</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT144" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU144" t="n">
         <v>1.53</v>
@@ -29932,7 +29932,7 @@
         <v>1.46</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU145" t="n">
         <v>1.38</v>
@@ -30741,7 +30741,7 @@
         <v>1.5</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT149" t="n">
         <v>1.46</v>
@@ -31147,7 +31147,7 @@
         <v>1.38</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT151" t="n">
         <v>1.46</v>
@@ -31959,7 +31959,7 @@
         <v>0.44</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT155" t="n">
         <v>0.31</v>
@@ -32162,7 +32162,7 @@
         <v>0.88</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT156" t="n">
         <v>0.92</v>
@@ -32774,7 +32774,7 @@
         <v>1.91</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU159" t="n">
         <v>1.25</v>
@@ -33177,7 +33177,7 @@
         <v>1.63</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT161" t="n">
         <v>1.5</v>
@@ -33992,7 +33992,7 @@
         <v>0.92</v>
       </c>
       <c r="AT165" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU165" t="n">
         <v>1.3</v>
@@ -34398,7 +34398,7 @@
         <v>1.58</v>
       </c>
       <c r="AT167" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AU167" t="n">
         <v>1.62</v>
@@ -34804,7 +34804,7 @@
         <v>0.93</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU169" t="n">
         <v>1.41</v>
@@ -35207,7 +35207,7 @@
         <v>1.44</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT171" t="n">
         <v>1.33</v>
@@ -36019,7 +36019,7 @@
         <v>1.67</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT175" t="n">
         <v>1.21</v>
@@ -36834,7 +36834,7 @@
         <v>0.85</v>
       </c>
       <c r="AT179" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU179" t="n">
         <v>1.2</v>
@@ -37849,7 +37849,7 @@
         <v>1.08</v>
       </c>
       <c r="AT184" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AU184" t="n">
         <v>1.35</v>
@@ -38252,7 +38252,7 @@
         <v>1.5</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT186" t="n">
         <v>1.46</v>
@@ -39267,7 +39267,7 @@
         <v>1.18</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT191" t="n">
         <v>1.08</v>
@@ -40488,7 +40488,7 @@
         <v>2.33</v>
       </c>
       <c r="AT197" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU197" t="n">
         <v>1.6</v>
@@ -40894,7 +40894,7 @@
         <v>1.92</v>
       </c>
       <c r="AT199" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AU199" t="n">
         <v>1.64</v>
@@ -41097,7 +41097,7 @@
         <v>1.58</v>
       </c>
       <c r="AT200" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU200" t="n">
         <v>1.64</v>
@@ -42109,7 +42109,7 @@
         <v>1.45</v>
       </c>
       <c r="AS205" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT205" t="n">
         <v>1.33</v>
@@ -42518,7 +42518,7 @@
         <v>1.46</v>
       </c>
       <c r="AT207" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AU207" t="n">
         <v>1.44</v>
@@ -43936,7 +43936,7 @@
         <v>0.55</v>
       </c>
       <c r="AS214" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT214" t="n">
         <v>0.5</v>
@@ -44803,6 +44803,615 @@
       </c>
       <c r="BK218" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="n">
+        <v>4407850</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>45035.67708333334</v>
+      </c>
+      <c r="F219" t="n">
+        <v>26</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>National Bank of Egypt</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Haras El Hodood</t>
+        </is>
+      </c>
+      <c r="I219" t="n">
+        <v>1</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="n">
+        <v>0</v>
+      </c>
+      <c r="N219" t="n">
+        <v>1</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q219" t="n">
+        <v>5</v>
+      </c>
+      <c r="R219" t="n">
+        <v>7</v>
+      </c>
+      <c r="S219" t="n">
+        <v>12</v>
+      </c>
+      <c r="T219" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U219" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V219" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="W219" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X219" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y219" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z219" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA219" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB219" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC219" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD219" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE219" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AF219" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG219" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH219" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI219" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ219" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AK219" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL219" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM219" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN219" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO219" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP219" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ219" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AR219" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS219" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT219" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AU219" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV219" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW219" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AX219" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AY219" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ219" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BA219" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BB219" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BC219" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BD219" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BE219" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF219" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG219" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH219" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI219" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ219" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK219" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="n">
+        <v>4407851</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E220" s="2" t="n">
+        <v>45035.67708333334</v>
+      </c>
+      <c r="F220" t="n">
+        <v>26</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>El Geish</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Coca-Cola</t>
+        </is>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="n">
+        <v>0</v>
+      </c>
+      <c r="L220" t="n">
+        <v>0</v>
+      </c>
+      <c r="M220" t="n">
+        <v>0</v>
+      </c>
+      <c r="N220" t="n">
+        <v>0</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q220" t="n">
+        <v>3</v>
+      </c>
+      <c r="R220" t="n">
+        <v>6</v>
+      </c>
+      <c r="S220" t="n">
+        <v>9</v>
+      </c>
+      <c r="T220" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="U220" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V220" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="W220" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X220" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y220" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z220" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA220" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB220" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC220" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="AD220" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AE220" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AF220" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG220" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AH220" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI220" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ220" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AK220" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AL220" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AM220" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AN220" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO220" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP220" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ220" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AR220" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AS220" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AT220" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AU220" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV220" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW220" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX220" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AY220" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ220" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BA220" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB220" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BC220" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD220" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BE220" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG220" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH220" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI220" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ220" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK220" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="n">
+        <v>4407855</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>45035.67708333334</v>
+      </c>
+      <c r="F221" t="n">
+        <v>26</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>Pharco</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Ghazl El Mehalla</t>
+        </is>
+      </c>
+      <c r="I221" t="n">
+        <v>1</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="n">
+        <v>3</v>
+      </c>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="n">
+        <v>4</v>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>['42', '66', '70']</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="Q221" t="n">
+        <v>4</v>
+      </c>
+      <c r="R221" t="n">
+        <v>4</v>
+      </c>
+      <c r="S221" t="n">
+        <v>8</v>
+      </c>
+      <c r="T221" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="U221" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V221" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W221" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="X221" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Y221" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Z221" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA221" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB221" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC221" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD221" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AE221" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="AF221" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AG221" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH221" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI221" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AJ221" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AK221" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL221" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AM221" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AN221" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO221" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP221" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ221" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AR221" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS221" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT221" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AU221" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AV221" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW221" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AX221" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY221" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ221" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BA221" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB221" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC221" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD221" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BE221" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF221" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG221" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH221" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI221" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ221" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK221" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
